--- a/model_scores_table.xlsx
+++ b/model_scores_table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusmd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="66">
   <si>
     <t>Hospital 1</t>
   </si>
@@ -180,30 +180,58 @@
     <t>CODE UCD</t>
   </si>
   <si>
-    <t>index</t>
+    <t>-</t>
   </si>
   <si>
-    <t>ID_SITE_RATTACHE</t>
+    <t>HOSPI_4</t>
   </si>
   <si>
-    <t>CLUSTER</t>
+    <t>0</t>
   </si>
   <si>
-    <t>HOSPI_CODE_UCD</t>
+    <t>1</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>2</t>
   </si>
   <si>
-    <t>-</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.930785</t>
+  </si>
+  <si>
+    <t>0.763006</t>
+  </si>
+  <si>
+    <t>0.913005</t>
+  </si>
+  <si>
+    <t>0.882718</t>
+  </si>
+  <si>
+    <t>0.491023</t>
+  </si>
+  <si>
+    <t>0.850437</t>
+  </si>
+  <si>
+    <t>0.612353</t>
+  </si>
+  <si>
+    <t>0.877848</t>
+  </si>
+  <si>
+    <t>0.805669</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -254,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -710,17 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -813,9 +830,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,16 +903,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,12 +960,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,9 +999,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,43 +1023,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,16 +1080,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,30 +1109,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,11 +1135,70 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,7 +1216,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1207,16 +1248,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Forecasting</a:t>
+              <a:t>Test 1</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> per medicine</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1242,7 +1279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1268,7 +1305,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1449,7 +1488,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1630,7 +1671,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1811,7 +1854,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1992,7 +2037,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2165,11 +2212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-286682976"/>
-        <c:axId val="-286691680"/>
+        <c:axId val="1989395984"/>
+        <c:axId val="1989397072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-286682976"/>
+        <c:axId val="1989395984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,15 +2269,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286691680"/>
+        <c:crossAx val="1989397072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-286691680"/>
+        <c:axId val="1989397072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,10 +2331,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286682976"/>
+        <c:crossAx val="1989395984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2301,6 +2348,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2326,7 +2374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2356,7 +2404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2370,7 +2418,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2412,6 +2460,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2437,7 +2486,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2463,7 +2512,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2644,7 +2695,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2825,7 +2878,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2920,70 +2975,70 @@
             <c:numRef>
               <c:f>Scores!$E$151:$E$171</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.94454499999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.94454499999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.94454499999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,7 +3061,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3104,67 +3161,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.95653699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.95653699999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.95653699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,7 +3244,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3360,11 +3419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-286692224"/>
-        <c:axId val="-286690592"/>
+        <c:axId val="1989401424"/>
+        <c:axId val="2054198896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-286692224"/>
+        <c:axId val="1989401424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,15 +3476,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286690592"/>
+        <c:crossAx val="2054198896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-286690592"/>
+        <c:axId val="2054198896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,10 +3538,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286692224"/>
+        <c:crossAx val="1989401424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3496,6 +3555,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3521,7 +3581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3551,7 +3611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3565,7 +3625,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3607,6 +3667,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3632,7 +3693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3658,7 +3719,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3839,7 +3902,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4012,11 +4077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-286687872"/>
-        <c:axId val="-286686784"/>
+        <c:axId val="2054192912"/>
+        <c:axId val="2054203792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-286687872"/>
+        <c:axId val="2054192912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,15 +4134,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286686784"/>
+        <c:crossAx val="2054203792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-286686784"/>
+        <c:axId val="2054203792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,10 +4196,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286687872"/>
+        <c:crossAx val="2054192912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4148,6 +4213,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4173,7 +4239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4203,7 +4269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4217,7 +4283,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4259,6 +4325,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4284,7 +4351,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4310,7 +4377,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4491,7 +4560,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4672,7 +4743,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4770,67 +4843,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.99655700000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.94454499999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.94454499999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.94454499999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.94282500000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.983101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,7 +4926,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4951,67 +5026,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98271960514234302</c:v>
+                  <c:v>0.98288200000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.95653699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.95653699999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97900975659721801</c:v>
+                  <c:v>0.95653699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93461905705690396</c:v>
+                  <c:v>0.82506000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96666858756792096</c:v>
+                  <c:v>0.86749699999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5034,7 +5109,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5207,11 +5284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-286690048"/>
-        <c:axId val="-286689504"/>
+        <c:axId val="2054197808"/>
+        <c:axId val="2054198352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-286690048"/>
+        <c:axId val="2054197808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5264,15 +5341,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286689504"/>
+        <c:crossAx val="2054198352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-286689504"/>
+        <c:axId val="2054198352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000011"/>
@@ -5327,10 +5404,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-286690048"/>
+        <c:crossAx val="2054197808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5344,6 +5421,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5369,7 +5447,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5399,7 +5477,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7768,9 +7846,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7808,7 +7886,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7880,7 +7958,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8030,1606 +8108,1606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y217"/>
+  <dimension ref="A1:Y243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54:Y74"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="F243" sqref="A220:F243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="13.6640625" customWidth="1"/>
+    <col min="3" max="25" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102" t="s">
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102" t="s">
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102" t="s">
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="102"/>
-      <c r="T1" s="103"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="99"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="65" t="s">
+      <c r="S1" s="106"/>
+      <c r="T1" s="107"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="103"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="65" t="s">
+      <c r="S2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="66" t="s">
+      <c r="T2" s="63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="56">
         <v>0.48866488772239403</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>241.27164321315001</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="57">
         <v>187.39988179735201</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="56">
         <v>0.62463139188796002</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="54">
         <v>244.285724392633</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="57">
         <v>174.90211987911701</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="56">
         <v>0.31493194760403798</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="54">
         <v>334.99519442034602</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="57">
         <v>245.17300629764401</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="56">
         <v>0.189398494153623</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="54">
         <v>1727.9523691326201</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="57">
         <v>1321.7336111111099</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="58">
         <f t="shared" ref="O3:O23" si="0">AVERAGE(C3,F3,I3,L3)</f>
         <v>0.40440668034200378</v>
       </c>
-      <c r="P3" s="62">
+      <c r="P3" s="59">
         <f t="shared" ref="P3:P23" si="1">AVERAGE(D3,G3,J3,M3)</f>
         <v>637.12623278968726</v>
       </c>
-      <c r="Q3" s="63">
+      <c r="Q3" s="60">
         <f t="shared" ref="Q3:Q23" si="2">AVERAGE(E3,H3,K3,N3)</f>
         <v>482.30215477130571</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="54">
         <v>0.89673257438037701</v>
       </c>
-      <c r="S3" s="56">
+      <c r="S3" s="54">
         <v>625.37428652338497</v>
       </c>
-      <c r="T3" s="64">
+      <c r="T3" s="61">
         <v>365.49528357946002</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="50">
         <v>0.41555513882862199</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="44">
         <v>126.11789697976</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="51">
         <v>96.266839550001094</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="50">
         <v>0.238648046514081</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="44">
         <v>200.226070631748</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="51">
         <v>160.74201211427001</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="50">
         <v>0.238648046514081</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="44">
         <v>200.226070631748</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="51">
         <v>160.74201211427001</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="50">
         <v>0.406658240065006</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="44">
         <v>919.33915572865806</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="51">
         <v>727.44500790875702</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="52">
         <f t="shared" si="0"/>
         <v>0.32487736798044753</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="43">
         <f t="shared" si="1"/>
         <v>361.47729849297855</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4" s="53">
         <f t="shared" si="2"/>
         <v>286.29896792182456</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="44">
         <v>0.97606766609036</v>
       </c>
-      <c r="S4" s="46">
+      <c r="S4" s="44">
         <v>483.22515579241701</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4" s="48">
         <v>302.93239898989799</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="43">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="56">
         <v>0.26183684540528002</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="54">
         <v>145.70016374962199</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="57">
         <v>114.523333333333</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="56">
         <v>0.26706879737985101</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="54">
         <v>428.57811597460199</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="57">
         <v>335.08306409598998</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="56">
         <v>0.26706879737985101</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="54">
         <v>428.57811597460199</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="57">
         <v>335.08306409598998</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="56">
         <v>0.194660608224937</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="54">
         <v>1117.6951572416599</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="57">
         <v>887.26449938949895</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="50">
         <f t="shared" si="0"/>
         <v>0.24765876209747978</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="44">
         <f t="shared" si="1"/>
         <v>530.13788823512141</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="51">
         <f t="shared" si="2"/>
         <v>417.98849022870297</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="43">
         <v>0.96067444010105896</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="43">
         <v>622.677828796634</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="45">
         <v>426.05783046193397</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="50">
         <v>0.20379422849967399</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="44">
         <v>276.61021123863497</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="51">
         <v>225.91388888888801</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="50">
         <v>0.57771687604219002</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="44">
         <v>1317.0558991686501</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <v>890.12593794113297</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="50">
         <v>0.57771687604219002</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="44">
         <v>1317.0558991686501</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="51">
         <v>890.12593794113297</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="50">
         <v>0.28563437862535102</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="44">
         <v>1912.6229230290701</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="51">
         <v>1482.76233880572</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="52">
         <f t="shared" si="0"/>
         <v>0.41121558980235129</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="43">
         <f t="shared" si="1"/>
         <v>1205.8362331512512</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="53">
         <f t="shared" si="2"/>
         <v>872.23202589421851</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="44">
         <v>0.969961964812877</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6" s="44">
         <v>1055.8612570724099</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="48">
         <v>674.07495705299004</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="56">
         <v>0.178055173028486</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="54">
         <v>320.18412215049699</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="57">
         <v>221.021266261856</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="56">
         <v>0.36685937504796001</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="54">
         <v>181.41990587448399</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="57">
         <v>146.49261490273099</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="56">
         <v>0.36685937504796001</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="54">
         <v>181.41990587448399</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="57">
         <v>146.49261490273099</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="56">
         <v>0.23673454380431999</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="54">
         <v>1202.4036328065899</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="57">
         <v>870.92175960004897</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="50">
         <f t="shared" si="0"/>
         <v>0.2871271167321815</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="44">
         <f t="shared" si="1"/>
         <v>471.35689167651373</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="51">
         <f t="shared" si="2"/>
         <v>346.23206391684175</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="43">
         <v>0.97019149720919096</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="43">
         <v>484.04112219257303</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="45">
         <v>283.83873827717298</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="48">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="50">
         <v>0.31627063283851597</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="44">
         <v>3869.1694398214599</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <v>2838.1681182180901</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="50">
         <v>0.56078619720995204</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="44">
         <v>7037.30956480434</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>5172.4521043069199</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="50">
         <v>0.56078619720995204</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="44">
         <v>7037.30956480434</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="51">
         <v>5172.4521043069199</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="50">
         <v>0.62378754703420403</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="44">
         <v>14714.8587089756</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="51">
         <v>9855.76664829943</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="52">
         <f t="shared" si="0"/>
         <v>0.51540764357315605</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="43">
         <f t="shared" si="1"/>
         <v>8164.6618196014351</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8" s="53">
         <f t="shared" si="2"/>
         <v>5759.7097437828397</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="44">
         <v>0.98211027260174699</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="44">
         <v>8027.4687317589096</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="48">
         <v>4902.4837250844002</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="56">
         <v>0.47360014350278701</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="54">
         <v>380.87976367213003</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="57">
         <v>267.45232667732603</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="56">
         <v>0.65670073149932495</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="54">
         <v>185.92600314577601</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="57">
         <v>139.87198275833799</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="56">
         <v>0.65670073149932495</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="54">
         <v>185.92600314577601</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="57">
         <v>139.87198275833799</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="56">
         <v>0.52496422271712295</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="54">
         <v>788.35070367565402</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9" s="57">
         <v>634.25691087682105</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="50">
         <f t="shared" si="0"/>
         <v>0.57799145730463997</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="44">
         <f t="shared" si="1"/>
         <v>385.27061840983401</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="51">
         <f t="shared" si="2"/>
         <v>295.36330076770577</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="43">
         <v>0.94252609999179804</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="43">
         <v>560.24696840559</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="45">
         <v>410.79378361539699</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="48">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="50">
         <v>0.55686438369504399</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="44">
         <v>193.51355255514</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="51">
         <v>153.77561559472201</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="50">
         <v>0.26662760879654102</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="44">
         <v>313.61322779413803</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="51">
         <v>249.188357936507</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="50">
         <v>0.26662760879654102</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="44">
         <v>313.61322779413803</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="51">
         <v>249.188357936507</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="50">
         <v>0.199798581955272</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="44">
         <v>1243.44885537852</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="51">
         <v>1048.68231196581</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="52">
         <f t="shared" si="0"/>
         <v>0.32247954581084948</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="43">
         <f t="shared" si="1"/>
         <v>516.04721588048403</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="53">
         <f t="shared" si="2"/>
         <v>425.20866085838651</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="44">
         <v>0.93526938075717403</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10" s="44">
         <v>550.30550062196698</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="48">
         <v>365.50322183818099</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="56">
         <v>0.42385789115127598</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="54">
         <v>568.66378895866603</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="57">
         <v>384.747122559979</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="56">
         <v>0.54167569726937204</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="54">
         <v>287.59694113288799</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="57">
         <v>243.31959833785399</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="56">
         <v>0.54167569726937204</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="54">
         <v>287.59694113288799</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="57">
         <v>243.31959833785399</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="56">
         <v>0.45551054888602999</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="54">
         <v>1990.8382179067401</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11" s="57">
         <v>1465.35399630092</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="50">
         <f t="shared" si="0"/>
         <v>0.49067995864401254</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="44">
         <f t="shared" si="1"/>
         <v>783.6739722827956</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="Q11" s="51">
         <f t="shared" si="2"/>
         <v>584.18507888415172</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="43">
         <v>0.95752826514051503</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="43">
         <v>1125.2917201509899</v>
       </c>
-      <c r="T11" s="47">
+      <c r="T11" s="45">
         <v>694.36710800469905</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="48">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
         <v>10</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="50">
         <v>0.54615863222193395</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="44">
         <v>145.389770120408</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="51">
         <v>96.726756602524503</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="50">
         <v>0.62596973563760205</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="44">
         <v>236.30576472629099</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="51">
         <v>189.849465077876</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="50">
         <v>0.62596973563760205</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="44">
         <v>236.30576472629099</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="51">
         <v>189.849465077876</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="50">
         <v>0.15844026062384201</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="44">
         <v>1840.2272661955701</v>
       </c>
-      <c r="N12" s="53">
+      <c r="N12" s="51">
         <v>1425.51687854485</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="52">
         <f t="shared" si="0"/>
         <v>0.48913459103024498</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="43">
         <f t="shared" si="1"/>
         <v>614.55714144214005</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="53">
         <f t="shared" si="2"/>
         <v>475.48564132578161</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="44">
         <v>0.98490779934607098</v>
       </c>
-      <c r="S12" s="46">
+      <c r="S12" s="44">
         <v>760.19705700145096</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="48">
         <v>391.57013023335901</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="56">
         <v>0.88262549258256096</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="54">
         <v>217.514990615626</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="57">
         <v>180.140853828948</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="56">
         <v>0.15570900250376299</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="54">
         <v>121.098540123688</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="57">
         <v>90.542206327346094</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="56">
         <v>0.15570900250376299</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="54">
         <v>121.098540123688</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="57">
         <v>90.542206327346094</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="56">
         <v>0.55879728017123398</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="54">
         <v>854.54695885393096</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="57">
         <v>661.69356447124198</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="50">
         <f t="shared" si="0"/>
         <v>0.43821019444033027</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="44">
         <f t="shared" si="1"/>
         <v>328.56475742923323</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="51">
         <f t="shared" si="2"/>
         <v>255.72970773872055</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="43">
         <v>0.94189770646876803</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="43">
         <v>535.09922964721898</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="45">
         <v>335.57996257505903</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="48">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
         <v>12</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="50">
         <v>0.62612208652065604</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="44">
         <v>805.62111309984505</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="51">
         <v>596.15325494241699</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="50">
         <v>0.54056426263971402</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="44">
         <v>2120.0431594663301</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="51">
         <v>1673.164</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="50">
         <v>0.54056426263971402</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="44">
         <v>2120.0431594663301</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="51">
         <v>1673.164</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="50">
         <v>0.60555441958994505</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="44">
         <v>1702.68164359189</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="51">
         <v>1404.9918837115199</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="52">
         <f t="shared" si="0"/>
         <v>0.57820125784750731</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="43">
         <f t="shared" si="1"/>
         <v>1687.0972689060986</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="53">
         <f t="shared" si="2"/>
         <v>1336.8682846634842</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="44">
         <v>0.93958628922505505</v>
       </c>
-      <c r="S14" s="46">
+      <c r="S14" s="44">
         <v>1453.29466981888</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="48">
         <v>1107.42179309995</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
         <v>13</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="56">
         <v>0.558277559214582</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="54">
         <v>189.684339741</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="57">
         <v>148.474091893842</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="56">
         <v>0.49661708637555102</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="54">
         <v>148.987157027656</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="57">
         <v>115.61809523809499</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="56">
         <v>0.49661708637555102</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="54">
         <v>148.987157027656</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="57">
         <v>115.61809523809499</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="56">
         <v>0.26034583761511398</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="54">
         <v>917.18790310647398</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="57">
         <v>749.51135531135503</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="50">
         <f t="shared" si="0"/>
         <v>0.45296439239519948</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="44">
         <f t="shared" si="1"/>
         <v>351.2116392256965</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="51">
         <f t="shared" si="2"/>
         <v>282.30540942034679</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="43">
         <v>0.96688238181284802</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="43">
         <v>502.382754051625</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="45">
         <v>330.88958040848001</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="48">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
         <v>14</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="50">
         <v>0.38009276666556302</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="44">
         <v>577.72803540689097</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>421.27076962906301</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="50">
         <v>0.71904002931878297</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="44">
         <v>318.395042381819</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="51">
         <v>262.90422101113103</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="50">
         <v>0.71904002931878297</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="44">
         <v>318.395042381819</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="51">
         <v>262.90422101113103</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="50">
         <v>6.9145041682243197E-2</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="44">
         <v>2747.8931379734599</v>
       </c>
-      <c r="N16" s="53">
+      <c r="N16" s="51">
         <v>2060.7694187391498</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="52">
         <f t="shared" si="0"/>
         <v>0.47182946674634307</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="43">
         <f t="shared" si="1"/>
         <v>990.60281453599714</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16" s="53">
         <f t="shared" si="2"/>
         <v>751.96215759761867</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="44">
         <v>0.96250913623958501</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16" s="44">
         <v>1092.06345272676</v>
       </c>
-      <c r="T16" s="50">
+      <c r="T16" s="48">
         <v>663.52081098001702</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
         <v>15</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="56">
         <v>0.659300874404537</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="54">
         <v>695.55429807694895</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="57">
         <v>493.04013417129602</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="56">
         <v>0.61268122286517901</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="54">
         <v>431.28050150801897</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="57">
         <v>346.84090323877001</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="56">
         <v>0.61268122286517901</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="54">
         <v>431.28050150801897</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="57">
         <v>346.84090323877001</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="56">
         <v>0.172010294795888</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="54">
         <v>2447.9991018043302</v>
       </c>
-      <c r="N17" s="55">
+      <c r="N17" s="57">
         <v>1885.2983181401901</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="50">
         <f t="shared" si="0"/>
         <v>0.51416840373269579</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="44">
         <f t="shared" si="1"/>
         <v>1001.5286007243292</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="51">
         <f t="shared" si="2"/>
         <v>768.00506469725656</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="43">
         <v>0.95482001778736603</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="43">
         <v>933.33142477635295</v>
       </c>
-      <c r="T17" s="47">
+      <c r="T17" s="45">
         <v>540.92787024216</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="48">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
         <v>16</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="50">
         <v>0.34694346645246699</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="44">
         <v>173.31017512486</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="51">
         <v>133.64406825396799</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="50">
         <v>0.218488422710577</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="44">
         <v>226.60193440088699</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="51">
         <v>182.37511502094301</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="50">
         <v>0.218488422710577</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="44">
         <v>226.60193440088699</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="51">
         <v>182.37511502094301</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="50">
         <v>0.433547180464675</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="44">
         <v>1007.45340718695</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="51">
         <v>767.45131281421902</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="52">
         <f t="shared" si="0"/>
         <v>0.304366873084574</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="43">
         <f t="shared" si="1"/>
         <v>408.49186277839601</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="53">
         <f t="shared" si="2"/>
         <v>316.46140277751829</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="44">
         <v>0.98746041464584999</v>
       </c>
-      <c r="S18" s="46">
+      <c r="S18" s="44">
         <v>537.93315557870994</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18" s="48">
         <v>295.38904705849001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
         <v>17</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="56">
         <v>0.62577954367063504</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="54">
         <v>915.62016360809105</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="57">
         <v>707.50863079492206</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="56">
         <v>0.62039147453478305</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="54">
         <v>655.41389869542195</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="57">
         <v>467.34594434889402</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="56">
         <v>0.62039147453478305</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="54">
         <v>655.41389869542195</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="57">
         <v>467.34594434889402</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="56">
         <v>0.19778729353844801</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="54">
         <v>1237.22971293061</v>
       </c>
-      <c r="N19" s="55">
+      <c r="N19" s="57">
         <v>902.43724076849105</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="50">
         <f t="shared" si="0"/>
         <v>0.51608744656966232</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="44">
         <f t="shared" si="1"/>
         <v>865.91941848238616</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="51">
         <f t="shared" si="2"/>
         <v>636.15944006530026</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="43">
         <v>0.98711358683089201</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="43">
         <v>1089.9487576951799</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="45">
         <v>784.05399558011004</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="48">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
         <v>18</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="50">
         <v>0.54020414234529801</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="44">
         <v>243.869858362922</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="51">
         <v>178.47210134871301</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="50">
         <v>0.56622380133780703</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="44">
         <v>425.872928952275</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="51">
         <v>326.721919657135</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="50">
         <v>0.56622380133780703</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="44">
         <v>425.872928952275</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="51">
         <v>326.721919657135</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="50">
         <v>0.552083606058409</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="44">
         <v>677.18902391608901</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="51">
         <v>450.37692307692299</v>
       </c>
-      <c r="O20" s="54">
+      <c r="O20" s="52">
         <f t="shared" si="0"/>
         <v>0.55618383776983027</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="43">
         <f t="shared" si="1"/>
         <v>443.20118504589027</v>
       </c>
-      <c r="Q20" s="55">
+      <c r="Q20" s="53">
         <f t="shared" si="2"/>
         <v>320.57321593497653</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="44">
         <v>0.94945910240467002</v>
       </c>
-      <c r="S20" s="46">
+      <c r="S20" s="44">
         <v>393.41616807293099</v>
       </c>
-      <c r="T20" s="50">
+      <c r="T20" s="48">
         <v>285.959635859863</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
         <v>19</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="56">
         <v>0.51733687282687502</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="54">
         <v>127.176518511023</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="57">
         <v>95.705491836329003</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="56">
         <v>0.24569260537965801</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="54">
         <v>895.71332025230697</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="57">
         <v>713.48228351721502</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="56">
         <v>0.24569260537965801</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="54">
         <v>895.71332025230697</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="57">
         <v>713.48228351721502</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="56">
         <v>0.29130271712075401</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="54">
         <v>1140.1226379730699</v>
       </c>
-      <c r="N21" s="55">
+      <c r="N21" s="57">
         <v>936.84256410256398</v>
       </c>
-      <c r="O21" s="52">
+      <c r="O21" s="50">
         <f t="shared" si="0"/>
         <v>0.32500620017673626</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="44">
         <f t="shared" si="1"/>
         <v>764.68144924717672</v>
       </c>
-      <c r="Q21" s="53">
+      <c r="Q21" s="51">
         <f t="shared" si="2"/>
         <v>614.87815574333081</v>
       </c>
-      <c r="R21" s="45">
+      <c r="R21" s="43">
         <v>0.98256751448925395</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="43">
         <v>1188.8760181107</v>
       </c>
-      <c r="T21" s="47">
+      <c r="T21" s="45">
         <v>754.13046464646402</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="48">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
         <v>20</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="50">
         <v>0.73721972655900103</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="44">
         <v>2337.1341994751401</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="51">
         <v>1671.6324317460301</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="50">
         <v>0.63219520524916395</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="44">
         <v>479.38290195453499</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="51">
         <v>352.03120857131501</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="50">
         <v>0.63219520524916395</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="44">
         <v>479.38290195453499</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="51">
         <v>352.03120857131501</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="50">
         <v>0.36155262721276898</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="44">
         <v>3803.1002578479802</v>
       </c>
-      <c r="N22" s="53">
+      <c r="N22" s="51">
         <v>2847.47949675678</v>
       </c>
-      <c r="O22" s="54">
+      <c r="O22" s="52">
         <f t="shared" si="0"/>
         <v>0.59079069106752446</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="43">
         <f t="shared" si="1"/>
         <v>1774.7500653080476</v>
       </c>
-      <c r="Q22" s="55">
+      <c r="Q22" s="53">
         <f t="shared" si="2"/>
         <v>1305.7935864113601</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="44">
         <v>0.94683112711681505</v>
       </c>
-      <c r="S22" s="46">
+      <c r="S22" s="44">
         <v>1902.93836173663</v>
       </c>
-      <c r="T22" s="50">
+      <c r="T22" s="48">
         <v>1185.46945986374</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="67">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
         <v>21</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="56">
         <v>0.59688701820077605</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="54">
         <v>515.32928344405695</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="57">
         <v>404.25434025785</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="56">
         <v>0.64900804423980696</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="54">
         <v>15.730075941733499</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="57">
         <v>10.5883902506566</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="56">
         <v>0.64900804423980696</v>
       </c>
-      <c r="J23" s="70">
+      <c r="J23" s="54">
         <v>15.730075941733499</v>
       </c>
-      <c r="K23" s="71">
+      <c r="K23" s="57">
         <v>10.5883902506566</v>
       </c>
-      <c r="L23" s="69">
+      <c r="L23" s="56">
         <v>0.26259810133266298</v>
       </c>
-      <c r="M23" s="70">
+      <c r="M23" s="54">
         <v>984.79781157979005</v>
       </c>
-      <c r="N23" s="71">
+      <c r="N23" s="57">
         <v>791.45507312891198</v>
       </c>
-      <c r="O23" s="72">
+      <c r="O23" s="65">
         <f t="shared" si="0"/>
         <v>0.53937530200326322</v>
       </c>
-      <c r="P23" s="73">
+      <c r="P23" s="66">
         <f t="shared" si="1"/>
         <v>382.8968117268285</v>
       </c>
-      <c r="Q23" s="74">
+      <c r="Q23" s="67">
         <f t="shared" si="2"/>
         <v>304.22154847201875</v>
       </c>
-      <c r="R23" s="70">
+      <c r="R23" s="64">
         <v>0.94329954408796901</v>
       </c>
-      <c r="S23" s="70">
+      <c r="S23" s="64">
         <v>637.19755866938306</v>
       </c>
-      <c r="T23" s="75">
+      <c r="T23" s="68">
         <v>441.85789379238003</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="100" t="s">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="51">
+      <c r="B24" s="105"/>
+      <c r="C24" s="49">
         <f>AVERAGE(C3:C23)</f>
         <v>0.49216416696842685</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="49">
         <f t="shared" ref="D24:E24" si="3">AVERAGE(D3:D23)</f>
         <v>622.19253942504145</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="49">
         <f t="shared" si="3"/>
         <v>457.91863419940239</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="49">
         <f>AVERAGE(F3:F23)</f>
         <v>0.48491883878283903</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="49">
         <f t="shared" ref="G24" si="4">AVERAGE(G3:G23)</f>
         <v>774.80174658810574</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="49">
         <f t="shared" ref="H24" si="5">AVERAGE(H3:H23)</f>
         <v>583.03054973963026</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="49">
         <f>AVERAGE(I3:I23)</f>
         <v>0.47017124619789041</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="49">
         <f t="shared" ref="J24" si="6">AVERAGE(J3:J23)</f>
         <v>779.12124516085407</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="49">
         <f t="shared" ref="K24" si="7">AVERAGE(K3:K23)</f>
         <v>586.37678242622667</v>
       </c>
-      <c r="L24" s="51">
+      <c r="L24" s="49">
         <f>AVERAGE(L3:L23)</f>
         <v>0.33525294407961193</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="49">
         <f t="shared" ref="M24" si="8">AVERAGE(M3:M23)</f>
         <v>2141.806599373107</v>
       </c>
-      <c r="N24" s="51">
+      <c r="N24" s="49">
         <f t="shared" ref="N24" si="9">AVERAGE(N3:N23)</f>
         <v>1579.9052911344909</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="49">
         <f>AVERAGE(O3:O23)</f>
         <v>0.44562679900719215</v>
       </c>
-      <c r="P24" s="51">
+      <c r="P24" s="49">
         <f t="shared" ref="P24" si="10">AVERAGE(P3:P23)</f>
         <v>1079.4805326367768</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="49">
         <f t="shared" ref="Q24" si="11">AVERAGE(Q3:Q23)</f>
         <v>801.80781437493772</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="49">
         <f>AVERAGE(R3:R23)</f>
         <v>0.95897127531144022</v>
       </c>
-      <c r="S24" s="51">
+      <c r="S24" s="49">
         <f t="shared" ref="S24" si="12">AVERAGE(S3:S23)</f>
         <v>1169.5795799619382</v>
       </c>
-      <c r="T24" s="76">
+      <c r="T24" s="69">
         <f t="shared" ref="T24" si="13">AVERAGE(T3:T23)</f>
         <v>740.11036624972382</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="94" t="s">
+    <row r="25" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="92" t="s">
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="92" t="s">
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="92" t="s">
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="92" t="s">
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
       <c r="V27" s="18"/>
-      <c r="W27" s="93" t="s">
+      <c r="W27" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="97"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="90"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -9700,7 +9778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -9734,38 +9812,42 @@
       <c r="K29" s="20">
         <v>0</v>
       </c>
-      <c r="L29" s="11">
-        <v>0.98271960514234302</v>
-      </c>
-      <c r="M29" s="11">
-        <v>3578.3508307551901</v>
-      </c>
-      <c r="N29" s="12">
-        <v>1863.9171386276901</v>
+      <c r="L29" s="110">
+        <v>0.99655700000000003</v>
+      </c>
+      <c r="M29" s="110">
+        <v>2409.3988260000001</v>
+      </c>
+      <c r="N29" s="111">
+        <v>1387.4328</v>
       </c>
       <c r="O29" s="20">
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B29,Plan2!$D$1:$D$21,0),1)</f>
         <v>0</v>
       </c>
       <c r="P29" s="11">
-        <v>0.98271960514234302</v>
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B29,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.98288200000000003</v>
       </c>
       <c r="Q29" s="11">
-        <v>3578.3508307551901</v>
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B29,Plan2!$D$1:$D$21,0),4)</f>
+        <v>10732.517977</v>
       </c>
       <c r="R29" s="12">
-        <v>1863.9171386276901</v>
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B29,Plan2!$D$1:$D$21,0),5)</f>
+        <v>5800.2363530000002</v>
       </c>
       <c r="S29" s="11">
         <f t="shared" ref="S29:S49" si="14">AVERAGE(D29,H29,L29,P29)</f>
-        <v>0.97996365756053994</v>
+        <v>0.98346360498936858</v>
       </c>
       <c r="T29" s="11">
         <f t="shared" ref="T29:T49" si="15">AVERAGE(E29,I29,M29,Q29)</f>
-        <v>3623.1097320469753</v>
+        <v>5119.4135174193798</v>
       </c>
       <c r="U29" s="13">
         <f t="shared" ref="U29:U49" si="16">AVERAGE(F29,J29,N29,R29)</f>
-        <v>1701.6329969345052</v>
+        <v>2566.5917158706602</v>
       </c>
       <c r="V29" s="20">
         <v>0</v>
@@ -9780,7 +9862,7 @@
         <v>2489.7113663622999</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -9814,38 +9896,42 @@
       <c r="K30" s="21">
         <v>0</v>
       </c>
-      <c r="L30" s="8">
-        <v>0.98271960514234302</v>
-      </c>
-      <c r="M30" s="8">
-        <v>3578.3508307551901</v>
-      </c>
-      <c r="N30" s="9">
-        <v>1863.9171386276901</v>
-      </c>
-      <c r="O30" s="21">
+      <c r="L30" s="112">
+        <v>0.99655700000000003</v>
+      </c>
+      <c r="M30" s="112">
+        <v>2409.3988260000001</v>
+      </c>
+      <c r="N30" s="113">
+        <v>1387.4328</v>
+      </c>
+      <c r="O30" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B30,Plan2!$D$1:$D$21,0),1)</f>
         <v>0</v>
       </c>
       <c r="P30" s="8">
-        <v>0.98271960514234302</v>
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B30,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.98288200000000003</v>
       </c>
       <c r="Q30" s="8">
-        <v>3578.3508307551901</v>
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B30,Plan2!$D$1:$D$21,0),4)</f>
+        <v>10732.517977</v>
       </c>
       <c r="R30" s="9">
-        <v>1863.9171386276901</v>
+        <f>INDEX(Plan2!$C$1:$G$2,MATCH(Scores!$B30,Plan2!$D$1:$D$21,0),5)</f>
+        <v>5800.2363530000002</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="14"/>
-        <v>0.97996365756053994</v>
+        <v>0.98346360498936858</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="15"/>
-        <v>3623.1097320469753</v>
+        <v>5119.4135174193798</v>
       </c>
       <c r="U30" s="10">
         <f t="shared" si="16"/>
-        <v>1701.6329969345052</v>
+        <v>2566.5917158706602</v>
       </c>
       <c r="V30" s="21">
         <v>0</v>
@@ -9860,7 +9946,7 @@
         <v>2489.7113663622999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3</v>
       </c>
@@ -9894,38 +9980,42 @@
       <c r="K31" s="20">
         <v>0</v>
       </c>
-      <c r="L31" s="11">
-        <v>0.98271960514234302</v>
-      </c>
-      <c r="M31" s="11">
-        <v>3578.3508307551901</v>
-      </c>
-      <c r="N31" s="12">
-        <v>1863.9171386276901</v>
-      </c>
-      <c r="O31" s="20">
+      <c r="L31" s="110">
+        <v>0.99655700000000003</v>
+      </c>
+      <c r="M31" s="110">
+        <v>2409.3988260000001</v>
+      </c>
+      <c r="N31" s="111">
+        <v>1387.4328</v>
+      </c>
+      <c r="O31" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B31,Plan2!$D$1:$D$21,0),1)</f>
         <v>0</v>
       </c>
       <c r="P31" s="11">
-        <v>0.98271960514234302</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B31,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.98288200000000003</v>
       </c>
       <c r="Q31" s="11">
-        <v>3578.3508307551901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B31,Plan2!$D$1:$D$21,0),4)</f>
+        <v>10732.517977</v>
       </c>
       <c r="R31" s="12">
-        <v>1863.9171386276901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B31,Plan2!$D$1:$D$21,0),5)</f>
+        <v>5800.2363530000002</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="14"/>
-        <v>0.97996365756053994</v>
+        <v>0.98346360498936858</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="15"/>
-        <v>3623.1097320469753</v>
+        <v>5119.4135174193798</v>
       </c>
       <c r="U31" s="10">
         <f t="shared" si="16"/>
-        <v>1701.6329969345052</v>
+        <v>2566.5917158706602</v>
       </c>
       <c r="V31" s="20">
         <v>0</v>
@@ -9940,7 +10030,7 @@
         <v>2489.7113663622999</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -9974,38 +10064,42 @@
       <c r="K32" s="21">
         <v>0</v>
       </c>
-      <c r="L32" s="8">
-        <v>0.98271960514234302</v>
-      </c>
-      <c r="M32" s="8">
-        <v>3578.3508307551901</v>
-      </c>
-      <c r="N32" s="9">
-        <v>1863.9171386276901</v>
-      </c>
-      <c r="O32" s="21">
+      <c r="L32" s="112">
+        <v>0.99655700000000003</v>
+      </c>
+      <c r="M32" s="112">
+        <v>2409.3988260000001</v>
+      </c>
+      <c r="N32" s="113">
+        <v>1387.4328</v>
+      </c>
+      <c r="O32" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B32,Plan2!$D$1:$D$21,0),1)</f>
         <v>0</v>
       </c>
       <c r="P32" s="8">
-        <v>0.98271960514234302</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B32,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.98288200000000003</v>
       </c>
       <c r="Q32" s="8">
-        <v>3578.3508307551901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B32,Plan2!$D$1:$D$21,0),4)</f>
+        <v>10732.517977</v>
       </c>
       <c r="R32" s="9">
-        <v>1863.9171386276901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B32,Plan2!$D$1:$D$21,0),5)</f>
+        <v>5800.2363530000002</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="14"/>
-        <v>0.97996365756053994</v>
+        <v>0.98346360498936858</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="15"/>
-        <v>3623.1097320469753</v>
+        <v>5119.4135174193798</v>
       </c>
       <c r="U32" s="10">
         <f t="shared" si="16"/>
-        <v>1701.6329969345052</v>
+        <v>2566.5917158706602</v>
       </c>
       <c r="V32" s="21">
         <v>0</v>
@@ -10020,7 +10114,7 @@
         <v>2489.7113663622999</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>5</v>
       </c>
@@ -10054,38 +10148,42 @@
       <c r="K33" s="20">
         <v>0</v>
       </c>
-      <c r="L33" s="11">
-        <v>0.98271960514234302</v>
-      </c>
-      <c r="M33" s="11">
-        <v>3578.3508307551901</v>
-      </c>
-      <c r="N33" s="12">
-        <v>1863.9171386276901</v>
-      </c>
-      <c r="O33" s="20">
+      <c r="L33" s="110">
+        <v>0.99655700000000003</v>
+      </c>
+      <c r="M33" s="110">
+        <v>2409.3988260000001</v>
+      </c>
+      <c r="N33" s="111">
+        <v>1387.4328</v>
+      </c>
+      <c r="O33" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B33,Plan2!$D$1:$D$21,0),1)</f>
         <v>0</v>
       </c>
       <c r="P33" s="11">
-        <v>0.98271960514234302</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B33,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.98288200000000003</v>
       </c>
       <c r="Q33" s="11">
-        <v>3578.3508307551901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B33,Plan2!$D$1:$D$21,0),4)</f>
+        <v>10732.517977</v>
       </c>
       <c r="R33" s="12">
-        <v>1863.9171386276901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B33,Plan2!$D$1:$D$21,0),5)</f>
+        <v>5800.2363530000002</v>
       </c>
       <c r="S33" s="11">
         <f t="shared" si="14"/>
-        <v>0.97996365756053994</v>
+        <v>0.98346360498936858</v>
       </c>
       <c r="T33" s="11">
         <f t="shared" si="15"/>
-        <v>3623.1097320469753</v>
+        <v>5119.4135174193798</v>
       </c>
       <c r="U33" s="13">
         <f t="shared" si="16"/>
-        <v>1701.6329969345052</v>
+        <v>2566.5917158706602</v>
       </c>
       <c r="V33" s="20">
         <v>0</v>
@@ -10100,7 +10198,7 @@
         <v>2489.7113663622999</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>6</v>
       </c>
@@ -10134,38 +10232,42 @@
       <c r="K34" s="21">
         <v>0</v>
       </c>
-      <c r="L34" s="8">
-        <v>0.98271960514234302</v>
-      </c>
-      <c r="M34" s="8">
-        <v>3578.3508307551901</v>
-      </c>
-      <c r="N34" s="9">
-        <v>1863.9171386276901</v>
-      </c>
-      <c r="O34" s="21">
+      <c r="L34" s="112">
+        <v>0.99655700000000003</v>
+      </c>
+      <c r="M34" s="112">
+        <v>2409.3988260000001</v>
+      </c>
+      <c r="N34" s="113">
+        <v>1387.4328</v>
+      </c>
+      <c r="O34" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B34,Plan2!$D$1:$D$21,0),1)</f>
         <v>0</v>
       </c>
       <c r="P34" s="8">
-        <v>0.98271960514234302</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B34,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.98288200000000003</v>
       </c>
       <c r="Q34" s="8">
-        <v>3578.3508307551901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B34,Plan2!$D$1:$D$21,0),4)</f>
+        <v>10732.517977</v>
       </c>
       <c r="R34" s="9">
-        <v>1863.9171386276901</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B34,Plan2!$D$1:$D$21,0),5)</f>
+        <v>5800.2363530000002</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="14"/>
-        <v>0.97996365756053994</v>
+        <v>0.98346360498936858</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="15"/>
-        <v>3623.1097320469753</v>
+        <v>5119.4135174193798</v>
       </c>
       <c r="U34" s="10">
         <f t="shared" si="16"/>
-        <v>1701.6329969345052</v>
+        <v>2566.5917158706602</v>
       </c>
       <c r="V34" s="21">
         <v>0</v>
@@ -10180,7 +10282,7 @@
         <v>2489.7113663622999</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>7</v>
       </c>
@@ -10214,38 +10316,42 @@
       <c r="K35" s="20">
         <v>1</v>
       </c>
-      <c r="L35" s="11">
-        <v>0.97900975659721801</v>
-      </c>
-      <c r="M35" s="11">
-        <v>442.73201600544201</v>
-      </c>
-      <c r="N35" s="12">
-        <v>365.91923280423202</v>
-      </c>
-      <c r="O35" s="20">
+      <c r="L35" s="110">
+        <v>0.94454499999999997</v>
+      </c>
+      <c r="M35" s="110">
+        <v>860.594426</v>
+      </c>
+      <c r="N35" s="111">
+        <v>737.28508199999999</v>
+      </c>
+      <c r="O35" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B35,Plan2!$D$1:$D$21,0),1)</f>
         <v>1</v>
       </c>
       <c r="P35" s="11">
-        <v>0.97900975659721801</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B35,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.95653699999999997</v>
       </c>
       <c r="Q35" s="11">
-        <v>442.73201600544201</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B35,Plan2!$D$1:$D$21,0),4)</f>
+        <v>1523.448885</v>
       </c>
       <c r="R35" s="12">
-        <v>365.91923280423202</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B35,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1235.700523</v>
       </c>
       <c r="S35" s="11">
         <f t="shared" si="14"/>
-        <v>0.98184542736713953</v>
+        <v>0.96761104906853057</v>
       </c>
       <c r="T35" s="11">
         <f t="shared" si="15"/>
-        <v>410.36217270397049</v>
+        <v>785.00699245124952</v>
       </c>
       <c r="U35" s="13">
         <f t="shared" si="16"/>
-        <v>337.85399494519953</v>
+        <v>648.14077979308354</v>
       </c>
       <c r="V35" s="20">
         <v>1</v>
@@ -10260,7 +10366,7 @@
         <v>1415.2233314090799</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>8</v>
       </c>
@@ -10294,38 +10400,42 @@
       <c r="K36" s="21">
         <v>1</v>
       </c>
-      <c r="L36" s="8">
-        <v>0.97900975659721801</v>
-      </c>
-      <c r="M36" s="8">
-        <v>442.73201600544201</v>
-      </c>
-      <c r="N36" s="9">
-        <v>365.91923280423202</v>
-      </c>
-      <c r="O36" s="21">
+      <c r="L36" s="112">
+        <v>0.94454499999999997</v>
+      </c>
+      <c r="M36" s="112">
+        <v>860.594426</v>
+      </c>
+      <c r="N36" s="113">
+        <v>737.28508199999999</v>
+      </c>
+      <c r="O36" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B36,Plan2!$D$1:$D$21,0),1)</f>
         <v>1</v>
       </c>
       <c r="P36" s="8">
-        <v>0.97900975659721801</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B36,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.95653699999999997</v>
       </c>
       <c r="Q36" s="8">
-        <v>442.73201600544201</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B36,Plan2!$D$1:$D$21,0),4)</f>
+        <v>1523.448885</v>
       </c>
       <c r="R36" s="9">
-        <v>365.91923280423202</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B36,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1235.700523</v>
       </c>
       <c r="S36" s="8">
         <f t="shared" si="14"/>
-        <v>0.98184542736713953</v>
+        <v>0.96761104906853057</v>
       </c>
       <c r="T36" s="8">
         <f t="shared" si="15"/>
-        <v>410.36217270397049</v>
+        <v>785.00699245124952</v>
       </c>
       <c r="U36" s="10">
         <f t="shared" si="16"/>
-        <v>337.85399494519953</v>
+        <v>648.14077979308354</v>
       </c>
       <c r="V36" s="21">
         <v>1</v>
@@ -10340,7 +10450,7 @@
         <v>1415.2233314090799</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>9</v>
       </c>
@@ -10374,38 +10484,42 @@
       <c r="K37" s="20">
         <v>1</v>
       </c>
-      <c r="L37" s="11">
-        <v>0.97900975659721801</v>
-      </c>
-      <c r="M37" s="11">
-        <v>442.73201600544201</v>
-      </c>
-      <c r="N37" s="12">
-        <v>365.91923280423202</v>
-      </c>
-      <c r="O37" s="20">
+      <c r="L37" s="110">
+        <v>0.94454499999999997</v>
+      </c>
+      <c r="M37" s="110">
+        <v>860.594426</v>
+      </c>
+      <c r="N37" s="111">
+        <v>737.28508199999999</v>
+      </c>
+      <c r="O37" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B37,Plan2!$D$1:$D$21,0),1)</f>
         <v>1</v>
       </c>
       <c r="P37" s="11">
-        <v>0.97900975659721801</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B37,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.95653699999999997</v>
       </c>
       <c r="Q37" s="11">
-        <v>442.73201600544201</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B37,Plan2!$D$1:$D$21,0),4)</f>
+        <v>1523.448885</v>
       </c>
       <c r="R37" s="12">
-        <v>365.91923280423202</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B37,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1235.700523</v>
       </c>
       <c r="S37" s="11">
         <f t="shared" si="14"/>
-        <v>0.98184542736713953</v>
+        <v>0.96761104906853057</v>
       </c>
       <c r="T37" s="11">
         <f t="shared" si="15"/>
-        <v>410.36217270397049</v>
+        <v>785.00699245124952</v>
       </c>
       <c r="U37" s="13">
         <f t="shared" si="16"/>
-        <v>337.85399494519953</v>
+        <v>648.14077979308354</v>
       </c>
       <c r="V37" s="20">
         <v>1</v>
@@ -10420,7 +10534,7 @@
         <v>1415.2233314090799</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>10</v>
       </c>
@@ -10454,38 +10568,42 @@
       <c r="K38" s="21">
         <v>2</v>
       </c>
-      <c r="L38" s="8">
-        <v>0.93461905705690396</v>
-      </c>
-      <c r="M38" s="8">
-        <v>1847.78999205831</v>
-      </c>
-      <c r="N38" s="9">
-        <v>1129.09828234265</v>
-      </c>
-      <c r="O38" s="21">
+      <c r="L38" s="112">
+        <v>0.94282500000000002</v>
+      </c>
+      <c r="M38" s="112">
+        <v>961.90143499999999</v>
+      </c>
+      <c r="N38" s="113">
+        <v>711.66940399999999</v>
+      </c>
+      <c r="O38" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B38,Plan2!$D$1:$D$21,0),1)</f>
         <v>2</v>
       </c>
       <c r="P38" s="8">
-        <v>0.93461905705690396</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B38,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.82506000000000002</v>
       </c>
       <c r="Q38" s="8">
-        <v>1847.78999205831</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B38,Plan2!$D$1:$D$21,0),4)</f>
+        <v>3525.4418089999999</v>
       </c>
       <c r="R38" s="9">
-        <v>1129.09828234265</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B38,Plan2!$D$1:$D$21,0),5)</f>
+        <v>2665.5043799999999</v>
       </c>
       <c r="S38" s="8">
         <f t="shared" si="14"/>
-        <v>0.92803575496596125</v>
+        <v>0.90269747643750931</v>
       </c>
       <c r="T38" s="8">
         <f t="shared" si="15"/>
-        <v>1860.5940008069424</v>
+        <v>2058.5348157777871</v>
       </c>
       <c r="U38" s="10">
         <f t="shared" si="16"/>
-        <v>1039.8642772331777</v>
+        <v>1319.6085820618528</v>
       </c>
       <c r="V38" s="21">
         <v>2</v>
@@ -10500,7 +10618,7 @@
         <v>943.08664057106296</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>11</v>
       </c>
@@ -10534,38 +10652,42 @@
       <c r="K39" s="20">
         <v>2</v>
       </c>
-      <c r="L39" s="11">
-        <v>0.93461905705690396</v>
-      </c>
-      <c r="M39" s="11">
-        <v>1847.78999205831</v>
-      </c>
-      <c r="N39" s="12">
-        <v>1129.09828234265</v>
-      </c>
-      <c r="O39" s="20">
+      <c r="L39" s="110">
+        <v>0.94282500000000002</v>
+      </c>
+      <c r="M39" s="110">
+        <v>961.90143499999999</v>
+      </c>
+      <c r="N39" s="111">
+        <v>711.66940399999999</v>
+      </c>
+      <c r="O39" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B39,Plan2!$D$1:$D$21,0),1)</f>
         <v>2</v>
       </c>
       <c r="P39" s="11">
-        <v>0.93461905705690396</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B39,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.82506000000000002</v>
       </c>
       <c r="Q39" s="11">
-        <v>1847.78999205831</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B39,Plan2!$D$1:$D$21,0),4)</f>
+        <v>3525.4418089999999</v>
       </c>
       <c r="R39" s="12">
-        <v>1129.09828234265</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B39,Plan2!$D$1:$D$21,0),5)</f>
+        <v>2665.5043799999999</v>
       </c>
       <c r="S39" s="11">
         <f t="shared" si="14"/>
-        <v>0.92803575496596125</v>
+        <v>0.90269747643750931</v>
       </c>
       <c r="T39" s="11">
         <f t="shared" si="15"/>
-        <v>1860.5940008069424</v>
+        <v>2058.5348157777871</v>
       </c>
       <c r="U39" s="13">
         <f t="shared" si="16"/>
-        <v>1039.8642772331777</v>
+        <v>1319.6085820618528</v>
       </c>
       <c r="V39" s="20">
         <v>2</v>
@@ -10580,7 +10702,7 @@
         <v>943.08664057106296</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>12</v>
       </c>
@@ -10614,38 +10736,42 @@
       <c r="K40" s="21">
         <v>2</v>
       </c>
-      <c r="L40" s="8">
-        <v>0.93461905705690396</v>
-      </c>
-      <c r="M40" s="8">
-        <v>1847.78999205831</v>
-      </c>
-      <c r="N40" s="9">
-        <v>1129.09828234265</v>
-      </c>
-      <c r="O40" s="21">
+      <c r="L40" s="112">
+        <v>0.94282500000000002</v>
+      </c>
+      <c r="M40" s="112">
+        <v>961.90143499999999</v>
+      </c>
+      <c r="N40" s="113">
+        <v>711.66940399999999</v>
+      </c>
+      <c r="O40" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B40,Plan2!$D$1:$D$21,0),1)</f>
         <v>2</v>
       </c>
       <c r="P40" s="8">
-        <v>0.93461905705690396</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B40,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.82506000000000002</v>
       </c>
       <c r="Q40" s="8">
-        <v>1847.78999205831</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B40,Plan2!$D$1:$D$21,0),4)</f>
+        <v>3525.4418089999999</v>
       </c>
       <c r="R40" s="9">
-        <v>1129.09828234265</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B40,Plan2!$D$1:$D$21,0),5)</f>
+        <v>2665.5043799999999</v>
       </c>
       <c r="S40" s="8">
         <f t="shared" si="14"/>
-        <v>0.92803575496596125</v>
+        <v>0.90269747643750931</v>
       </c>
       <c r="T40" s="8">
         <f t="shared" si="15"/>
-        <v>1860.5940008069424</v>
+        <v>2058.5348157777871</v>
       </c>
       <c r="U40" s="10">
         <f t="shared" si="16"/>
-        <v>1039.8642772331777</v>
+        <v>1319.6085820618528</v>
       </c>
       <c r="V40" s="21">
         <v>2</v>
@@ -10660,7 +10786,7 @@
         <v>943.08664057106296</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>13</v>
       </c>
@@ -10694,38 +10820,42 @@
       <c r="K41" s="20">
         <v>2</v>
       </c>
-      <c r="L41" s="11">
-        <v>0.93461905705690396</v>
-      </c>
-      <c r="M41" s="11">
-        <v>1847.78999205831</v>
-      </c>
-      <c r="N41" s="12">
-        <v>1129.09828234265</v>
-      </c>
-      <c r="O41" s="20">
+      <c r="L41" s="110">
+        <v>0.94282500000000002</v>
+      </c>
+      <c r="M41" s="110">
+        <v>961.90143499999999</v>
+      </c>
+      <c r="N41" s="111">
+        <v>711.66940399999999</v>
+      </c>
+      <c r="O41" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B41,Plan2!$D$1:$D$21,0),1)</f>
         <v>2</v>
       </c>
       <c r="P41" s="11">
-        <v>0.93461905705690396</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B41,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.82506000000000002</v>
       </c>
       <c r="Q41" s="11">
-        <v>1847.78999205831</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B41,Plan2!$D$1:$D$21,0),4)</f>
+        <v>3525.4418089999999</v>
       </c>
       <c r="R41" s="12">
-        <v>1129.09828234265</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B41,Plan2!$D$1:$D$21,0),5)</f>
+        <v>2665.5043799999999</v>
       </c>
       <c r="S41" s="11">
         <f t="shared" si="14"/>
-        <v>0.92803575496596125</v>
+        <v>0.90269747643750931</v>
       </c>
       <c r="T41" s="11">
         <f t="shared" si="15"/>
-        <v>1860.5940008069424</v>
+        <v>2058.5348157777871</v>
       </c>
       <c r="U41" s="13">
         <f t="shared" si="16"/>
-        <v>1039.8642772331777</v>
+        <v>1319.6085820618528</v>
       </c>
       <c r="V41" s="20">
         <v>2</v>
@@ -10740,7 +10870,7 @@
         <v>943.08664057106296</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>14</v>
       </c>
@@ -10774,38 +10904,42 @@
       <c r="K42" s="21">
         <v>3</v>
       </c>
-      <c r="L42" s="8">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M42" s="8">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N42" s="9">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O42" s="21">
+      <c r="L42" s="112">
+        <v>0.983101</v>
+      </c>
+      <c r="M42" s="112">
+        <v>1376.665109</v>
+      </c>
+      <c r="N42" s="113">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O42" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B42,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P42" s="8">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B42,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q42" s="8">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B42,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R42" s="9">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B42,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U42" s="10">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V42" s="21">
         <v>3</v>
@@ -10820,7 +10954,7 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>15</v>
       </c>
@@ -10854,38 +10988,42 @@
       <c r="K43" s="20">
         <v>3</v>
       </c>
-      <c r="L43" s="11">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M43" s="11">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N43" s="12">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O43" s="20">
+      <c r="L43" s="110">
+        <v>0.983101</v>
+      </c>
+      <c r="M43" s="110">
+        <v>1376.665109</v>
+      </c>
+      <c r="N43" s="111">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O43" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B43,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P43" s="11">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B43,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q43" s="11">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B43,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R43" s="12">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B43,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S43" s="11">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T43" s="11">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U43" s="13">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V43" s="20">
         <v>3</v>
@@ -10900,7 +11038,7 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>16</v>
       </c>
@@ -10934,38 +11072,42 @@
       <c r="K44" s="21">
         <v>3</v>
       </c>
-      <c r="L44" s="8">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M44" s="8">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N44" s="9">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O44" s="21">
+      <c r="L44" s="112">
+        <v>0.983101</v>
+      </c>
+      <c r="M44" s="112">
+        <v>1376.665109</v>
+      </c>
+      <c r="N44" s="113">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O44" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B44,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P44" s="8">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B44,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q44" s="8">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B44,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R44" s="9">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B44,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S44" s="11">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T44" s="11">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U44" s="13">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V44" s="21">
         <v>3</v>
@@ -10980,7 +11122,7 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>17</v>
       </c>
@@ -11014,38 +11156,42 @@
       <c r="K45" s="20">
         <v>3</v>
       </c>
-      <c r="L45" s="11">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M45" s="11">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N45" s="12">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O45" s="20">
+      <c r="L45" s="110">
+        <v>0.983101</v>
+      </c>
+      <c r="M45" s="110">
+        <v>1376.665109</v>
+      </c>
+      <c r="N45" s="111">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O45" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B45,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P45" s="11">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B45,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q45" s="11">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B45,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R45" s="12">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B45,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S45" s="11">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T45" s="11">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U45" s="13">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V45" s="20">
         <v>3</v>
@@ -11060,7 +11206,7 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>18</v>
       </c>
@@ -11094,38 +11240,42 @@
       <c r="K46" s="21">
         <v>3</v>
       </c>
-      <c r="L46" s="8">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M46" s="8">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N46" s="9">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O46" s="21">
+      <c r="L46" s="112">
+        <v>0.983101</v>
+      </c>
+      <c r="M46" s="112">
+        <v>1376.665109</v>
+      </c>
+      <c r="N46" s="113">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O46" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B46,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P46" s="8">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B46,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q46" s="8">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B46,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R46" s="9">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B46,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S46" s="8">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T46" s="8">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U46" s="10">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V46" s="21">
         <v>3</v>
@@ -11140,7 +11290,7 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>19</v>
       </c>
@@ -11174,38 +11324,42 @@
       <c r="K47" s="20">
         <v>3</v>
       </c>
-      <c r="L47" s="11">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M47" s="11">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N47" s="12">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O47" s="20">
+      <c r="L47" s="110">
+        <v>0.983101</v>
+      </c>
+      <c r="M47" s="110">
+        <v>1376.665109</v>
+      </c>
+      <c r="N47" s="111">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O47" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B47,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P47" s="11">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B47,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q47" s="11">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B47,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R47" s="12">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B47,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S47" s="8">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T47" s="8">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U47" s="10">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V47" s="20">
         <v>3</v>
@@ -11220,7 +11374,7 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>20</v>
       </c>
@@ -11254,38 +11408,42 @@
       <c r="K48" s="21">
         <v>3</v>
       </c>
-      <c r="L48" s="8">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M48" s="8">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N48" s="9">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O48" s="21">
+      <c r="L48" s="112">
+        <v>0.983101</v>
+      </c>
+      <c r="M48" s="112">
+        <v>1376.665109</v>
+      </c>
+      <c r="N48" s="113">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O48" s="21" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B48,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P48" s="8">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B48,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q48" s="8">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B48,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R48" s="9">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B48,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S48" s="11">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T48" s="11">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U48" s="13">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V48" s="21">
         <v>3</v>
@@ -11300,7 +11458,7 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>21</v>
       </c>
@@ -11334,38 +11492,42 @@
       <c r="K49" s="20">
         <v>3</v>
       </c>
-      <c r="L49" s="11">
-        <v>0.96666858756792096</v>
-      </c>
-      <c r="M49" s="11">
-        <v>920.34913934948997</v>
-      </c>
-      <c r="N49" s="12">
-        <v>597.93136239437501</v>
-      </c>
-      <c r="O49" s="20">
+      <c r="L49" s="110">
+        <v>0.983101</v>
+      </c>
+      <c r="M49" s="110">
+        <v>1376.665109</v>
+      </c>
+      <c r="N49" s="111">
+        <v>899.61578799999995</v>
+      </c>
+      <c r="O49" s="20" t="str">
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B49,Plan2!$D$1:$D$21,0),1)</f>
         <v>3</v>
       </c>
       <c r="P49" s="11">
-        <v>0.96666858756792096</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B49,Plan2!$D$1:$D$21,0),3)</f>
+        <v>0.86749699999999996</v>
       </c>
       <c r="Q49" s="11">
-        <v>920.34913934948997</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B49,Plan2!$D$1:$D$21,0),4)</f>
+        <v>2211.1261030000001</v>
       </c>
       <c r="R49" s="12">
-        <v>597.93136239437501</v>
+        <f>INDEX(Plan2!$C$1:$G$21,MATCH(Scores!$B49,Plan2!$D$1:$D$21,0),5)</f>
+        <v>1745.41038</v>
       </c>
       <c r="S49" s="14">
         <f t="shared" si="14"/>
-        <v>0.9149326592669067</v>
+        <v>0.89424786548294621</v>
       </c>
       <c r="T49" s="14">
         <f t="shared" si="15"/>
-        <v>992.19142876559249</v>
+        <v>1428.9646620908475</v>
       </c>
       <c r="U49" s="15">
         <f t="shared" si="16"/>
-        <v>647.03164275611596</v>
+        <v>1009.3225035589285</v>
       </c>
       <c r="V49" s="20">
         <v>3</v>
@@ -11380,12 +11542,12 @@
         <v>1343.94972802597</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="93" t="s">
+    <row r="50" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="17">
         <f>AVERAGE(D29:D49)</f>
         <v>0.88153212369547351</v>
@@ -11418,42 +11580,42 @@
       </c>
       <c r="L50" s="17">
         <f>AVERAGE(L29:L49)</f>
-        <v>0.96691294425793795</v>
+        <v>0.97376595238095243</v>
       </c>
       <c r="M50" s="17">
         <f t="shared" ref="M50:N50" si="19">AVERAGE(M29:M49)</f>
-        <v>1788.2025769322208</v>
+        <v>1519.0048974285721</v>
       </c>
       <c r="N50" s="17">
         <f t="shared" si="19"/>
-        <v>1027.6716456525919</v>
+        <v>980.00266504761885</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P50" s="17">
         <f>AVERAGE(P29:P49)</f>
-        <v>0.96691294425793795</v>
+        <v>0.90510090476190486</v>
       </c>
       <c r="Q50" s="17">
         <f t="shared" ref="Q50:R50" si="20">AVERAGE(Q29:Q49)</f>
-        <v>1788.2025769322208</v>
+        <v>4797.9157417619053</v>
       </c>
       <c r="R50" s="17">
         <f t="shared" si="20"/>
-        <v>1027.6716456525919</v>
+        <v>3006.372392714286</v>
       </c>
       <c r="S50" s="17">
         <f>AVERAGE(S29:S49)</f>
-        <v>0.94556773911732162</v>
+        <v>0.93182798127406707</v>
       </c>
       <c r="T50" s="17">
         <f t="shared" ref="T50" si="21">AVERAGE(T29:T49)</f>
-        <v>1826.173921130774</v>
+        <v>2511.3027924622825</v>
       </c>
       <c r="U50" s="17">
         <f t="shared" ref="U50" si="22">AVERAGE(U29:U49)</f>
-        <v>979.00334368686958</v>
+        <v>1461.7612853010498</v>
       </c>
       <c r="V50" s="17" t="s">
         <v>28</v>
@@ -11471,124 +11633,124 @@
         <v>1605.137265661574</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="94" t="s">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:25" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="92" t="s">
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="92" t="s">
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="92" t="s">
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="92" t="s">
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="89"/>
-      <c r="W52" s="93" t="s">
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="X52" s="93"/>
-      <c r="Y52" s="97"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="87" t="s">
+      <c r="X52" s="89"/>
+      <c r="Y52" s="90"/>
+    </row>
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="88" t="s">
+      <c r="E53" s="81" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="87" t="s">
+      <c r="G53" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="88" t="s">
+      <c r="H53" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="I53" s="88" t="s">
+      <c r="I53" s="81" t="s">
         <v>2</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K53" s="87" t="s">
+      <c r="K53" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="88" t="s">
+      <c r="L53" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="88" t="s">
+      <c r="M53" s="81" t="s">
         <v>2</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O53" s="87" t="s">
+      <c r="O53" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="P53" s="88" t="s">
+      <c r="P53" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="Q53" s="88" t="s">
+      <c r="Q53" s="81" t="s">
         <v>2</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S53" s="88" t="s">
+      <c r="S53" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="T53" s="88" t="s">
+      <c r="T53" s="81" t="s">
         <v>2</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V53" s="88" t="s">
+      <c r="V53" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="W53" s="88" t="s">
+      <c r="W53" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="X53" s="88" t="s">
+      <c r="X53" s="81" t="s">
         <v>2</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -11668,7 +11830,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -11748,7 +11910,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>3</v>
       </c>
@@ -11828,7 +11990,7 @@
         <v>1198.3170078099299</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>4</v>
       </c>
@@ -11908,7 +12070,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>5</v>
       </c>
@@ -11988,7 +12150,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>6</v>
       </c>
@@ -12068,7 +12230,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>7</v>
       </c>
@@ -12148,7 +12310,7 @@
         <v>1418.2969699456601</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>8</v>
       </c>
@@ -12228,7 +12390,7 @@
         <v>963.13507910607905</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>9</v>
       </c>
@@ -12308,7 +12470,7 @@
         <v>1418.2969699456601</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>10</v>
       </c>
@@ -12388,7 +12550,7 @@
         <v>610.61969437712696</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>11</v>
       </c>
@@ -12468,7 +12630,7 @@
         <v>1307.20713581516</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>12</v>
       </c>
@@ -12548,7 +12710,7 @@
         <v>1307.20713581516</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>13</v>
       </c>
@@ -12628,7 +12790,7 @@
         <v>1307.20713581516</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>14</v>
       </c>
@@ -12708,7 +12870,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>15</v>
       </c>
@@ -12788,7 +12950,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>16</v>
       </c>
@@ -12868,7 +13030,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>17</v>
       </c>
@@ -12948,7 +13110,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>18</v>
       </c>
@@ -13028,7 +13190,7 @@
         <v>547.91899725853602</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>19</v>
       </c>
@@ -13108,7 +13270,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>20</v>
       </c>
@@ -13188,7 +13350,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>21</v>
       </c>
@@ -13268,12 +13430,12 @@
         <v>1377.73380704493</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="93" t="s">
+    <row r="75" spans="1:25" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="93"/>
-      <c r="C75" s="97"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="17">
         <f>AVERAGE(D54:D74)</f>
         <v>0.81466972419495731</v>
@@ -13359,43 +13521,43 @@
         <v>1813.039428593876</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="94" t="s">
+    <row r="76" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="93" t="s">
+      <c r="B77" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="C77" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="92" t="s">
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="92" t="s">
+      <c r="H77" s="89"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="92" t="s">
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="93"/>
-      <c r="R77" s="93"/>
-      <c r="S77" s="92" t="s">
+      <c r="P77" s="89"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="89"/>
+      <c r="S77" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="T77" s="93"/>
-      <c r="U77" s="93"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="89"/>
       <c r="V77" s="28" t="s">
         <v>33</v>
       </c>
@@ -13403,9 +13565,9 @@
       <c r="X77" s="29"/>
       <c r="Y77" s="29"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A78" s="95"/>
-      <c r="B78" s="96"/>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78" s="92"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="2" t="s">
         <v>32</v>
       </c>
@@ -13476,7 +13638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -13556,7 +13718,7 @@
         <v>73503.174189258396</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2</v>
       </c>
@@ -13636,7 +13798,7 @@
         <v>15756.0967627998</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>3</v>
       </c>
@@ -13716,7 +13878,7 @@
         <v>1667.0735155423799</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>4</v>
       </c>
@@ -13796,7 +13958,7 @@
         <v>1117.06391794505</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>5</v>
       </c>
@@ -13876,7 +14038,7 @@
         <v>1080.9282566608499</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>6</v>
       </c>
@@ -13956,7 +14118,7 @@
         <v>1967.09056697555</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>7</v>
       </c>
@@ -14036,7 +14198,7 @@
         <v>1364.1191071913499</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>8</v>
       </c>
@@ -14116,7 +14278,7 @@
         <v>1899.02411399937</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>9</v>
       </c>
@@ -14196,7 +14358,7 @@
         <v>6300.7545193559699</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>10</v>
       </c>
@@ -14276,7 +14438,7 @@
         <v>1395.15368315398</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>11</v>
       </c>
@@ -14356,7 +14518,7 @@
         <v>2251.51105175154</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>12</v>
       </c>
@@ -14436,7 +14598,7 @@
         <v>10712.7527161413</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>13</v>
       </c>
@@ -14516,7 +14678,7 @@
         <v>6349.4738757402802</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>14</v>
       </c>
@@ -14596,7 +14758,7 @@
         <v>2019.70516242234</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>15</v>
       </c>
@@ -14676,7 +14838,7 @@
         <v>2328.28373835721</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>16</v>
       </c>
@@ -14756,7 +14918,7 @@
         <v>1929.7994223542701</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>17</v>
       </c>
@@ -14836,7 +14998,7 @@
         <v>1634.3464441201199</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>18</v>
       </c>
@@ -14916,7 +15078,7 @@
         <v>3840.6998824319198</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>19</v>
       </c>
@@ -14996,7 +15158,7 @@
         <v>3117.1092181590102</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>20</v>
       </c>
@@ -15076,7 +15238,7 @@
         <v>5319.8856744024897</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>21</v>
       </c>
@@ -15156,12 +15318,12 @@
         <v>1763.6119032936499</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="107" t="s">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="107"/>
-      <c r="C100" s="108"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="97"/>
       <c r="D100" s="17">
         <f>AVERAGE(D79:D99)</f>
         <v>-150.06570667142941</v>
@@ -15247,45 +15409,45 @@
         <v>7015.1265581931821</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A102" s="111" t="s">
+    <row r="101" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="105" t="s">
+      <c r="B102" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="105" t="s">
+      <c r="C102" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D102" s="105"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="105" t="s">
+      <c r="D102" s="94"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G102" s="105"/>
-      <c r="H102" s="106"/>
-      <c r="I102" s="105" t="s">
+      <c r="G102" s="94"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J102" s="105"/>
-      <c r="K102" s="106"/>
-      <c r="L102" s="105" t="s">
+      <c r="J102" s="94"/>
+      <c r="K102" s="95"/>
+      <c r="L102" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="M102" s="105"/>
-      <c r="N102" s="106"/>
-    </row>
-    <row r="103" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="112"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="78" t="s">
+      <c r="M102" s="94"/>
+      <c r="N102" s="95"/>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="101"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="78" t="s">
+      <c r="D103" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="79" t="s">
+      <c r="E103" s="72" t="s">
         <v>3</v>
       </c>
       <c r="F103" s="23" t="s">
@@ -15316,41 +15478,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="77">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104" s="70">
         <v>1</v>
       </c>
       <c r="B104" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="81">
+      <c r="C104" s="74">
         <v>-4.4558122917323999</v>
       </c>
-      <c r="D104" s="82">
+      <c r="D104" s="75">
         <v>788.10336910011802</v>
       </c>
-      <c r="E104" s="83">
+      <c r="E104" s="76">
         <v>703.88864865603603</v>
       </c>
-      <c r="F104" s="81">
+      <c r="F104" s="74">
         <v>-0.67657132035974699</v>
       </c>
-      <c r="G104" s="82">
+      <c r="G104" s="75">
         <v>516.27385211437797</v>
       </c>
-      <c r="H104" s="83">
+      <c r="H104" s="76">
         <v>429.18820476190399</v>
       </c>
-      <c r="I104" s="81">
+      <c r="I104" s="74">
         <v>-11.288013160591801</v>
       </c>
-      <c r="J104" s="82">
+      <c r="J104" s="75">
         <v>1418.7718187442199</v>
       </c>
       <c r="K104" s="31">
         <v>1370.9902733638901</v>
       </c>
-      <c r="L104" s="81">
+      <c r="L104" s="74">
         <v>-1.2650815179166599</v>
       </c>
       <c r="M104" s="31">
@@ -15360,14 +15522,14 @@
         <v>2532.91372884258</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="33">
         <v>2</v>
       </c>
       <c r="B105" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="84">
+      <c r="C105" s="77">
         <v>-82.507469222652702</v>
       </c>
       <c r="D105" s="34">
@@ -15376,7 +15538,7 @@
       <c r="E105" s="35">
         <v>1495.09482418482</v>
       </c>
-      <c r="F105" s="84">
+      <c r="F105" s="77">
         <v>-5.7165504088213197</v>
       </c>
       <c r="G105" s="34">
@@ -15404,14 +15566,14 @@
         <v>6669.8218113553103</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="77">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106" s="70">
         <v>3</v>
       </c>
       <c r="B106" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="85">
+      <c r="C106" s="78">
         <v>-339.82422869702998</v>
       </c>
       <c r="D106" s="31">
@@ -15448,14 +15610,14 @@
         <v>4903.2257354684298</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="33">
         <v>4</v>
       </c>
       <c r="B107" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C107" s="84">
+      <c r="C107" s="77">
         <v>-63.496465099725398</v>
       </c>
       <c r="D107" s="34">
@@ -15492,14 +15654,14 @@
         <v>12241.3413927738</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="77">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108" s="70">
         <v>5</v>
       </c>
       <c r="B108" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="85">
+      <c r="C108" s="78">
         <v>-1.4866530636047299</v>
       </c>
       <c r="D108" s="31">
@@ -15536,14 +15698,14 @@
         <v>5855.3366760878298</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="33">
         <v>6</v>
       </c>
       <c r="B109" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="84">
+      <c r="C109" s="77">
         <v>-55.860667785890399</v>
       </c>
       <c r="D109" s="34">
@@ -15580,14 +15742,14 @@
         <v>110639.744874282</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="77">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" s="70">
         <v>7</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="85">
+      <c r="C110" s="78">
         <v>-4.7793438347991</v>
       </c>
       <c r="D110" s="31">
@@ -15624,14 +15786,14 @@
         <v>1182.7682356718101</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="33">
         <v>8</v>
       </c>
       <c r="B111" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C111" s="84">
+      <c r="C111" s="77">
         <v>-70.297932689329201</v>
       </c>
       <c r="D111" s="34">
@@ -15668,14 +15830,14 @@
         <v>3103.6984630952302</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="77">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" s="70">
         <v>9</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="85">
+      <c r="C112" s="78">
         <v>-3.1207170696300199</v>
       </c>
       <c r="D112" s="31">
@@ -15712,14 +15874,14 @@
         <v>8845.47117710573</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="33">
         <v>10</v>
       </c>
       <c r="B113" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="84">
+      <c r="C113" s="77">
         <v>-33.661935552697599</v>
       </c>
       <c r="D113" s="34">
@@ -15756,14 +15918,14 @@
         <v>13193.1585824387</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="77">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="70">
         <v>11</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="85">
+      <c r="C114" s="78">
         <v>-0.26813610074500299</v>
       </c>
       <c r="D114" s="31">
@@ -15800,14 +15962,14 @@
         <v>4780.1525000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="33">
         <v>12</v>
       </c>
       <c r="B115" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="84">
+      <c r="C115" s="77">
         <v>-2.6277451534353999</v>
       </c>
       <c r="D115" s="34">
@@ -15844,14 +16006,14 @@
         <v>11784.254877676</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="77">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="70">
         <v>13</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="85">
+      <c r="C116" s="78">
         <v>-4.0074526622462896</v>
       </c>
       <c r="D116" s="31">
@@ -15888,14 +16050,14 @@
         <v>3467.7890966130999</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="33">
         <v>14</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="84">
+      <c r="C117" s="77">
         <v>-5.1292058993725904</v>
       </c>
       <c r="D117" s="34">
@@ -15932,14 +16094,14 @@
         <v>11235.215503659399</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="77">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="70">
         <v>15</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="85">
+      <c r="C118" s="78">
         <v>-4.3176301388840397</v>
       </c>
       <c r="D118" s="31">
@@ -15976,14 +16138,14 @@
         <v>8774.0608865160393</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="33">
         <v>16</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="84">
+      <c r="C119" s="77">
         <v>-0.66747882018353299</v>
       </c>
       <c r="D119" s="34">
@@ -16020,14 +16182,14 @@
         <v>10338.790476190399</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="77">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="70">
         <v>17</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="85">
+      <c r="C120" s="78">
         <v>-16.031884863541599</v>
       </c>
       <c r="D120" s="31">
@@ -16064,14 +16226,14 @@
         <v>13942.6678517166</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="33">
         <v>18</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="84">
+      <c r="C121" s="77">
         <v>-4.6371466832674297</v>
       </c>
       <c r="D121" s="34">
@@ -16108,14 +16270,14 @@
         <v>2691.5336811291299</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="77">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="70">
         <v>19</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C122" s="85">
+      <c r="C122" s="78">
         <v>-5145.1085122436898</v>
       </c>
       <c r="D122" s="31">
@@ -16152,14 +16314,14 @@
         <v>13188.792207792199</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="33">
         <v>20</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="84">
+      <c r="C123" s="77">
         <v>-0.52930587469984502</v>
       </c>
       <c r="D123" s="34">
@@ -16196,14 +16358,14 @@
         <v>18577.268405566399</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="77">
+    <row r="124" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="70">
         <v>21</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C124" s="86">
+      <c r="C124" s="79">
         <v>-17.874452198516401</v>
       </c>
       <c r="D124" s="37">
@@ -16240,20 +16402,20 @@
         <v>2576.09674856017</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B125" s="110"/>
-      <c r="C125" s="80">
+      <c r="B125" s="99"/>
+      <c r="C125" s="73">
         <f>AVERAGE(C104:C124)</f>
         <v>-279.0804845688416</v>
       </c>
-      <c r="D125" s="80">
+      <c r="D125" s="73">
         <f t="shared" ref="D125:N125" si="42">AVERAGE(D104:D124)</f>
         <v>4204.6148516695057</v>
       </c>
-      <c r="E125" s="80">
+      <c r="E125" s="73">
         <f t="shared" si="42"/>
         <v>4012.6379210574287</v>
       </c>
@@ -16294,8 +16456,8 @@
         <v>12882.100138692422</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
         <v>48</v>
       </c>
@@ -16314,12 +16476,12 @@
       <c r="F127" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G127" s="90" t="s">
+      <c r="G127" s="83" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="77">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="70">
         <v>1</v>
       </c>
       <c r="B128" s="30" t="s">
@@ -16341,7 +16503,7 @@
         <v>0.89673257438037701</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="33">
         <v>2</v>
       </c>
@@ -16364,8 +16526,8 @@
         <v>0.97606766609036</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="77">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="70">
         <v>3</v>
       </c>
       <c r="B130" s="30" t="s">
@@ -16387,7 +16549,7 @@
         <v>0.96067444010105896</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="33">
         <v>4</v>
       </c>
@@ -16410,8 +16572,8 @@
         <v>0.969961964812877</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="77">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="70">
         <v>5</v>
       </c>
       <c r="B132" s="30" t="s">
@@ -16433,7 +16595,7 @@
         <v>0.97019149720919096</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="33">
         <v>6</v>
       </c>
@@ -16456,8 +16618,8 @@
         <v>0.98211027260174699</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="77">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="70">
         <v>7</v>
       </c>
       <c r="B134" s="30" t="s">
@@ -16479,7 +16641,7 @@
         <v>0.94252609999179804</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>8</v>
       </c>
@@ -16502,8 +16664,8 @@
         <v>0.93526938075717403</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="77">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="70">
         <v>9</v>
       </c>
       <c r="B136" s="30" t="s">
@@ -16525,7 +16687,7 @@
         <v>0.95752826514051503</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>10</v>
       </c>
@@ -16548,8 +16710,8 @@
         <v>0.98490779934607098</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="77">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="70">
         <v>11</v>
       </c>
       <c r="B138" s="30" t="s">
@@ -16571,7 +16733,7 @@
         <v>0.94189770646876803</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>12</v>
       </c>
@@ -16594,8 +16756,8 @@
         <v>0.93958628922505505</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="77">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="70">
         <v>13</v>
       </c>
       <c r="B140" s="30" t="s">
@@ -16617,7 +16779,7 @@
         <v>0.96688238181284802</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>14</v>
       </c>
@@ -16640,8 +16802,8 @@
         <v>0.96250913623958501</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="77">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="70">
         <v>15</v>
       </c>
       <c r="B142" s="30" t="s">
@@ -16663,7 +16825,7 @@
         <v>0.95482001778736603</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="33">
         <v>16</v>
       </c>
@@ -16686,8 +16848,8 @@
         <v>0.98746041464584999</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="77">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="70">
         <v>17</v>
       </c>
       <c r="B144" s="30" t="s">
@@ -16709,7 +16871,7 @@
         <v>0.98711358683089201</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="33">
         <v>18</v>
       </c>
@@ -16732,8 +16894,8 @@
         <v>0.94945910240467002</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="77">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="70">
         <v>19</v>
       </c>
       <c r="B146" s="30" t="s">
@@ -16755,7 +16917,7 @@
         <v>0.98256751448925395</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="33">
         <v>20</v>
       </c>
@@ -16778,8 +16940,8 @@
         <v>0.94683112711681505</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="91">
+    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="84">
         <v>21</v>
       </c>
       <c r="B148" s="36" t="s">
@@ -16801,7 +16963,7 @@
         <v>0.94329954408796901</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="39"/>
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
@@ -16809,7 +16971,7 @@
       <c r="F149" s="39"/>
       <c r="G149" s="39"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
         <v>48</v>
       </c>
@@ -16828,12 +16990,12 @@
       <c r="F150" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G150" s="90" t="s">
+      <c r="G150" s="83" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="77">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="70">
         <v>1</v>
       </c>
       <c r="B151" s="30" t="s">
@@ -16845,17 +17007,17 @@
       <c r="D151" s="31">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E151" s="31">
-        <v>0.98271960514234302</v>
+      <c r="E151" s="114">
+        <v>0.99655700000000003</v>
       </c>
       <c r="F151" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G151" s="32">
         <v>0.84776716603935198</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>2</v>
       </c>
@@ -16868,18 +17030,18 @@
       <c r="D152" s="34">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E152" s="34">
-        <v>0.98271960514234302</v>
+      <c r="E152" s="115">
+        <v>0.99655700000000003</v>
       </c>
       <c r="F152" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G152" s="35">
         <v>0.84776716603935198</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="77">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="70">
         <v>3</v>
       </c>
       <c r="B153" s="30" t="s">
@@ -16891,17 +17053,17 @@
       <c r="D153" s="31">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E153" s="31">
-        <v>0.98271960514234302</v>
+      <c r="E153" s="114">
+        <v>0.99655700000000003</v>
       </c>
       <c r="F153" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G153" s="32">
         <v>0.84776716603935198</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>4</v>
       </c>
@@ -16914,18 +17076,18 @@
       <c r="D154" s="34">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E154" s="34">
-        <v>0.98271960514234302</v>
+      <c r="E154" s="115">
+        <v>0.99655700000000003</v>
       </c>
       <c r="F154" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G154" s="35">
         <v>0.84776716603935198</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="77">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="70">
         <v>5</v>
       </c>
       <c r="B155" s="30" t="s">
@@ -16937,17 +17099,17 @@
       <c r="D155" s="31">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E155" s="31">
-        <v>0.98271960514234302</v>
+      <c r="E155" s="114">
+        <v>0.99655700000000003</v>
       </c>
       <c r="F155" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G155" s="32">
         <v>0.84776716603935198</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>6</v>
       </c>
@@ -16960,18 +17122,18 @@
       <c r="D156" s="34">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E156" s="34">
-        <v>0.98271960514234302</v>
+      <c r="E156" s="115">
+        <v>0.99655700000000003</v>
       </c>
       <c r="F156" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G156" s="35">
         <v>0.84776716603935198</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="77">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="70">
         <v>7</v>
       </c>
       <c r="B157" s="30" t="s">
@@ -16983,17 +17145,17 @@
       <c r="D157" s="31">
         <v>0.97900975659721801</v>
       </c>
-      <c r="E157" s="31">
-        <v>0.97900975659721801</v>
+      <c r="E157" s="114">
+        <v>0.94454499999999997</v>
       </c>
       <c r="F157" s="31">
-        <v>0.97900975659721801</v>
+        <v>0.95653699999999997</v>
       </c>
       <c r="G157" s="32">
         <v>0.86368212226783003</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>8</v>
       </c>
@@ -17006,18 +17168,18 @@
       <c r="D158" s="34">
         <v>0.97900975659721801</v>
       </c>
-      <c r="E158" s="34">
-        <v>0.97900975659721801</v>
+      <c r="E158" s="115">
+        <v>0.94454499999999997</v>
       </c>
       <c r="F158" s="34">
-        <v>0.97900975659721801</v>
+        <v>0.95653699999999997</v>
       </c>
       <c r="G158" s="35">
         <v>0.86368212226783003</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="77">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="70">
         <v>9</v>
       </c>
       <c r="B159" s="30" t="s">
@@ -17029,17 +17191,17 @@
       <c r="D159" s="31">
         <v>0.97900975659721801</v>
       </c>
-      <c r="E159" s="31">
-        <v>0.97900975659721801</v>
+      <c r="E159" s="114">
+        <v>0.94454499999999997</v>
       </c>
       <c r="F159" s="31">
-        <v>0.97900975659721801</v>
+        <v>0.95653699999999997</v>
       </c>
       <c r="G159" s="32">
         <v>0.86368212226783003</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>10</v>
       </c>
@@ -17052,18 +17214,18 @@
       <c r="D160" s="34">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E160" s="34">
-        <v>0.93461905705690396</v>
+      <c r="E160" s="115">
+        <v>0.94282500000000002</v>
       </c>
       <c r="F160" s="34">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G160" s="35">
         <v>0.91089418977074399</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="77">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="70">
         <v>11</v>
       </c>
       <c r="B161" s="30" t="s">
@@ -17075,17 +17237,17 @@
       <c r="D161" s="31">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E161" s="31">
-        <v>0.93461905705690396</v>
+      <c r="E161" s="114">
+        <v>0.94282500000000002</v>
       </c>
       <c r="F161" s="31">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G161" s="32">
         <v>0.91089418977074399</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>12</v>
       </c>
@@ -17098,18 +17260,18 @@
       <c r="D162" s="34">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E162" s="34">
-        <v>0.93461905705690396</v>
+      <c r="E162" s="115">
+        <v>0.94282500000000002</v>
       </c>
       <c r="F162" s="34">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G162" s="35">
         <v>0.91089418977074399</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="77">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="70">
         <v>13</v>
       </c>
       <c r="B163" s="30" t="s">
@@ -17121,17 +17283,17 @@
       <c r="D163" s="31">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E163" s="31">
-        <v>0.93461905705690396</v>
+      <c r="E163" s="114">
+        <v>0.94282500000000002</v>
       </c>
       <c r="F163" s="31">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G163" s="32">
         <v>0.91089418977074399</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="33">
         <v>14</v>
       </c>
@@ -17144,18 +17306,18 @@
       <c r="D164" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E164" s="34">
-        <v>0.96666858756792096</v>
+      <c r="E164" s="115">
+        <v>0.983101</v>
       </c>
       <c r="F164" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G164" s="35">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="77">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="70">
         <v>15</v>
       </c>
       <c r="B165" s="30" t="s">
@@ -17167,17 +17329,17 @@
       <c r="D165" s="31">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E165" s="31">
-        <v>0.96666858756792096</v>
+      <c r="E165" s="114">
+        <v>0.983101</v>
       </c>
       <c r="F165" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G165" s="32">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="33">
         <v>16</v>
       </c>
@@ -17190,18 +17352,18 @@
       <c r="D166" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E166" s="34">
-        <v>0.96666858756792096</v>
+      <c r="E166" s="115">
+        <v>0.983101</v>
       </c>
       <c r="F166" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G166" s="35">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="77">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="70">
         <v>17</v>
       </c>
       <c r="B167" s="30" t="s">
@@ -17213,17 +17375,17 @@
       <c r="D167" s="31">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E167" s="31">
-        <v>0.96666858756792096</v>
+      <c r="E167" s="114">
+        <v>0.983101</v>
       </c>
       <c r="F167" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G167" s="32">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="33">
         <v>18</v>
       </c>
@@ -17236,18 +17398,18 @@
       <c r="D168" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E168" s="34">
-        <v>0.96666858756792096</v>
+      <c r="E168" s="115">
+        <v>0.983101</v>
       </c>
       <c r="F168" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G168" s="35">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="77">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="70">
         <v>19</v>
       </c>
       <c r="B169" s="30" t="s">
@@ -17259,17 +17421,17 @@
       <c r="D169" s="31">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E169" s="31">
-        <v>0.96666858756792096</v>
+      <c r="E169" s="114">
+        <v>0.983101</v>
       </c>
       <c r="F169" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G169" s="32">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="33">
         <v>20</v>
       </c>
@@ -17282,18 +17444,18 @@
       <c r="D170" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E170" s="34">
-        <v>0.96666858756792096</v>
+      <c r="E170" s="115">
+        <v>0.983101</v>
       </c>
       <c r="F170" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G170" s="35">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="91">
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="84">
         <v>21</v>
       </c>
       <c r="B171" s="36" t="s">
@@ -17305,17 +17467,17 @@
       <c r="D171" s="37">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E171" s="37">
-        <v>0.96666858756792096</v>
+      <c r="E171" s="116">
+        <v>0.983101</v>
       </c>
       <c r="F171" s="37">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G171" s="38">
         <v>0.89568750983499001</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="39"/>
       <c r="C172" s="39"/>
       <c r="D172" s="39"/>
@@ -17323,7 +17485,7 @@
       <c r="F172" s="39"/>
       <c r="G172" s="39"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
         <v>48</v>
       </c>
@@ -17333,15 +17495,15 @@
       <c r="C173" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D173" s="90" t="s">
+      <c r="D173" s="83" t="s">
         <v>42</v>
       </c>
       <c r="E173" s="39"/>
       <c r="F173" s="39"/>
       <c r="G173" s="39"/>
     </row>
-    <row r="174" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="77">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="70">
         <v>1</v>
       </c>
       <c r="B174" s="30" t="s">
@@ -17357,7 +17519,7 @@
       <c r="F174" s="39"/>
       <c r="G174" s="39"/>
     </row>
-    <row r="175" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="33">
         <v>2</v>
       </c>
@@ -17374,8 +17536,8 @@
       <c r="F175" s="39"/>
       <c r="G175" s="39"/>
     </row>
-    <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="77">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="70">
         <v>3</v>
       </c>
       <c r="B176" s="30" t="s">
@@ -17391,7 +17553,7 @@
       <c r="F176" s="39"/>
       <c r="G176" s="39"/>
     </row>
-    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="33">
         <v>4</v>
       </c>
@@ -17408,8 +17570,8 @@
       <c r="F177" s="39"/>
       <c r="G177" s="39"/>
     </row>
-    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="77">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="70">
         <v>5</v>
       </c>
       <c r="B178" s="30" t="s">
@@ -17425,7 +17587,7 @@
       <c r="F178" s="39"/>
       <c r="G178" s="39"/>
     </row>
-    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="33">
         <v>6</v>
       </c>
@@ -17442,8 +17604,8 @@
       <c r="F179" s="39"/>
       <c r="G179" s="39"/>
     </row>
-    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="77">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="70">
         <v>7</v>
       </c>
       <c r="B180" s="30" t="s">
@@ -17459,7 +17621,7 @@
       <c r="F180" s="39"/>
       <c r="G180" s="39"/>
     </row>
-    <row r="181" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="33">
         <v>8</v>
       </c>
@@ -17476,8 +17638,8 @@
       <c r="F181" s="39"/>
       <c r="G181" s="39"/>
     </row>
-    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="77">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="70">
         <v>9</v>
       </c>
       <c r="B182" s="30" t="s">
@@ -17493,7 +17655,7 @@
       <c r="F182" s="39"/>
       <c r="G182" s="39"/>
     </row>
-    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="33">
         <v>10</v>
       </c>
@@ -17510,8 +17672,8 @@
       <c r="F183" s="39"/>
       <c r="G183" s="39"/>
     </row>
-    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="77">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="70">
         <v>11</v>
       </c>
       <c r="B184" s="30" t="s">
@@ -17527,7 +17689,7 @@
       <c r="F184" s="39"/>
       <c r="G184" s="39"/>
     </row>
-    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="33">
         <v>12</v>
       </c>
@@ -17544,8 +17706,8 @@
       <c r="F185" s="39"/>
       <c r="G185" s="39"/>
     </row>
-    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="77">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="70">
         <v>13</v>
       </c>
       <c r="B186" s="30" t="s">
@@ -17561,7 +17723,7 @@
       <c r="F186" s="39"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="33">
         <v>14</v>
       </c>
@@ -17578,8 +17740,8 @@
       <c r="F187" s="39"/>
       <c r="G187" s="39"/>
     </row>
-    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="77">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="70">
         <v>15</v>
       </c>
       <c r="B188" s="30" t="s">
@@ -17595,7 +17757,7 @@
       <c r="F188" s="39"/>
       <c r="G188" s="39"/>
     </row>
-    <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="33">
         <v>16</v>
       </c>
@@ -17612,8 +17774,8 @@
       <c r="F189" s="39"/>
       <c r="G189" s="39"/>
     </row>
-    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="77">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="70">
         <v>17</v>
       </c>
       <c r="B190" s="30" t="s">
@@ -17629,7 +17791,7 @@
       <c r="F190" s="39"/>
       <c r="G190" s="39"/>
     </row>
-    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="33">
         <v>18</v>
       </c>
@@ -17646,8 +17808,8 @@
       <c r="F191" s="39"/>
       <c r="G191" s="39"/>
     </row>
-    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="77">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="70">
         <v>19</v>
       </c>
       <c r="B192" s="30" t="s">
@@ -17663,7 +17825,7 @@
       <c r="F192" s="39"/>
       <c r="G192" s="39"/>
     </row>
-    <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="33">
         <v>20</v>
       </c>
@@ -17680,8 +17842,8 @@
       <c r="F193" s="39"/>
       <c r="G193" s="39"/>
     </row>
-    <row r="194" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="91">
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="84">
         <v>21</v>
       </c>
       <c r="B194" s="36" t="s">
@@ -17697,7 +17859,7 @@
       <c r="F194" s="39"/>
       <c r="G194" s="39"/>
     </row>
-    <row r="195" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="39"/>
       <c r="C195" s="39"/>
       <c r="D195" s="39"/>
@@ -17705,7 +17867,7 @@
       <c r="F195" s="39"/>
       <c r="G195" s="39"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
         <v>48</v>
       </c>
@@ -17724,12 +17886,12 @@
       <c r="F196" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G196" s="90" t="s">
+      <c r="G196" s="83" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="77">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="70">
         <v>1</v>
       </c>
       <c r="B197" s="30" t="s">
@@ -17742,16 +17904,16 @@
         <v>0.98271960514234302</v>
       </c>
       <c r="E197" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.99655700000000003</v>
       </c>
       <c r="F197" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G197" s="32">
         <v>0.89673257438037701</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="33">
         <v>2</v>
       </c>
@@ -17765,17 +17927,17 @@
         <v>0.98271960514234302</v>
       </c>
       <c r="E198" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.99655700000000003</v>
       </c>
       <c r="F198" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G198" s="35">
         <v>0.97606766609036</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="77">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="70">
         <v>3</v>
       </c>
       <c r="B199" s="30" t="s">
@@ -17788,16 +17950,16 @@
         <v>0.98271960514234302</v>
       </c>
       <c r="E199" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.99655700000000003</v>
       </c>
       <c r="F199" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G199" s="32">
         <v>0.96067444010105896</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="33">
         <v>4</v>
       </c>
@@ -17811,17 +17973,17 @@
         <v>0.98271960514234302</v>
       </c>
       <c r="E200" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.99655700000000003</v>
       </c>
       <c r="F200" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G200" s="35">
         <v>0.969961964812877</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="77">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="70">
         <v>5</v>
       </c>
       <c r="B201" s="30" t="s">
@@ -17834,16 +17996,16 @@
         <v>0.98271960514234302</v>
       </c>
       <c r="E201" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.99655700000000003</v>
       </c>
       <c r="F201" s="31">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G201" s="32">
         <v>0.97019149720919096</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="33">
         <v>6</v>
       </c>
@@ -17857,17 +18019,17 @@
         <v>0.98271960514234302</v>
       </c>
       <c r="E202" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.99655700000000003</v>
       </c>
       <c r="F202" s="34">
-        <v>0.98271960514234302</v>
+        <v>0.98288200000000003</v>
       </c>
       <c r="G202" s="35">
         <v>0.98211027260174699</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="77">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="70">
         <v>7</v>
       </c>
       <c r="B203" s="30" t="s">
@@ -17880,16 +18042,16 @@
         <v>0.97900975659721801</v>
       </c>
       <c r="E203" s="31">
-        <v>0.97900975659721801</v>
+        <v>0.94454499999999997</v>
       </c>
       <c r="F203" s="31">
-        <v>0.97900975659721801</v>
+        <v>0.95653699999999997</v>
       </c>
       <c r="G203" s="32">
         <v>0.94252609999179804</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="33">
         <v>8</v>
       </c>
@@ -17903,17 +18065,17 @@
         <v>0.97900975659721801</v>
       </c>
       <c r="E204" s="34">
-        <v>0.97900975659721801</v>
+        <v>0.94454499999999997</v>
       </c>
       <c r="F204" s="34">
-        <v>0.97900975659721801</v>
+        <v>0.95653699999999997</v>
       </c>
       <c r="G204" s="35">
         <v>0.93526938075717403</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="77">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="70">
         <v>9</v>
       </c>
       <c r="B205" s="30" t="s">
@@ -17926,16 +18088,16 @@
         <v>0.97900975659721801</v>
       </c>
       <c r="E205" s="31">
-        <v>0.97900975659721801</v>
+        <v>0.94454499999999997</v>
       </c>
       <c r="F205" s="31">
-        <v>0.97900975659721801</v>
+        <v>0.95653699999999997</v>
       </c>
       <c r="G205" s="32">
         <v>0.95752826514051503</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="33">
         <v>10</v>
       </c>
@@ -17949,17 +18111,17 @@
         <v>0.93461905705690396</v>
       </c>
       <c r="E206" s="34">
-        <v>0.93461905705690396</v>
+        <v>0.94282500000000002</v>
       </c>
       <c r="F206" s="34">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G206" s="35">
         <v>0.98490779934607098</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="77">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="70">
         <v>11</v>
       </c>
       <c r="B207" s="30" t="s">
@@ -17972,16 +18134,16 @@
         <v>0.93461905705690396</v>
       </c>
       <c r="E207" s="31">
-        <v>0.93461905705690396</v>
+        <v>0.94282500000000002</v>
       </c>
       <c r="F207" s="31">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G207" s="32">
         <v>0.94189770646876803</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="33">
         <v>12</v>
       </c>
@@ -17995,17 +18157,17 @@
         <v>0.93461905705690396</v>
       </c>
       <c r="E208" s="34">
-        <v>0.93461905705690396</v>
+        <v>0.94282500000000002</v>
       </c>
       <c r="F208" s="34">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G208" s="35">
         <v>0.93958628922505505</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="77">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="70">
         <v>13</v>
       </c>
       <c r="B209" s="30" t="s">
@@ -18018,16 +18180,16 @@
         <v>0.93461905705690396</v>
       </c>
       <c r="E209" s="31">
-        <v>0.93461905705690396</v>
+        <v>0.94282500000000002</v>
       </c>
       <c r="F209" s="31">
-        <v>0.93461905705690396</v>
+        <v>0.82506000000000002</v>
       </c>
       <c r="G209" s="32">
         <v>0.96688238181284802</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="33">
         <v>14</v>
       </c>
@@ -18041,17 +18203,17 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E210" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F210" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G210" s="35">
         <v>0.96250913623958501</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="77">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="70">
         <v>15</v>
       </c>
       <c r="B211" s="30" t="s">
@@ -18064,16 +18226,16 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E211" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F211" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G211" s="32">
         <v>0.95482001778736603</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="33">
         <v>16</v>
       </c>
@@ -18087,17 +18249,17 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E212" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F212" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G212" s="35">
         <v>0.98746041464584999</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="77">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="70">
         <v>17</v>
       </c>
       <c r="B213" s="30" t="s">
@@ -18110,16 +18272,16 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E213" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F213" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G213" s="32">
         <v>0.98711358683089201</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="33">
         <v>18</v>
       </c>
@@ -18133,17 +18295,17 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E214" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F214" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G214" s="35">
         <v>0.94945910240467002</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="77">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="70">
         <v>19</v>
       </c>
       <c r="B215" s="30" t="s">
@@ -18156,16 +18318,16 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E215" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F215" s="31">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G215" s="32">
         <v>0.98256751448925395</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="33">
         <v>20</v>
       </c>
@@ -18179,17 +18341,17 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E216" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F216" s="34">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G216" s="35">
         <v>0.94683112711681505</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="91">
+    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="84">
         <v>21</v>
       </c>
       <c r="B217" s="36" t="s">
@@ -18202,37 +18364,529 @@
         <v>0.96666858756792096</v>
       </c>
       <c r="E217" s="37">
-        <v>0.96666858756792096</v>
+        <v>0.983101</v>
       </c>
       <c r="F217" s="37">
-        <v>0.96666858756792096</v>
+        <v>0.86749699999999996</v>
       </c>
       <c r="G217" s="38">
         <v>0.94329954408796901</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C220" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
+      <c r="F220" s="29"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="92"/>
+      <c r="B221" s="93"/>
+      <c r="C221" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>1</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B222,Plan2!$L$1:$L$21,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D222" s="118">
+        <v>0.93078499999999997</v>
+      </c>
+      <c r="E222" s="118">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="F222" s="119">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>2</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B223,Plan2!$L$1:$L$21,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D223" s="120">
+        <v>0.93078499999999997</v>
+      </c>
+      <c r="E223" s="120">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="F223" s="121">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>3</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B224,Plan2!$L$1:$L$21,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="D224" s="118">
+        <v>0.80566899999999997</v>
+      </c>
+      <c r="E224" s="118">
+        <v>1429.7775730000001</v>
+      </c>
+      <c r="F224" s="119">
+        <v>1198.317008</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>4</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B225,Plan2!$L$1:$L$21,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="120">
+        <v>0.93078499999999997</v>
+      </c>
+      <c r="E225" s="120">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="F225" s="121">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>5</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C226" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B226,Plan2!$L$1:$L$21,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D226" s="118">
+        <v>0.93078499999999997</v>
+      </c>
+      <c r="E226" s="118">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="F226" s="119">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>6</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B227,Plan2!$L$1:$L$21,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D227" s="120">
+        <v>0.93078499999999997</v>
+      </c>
+      <c r="E227" s="120">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="F227" s="121">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>7</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B228,Plan2!$L$1:$L$21,0),1)</f>
+        <v>7</v>
+      </c>
+      <c r="D228" s="118">
+        <v>0.87784799999999996</v>
+      </c>
+      <c r="E228" s="118">
+        <v>1965.094247</v>
+      </c>
+      <c r="F228" s="119">
+        <v>1418.2969700000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>8</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B229,Plan2!$L$1:$L$21,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D229" s="120">
+        <v>0.76300599999999996</v>
+      </c>
+      <c r="E229" s="120">
+        <v>1168.191049</v>
+      </c>
+      <c r="F229" s="121">
+        <v>963.13507900000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>9</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B230,Plan2!$L$1:$L$21,0),1)</f>
+        <v>7</v>
+      </c>
+      <c r="D230" s="118">
+        <v>0.87784799999999996</v>
+      </c>
+      <c r="E230" s="118">
+        <v>1965.094247</v>
+      </c>
+      <c r="F230" s="119">
+        <v>1418.2969700000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>10</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B231,Plan2!$L$1:$L$21,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="D231" s="120">
+        <v>0.49102299999999999</v>
+      </c>
+      <c r="E231" s="120">
+        <v>840.31833900000004</v>
+      </c>
+      <c r="F231" s="121">
+        <v>610.61969399999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>11</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B232,Plan2!$L$1:$L$21,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D232" s="118">
+        <v>0.91300499999999996</v>
+      </c>
+      <c r="E232" s="118">
+        <v>1996.6552529999999</v>
+      </c>
+      <c r="F232" s="119">
+        <v>1307.207136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>12</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B233,Plan2!$L$1:$L$21,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D233" s="120">
+        <v>0.91300499999999996</v>
+      </c>
+      <c r="E233" s="120">
+        <v>1996.6552529999999</v>
+      </c>
+      <c r="F233" s="121">
+        <v>1307.207136</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>13</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B234,Plan2!$L$1:$L$21,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D234" s="118">
+        <v>0.91300499999999996</v>
+      </c>
+      <c r="E234" s="118">
+        <v>1996.6552529999999</v>
+      </c>
+      <c r="F234" s="119">
+        <v>1307.207136</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>14</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B235,Plan2!$L$1:$L$21,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D235" s="120">
+        <v>0.882718</v>
+      </c>
+      <c r="E235" s="120">
+        <v>1986.744064</v>
+      </c>
+      <c r="F235" s="121">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>15</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B236,Plan2!$L$1:$L$21,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D236" s="118">
+        <v>0.882718</v>
+      </c>
+      <c r="E236" s="118">
+        <v>1986.744064</v>
+      </c>
+      <c r="F236" s="119">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>16</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B237,Plan2!$L$1:$L$21,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D237" s="120">
+        <v>0.882718</v>
+      </c>
+      <c r="E237" s="120">
+        <v>1986.744064</v>
+      </c>
+      <c r="F237" s="121">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>17</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B238,Plan2!$L$1:$L$21,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D238" s="118">
+        <v>0.882718</v>
+      </c>
+      <c r="E238" s="118">
+        <v>1986.744064</v>
+      </c>
+      <c r="F238" s="119">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>18</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B239,Plan2!$L$1:$L$21,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="D239" s="120">
+        <v>0.850437</v>
+      </c>
+      <c r="E239" s="120">
+        <v>690.63983199999996</v>
+      </c>
+      <c r="F239" s="121">
+        <v>547.91899699999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>19</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B240,Plan2!$L$1:$L$21,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D240" s="118">
+        <v>0.882718</v>
+      </c>
+      <c r="E240" s="118">
+        <v>1986.744064</v>
+      </c>
+      <c r="F240" s="119">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>20</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" s="21">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B241,Plan2!$L$1:$L$21,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D241" s="120">
+        <v>0.882718</v>
+      </c>
+      <c r="E241" s="120">
+        <v>1986.744064</v>
+      </c>
+      <c r="F241" s="121">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>21</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242" s="20">
+        <f>INDEX(Plan2!$K$1:$O$21,MATCH($B242,Plan2!$L$1:$L$21,0),1)</f>
+        <v>6</v>
+      </c>
+      <c r="D242" s="118">
+        <v>0.61235300000000004</v>
+      </c>
+      <c r="E242" s="118">
+        <v>1656.406297</v>
+      </c>
+      <c r="F242" s="119">
+        <v>1377.7338070000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B243" s="117"/>
+      <c r="C243" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" s="17">
+        <f>AVERAGE(D222:D242)</f>
+        <v>0.85559200000000013</v>
+      </c>
+      <c r="E243" s="17">
+        <f t="shared" ref="E243:F243" si="43">AVERAGE(E222:E242)</f>
+        <v>3412.705855571427</v>
+      </c>
+      <c r="F243" s="17">
+        <f t="shared" si="43"/>
+        <v>1813.0394285238096</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A29:U49">
     <sortCondition ref="C29:C49"/>
   </sortState>
-  <mergeCells count="42">
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="F102:H102"/>
+  <mergeCells count="44">
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="W27:Y27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A24:B24"/>
@@ -18244,20 +18898,23 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="S27:U27"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:N52"/>
   </mergeCells>
   <conditionalFormatting sqref="O3:O23">
     <cfRule type="colorScale" priority="12">
@@ -18375,524 +19032,948 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M17" sqref="M17:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>51</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1">
+        <v>0.98288200000000003</v>
+      </c>
+      <c r="F1">
+        <v>10732.517977</v>
+      </c>
+      <c r="G1">
+        <v>5800.2363530000002</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="O1">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0.98288200000000003</v>
+      </c>
+      <c r="F2">
+        <v>10732.517977</v>
+      </c>
+      <c r="G2">
+        <v>5800.2363530000002</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="O2">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0.98288200000000003</v>
+      </c>
+      <c r="F3">
+        <v>10732.517977</v>
+      </c>
+      <c r="G3">
+        <v>5800.2363530000002</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="O3">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0.98288200000000003</v>
+      </c>
+      <c r="F4">
+        <v>10732.517977</v>
+      </c>
+      <c r="G4">
+        <v>5800.2363530000002</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="L4" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="O4">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0.98288200000000003</v>
+      </c>
+      <c r="F5">
+        <v>10732.517977</v>
+      </c>
+      <c r="G5">
+        <v>5800.2363530000002</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>8808.1742479999994</v>
+      </c>
+      <c r="O5">
+        <v>3527.84204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="E6">
+        <v>0.98288200000000003</v>
+      </c>
+      <c r="F6">
+        <v>10732.517977</v>
+      </c>
+      <c r="G6">
+        <v>5800.2363530000002</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0.93078461141137303</v>
-      </c>
-      <c r="F2">
-        <v>8808.1742481893507</v>
-      </c>
-      <c r="G2">
-        <v>3527.84204033275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.93078461141137303</v>
-      </c>
-      <c r="F3">
-        <v>8808.1742481893507</v>
-      </c>
-      <c r="G3">
-        <v>3527.84204033275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.93078461141137303</v>
-      </c>
-      <c r="F4">
-        <v>8808.1742481893507</v>
-      </c>
-      <c r="G4">
-        <v>3527.84204033275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.93078461141137303</v>
-      </c>
-      <c r="F5">
-        <v>8808.1742481893507</v>
-      </c>
-      <c r="G5">
-        <v>3527.84204033275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.93078461141137303</v>
-      </c>
-      <c r="F6">
-        <v>8808.1742481893507</v>
-      </c>
-      <c r="G6">
-        <v>3527.84204033275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L6" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6">
+        <v>1168.191049</v>
+      </c>
+      <c r="O6">
+        <v>963.13507900000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0.95653699999999997</v>
+      </c>
+      <c r="F7">
+        <v>1523.448885</v>
+      </c>
+      <c r="G7">
+        <v>1235.700523</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7">
+        <v>1996.6552529999999</v>
+      </c>
+      <c r="O7">
+        <v>1307.207136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0.95653699999999997</v>
+      </c>
+      <c r="F8">
+        <v>1523.448885</v>
+      </c>
+      <c r="G8">
+        <v>1235.700523</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8">
+        <v>1996.6552529999999</v>
+      </c>
+      <c r="O8">
+        <v>1307.207136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.95653699999999997</v>
+      </c>
+      <c r="F9">
+        <v>1523.448885</v>
+      </c>
+      <c r="G9">
+        <v>1235.700523</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9">
+        <v>1996.6552529999999</v>
+      </c>
+      <c r="O9">
+        <v>1307.207136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0.82506000000000002</v>
+      </c>
+      <c r="F10">
+        <v>3525.4418089999999</v>
+      </c>
+      <c r="G10">
+        <v>2665.5043799999999</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>1986.744064</v>
+      </c>
+      <c r="O10">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0.82506000000000002</v>
+      </c>
+      <c r="F11">
+        <v>3525.4418089999999</v>
+      </c>
+      <c r="G11">
+        <v>2665.5043799999999</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>1986.744064</v>
+      </c>
+      <c r="O11">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.82506000000000002</v>
+      </c>
+      <c r="F12">
+        <v>3525.4418089999999</v>
+      </c>
+      <c r="G12">
+        <v>2665.5043799999999</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>1986.744064</v>
+      </c>
+      <c r="O12">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0.82506000000000002</v>
+      </c>
+      <c r="F13">
+        <v>3525.4418089999999</v>
+      </c>
+      <c r="G13">
+        <v>2665.5043799999999</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>1986.744064</v>
+      </c>
+      <c r="O13">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
+      <c r="D14" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F14">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G14">
+        <v>1745.41038</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>1986.744064</v>
+      </c>
+      <c r="O14">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>0.76300647480070805</v>
-      </c>
-      <c r="F7">
-        <v>1168.1910489874199</v>
-      </c>
-      <c r="G7">
-        <v>963.13507910607905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F15">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G15">
+        <v>1745.41038</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15">
+        <v>1986.744064</v>
+      </c>
+      <c r="O15">
+        <v>1496.4463109999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F16">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G16">
+        <v>1745.41038</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16">
+        <v>840.31833900000004</v>
+      </c>
+      <c r="O16">
+        <v>610.61969399999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0.913004688675915</v>
-      </c>
-      <c r="F8">
-        <v>1996.6552531986699</v>
-      </c>
-      <c r="G8">
-        <v>1307.20713581516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="D17" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F17">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G17">
+        <v>1745.41038</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17">
+        <v>690.63983199999996</v>
+      </c>
+      <c r="O17">
+        <v>547.91899699999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F18">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G18">
+        <v>1745.41038</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18">
+        <v>1656.406297</v>
+      </c>
+      <c r="O18">
+        <v>1377.7338070000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F19">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G19">
+        <v>1745.41038</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19">
+        <v>1965.094247</v>
+      </c>
+      <c r="O19">
+        <v>1418.2969700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F20">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G20">
+        <v>1745.41038</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20">
+        <v>1965.094247</v>
+      </c>
+      <c r="O20">
+        <v>1418.2969700000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0.913004688675915</v>
-      </c>
-      <c r="F9">
-        <v>1996.6552531986699</v>
-      </c>
-      <c r="G9">
-        <v>1307.20713581516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0.913004688675915</v>
-      </c>
-      <c r="F10">
-        <v>1996.6552531986699</v>
-      </c>
-      <c r="G10">
-        <v>1307.20713581516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="D21" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>0.86749699999999996</v>
+      </c>
+      <c r="F21">
+        <v>2211.1261030000001</v>
+      </c>
+      <c r="G21">
+        <v>1745.41038</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0.88271847369992196</v>
-      </c>
-      <c r="F11">
-        <v>1986.7440638447699</v>
-      </c>
-      <c r="G11">
-        <v>1496.4463109790399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>0.88271847369992196</v>
-      </c>
-      <c r="F12">
-        <v>1986.7440638447699</v>
-      </c>
-      <c r="G12">
-        <v>1496.4463109790399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0.88271847369992196</v>
-      </c>
-      <c r="F13">
-        <v>1986.7440638447699</v>
-      </c>
-      <c r="G13">
-        <v>1496.4463109790399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>0.88271847369992196</v>
-      </c>
-      <c r="F14">
-        <v>1986.7440638447699</v>
-      </c>
-      <c r="G14">
-        <v>1496.4463109790399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>0.88271847369992196</v>
-      </c>
-      <c r="F15">
-        <v>1986.7440638447699</v>
-      </c>
-      <c r="G15">
-        <v>1496.4463109790399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>0.88271847369992196</v>
-      </c>
-      <c r="F16">
-        <v>1986.7440638447699</v>
-      </c>
-      <c r="G16">
-        <v>1496.4463109790399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>0.49102298946484302</v>
-      </c>
-      <c r="F17">
-        <v>840.31833866727902</v>
-      </c>
-      <c r="G17">
-        <v>610.61969437712696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>0.85043707638138</v>
-      </c>
-      <c r="F18">
-        <v>690.63983224931303</v>
-      </c>
-      <c r="G18">
-        <v>547.91899725853602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>0.61235251166395399</v>
-      </c>
-      <c r="F19">
-        <v>1656.40629735834</v>
-      </c>
-      <c r="G19">
-        <v>1377.73380704493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0.87784760231223902</v>
-      </c>
-      <c r="F20">
-        <v>1965.09424676817</v>
-      </c>
-      <c r="G20">
-        <v>1418.2969699456601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0.87784760231223902</v>
-      </c>
-      <c r="F21">
-        <v>1965.09424676817</v>
-      </c>
-      <c r="G21">
-        <v>1418.2969699456601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="113" t="s">
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>0.80566888759353905</v>
-      </c>
-      <c r="F22">
-        <v>1429.7775727350299</v>
-      </c>
-      <c r="G22">
-        <v>1198.3170078099299</v>
-      </c>
+      <c r="M21" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21">
+        <v>1429.7775730000001</v>
+      </c>
+      <c r="O21">
+        <v>1198.317008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model_scores_table.xlsx
+++ b/model_scores_table.xlsx
@@ -231,7 +231,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1093,13 +1093,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1138,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,66 +1193,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,73 +1401,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$C$128:$C$148</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.48866488772239403</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41555513882862199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26183684540528002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20379422849967399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.178055173028486</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.31627063283851597</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47360014350278701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55686438369504399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42385789115127598</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54615863222193395</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.88262549258256096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.62612208652065604</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.558277559214582</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.38009276666556302</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.659300874404537</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.34694346645246699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.62577954367063504</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.54020414234529801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.51733687282687502</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.73721972655900103</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.59688701820077605</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1584,73 +1517,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$D$128:$D$148</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.62463139188796002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.238648046514081</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26706879737985101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57771687604219002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36685937504796001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56078619720995204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65670073149932495</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26662760879654102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54167569726937204</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.62596973563760205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15570900250376299</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54056426263971402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49661708637555102</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.71904002931878297</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.61268122286517901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.218488422710577</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.62039147453478305</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.56622380133780703</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24569260537965801</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63219520524916395</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.64900804423980696</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1767,73 +1633,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$E$128:$E$148</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.31493194760403798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.238648046514081</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26706879737985101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57771687604219002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36685937504796001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56078619720995204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65670073149932495</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26662760879654102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54167569726937204</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.62596973563760205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15570900250376299</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54056426263971402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49661708637555102</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.71904002931878297</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.61268122286517901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.218488422710577</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.62039147453478305</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.56622380133780703</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24569260537965801</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63219520524916395</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.64900804423980696</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1950,73 +1749,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$F$128:$F$148</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.189398494153623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.406658240065006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.194660608224937</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28563437862535102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23673454380431999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62378754703420403</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52496422271712295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.199798581955272</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45551054888602999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15844026062384201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.55879728017123398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60555441958994505</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.26034583761511398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9145041682243197E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.172010294795888</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.433547180464675</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19778729353844801</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.552083606058409</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.29130271712075401</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36155262721276898</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.26259810133266298</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2133,73 +1865,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$G$128:$G$148</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.89673257438037701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97606766609036</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96067444010105896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.969961964812877</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97019149720919096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98211027260174699</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94252609999179804</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93526938075717403</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95752826514051503</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98490779934607098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94189770646876803</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93958628922505505</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.96688238181284802</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96250913623958501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95482001778736603</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98746041464584999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98711358683089201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.94945910240467002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.98256751448925395</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94683112711681505</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94329954408796901</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2212,11 +1877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1989395984"/>
-        <c:axId val="1989397072"/>
+        <c:axId val="-1072237248"/>
+        <c:axId val="-1072236704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1989395984"/>
+        <c:axId val="-1072237248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,12 +1937,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1989397072"/>
+        <c:crossAx val="-1072236704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1989397072"/>
+        <c:axId val="-1072236704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +1999,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1989395984"/>
+        <c:crossAx val="-1072237248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2608,73 +2273,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$C$151:$C$171</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99035243967690401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99035243967690401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99035243967690401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2791,73 +2389,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$D$151:$D$171</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97900975659721801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97900975659721801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97900975659721801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2974,73 +2505,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$E$151:$E$171</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94454499999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94454499999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94454499999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3157,73 +2621,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$F$151:$F$171</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95653699999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95653699999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95653699999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3340,73 +2737,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$G$151:$G$171</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86368212226783003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86368212226783003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86368212226783003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3419,11 +2749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1989401424"/>
-        <c:axId val="2054198896"/>
+        <c:axId val="-1098893008"/>
+        <c:axId val="-1098897360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1989401424"/>
+        <c:axId val="-1098893008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,12 +2809,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054198896"/>
+        <c:crossAx val="-1098897360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2054198896"/>
+        <c:axId val="-1098897360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +2871,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1989401424"/>
+        <c:crossAx val="-1098893008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3815,73 +3145,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$C$174:$C$194</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84776716603935198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86368212226783003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86368212226783003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86368212226783003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91089418977074399</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.89568750983499001</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3998,73 +3261,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$D$174:$D$194</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.89673257438037701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97606766609036</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96067444010105896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.969961964812877</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97019149720919096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98211027260174699</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94252609999179804</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93526938075717403</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95752826514051503</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98490779934607098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94189770646876803</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93958628922505505</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.96688238181284802</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96250913623958501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95482001778736603</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98746041464584999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98711358683089201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.94945910240467002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.98256751448925395</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94683112711681505</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94329954408796901</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -4077,11 +3273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2054192912"/>
-        <c:axId val="2054203792"/>
+        <c:axId val="-899644512"/>
+        <c:axId val="-899648864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2054192912"/>
+        <c:axId val="-899644512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,12 +3333,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054203792"/>
+        <c:crossAx val="-899648864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2054203792"/>
+        <c:axId val="-899648864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +3395,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054192912"/>
+        <c:crossAx val="-899644512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4473,73 +3669,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$C$197:$C$217</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97169581481513101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99035243967690401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99035243967690401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99035243967690401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.908285848693133</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.75972487436386404</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -4656,73 +3785,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$D$197:$D$217</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98271960514234302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97900975659721801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97900975659721801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97900975659721801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93461905705690396</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96666858756792096</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -4839,73 +3901,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$E$197:$E$217</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99655700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94454499999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94454499999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94454499999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.94282500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.983101</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -5022,73 +4017,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$F$197:$F$217</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98288200000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95653699999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95653699999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95653699999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.82506000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.86749699999999996</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -5205,73 +4133,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Scores!$G$197:$G$217</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.89673257438037701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97606766609036</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96067444010105896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.969961964812877</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97019149720919096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98211027260174699</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94252609999179804</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93526938075717403</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95752826514051503</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98490779934607098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94189770646876803</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93958628922505505</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.96688238181284802</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.96250913623958501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95482001778736603</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98746041464584999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98711358683089201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.94945910240467002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.98256751448925395</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94683112711681505</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94329954408796901</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -5284,11 +4145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2054197808"/>
-        <c:axId val="2054198352"/>
+        <c:axId val="-899648320"/>
+        <c:axId val="-899640160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2054197808"/>
+        <c:axId val="-899648320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5344,12 +4205,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054198352"/>
+        <c:crossAx val="-899640160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2054198352"/>
+        <c:axId val="-899640160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000011"/>
@@ -5407,7 +4268,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054197808"/>
+        <c:crossAx val="-899648320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8110,58 +6971,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="F243" sqref="A220:F243"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:U75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="13.7109375" customWidth="1"/>
+    <col min="3" max="18" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="25" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106" t="s">
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106" t="s">
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106" t="s">
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="106"/>
-      <c r="T1" s="107"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103"/>
-      <c r="B2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
@@ -8221,7 +7083,7 @@
       <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="88" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="56">
@@ -8351,7 +7213,7 @@
       <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="88" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="56">
@@ -8481,7 +7343,7 @@
       <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="88" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="56">
@@ -8611,7 +7473,7 @@
       <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="88" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="56">
@@ -8741,7 +7603,7 @@
       <c r="A11" s="55">
         <v>9</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="88" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="56">
@@ -8871,7 +7733,7 @@
       <c r="A13" s="55">
         <v>11</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="88" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="56">
@@ -9001,7 +7863,7 @@
       <c r="A15" s="55">
         <v>13</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="88" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="56">
@@ -9131,7 +7993,7 @@
       <c r="A17" s="55">
         <v>15</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="88" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="56">
@@ -9261,7 +8123,7 @@
       <c r="A19" s="55">
         <v>17</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="88" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="56">
@@ -9391,7 +8253,7 @@
       <c r="A21" s="55">
         <v>19</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="88" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="56">
@@ -9521,7 +8383,7 @@
       <c r="A23" s="55">
         <v>21</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="88" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="56">
@@ -9583,10 +8445,10 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="49">
         <f>AVERAGE(C3:C23)</f>
         <v>0.49216416696842685</v>
@@ -9663,51 +8525,51 @@
     <row r="25" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="88" t="s">
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="88" t="s">
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="88" t="s">
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="88" t="s">
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
       <c r="V27" s="18"/>
-      <c r="W27" s="89" t="s">
+      <c r="W27" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="90"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="106"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="93"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -9812,13 +8674,13 @@
       <c r="K29" s="20">
         <v>0</v>
       </c>
-      <c r="L29" s="110">
+      <c r="L29" s="89">
         <v>0.99655700000000003</v>
       </c>
-      <c r="M29" s="110">
+      <c r="M29" s="89">
         <v>2409.3988260000001</v>
       </c>
-      <c r="N29" s="111">
+      <c r="N29" s="90">
         <v>1387.4328</v>
       </c>
       <c r="O29" s="20">
@@ -9896,13 +8758,13 @@
       <c r="K30" s="21">
         <v>0</v>
       </c>
-      <c r="L30" s="112">
+      <c r="L30" s="91">
         <v>0.99655700000000003</v>
       </c>
-      <c r="M30" s="112">
+      <c r="M30" s="91">
         <v>2409.3988260000001</v>
       </c>
-      <c r="N30" s="113">
+      <c r="N30" s="92">
         <v>1387.4328</v>
       </c>
       <c r="O30" s="21" t="str">
@@ -9980,13 +8842,13 @@
       <c r="K31" s="20">
         <v>0</v>
       </c>
-      <c r="L31" s="110">
+      <c r="L31" s="89">
         <v>0.99655700000000003</v>
       </c>
-      <c r="M31" s="110">
+      <c r="M31" s="89">
         <v>2409.3988260000001</v>
       </c>
-      <c r="N31" s="111">
+      <c r="N31" s="90">
         <v>1387.4328</v>
       </c>
       <c r="O31" s="20" t="str">
@@ -10064,13 +8926,13 @@
       <c r="K32" s="21">
         <v>0</v>
       </c>
-      <c r="L32" s="112">
+      <c r="L32" s="91">
         <v>0.99655700000000003</v>
       </c>
-      <c r="M32" s="112">
+      <c r="M32" s="91">
         <v>2409.3988260000001</v>
       </c>
-      <c r="N32" s="113">
+      <c r="N32" s="92">
         <v>1387.4328</v>
       </c>
       <c r="O32" s="21" t="str">
@@ -10148,13 +9010,13 @@
       <c r="K33" s="20">
         <v>0</v>
       </c>
-      <c r="L33" s="110">
+      <c r="L33" s="89">
         <v>0.99655700000000003</v>
       </c>
-      <c r="M33" s="110">
+      <c r="M33" s="89">
         <v>2409.3988260000001</v>
       </c>
-      <c r="N33" s="111">
+      <c r="N33" s="90">
         <v>1387.4328</v>
       </c>
       <c r="O33" s="20" t="str">
@@ -10232,13 +9094,13 @@
       <c r="K34" s="21">
         <v>0</v>
       </c>
-      <c r="L34" s="112">
+      <c r="L34" s="91">
         <v>0.99655700000000003</v>
       </c>
-      <c r="M34" s="112">
+      <c r="M34" s="91">
         <v>2409.3988260000001</v>
       </c>
-      <c r="N34" s="113">
+      <c r="N34" s="92">
         <v>1387.4328</v>
       </c>
       <c r="O34" s="21" t="str">
@@ -10316,13 +9178,13 @@
       <c r="K35" s="20">
         <v>1</v>
       </c>
-      <c r="L35" s="110">
+      <c r="L35" s="89">
         <v>0.94454499999999997</v>
       </c>
-      <c r="M35" s="110">
+      <c r="M35" s="89">
         <v>860.594426</v>
       </c>
-      <c r="N35" s="111">
+      <c r="N35" s="90">
         <v>737.28508199999999</v>
       </c>
       <c r="O35" s="20" t="str">
@@ -10400,13 +9262,13 @@
       <c r="K36" s="21">
         <v>1</v>
       </c>
-      <c r="L36" s="112">
+      <c r="L36" s="91">
         <v>0.94454499999999997</v>
       </c>
-      <c r="M36" s="112">
+      <c r="M36" s="91">
         <v>860.594426</v>
       </c>
-      <c r="N36" s="113">
+      <c r="N36" s="92">
         <v>737.28508199999999</v>
       </c>
       <c r="O36" s="21" t="str">
@@ -10484,13 +9346,13 @@
       <c r="K37" s="20">
         <v>1</v>
       </c>
-      <c r="L37" s="110">
+      <c r="L37" s="89">
         <v>0.94454499999999997</v>
       </c>
-      <c r="M37" s="110">
+      <c r="M37" s="89">
         <v>860.594426</v>
       </c>
-      <c r="N37" s="111">
+      <c r="N37" s="90">
         <v>737.28508199999999</v>
       </c>
       <c r="O37" s="20" t="str">
@@ -10568,13 +9430,13 @@
       <c r="K38" s="21">
         <v>2</v>
       </c>
-      <c r="L38" s="112">
+      <c r="L38" s="91">
         <v>0.94282500000000002</v>
       </c>
-      <c r="M38" s="112">
+      <c r="M38" s="91">
         <v>961.90143499999999</v>
       </c>
-      <c r="N38" s="113">
+      <c r="N38" s="92">
         <v>711.66940399999999</v>
       </c>
       <c r="O38" s="21" t="str">
@@ -10652,13 +9514,13 @@
       <c r="K39" s="20">
         <v>2</v>
       </c>
-      <c r="L39" s="110">
+      <c r="L39" s="89">
         <v>0.94282500000000002</v>
       </c>
-      <c r="M39" s="110">
+      <c r="M39" s="89">
         <v>961.90143499999999</v>
       </c>
-      <c r="N39" s="111">
+      <c r="N39" s="90">
         <v>711.66940399999999</v>
       </c>
       <c r="O39" s="20" t="str">
@@ -10736,13 +9598,13 @@
       <c r="K40" s="21">
         <v>2</v>
       </c>
-      <c r="L40" s="112">
+      <c r="L40" s="91">
         <v>0.94282500000000002</v>
       </c>
-      <c r="M40" s="112">
+      <c r="M40" s="91">
         <v>961.90143499999999</v>
       </c>
-      <c r="N40" s="113">
+      <c r="N40" s="92">
         <v>711.66940399999999</v>
       </c>
       <c r="O40" s="21" t="str">
@@ -10820,13 +9682,13 @@
       <c r="K41" s="20">
         <v>2</v>
       </c>
-      <c r="L41" s="110">
+      <c r="L41" s="89">
         <v>0.94282500000000002</v>
       </c>
-      <c r="M41" s="110">
+      <c r="M41" s="89">
         <v>961.90143499999999</v>
       </c>
-      <c r="N41" s="111">
+      <c r="N41" s="90">
         <v>711.66940399999999</v>
       </c>
       <c r="O41" s="20" t="str">
@@ -10904,13 +9766,13 @@
       <c r="K42" s="21">
         <v>3</v>
       </c>
-      <c r="L42" s="112">
+      <c r="L42" s="91">
         <v>0.983101</v>
       </c>
-      <c r="M42" s="112">
+      <c r="M42" s="91">
         <v>1376.665109</v>
       </c>
-      <c r="N42" s="113">
+      <c r="N42" s="92">
         <v>899.61578799999995</v>
       </c>
       <c r="O42" s="21" t="str">
@@ -10988,13 +9850,13 @@
       <c r="K43" s="20">
         <v>3</v>
       </c>
-      <c r="L43" s="110">
+      <c r="L43" s="89">
         <v>0.983101</v>
       </c>
-      <c r="M43" s="110">
+      <c r="M43" s="89">
         <v>1376.665109</v>
       </c>
-      <c r="N43" s="111">
+      <c r="N43" s="90">
         <v>899.61578799999995</v>
       </c>
       <c r="O43" s="20" t="str">
@@ -11072,13 +9934,13 @@
       <c r="K44" s="21">
         <v>3</v>
       </c>
-      <c r="L44" s="112">
+      <c r="L44" s="91">
         <v>0.983101</v>
       </c>
-      <c r="M44" s="112">
+      <c r="M44" s="91">
         <v>1376.665109</v>
       </c>
-      <c r="N44" s="113">
+      <c r="N44" s="92">
         <v>899.61578799999995</v>
       </c>
       <c r="O44" s="21" t="str">
@@ -11156,13 +10018,13 @@
       <c r="K45" s="20">
         <v>3</v>
       </c>
-      <c r="L45" s="110">
+      <c r="L45" s="89">
         <v>0.983101</v>
       </c>
-      <c r="M45" s="110">
+      <c r="M45" s="89">
         <v>1376.665109</v>
       </c>
-      <c r="N45" s="111">
+      <c r="N45" s="90">
         <v>899.61578799999995</v>
       </c>
       <c r="O45" s="20" t="str">
@@ -11240,13 +10102,13 @@
       <c r="K46" s="21">
         <v>3</v>
       </c>
-      <c r="L46" s="112">
+      <c r="L46" s="91">
         <v>0.983101</v>
       </c>
-      <c r="M46" s="112">
+      <c r="M46" s="91">
         <v>1376.665109</v>
       </c>
-      <c r="N46" s="113">
+      <c r="N46" s="92">
         <v>899.61578799999995</v>
       </c>
       <c r="O46" s="21" t="str">
@@ -11324,13 +10186,13 @@
       <c r="K47" s="20">
         <v>3</v>
       </c>
-      <c r="L47" s="110">
+      <c r="L47" s="89">
         <v>0.983101</v>
       </c>
-      <c r="M47" s="110">
+      <c r="M47" s="89">
         <v>1376.665109</v>
       </c>
-      <c r="N47" s="111">
+      <c r="N47" s="90">
         <v>899.61578799999995</v>
       </c>
       <c r="O47" s="20" t="str">
@@ -11408,13 +10270,13 @@
       <c r="K48" s="21">
         <v>3</v>
       </c>
-      <c r="L48" s="112">
+      <c r="L48" s="91">
         <v>0.983101</v>
       </c>
-      <c r="M48" s="112">
+      <c r="M48" s="91">
         <v>1376.665109</v>
       </c>
-      <c r="N48" s="113">
+      <c r="N48" s="92">
         <v>899.61578799999995</v>
       </c>
       <c r="O48" s="21" t="str">
@@ -11492,13 +10354,13 @@
       <c r="K49" s="20">
         <v>3</v>
       </c>
-      <c r="L49" s="110">
+      <c r="L49" s="89">
         <v>0.983101</v>
       </c>
-      <c r="M49" s="110">
+      <c r="M49" s="89">
         <v>1376.665109</v>
       </c>
-      <c r="N49" s="111">
+      <c r="N49" s="90">
         <v>899.61578799999995</v>
       </c>
       <c r="O49" s="20" t="str">
@@ -11543,11 +10405,11 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="17">
         <f>AVERAGE(D29:D49)</f>
         <v>0.88153212369547351</v>
@@ -11633,53 +10495,53 @@
         <v>1605.137265661574</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:25" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91" t="s">
+    <row r="51" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="88" t="s">
+      <c r="C52" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="88" t="s">
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="88" t="s">
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="88" t="s">
+      <c r="L52" s="103"/>
+      <c r="M52" s="103"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="89"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="88" t="s">
+      <c r="P52" s="103"/>
+      <c r="Q52" s="103"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T52" s="89"/>
-      <c r="U52" s="89"/>
+      <c r="T52" s="103"/>
+      <c r="U52" s="103"/>
       <c r="V52" s="82"/>
-      <c r="W52" s="89" t="s">
+      <c r="W52" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="90"/>
-    </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
-      <c r="B53" s="93"/>
+      <c r="X52" s="103"/>
+      <c r="Y52" s="106"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="102"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="80" t="s">
         <v>32</v>
       </c>
@@ -11750,7 +10612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>1</v>
       </c>
@@ -11830,7 +10692,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -11910,7 +10772,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>3</v>
       </c>
@@ -11990,7 +10852,7 @@
         <v>1198.3170078099299</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>4</v>
       </c>
@@ -12070,7 +10932,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>5</v>
       </c>
@@ -12150,7 +11012,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>6</v>
       </c>
@@ -12230,7 +11092,7 @@
         <v>3527.84204033275</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>7</v>
       </c>
@@ -12310,7 +11172,7 @@
         <v>1418.2969699456601</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>8</v>
       </c>
@@ -12390,7 +11252,7 @@
         <v>963.13507910607905</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>9</v>
       </c>
@@ -12470,7 +11332,7 @@
         <v>1418.2969699456601</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>10</v>
       </c>
@@ -12550,7 +11412,7 @@
         <v>610.61969437712696</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>11</v>
       </c>
@@ -12630,7 +11492,7 @@
         <v>1307.20713581516</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>12</v>
       </c>
@@ -12710,7 +11572,7 @@
         <v>1307.20713581516</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>13</v>
       </c>
@@ -12790,7 +11652,7 @@
         <v>1307.20713581516</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>14</v>
       </c>
@@ -12870,7 +11732,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>15</v>
       </c>
@@ -12950,7 +11812,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>16</v>
       </c>
@@ -13030,7 +11892,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>17</v>
       </c>
@@ -13110,7 +11972,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>18</v>
       </c>
@@ -13190,7 +12052,7 @@
         <v>547.91899725853602</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>19</v>
       </c>
@@ -13270,7 +12132,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>20</v>
       </c>
@@ -13350,7 +12212,7 @@
         <v>1496.4463109790399</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>21</v>
       </c>
@@ -13430,12 +12292,12 @@
         <v>1377.73380704493</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="89" t="s">
+    <row r="75" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="89"/>
-      <c r="C75" s="90"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="106"/>
       <c r="D75" s="17">
         <f>AVERAGE(D54:D74)</f>
         <v>0.81466972419495731</v>
@@ -13523,41 +12385,41 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="91" t="s">
+      <c r="A77" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="89" t="s">
+      <c r="B77" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="88" t="s">
+      <c r="C77" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="88" t="s">
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="88" t="s">
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="103"/>
+      <c r="K77" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="89"/>
-      <c r="O77" s="88" t="s">
+      <c r="L77" s="103"/>
+      <c r="M77" s="103"/>
+      <c r="N77" s="103"/>
+      <c r="O77" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="P77" s="89"/>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="89"/>
-      <c r="S77" s="88" t="s">
+      <c r="P77" s="103"/>
+      <c r="Q77" s="103"/>
+      <c r="R77" s="103"/>
+      <c r="S77" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T77" s="89"/>
-      <c r="U77" s="89"/>
+      <c r="T77" s="103"/>
+      <c r="U77" s="103"/>
       <c r="V77" s="28" t="s">
         <v>33</v>
       </c>
@@ -13566,8 +12428,8 @@
       <c r="Y77" s="29"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="92"/>
-      <c r="B78" s="93"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="2" t="s">
         <v>32</v>
       </c>
@@ -15319,11 +14181,11 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="96" t="s">
+      <c r="A100" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="96"/>
-      <c r="C100" s="97"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="117"/>
       <c r="D100" s="17">
         <f>AVERAGE(D79:D99)</f>
         <v>-150.06570667142941</v>
@@ -15411,36 +14273,36 @@
     </row>
     <row r="101" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="100" t="s">
+      <c r="A102" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="94" t="s">
+      <c r="B102" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="94" t="s">
+      <c r="C102" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="D102" s="94"/>
-      <c r="E102" s="95"/>
-      <c r="F102" s="94" t="s">
+      <c r="D102" s="114"/>
+      <c r="E102" s="115"/>
+      <c r="F102" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="G102" s="94"/>
-      <c r="H102" s="95"/>
-      <c r="I102" s="94" t="s">
+      <c r="G102" s="114"/>
+      <c r="H102" s="115"/>
+      <c r="I102" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="J102" s="94"/>
-      <c r="K102" s="95"/>
-      <c r="L102" s="94" t="s">
+      <c r="J102" s="114"/>
+      <c r="K102" s="115"/>
+      <c r="L102" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="M102" s="94"/>
-      <c r="N102" s="95"/>
+      <c r="M102" s="114"/>
+      <c r="N102" s="115"/>
     </row>
     <row r="103" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="101"/>
-      <c r="B103" s="93"/>
+      <c r="A103" s="121"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="71" t="s">
         <v>1</v>
       </c>
@@ -16403,10 +15265,10 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="98" t="s">
+      <c r="A125" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B125" s="99"/>
+      <c r="B125" s="119"/>
       <c r="C125" s="73">
         <f>AVERAGE(C104:C124)</f>
         <v>-279.0804845688416</v>
@@ -17007,7 +15869,7 @@
       <c r="D151" s="31">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E151" s="114">
+      <c r="E151" s="93">
         <v>0.99655700000000003</v>
       </c>
       <c r="F151" s="31">
@@ -17030,7 +15892,7 @@
       <c r="D152" s="34">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E152" s="115">
+      <c r="E152" s="94">
         <v>0.99655700000000003</v>
       </c>
       <c r="F152" s="34">
@@ -17053,7 +15915,7 @@
       <c r="D153" s="31">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E153" s="114">
+      <c r="E153" s="93">
         <v>0.99655700000000003</v>
       </c>
       <c r="F153" s="31">
@@ -17076,7 +15938,7 @@
       <c r="D154" s="34">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E154" s="115">
+      <c r="E154" s="94">
         <v>0.99655700000000003</v>
       </c>
       <c r="F154" s="34">
@@ -17099,7 +15961,7 @@
       <c r="D155" s="31">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E155" s="114">
+      <c r="E155" s="93">
         <v>0.99655700000000003</v>
       </c>
       <c r="F155" s="31">
@@ -17122,7 +15984,7 @@
       <c r="D156" s="34">
         <v>0.98271960514234302</v>
       </c>
-      <c r="E156" s="115">
+      <c r="E156" s="94">
         <v>0.99655700000000003</v>
       </c>
       <c r="F156" s="34">
@@ -17145,7 +16007,7 @@
       <c r="D157" s="31">
         <v>0.97900975659721801</v>
       </c>
-      <c r="E157" s="114">
+      <c r="E157" s="93">
         <v>0.94454499999999997</v>
       </c>
       <c r="F157" s="31">
@@ -17168,7 +16030,7 @@
       <c r="D158" s="34">
         <v>0.97900975659721801</v>
       </c>
-      <c r="E158" s="115">
+      <c r="E158" s="94">
         <v>0.94454499999999997</v>
       </c>
       <c r="F158" s="34">
@@ -17191,7 +16053,7 @@
       <c r="D159" s="31">
         <v>0.97900975659721801</v>
       </c>
-      <c r="E159" s="114">
+      <c r="E159" s="93">
         <v>0.94454499999999997</v>
       </c>
       <c r="F159" s="31">
@@ -17214,7 +16076,7 @@
       <c r="D160" s="34">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E160" s="115">
+      <c r="E160" s="94">
         <v>0.94282500000000002</v>
       </c>
       <c r="F160" s="34">
@@ -17237,7 +16099,7 @@
       <c r="D161" s="31">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E161" s="114">
+      <c r="E161" s="93">
         <v>0.94282500000000002</v>
       </c>
       <c r="F161" s="31">
@@ -17260,7 +16122,7 @@
       <c r="D162" s="34">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E162" s="115">
+      <c r="E162" s="94">
         <v>0.94282500000000002</v>
       </c>
       <c r="F162" s="34">
@@ -17283,7 +16145,7 @@
       <c r="D163" s="31">
         <v>0.93461905705690396</v>
       </c>
-      <c r="E163" s="114">
+      <c r="E163" s="93">
         <v>0.94282500000000002</v>
       </c>
       <c r="F163" s="31">
@@ -17306,7 +16168,7 @@
       <c r="D164" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E164" s="115">
+      <c r="E164" s="94">
         <v>0.983101</v>
       </c>
       <c r="F164" s="34">
@@ -17329,7 +16191,7 @@
       <c r="D165" s="31">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E165" s="114">
+      <c r="E165" s="93">
         <v>0.983101</v>
       </c>
       <c r="F165" s="31">
@@ -17352,7 +16214,7 @@
       <c r="D166" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E166" s="115">
+      <c r="E166" s="94">
         <v>0.983101</v>
       </c>
       <c r="F166" s="34">
@@ -17375,7 +16237,7 @@
       <c r="D167" s="31">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E167" s="114">
+      <c r="E167" s="93">
         <v>0.983101</v>
       </c>
       <c r="F167" s="31">
@@ -17398,7 +16260,7 @@
       <c r="D168" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E168" s="115">
+      <c r="E168" s="94">
         <v>0.983101</v>
       </c>
       <c r="F168" s="34">
@@ -17421,7 +16283,7 @@
       <c r="D169" s="31">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E169" s="114">
+      <c r="E169" s="93">
         <v>0.983101</v>
       </c>
       <c r="F169" s="31">
@@ -17444,7 +16306,7 @@
       <c r="D170" s="34">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E170" s="115">
+      <c r="E170" s="94">
         <v>0.983101</v>
       </c>
       <c r="F170" s="34">
@@ -17467,7 +16329,7 @@
       <c r="D171" s="37">
         <v>0.96666858756792096</v>
       </c>
-      <c r="E171" s="116">
+      <c r="E171" s="95">
         <v>0.983101</v>
       </c>
       <c r="F171" s="37">
@@ -18375,10 +17237,10 @@
     </row>
     <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="220" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="91" t="s">
+      <c r="A220" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B220" s="89" t="s">
+      <c r="B220" s="103" t="s">
         <v>50</v>
       </c>
       <c r="C220" s="28" t="s">
@@ -18389,8 +17251,8 @@
       <c r="F220" s="29"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="92"/>
-      <c r="B221" s="93"/>
+      <c r="A221" s="102"/>
+      <c r="B221" s="104"/>
       <c r="C221" s="86" t="s">
         <v>32</v>
       </c>
@@ -18415,13 +17277,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B222,Plan2!$L$1:$L$21,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D222" s="118">
+      <c r="D222" s="97">
         <v>0.93078499999999997</v>
       </c>
-      <c r="E222" s="118">
+      <c r="E222" s="97">
         <v>8808.1742479999994</v>
       </c>
-      <c r="F222" s="119">
+      <c r="F222" s="98">
         <v>3527.84204</v>
       </c>
     </row>
@@ -18436,13 +17298,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B223,Plan2!$L$1:$L$21,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D223" s="120">
+      <c r="D223" s="99">
         <v>0.93078499999999997</v>
       </c>
-      <c r="E223" s="120">
+      <c r="E223" s="99">
         <v>8808.1742479999994</v>
       </c>
-      <c r="F223" s="121">
+      <c r="F223" s="100">
         <v>3527.84204</v>
       </c>
     </row>
@@ -18457,13 +17319,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B224,Plan2!$L$1:$L$21,0),1)</f>
         <v>8</v>
       </c>
-      <c r="D224" s="118">
+      <c r="D224" s="97">
         <v>0.80566899999999997</v>
       </c>
-      <c r="E224" s="118">
+      <c r="E224" s="97">
         <v>1429.7775730000001</v>
       </c>
-      <c r="F224" s="119">
+      <c r="F224" s="98">
         <v>1198.317008</v>
       </c>
     </row>
@@ -18478,13 +17340,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B225,Plan2!$L$1:$L$21,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D225" s="120">
+      <c r="D225" s="99">
         <v>0.93078499999999997</v>
       </c>
-      <c r="E225" s="120">
+      <c r="E225" s="99">
         <v>8808.1742479999994</v>
       </c>
-      <c r="F225" s="121">
+      <c r="F225" s="100">
         <v>3527.84204</v>
       </c>
     </row>
@@ -18499,13 +17361,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B226,Plan2!$L$1:$L$21,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D226" s="118">
+      <c r="D226" s="97">
         <v>0.93078499999999997</v>
       </c>
-      <c r="E226" s="118">
+      <c r="E226" s="97">
         <v>8808.1742479999994</v>
       </c>
-      <c r="F226" s="119">
+      <c r="F226" s="98">
         <v>3527.84204</v>
       </c>
     </row>
@@ -18520,13 +17382,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B227,Plan2!$L$1:$L$21,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D227" s="120">
+      <c r="D227" s="99">
         <v>0.93078499999999997</v>
       </c>
-      <c r="E227" s="120">
+      <c r="E227" s="99">
         <v>8808.1742479999994</v>
       </c>
-      <c r="F227" s="121">
+      <c r="F227" s="100">
         <v>3527.84204</v>
       </c>
     </row>
@@ -18541,13 +17403,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B228,Plan2!$L$1:$L$21,0),1)</f>
         <v>7</v>
       </c>
-      <c r="D228" s="118">
+      <c r="D228" s="97">
         <v>0.87784799999999996</v>
       </c>
-      <c r="E228" s="118">
+      <c r="E228" s="97">
         <v>1965.094247</v>
       </c>
-      <c r="F228" s="119">
+      <c r="F228" s="98">
         <v>1418.2969700000001</v>
       </c>
     </row>
@@ -18562,13 +17424,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B229,Plan2!$L$1:$L$21,0),1)</f>
         <v>1</v>
       </c>
-      <c r="D229" s="120">
+      <c r="D229" s="99">
         <v>0.76300599999999996</v>
       </c>
-      <c r="E229" s="120">
+      <c r="E229" s="99">
         <v>1168.191049</v>
       </c>
-      <c r="F229" s="121">
+      <c r="F229" s="100">
         <v>963.13507900000002</v>
       </c>
     </row>
@@ -18583,13 +17445,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B230,Plan2!$L$1:$L$21,0),1)</f>
         <v>7</v>
       </c>
-      <c r="D230" s="118">
+      <c r="D230" s="97">
         <v>0.87784799999999996</v>
       </c>
-      <c r="E230" s="118">
+      <c r="E230" s="97">
         <v>1965.094247</v>
       </c>
-      <c r="F230" s="119">
+      <c r="F230" s="98">
         <v>1418.2969700000001</v>
       </c>
     </row>
@@ -18604,13 +17466,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B231,Plan2!$L$1:$L$21,0),1)</f>
         <v>4</v>
       </c>
-      <c r="D231" s="120">
+      <c r="D231" s="99">
         <v>0.49102299999999999</v>
       </c>
-      <c r="E231" s="120">
+      <c r="E231" s="99">
         <v>840.31833900000004</v>
       </c>
-      <c r="F231" s="121">
+      <c r="F231" s="100">
         <v>610.61969399999998</v>
       </c>
     </row>
@@ -18625,13 +17487,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B232,Plan2!$L$1:$L$21,0),1)</f>
         <v>2</v>
       </c>
-      <c r="D232" s="118">
+      <c r="D232" s="97">
         <v>0.91300499999999996</v>
       </c>
-      <c r="E232" s="118">
+      <c r="E232" s="97">
         <v>1996.6552529999999</v>
       </c>
-      <c r="F232" s="119">
+      <c r="F232" s="98">
         <v>1307.207136</v>
       </c>
     </row>
@@ -18646,13 +17508,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B233,Plan2!$L$1:$L$21,0),1)</f>
         <v>2</v>
       </c>
-      <c r="D233" s="120">
+      <c r="D233" s="99">
         <v>0.91300499999999996</v>
       </c>
-      <c r="E233" s="120">
+      <c r="E233" s="99">
         <v>1996.6552529999999</v>
       </c>
-      <c r="F233" s="121">
+      <c r="F233" s="100">
         <v>1307.207136</v>
       </c>
     </row>
@@ -18667,13 +17529,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B234,Plan2!$L$1:$L$21,0),1)</f>
         <v>2</v>
       </c>
-      <c r="D234" s="118">
+      <c r="D234" s="97">
         <v>0.91300499999999996</v>
       </c>
-      <c r="E234" s="118">
+      <c r="E234" s="97">
         <v>1996.6552529999999</v>
       </c>
-      <c r="F234" s="119">
+      <c r="F234" s="98">
         <v>1307.207136</v>
       </c>
     </row>
@@ -18688,13 +17550,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B235,Plan2!$L$1:$L$21,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D235" s="120">
+      <c r="D235" s="99">
         <v>0.882718</v>
       </c>
-      <c r="E235" s="120">
+      <c r="E235" s="99">
         <v>1986.744064</v>
       </c>
-      <c r="F235" s="121">
+      <c r="F235" s="100">
         <v>1496.4463109999999</v>
       </c>
     </row>
@@ -18709,13 +17571,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B236,Plan2!$L$1:$L$21,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D236" s="118">
+      <c r="D236" s="97">
         <v>0.882718</v>
       </c>
-      <c r="E236" s="118">
+      <c r="E236" s="97">
         <v>1986.744064</v>
       </c>
-      <c r="F236" s="119">
+      <c r="F236" s="98">
         <v>1496.4463109999999</v>
       </c>
     </row>
@@ -18730,13 +17592,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B237,Plan2!$L$1:$L$21,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D237" s="120">
+      <c r="D237" s="99">
         <v>0.882718</v>
       </c>
-      <c r="E237" s="120">
+      <c r="E237" s="99">
         <v>1986.744064</v>
       </c>
-      <c r="F237" s="121">
+      <c r="F237" s="100">
         <v>1496.4463109999999</v>
       </c>
     </row>
@@ -18751,13 +17613,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B238,Plan2!$L$1:$L$21,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D238" s="118">
+      <c r="D238" s="97">
         <v>0.882718</v>
       </c>
-      <c r="E238" s="118">
+      <c r="E238" s="97">
         <v>1986.744064</v>
       </c>
-      <c r="F238" s="119">
+      <c r="F238" s="98">
         <v>1496.4463109999999</v>
       </c>
     </row>
@@ -18772,13 +17634,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B239,Plan2!$L$1:$L$21,0),1)</f>
         <v>5</v>
       </c>
-      <c r="D239" s="120">
+      <c r="D239" s="99">
         <v>0.850437</v>
       </c>
-      <c r="E239" s="120">
+      <c r="E239" s="99">
         <v>690.63983199999996</v>
       </c>
-      <c r="F239" s="121">
+      <c r="F239" s="100">
         <v>547.91899699999999</v>
       </c>
     </row>
@@ -18793,13 +17655,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B240,Plan2!$L$1:$L$21,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D240" s="118">
+      <c r="D240" s="97">
         <v>0.882718</v>
       </c>
-      <c r="E240" s="118">
+      <c r="E240" s="97">
         <v>1986.744064</v>
       </c>
-      <c r="F240" s="119">
+      <c r="F240" s="98">
         <v>1496.4463109999999</v>
       </c>
     </row>
@@ -18814,13 +17676,13 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B241,Plan2!$L$1:$L$21,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D241" s="120">
+      <c r="D241" s="99">
         <v>0.882718</v>
       </c>
-      <c r="E241" s="120">
+      <c r="E241" s="99">
         <v>1986.744064</v>
       </c>
-      <c r="F241" s="121">
+      <c r="F241" s="100">
         <v>1496.4463109999999</v>
       </c>
     </row>
@@ -18835,21 +17697,21 @@
         <f>INDEX(Plan2!$K$1:$O$21,MATCH($B242,Plan2!$L$1:$L$21,0),1)</f>
         <v>6</v>
       </c>
-      <c r="D242" s="118">
+      <c r="D242" s="97">
         <v>0.61235300000000004</v>
       </c>
-      <c r="E242" s="118">
+      <c r="E242" s="97">
         <v>1656.406297</v>
       </c>
-      <c r="F242" s="119">
+      <c r="F242" s="98">
         <v>1377.7338070000001</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="117" t="s">
+      <c r="A243" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B243" s="117"/>
+      <c r="B243" s="96"/>
       <c r="C243" s="17" t="s">
         <v>28</v>
       </c>
@@ -18871,22 +17733,13 @@
     <sortCondition ref="C29:C49"/>
   </sortState>
   <mergeCells count="44">
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="W27:Y27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A24:B24"/>
@@ -18898,6 +17751,24 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="S27:U27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:R77"/>
     <mergeCell ref="I102:K102"/>
     <mergeCell ref="L102:N102"/>
     <mergeCell ref="A100:C100"/>
@@ -18906,15 +17777,6 @@
     <mergeCell ref="B102:B103"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="F102:H102"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:N52"/>
   </mergeCells>
   <conditionalFormatting sqref="O3:O23">
     <cfRule type="colorScale" priority="12">

--- a/model_scores_table.xlsx
+++ b/model_scores_table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusmd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -61,42 +61,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Douglas Mateus Machado</author>
-  </authors>
-  <commentList>
-    <comment ref="D20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Douglas Mateus Machado:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only one sample, the lib cannot calculate with less than 2 samples.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="48">
   <si>
     <t>Hospital 1</t>
   </si>
@@ -247,7 +213,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -485,10 +451,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,11 +562,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,9 +583,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -656,7 +623,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +695,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -880,19 +847,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T24" sqref="F24:T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="10.77734375" customWidth="1"/>
-    <col min="33" max="40" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="40" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
@@ -940,7 +907,7 @@
       <c r="AE1" s="33"/>
       <c r="AF1" s="33"/>
     </row>
-    <row r="2" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="36"/>
       <c r="C2" s="10" t="s">
@@ -1034,7 +1001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1122,7 +1089,7 @@
       </c>
       <c r="AF3" s="21"/>
     </row>
-    <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1210,7 +1177,7 @@
       </c>
       <c r="AF4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1298,7 +1265,7 @@
       </c>
       <c r="AF5" s="21"/>
     </row>
-    <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1386,7 +1353,7 @@
       </c>
       <c r="AF6" s="22"/>
     </row>
-    <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1474,7 +1441,7 @@
       </c>
       <c r="AF7" s="21"/>
     </row>
-    <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1562,7 +1529,7 @@
       </c>
       <c r="AF8" s="22"/>
     </row>
-    <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1650,7 +1617,7 @@
       </c>
       <c r="AF9" s="21"/>
     </row>
-    <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1738,7 +1705,7 @@
       </c>
       <c r="AF10" s="22"/>
     </row>
-    <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1826,7 +1793,7 @@
       </c>
       <c r="AF11" s="21"/>
     </row>
-    <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1914,7 +1881,7 @@
       </c>
       <c r="AF12" s="22"/>
     </row>
-    <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2002,7 +1969,7 @@
       </c>
       <c r="AF13" s="21"/>
     </row>
-    <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2090,7 +2057,7 @@
       </c>
       <c r="AF14" s="22"/>
     </row>
-    <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2178,7 +2145,7 @@
       </c>
       <c r="AF15" s="21"/>
     </row>
-    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2266,7 +2233,7 @@
       </c>
       <c r="AF16" s="22"/>
     </row>
-    <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2354,7 +2321,7 @@
       </c>
       <c r="AF17" s="21"/>
     </row>
-    <row r="18" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2442,7 +2409,7 @@
       </c>
       <c r="AF18" s="22"/>
     </row>
-    <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2530,7 +2497,7 @@
       </c>
       <c r="AF19" s="21"/>
     </row>
-    <row r="20" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2618,7 +2585,7 @@
       </c>
       <c r="AF20" s="22"/>
     </row>
-    <row r="21" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2706,7 +2673,7 @@
       </c>
       <c r="AF21" s="21"/>
     </row>
-    <row r="22" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2794,7 +2761,7 @@
       </c>
       <c r="AF22" s="22"/>
     </row>
-    <row r="23" spans="1:32" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -2882,7 +2849,11 @@
       </c>
       <c r="AF23" s="23"/>
     </row>
-    <row r="24" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="T24" s="37"/>
+    </row>
   </sheetData>
   <sortState ref="A29:U49">
     <sortCondition ref="C29:C49"/>
@@ -2903,21 +2874,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="AD51" sqref="C51:AD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="37" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="37" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
@@ -2970,7 +2941,7 @@
       <c r="AJ1" s="33"/>
       <c r="AK1" s="35"/>
     </row>
-    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="36"/>
       <c r="C2" s="10" t="s">
@@ -3079,49 +3050,103 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="27">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-638.34862905580098</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8531.4400482180099</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4733.2520257721299</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.8481518796335099</v>
+      </c>
       <c r="H3" s="5">
         <v>2220</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="I3" s="18">
+        <v>2.1320955071045629</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>-1142.9503978406999</v>
+      </c>
+      <c r="L3" s="5">
+        <v>13485.6756544036</v>
+      </c>
+      <c r="M3" s="5">
+        <v>8167.2031168069198</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2.6201711191369199</v>
+      </c>
       <c r="O3" s="5">
         <v>2797</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="P3" s="18">
+        <v>2.919986813302438</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>-1751.3022713906601</v>
+      </c>
+      <c r="S3" s="5">
+        <v>16942.450734962102</v>
+      </c>
+      <c r="T3" s="5">
+        <v>10944.8785629267</v>
+      </c>
+      <c r="U3" s="5">
+        <v>2.35746898922757</v>
+      </c>
       <c r="V3" s="5">
         <v>4537</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="W3" s="18">
+        <v>2.4123602739534276</v>
+      </c>
+      <c r="X3" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B3,Plan1!$I$72:$I$92,0),6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B3,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-286.374553160174</v>
+      </c>
+      <c r="Z3" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B3,Plan1!$I$72:$I$92,0),3)</f>
+        <v>32535.105430945299</v>
+      </c>
+      <c r="AA3" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B3,Plan1!$I$72:$I$92,0),4)</f>
+        <v>20252.898395805802</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B3,Plan1!$I$72:$I$92,0),5)</f>
+        <v>2.9331335138090702</v>
+      </c>
       <c r="AC3" s="5">
         <v>6220</v>
       </c>
-      <c r="AD3" s="6"/>
+      <c r="AD3" s="18">
+        <f>AA3/AC3</f>
+        <v>3.2560929896793893</v>
+      </c>
       <c r="AE3" s="27"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
@@ -3132,49 +3157,103 @@
       </c>
       <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-4167.8125818340404</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10651.508873897699</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6174.22347181024</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.2164168658995402</v>
+      </c>
       <c r="H4" s="3">
         <v>1280</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="I4" s="19">
+        <v>4.8236120873517496</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-3605.5430153929801</v>
+      </c>
+      <c r="L4" s="3">
+        <v>13780.768893636799</v>
+      </c>
+      <c r="M4" s="3">
+        <v>9983.89569595795</v>
+      </c>
+      <c r="N4" s="3">
+        <v>4.4637107045988103</v>
+      </c>
       <c r="O4" s="3">
         <v>2140</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="P4" s="19">
+        <v>4.6653718205410986</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>-1859.38422706502</v>
+      </c>
+      <c r="S4" s="3">
+        <v>19147.606405033101</v>
+      </c>
+      <c r="T4" s="3">
+        <v>10339.517881457699</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3.6974773679320498</v>
+      </c>
       <c r="V4" s="3">
         <v>2470</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+      <c r="W4" s="19">
+        <v>4.1860396281205263</v>
+      </c>
+      <c r="X4" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B4,Plan1!$I$72:$I$92,0),6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B4,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-501.56104481475398</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B4,Plan1!$I$72:$I$92,0),3)</f>
+        <v>26755.785825953299</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B4,Plan1!$I$72:$I$92,0),4)</f>
+        <v>14287.223602264099</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B4,Plan1!$I$72:$I$92,0),5)</f>
+        <v>1.4616701741762199</v>
+      </c>
       <c r="AC4" s="3">
         <v>8970</v>
       </c>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="19">
+        <f t="shared" ref="AD4:AD23" si="0">AA4/AC4</f>
+        <v>1.5927785509770456</v>
+      </c>
       <c r="AE4" s="28"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -3185,49 +3264,103 @@
       </c>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-3871.3064299805401</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10552.824527184501</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6646.7943358193697</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.7474457436843203</v>
+      </c>
       <c r="H5" s="5">
         <v>1272</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="I5" s="18">
+        <v>5.2254672451410142</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-649.65776565878298</v>
+      </c>
+      <c r="L5" s="5">
+        <v>12769.5235852801</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7993.3750411132596</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2.2703634647980899</v>
+      </c>
       <c r="O5" s="5">
         <v>3415</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="P5" s="18">
+        <v>2.3406661906627408</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>-382.185169471498</v>
+      </c>
+      <c r="S5" s="5">
+        <v>14029.0780430462</v>
+      </c>
+      <c r="T5" s="5">
+        <v>7603.5254736449597</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1.3779005666638</v>
+      </c>
       <c r="V5" s="5">
         <v>5455</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="W5" s="18">
+        <v>1.3938635148753362</v>
+      </c>
+      <c r="X5" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B5,Plan1!$I$72:$I$92,0),6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B5,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-544.57624759245095</v>
+      </c>
+      <c r="Z5" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B5,Plan1!$I$72:$I$92,0),3)</f>
+        <v>29091.199275131399</v>
+      </c>
+      <c r="AA5" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B5,Plan1!$I$72:$I$92,0),4)</f>
+        <v>14335.995216552399</v>
+      </c>
+      <c r="AB5" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B5,Plan1!$I$72:$I$92,0),5)</f>
+        <v>1.4122146054106299</v>
+      </c>
       <c r="AC5" s="5">
         <v>9550</v>
       </c>
-      <c r="AD5" s="6"/>
+      <c r="AD5" s="18">
+        <f t="shared" si="0"/>
+        <v>1.5011513315761675</v>
+      </c>
       <c r="AE5" s="27"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
@@ -3238,49 +3371,103 @@
       </c>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-858.31538601890099</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9087.2367229299398</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6914.6764015987501</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.4261617366797299</v>
+      </c>
       <c r="H6" s="3">
         <v>4645</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="I6" s="19">
+        <v>1.4886278582559203</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-21.178122267626801</v>
+      </c>
+      <c r="L6" s="3">
+        <v>9544.7538261086793</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6593.7314333547001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.96087732662507597</v>
+      </c>
       <c r="O6" s="3">
         <v>5948</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="P6" s="19">
+        <v>1.1085627830118863</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>-641.192695376801</v>
+      </c>
+      <c r="S6" s="3">
+        <v>14980.4294808785</v>
+      </c>
+      <c r="T6" s="3">
+        <v>7755.4209105419704</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1.0061838740120099</v>
+      </c>
       <c r="V6" s="3">
         <v>7450</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+      <c r="W6" s="19">
+        <v>1.0409960953747612</v>
+      </c>
+      <c r="X6" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B6,Plan1!$I$72:$I$92,0),6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B6,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-83.798841218667107</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B6,Plan1!$I$72:$I$92,0),3)</f>
+        <v>20838.384267397701</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B6,Plan1!$I$72:$I$92,0),4)</f>
+        <v>13772.693064294799</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B6,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.67145702483023795</v>
+      </c>
       <c r="AC6" s="3">
         <v>19500</v>
       </c>
-      <c r="AD6" s="4"/>
+      <c r="AD6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.70629195201511785</v>
+      </c>
       <c r="AE6" s="28"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -3291,49 +3478,103 @@
       </c>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-476.970834037923</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7721.0996328027904</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4863.2552526064301</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.6823433791171301</v>
+      </c>
       <c r="H7" s="5">
         <v>2770</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="I7" s="18">
+        <v>1.755687816825426</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-3288.64821292548</v>
+      </c>
+      <c r="L7" s="5">
+        <v>13077.043729403</v>
+      </c>
+      <c r="M7" s="5">
+        <v>8036.9669132607096</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4.3025830970862797</v>
+      </c>
       <c r="O7" s="5">
         <v>1700</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="P7" s="18">
+        <v>4.7276275960357115</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>-6539.5065708131096</v>
+      </c>
+      <c r="S7" s="5">
+        <v>19736.980149795501</v>
+      </c>
+      <c r="T7" s="5">
+        <v>14208.3331533456</v>
+      </c>
+      <c r="U7" s="5">
+        <v>9.2819733529204598</v>
+      </c>
       <c r="V7" s="5">
         <v>1410</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="W7" s="18">
+        <v>10.076832023649361</v>
+      </c>
+      <c r="X7" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B7,Plan1!$I$72:$I$92,0),6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B7,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-476.61117664693001</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B7,Plan1!$I$72:$I$92,0),3)</f>
+        <v>30078.052742451498</v>
+      </c>
+      <c r="AA7" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B7,Plan1!$I$72:$I$92,0),4)</f>
+        <v>17127.116562173502</v>
+      </c>
+      <c r="AB7" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B7,Plan1!$I$72:$I$92,0),5)</f>
+        <v>1.8660887283360501</v>
+      </c>
       <c r="AC7" s="5">
         <v>8070</v>
       </c>
-      <c r="AD7" s="6"/>
+      <c r="AD7" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1223192766014254</v>
+      </c>
       <c r="AE7" s="27"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
@@ -3344,49 +3585,103 @@
       </c>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-115.14946051910501</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50429.449861800298</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50099.410746113099</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.89839733745009098</v>
+      </c>
       <c r="H8" s="3">
         <v>55480</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="I8" s="19">
+        <v>0.90301749722626345</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-32.219114505937199</v>
+      </c>
+      <c r="L8" s="3">
+        <v>61201.588086511299</v>
+      </c>
+      <c r="M8" s="3">
+        <v>60087.570357514101</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.85463414801797299</v>
+      </c>
       <c r="O8" s="3">
         <v>67046</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="P8" s="19">
+        <v>0.89621409714992839</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>-260.391305910548</v>
+      </c>
+      <c r="S8" s="3">
+        <v>88147.313225454403</v>
+      </c>
+      <c r="T8" s="3">
+        <v>86477.643685447998</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.84588192292321995</v>
+      </c>
       <c r="V8" s="3">
         <v>101690</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="W8" s="19">
+        <v>0.85040459912919653</v>
+      </c>
+      <c r="X8" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B8,Plan1!$I$72:$I$92,0),6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B8,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-55.794512193078802</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B8,Plan1!$I$72:$I$92,0),3)</f>
+        <v>180797.61608730699</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B8,Plan1!$I$72:$I$92,0),4)</f>
+        <v>179028.00937402999</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B8,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.87673570666447698</v>
+      </c>
       <c r="AC8" s="3">
         <v>200400</v>
       </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89335334018977042</v>
+      </c>
       <c r="AE8" s="28"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
@@ -3397,49 +3692,103 @@
       </c>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-57.501491724263403</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5730.25878371823</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5667.3021079808996</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.61549719532319103</v>
+      </c>
       <c r="H9" s="5">
         <v>3240</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="I9" s="18">
+        <v>1.7491673172780555</v>
+      </c>
+      <c r="J9" s="27">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-112.057348991463</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4516.9701261095297</v>
+      </c>
+      <c r="M9" s="5">
+        <v>4455.0333414957204</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.50828777225981003</v>
+      </c>
       <c r="O9" s="5">
         <v>1786</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="P9" s="18">
+        <v>2.4944195641073463</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>-42.145966205889103</v>
+      </c>
+      <c r="S9" s="5">
+        <v>6057.26774715384</v>
+      </c>
+      <c r="T9" s="5">
+        <v>5985.1178731030795</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0.43431145915261099</v>
+      </c>
       <c r="V9" s="5">
         <v>7345</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+      <c r="W9" s="18">
+        <v>0.81485607530334647</v>
+      </c>
+      <c r="X9" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B9,Plan1!$I$72:$I$92,0),6)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B9,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-22.968037082791</v>
+      </c>
+      <c r="Z9" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B9,Plan1!$I$72:$I$92,0),3)</f>
+        <v>13208.6206701228</v>
+      </c>
+      <c r="AA9" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B9,Plan1!$I$72:$I$92,0),4)</f>
+        <v>12981.4482209324</v>
+      </c>
+      <c r="AB9" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B9,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.59580203582649205</v>
+      </c>
       <c r="AC9" s="5">
         <v>5100</v>
       </c>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="18">
+        <f t="shared" si="0"/>
+        <v>2.545382004104392</v>
+      </c>
       <c r="AE9" s="27"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
@@ -3450,49 +3799,103 @@
       </c>
       <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="28">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.35643851817669397</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3657.4827954832099</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3342.4822881172699</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.55975777872528E+18</v>
+      </c>
       <c r="H10" s="3">
         <v>1960</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="I10" s="19">
+        <v>1.7053481061822806</v>
+      </c>
+      <c r="J10" s="28">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-10.4004272909708</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2668.9129651415301</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2320.6643340773098</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.29118091208291103</v>
+      </c>
       <c r="O10" s="3">
         <v>3920</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="P10" s="19">
+        <v>0.59200620767278311</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-57.041239023694203</v>
+      </c>
+      <c r="S10" s="3">
+        <v>5653.9406637050997</v>
+      </c>
+      <c r="T10" s="3">
+        <v>4664.6895914015904</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.448938192193715</v>
+      </c>
       <c r="V10" s="3">
         <v>4790</v>
       </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="W10" s="19">
+        <v>0.97383916313185603</v>
+      </c>
+      <c r="X10" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B10,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B10,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-7.4101253463837198</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B10,Plan1!$I$72:$I$92,0),3)</f>
+        <v>13803.094354884</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B10,Plan1!$I$72:$I$92,0),4)</f>
+        <v>13399.1837177832</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B10,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.525908790833443</v>
+      </c>
       <c r="AC10" s="3">
         <v>7180</v>
       </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.8661815762929248</v>
+      </c>
       <c r="AE10" s="28"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
@@ -3503,49 +3906,103 @@
       </c>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-23.537777196282601</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1439.99394735946</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1288.2428990009901</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.64225439988023003</v>
+      </c>
       <c r="H11" s="5">
         <v>9103</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="I11" s="18">
+        <v>0.14151849928605845</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-4.6757249383243202</v>
+      </c>
+      <c r="L11" s="5">
+        <v>872.45445432759198</v>
+      </c>
+      <c r="M11" s="5">
+        <v>728.434711884271</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.180793746637606</v>
+      </c>
       <c r="O11" s="5">
         <v>8618</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="P11" s="18">
+        <v>8.4524798315649921E-2</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>-23.5151413645128</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2657.35276380198</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2441.7421998517302</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.48464746490866301</v>
+      </c>
       <c r="V11" s="5">
         <v>13609</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="W11" s="18">
+        <v>0.17942113306280624</v>
+      </c>
+      <c r="X11" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B11,Plan1!$I$72:$I$92,0),6)</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B11,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-2.6962713637435201</v>
+      </c>
+      <c r="Z11" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B11,Plan1!$I$72:$I$92,0),3)</f>
+        <v>2672.4537157917398</v>
+      </c>
+      <c r="AA11" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B11,Plan1!$I$72:$I$92,0),4)</f>
+        <v>2100.5632980588198</v>
+      </c>
+      <c r="AB11" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B11,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.29807134083005199</v>
+      </c>
       <c r="AC11" s="5">
         <v>21310</v>
       </c>
-      <c r="AD11" s="6"/>
+      <c r="AD11" s="18">
+        <f t="shared" si="0"/>
+        <v>9.8571717412427026E-2</v>
+      </c>
       <c r="AE11" s="27"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
@@ -3556,49 +4013,103 @@
       </c>
       <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="C12" s="28">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-319.620861838498</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3277.7872328301601</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2791.6648988616498</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.64296722417688</v>
+      </c>
       <c r="H12" s="3">
         <v>2760</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="I12" s="19">
+        <v>1.0114727894426268</v>
+      </c>
+      <c r="J12" s="28">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-72.564572813129899</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8845.6389474119896</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8608.8654061724501</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.556617813883589</v>
+      </c>
       <c r="O12" s="3">
         <v>2600</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="P12" s="19">
+        <v>3.311102079297096</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>-166.850470581124</v>
+      </c>
+      <c r="S12" s="3">
+        <v>16929.505687540801</v>
+      </c>
+      <c r="T12" s="3">
+        <v>16149.267126340201</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.62572652150102004</v>
+      </c>
       <c r="V12" s="3">
         <v>3870</v>
       </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+      <c r="W12" s="19">
+        <v>4.1729372419483726</v>
+      </c>
+      <c r="X12" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B12,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B12,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-13.5535744936196</v>
+      </c>
+      <c r="Z12" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B12,Plan1!$I$72:$I$92,0),3)</f>
+        <v>5166.6140632911902</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B12,Plan1!$I$72:$I$92,0),4)</f>
+        <v>4110.2538761369397</v>
+      </c>
+      <c r="AB12" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B12,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.46603809287041997</v>
+      </c>
       <c r="AC12" s="3">
         <v>17100</v>
       </c>
-      <c r="AD12" s="4"/>
+      <c r="AD12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24036572375069823</v>
+      </c>
       <c r="AE12" s="28"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -3609,49 +4120,103 @@
       </c>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="27">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-77.868333355117699</v>
+      </c>
+      <c r="E13" s="5">
+        <v>11700.8460659995</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11368.758289058</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.71203040682319196</v>
+      </c>
       <c r="H13" s="5">
         <v>1400</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="I13" s="18">
+        <v>8.1205416350414286</v>
+      </c>
+      <c r="J13" s="27">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-11.783332701065801</v>
+      </c>
+      <c r="L13" s="5">
+        <v>11182.8979410297</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10781.8525360228</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.68922769078690704</v>
+      </c>
       <c r="O13" s="5">
         <v>1400</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="P13" s="18">
+        <v>7.7013232400162854</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>-26.8649031858602</v>
+      </c>
+      <c r="S13" s="5">
+        <v>6355.4932853828504</v>
+      </c>
+      <c r="T13" s="5">
+        <v>6221.17906862581</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0.58812298536502505</v>
+      </c>
       <c r="V13" s="5">
         <v>900</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="W13" s="18">
+        <v>6.9124211873620114</v>
+      </c>
+      <c r="X13" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B13,Plan1!$I$72:$I$92,0),6)</f>
+        <v>2</v>
+      </c>
+      <c r="Y13" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B13,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-17.605537979872999</v>
+      </c>
+      <c r="Z13" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B13,Plan1!$I$72:$I$92,0),3)</f>
+        <v>11693.9443538418</v>
+      </c>
+      <c r="AA13" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B13,Plan1!$I$72:$I$92,0),4)</f>
+        <v>11171.2048192452</v>
+      </c>
+      <c r="AB13" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B13,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.43803071560531398</v>
+      </c>
       <c r="AC13" s="5">
         <v>5700</v>
       </c>
-      <c r="AD13" s="6"/>
+      <c r="AD13" s="18">
+        <f t="shared" si="0"/>
+        <v>1.9598604946044211</v>
+      </c>
       <c r="AE13" s="27"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
@@ -3662,49 +4227,103 @@
       </c>
       <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="C14" s="28">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-247.18485840778001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3399.9258942504898</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2278.0933053275699</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.78739448642411702</v>
+      </c>
       <c r="H14" s="3">
         <v>15610</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="I14" s="19">
+        <v>0.14593807209017104</v>
+      </c>
+      <c r="J14" s="28">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-110.846493559377</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4086.31772063978</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2834.0463249397599</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.02024444025523</v>
+      </c>
       <c r="O14" s="3">
         <v>14840</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="P14" s="19">
+        <v>0.19097347203098111</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-14.710655735961399</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1452.4243039993</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1232.28472688026</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.30659004540242901</v>
+      </c>
       <c r="V14" s="3">
         <v>10300</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+      <c r="W14" s="19">
+        <v>0.1196392938718699</v>
+      </c>
+      <c r="X14" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B14,Plan1!$I$72:$I$92,0),6)</f>
+        <v>2</v>
+      </c>
+      <c r="Y14" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B14,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-3.4680482934279802</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B14,Plan1!$I$72:$I$92,0),3)</f>
+        <v>4240.2153639590297</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B14,Plan1!$I$72:$I$92,0),4)</f>
+        <v>3253.0316663669601</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B14,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.19181428844133799</v>
+      </c>
       <c r="AC14" s="3">
         <v>25400</v>
       </c>
-      <c r="AD14" s="4"/>
+      <c r="AD14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.12807211284909292</v>
+      </c>
       <c r="AE14" s="28"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
@@ -3715,49 +4334,103 @@
       </c>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-0.78206529663088897</v>
+      </c>
+      <c r="E15" s="5">
+        <v>700.79633898133295</v>
+      </c>
+      <c r="F15" s="5">
+        <v>563.64454680319602</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.17575501543807201</v>
+      </c>
       <c r="H15" s="5">
         <v>2590</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="I15" s="18">
+        <v>0.21762337714409113</v>
+      </c>
+      <c r="J15" s="27">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-62.369301005835197</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2526.05703824487</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2367.3735430602101</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.27388804630667</v>
+      </c>
       <c r="O15" s="5">
         <v>2660</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="P15" s="18">
+        <v>0.88999005378203389</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.106008446951689</v>
+      </c>
+      <c r="S15" s="5">
+        <v>988.89384272828102</v>
+      </c>
+      <c r="T15" s="5">
+        <v>736.78667213936797</v>
+      </c>
+      <c r="U15" s="5">
+        <v>9.4948295971349503E-2</v>
+      </c>
       <c r="V15" s="5">
         <v>6300</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="W15" s="18">
+        <v>0.11695026541894729</v>
+      </c>
+      <c r="X15" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B15,Plan1!$I$72:$I$92,0),6)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B15,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-10.6025633873518</v>
+      </c>
+      <c r="Z15" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B15,Plan1!$I$72:$I$92,0),3)</f>
+        <v>3896.1285225562601</v>
+      </c>
+      <c r="AA15" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B15,Plan1!$I$72:$I$92,0),4)</f>
+        <v>3415.12448948674</v>
+      </c>
+      <c r="AB15" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B15,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.635182783492796</v>
+      </c>
       <c r="AC15" s="5">
         <v>9060</v>
       </c>
-      <c r="AD15" s="6"/>
+      <c r="AD15" s="18">
+        <f t="shared" si="0"/>
+        <v>0.37694530789036867</v>
+      </c>
       <c r="AE15" s="27"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
@@ -3768,49 +4441,103 @@
       </c>
       <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="28">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-2.7972537452450599</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1581.6348991319301</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1291.0173986673999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.36852104184727003</v>
+      </c>
       <c r="H16" s="3">
         <v>4150</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="I16" s="19">
+        <v>0.31108852979937346</v>
+      </c>
+      <c r="J16" s="28">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-74287.513831957694</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7236.7417192391804</v>
+      </c>
+      <c r="M16" s="3">
+        <v>6718.5055784494198</v>
+      </c>
+      <c r="N16" s="3">
+        <v>9.3449109038195507E+18</v>
+      </c>
       <c r="O16" s="3">
         <v>4560</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="P16" s="19">
+        <v>1.4733564865020656</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-91.009719524698497</v>
+      </c>
+      <c r="S16" s="3">
+        <v>7581.8684008631299</v>
+      </c>
+      <c r="T16" s="3">
+        <v>5591.9952218779699</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1.1545801768024699</v>
+      </c>
       <c r="V16" s="3">
         <v>6640</v>
       </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+      <c r="W16" s="19">
+        <v>0.84216795510210385</v>
+      </c>
+      <c r="X16" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B16,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B16,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-24.717125951041201</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B16,Plan1!$I$72:$I$92,0),3)</f>
+        <v>5815.7558339534698</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B16,Plan1!$I$72:$I$92,0),4)</f>
+        <v>4720.5941433255903</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B16,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.656400076314962</v>
+      </c>
       <c r="AC16" s="3">
         <v>17490</v>
       </c>
-      <c r="AD16" s="4"/>
+      <c r="AD16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.26990246674245799</v>
+      </c>
       <c r="AE16" s="28"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -3821,49 +4548,103 @@
       </c>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="27">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-250.810957143537</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3403.1883325621102</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2809.91273501766</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.58768015054057</v>
+      </c>
       <c r="H17" s="5">
         <v>6550</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="I17" s="18">
+        <v>0.4289943106897191</v>
+      </c>
+      <c r="J17" s="27">
+        <v>3</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-583.37113839988103</v>
+      </c>
+      <c r="L17" s="5">
+        <v>6196.4119680203503</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5801.0486036460698</v>
+      </c>
+      <c r="N17" s="5">
+        <v>8.4150754272351094</v>
+      </c>
       <c r="O17" s="5">
         <v>3750</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="P17" s="18">
+        <v>1.5469462943056187</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>3</v>
+      </c>
+      <c r="R17" s="5">
+        <v>-1020.43668163219</v>
+      </c>
+      <c r="S17" s="5">
+        <v>10917.3450493736</v>
+      </c>
+      <c r="T17" s="5">
+        <v>8824.5254529867998</v>
+      </c>
+      <c r="U17" s="5">
+        <v>4.9073244656451998</v>
+      </c>
       <c r="V17" s="5">
         <v>480</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="W17" s="18">
+        <v>18.384428027055833</v>
+      </c>
+      <c r="X17" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B17,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y17" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B17,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-4.6165630585938198</v>
+      </c>
+      <c r="Z17" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B17,Plan1!$I$72:$I$92,0),3)</f>
+        <v>3172.3304374671802</v>
+      </c>
+      <c r="AA17" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B17,Plan1!$I$72:$I$92,0),4)</f>
+        <v>2645.51311497918</v>
+      </c>
+      <c r="AB17" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B17,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.21458689758076299</v>
+      </c>
       <c r="AC17" s="5">
         <v>11760</v>
       </c>
-      <c r="AD17" s="6"/>
+      <c r="AD17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.22495859821251532</v>
+      </c>
       <c r="AE17" s="27"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
@@ -3874,49 +4655,103 @@
       </c>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="C18" s="28">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-4.1409344608070802</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2701.8831493871198</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2461.7801883555098</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.372236749697271</v>
+      </c>
       <c r="H18" s="3">
         <v>990</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="I18" s="19">
+        <v>2.4866466549045554</v>
+      </c>
+      <c r="J18" s="28">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-24.138771080742998</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3474.5420293396</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2839.8450693785398</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.71378795593121802</v>
+      </c>
       <c r="O18" s="3">
         <v>820</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="P18" s="19">
+        <v>3.4632256943640729</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-6855.5619910941996</v>
+      </c>
+      <c r="S18" s="3">
+        <v>12017.945331049001</v>
+      </c>
+      <c r="T18" s="3">
+        <v>9870.2533677426109</v>
+      </c>
+      <c r="U18" s="3">
+        <v>22.037944901187199</v>
+      </c>
       <c r="V18" s="3">
         <v>1680</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="W18" s="19">
+        <v>5.8751508141325068</v>
+      </c>
+      <c r="X18" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B18,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B18,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-0.26628850740169802</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B18,Plan1!$I$72:$I$92,0),3)</f>
+        <v>3027.3673186245201</v>
+      </c>
+      <c r="AA18" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B18,Plan1!$I$72:$I$92,0),4)</f>
+        <v>2441.2278530267699</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B18,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.210632477789367</v>
+      </c>
       <c r="AC18" s="3">
         <v>12270</v>
       </c>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.19895907522630563</v>
+      </c>
       <c r="AE18" s="28"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
@@ -3927,49 +4762,103 @@
       </c>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="27">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-181.08207203261401</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3851.1491535761402</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2574.9606353307199</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.94489854311145205</v>
+      </c>
       <c r="H19" s="5">
         <v>4757</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="I19" s="18">
+        <v>0.5412992716692705</v>
+      </c>
+      <c r="J19" s="27">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-361.92975364595497</v>
+      </c>
+      <c r="L19" s="5">
+        <v>4000.46877462779</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2616.76226347182</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.90322381248748296</v>
+      </c>
       <c r="O19" s="5">
         <v>12083</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="P19" s="18">
+        <v>0.21656560982138706</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>-10.2216424104023</v>
+      </c>
+      <c r="S19" s="5">
+        <v>2013.5712314688899</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1811.5972858094201</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0.28907328652134801</v>
+      </c>
       <c r="V19" s="5">
         <v>28550</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="W19" s="18">
+        <v>6.3453495124673215E-2</v>
+      </c>
+      <c r="X19" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B19,Plan1!$I$72:$I$92,0),6)</f>
+        <v>2</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B19,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-35.997406021024197</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B19,Plan1!$I$72:$I$92,0),3)</f>
+        <v>6486.7864848581303</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B19,Plan1!$I$72:$I$92,0),4)</f>
+        <v>5160.2458305571199</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B19,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.55686091898603096</v>
+      </c>
       <c r="AC19" s="5">
         <v>6350</v>
       </c>
-      <c r="AD19" s="6"/>
+      <c r="AD19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.81263713867041254</v>
+      </c>
       <c r="AE19" s="27"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
@@ -3980,49 +4869,103 @@
       </c>
       <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="C20" s="28">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-23.3168860719042</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1773.4934093755601</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1402.3682684426899</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.42275488536420702</v>
+      </c>
       <c r="H20" s="3">
         <v>3160</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="I20" s="19">
+        <v>0.4437874267223702</v>
+      </c>
+      <c r="J20" s="28">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-14.6477084305684</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2557.8351305138199</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1879.2450463410401</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.35718671240202499</v>
+      </c>
       <c r="O20" s="3">
         <v>5048</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="P20" s="19">
+        <v>0.37227516765868462</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-599.988248388584</v>
+      </c>
+      <c r="S20" s="3">
+        <v>9717.3264412001608</v>
+      </c>
+      <c r="T20" s="3">
+        <v>8116.1981147242795</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2.2725496824632399</v>
+      </c>
       <c r="V20" s="3">
         <v>3404</v>
       </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+      <c r="W20" s="19">
+        <v>2.3843120196017273</v>
+      </c>
+      <c r="X20" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B20,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B20,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-109.855225528875</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B20,Plan1!$I$72:$I$92,0),3)</f>
+        <v>10653.4314610728</v>
+      </c>
+      <c r="AA20" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B20,Plan1!$I$72:$I$92,0),4)</f>
+        <v>10098.9212962641</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B20,Plan1!$I$72:$I$92,0),5)</f>
+        <v>2.75198721755899E+19</v>
+      </c>
       <c r="AC20" s="3">
         <v>592.4</v>
       </c>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="19">
+        <f t="shared" si="0"/>
+        <v>17.047470115233118</v>
+      </c>
       <c r="AE20" s="28"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -4033,49 +4976,103 @@
       </c>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="C21" s="27">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-1.2370181018556401</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1097.4755163189</v>
+      </c>
+      <c r="F21" s="5">
+        <v>918.38184419325898</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.22760421110936199</v>
+      </c>
       <c r="H21" s="5">
         <v>1604</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="I21" s="18">
+        <v>0.57255725947210656</v>
+      </c>
+      <c r="J21" s="27">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>-24.706917164006999</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3045.5734054320401</v>
+      </c>
+      <c r="M21" s="5">
+        <v>2227.3836753876999</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.45097678852821999</v>
+      </c>
       <c r="O21" s="5">
         <v>15450</v>
       </c>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="P21" s="18">
+        <v>0.14416722818043365</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>3</v>
+      </c>
+      <c r="R21" s="5">
+        <v>-182.021725038146</v>
+      </c>
+      <c r="S21" s="5">
+        <v>7070.7622350931997</v>
+      </c>
+      <c r="T21" s="5">
+        <v>4898.0872723716902</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0.70829188950586097</v>
+      </c>
       <c r="V21" s="5">
         <v>25445</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="W21" s="18">
+        <v>0.19249704352020791</v>
+      </c>
+      <c r="X21" s="27">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B21,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y21" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B21,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-3.3388260534910699</v>
+      </c>
+      <c r="Z21" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B21,Plan1!$I$72:$I$92,0),3)</f>
+        <v>5932.5984097457103</v>
+      </c>
+      <c r="AA21" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B21,Plan1!$I$72:$I$92,0),4)</f>
+        <v>5055.8526982801004</v>
+      </c>
+      <c r="AB21" s="5">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B21,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.28804798253268599</v>
+      </c>
       <c r="AC21" s="5">
         <v>8340</v>
       </c>
-      <c r="AD21" s="6"/>
+      <c r="AD21" s="18">
+        <f t="shared" si="0"/>
+        <v>0.60621734991368115</v>
+      </c>
       <c r="AE21" s="27"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
@@ -4086,49 +5083,103 @@
       </c>
       <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="28">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-92.251335935503903</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6130.9790579188802</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5096.9514173298203</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.05072816909657E+18</v>
+      </c>
       <c r="H22" s="3">
         <v>9331</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="I22" s="19">
+        <v>0.546238497195351</v>
+      </c>
+      <c r="J22" s="28">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>-1818.8266584379901</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5622.22005147865</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4574.4855182823703</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3.2603017967531498</v>
+      </c>
       <c r="O22" s="3">
         <v>8152</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="P22" s="19">
+        <v>0.56114886141834763</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>-56.325476321427701</v>
+      </c>
+      <c r="S22" s="3">
+        <v>3419.5811138803801</v>
+      </c>
+      <c r="T22" s="3">
+        <v>3331.6455866395499</v>
+      </c>
+      <c r="U22" s="3">
+        <v>4.6991498038436602E+17</v>
+      </c>
       <c r="V22" s="3">
         <v>10218</v>
       </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
+      <c r="W22" s="19">
+        <v>0.32605652638868171</v>
+      </c>
+      <c r="X22" s="28">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B22,Plan1!$I$72:$I$92,0),6)</f>
+        <v>2</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B22,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-52.786766385971902</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B22,Plan1!$I$72:$I$92,0),3)</f>
+        <v>9435.2749493065603</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B22,Plan1!$I$72:$I$92,0),4)</f>
+        <v>8760.2939432292296</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B22,Plan1!$I$72:$I$92,0),5)</f>
+        <v>1.5271254453898899</v>
+      </c>
       <c r="AC22" s="3">
         <v>24932</v>
       </c>
-      <c r="AD22" s="4"/>
+      <c r="AD22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.35136747726733636</v>
+      </c>
       <c r="AE22" s="28"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
@@ -4139,49 +5190,103 @@
       </c>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="C23" s="29">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.231917199438852</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1311.7636924483199</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1019.62850188316</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.47521426933253902</v>
+      </c>
       <c r="H23" s="12">
         <v>3110</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="I23" s="20">
+        <v>0.3278548237566431</v>
+      </c>
+      <c r="J23" s="29">
+        <v>3</v>
+      </c>
+      <c r="K23" s="12">
+        <v>-28.290100823791601</v>
+      </c>
+      <c r="L23" s="12">
+        <v>5757.1573758139002</v>
+      </c>
+      <c r="M23" s="12">
+        <v>5398.4907449245602</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.44601926614234699</v>
+      </c>
       <c r="O23" s="12">
         <v>20</v>
       </c>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="P23" s="20">
+        <v>269.924537246228</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>3</v>
+      </c>
+      <c r="R23" s="12">
+        <v>-67.303928770017905</v>
+      </c>
+      <c r="S23" s="12">
+        <v>18464.3316743914</v>
+      </c>
+      <c r="T23" s="12">
+        <v>17884.203198491501</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0.62619517970900795</v>
+      </c>
       <c r="V23" s="12">
         <v>4450</v>
       </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+      <c r="W23" s="20">
+        <v>4.0189220670767414</v>
+      </c>
+      <c r="X23" s="29">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B23,Plan1!$I$72:$I$92,0),6)</f>
+        <v>3</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B23,Plan1!$I$72:$I$92,0),2)</f>
+        <v>-22.858308723903299</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B23,Plan1!$I$72:$I$92,0),3)</f>
+        <v>6747.2282191773902</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B23,Plan1!$I$72:$I$92,0),4)</f>
+        <v>5963.7378934115304</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>INDEX(Plan1!$I$72:$N$92,MATCH(Clustering!$B23,Plan1!$I$72:$I$92,0),5)</f>
+        <v>0.96478681709286995</v>
+      </c>
       <c r="AC23" s="12">
         <v>7050</v>
       </c>
-      <c r="AD23" s="17"/>
+      <c r="AD23" s="20">
+        <f t="shared" si="0"/>
+        <v>0.84592026856901137</v>
+      </c>
       <c r="AE23" s="29"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
@@ -4192,9 +5297,4597 @@
       </c>
       <c r="AK23" s="17"/>
     </row>
-    <row r="24" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="35"/>
+    </row>
+    <row r="26" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK26" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-638.34862905580098</v>
+      </c>
+      <c r="E27" s="5">
+        <v>8531.4400482180099</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4733.2520257721299</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.8481518796335099</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2220</v>
+      </c>
+      <c r="I27" s="18">
+        <v>2.1320955071045629</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>-1142.9503978406999</v>
+      </c>
+      <c r="L27" s="5">
+        <v>13485.6756544036</v>
+      </c>
+      <c r="M27" s="5">
+        <v>8167.2031168069198</v>
+      </c>
+      <c r="N27" s="5">
+        <v>2.6201711191369199</v>
+      </c>
+      <c r="O27" s="5">
+        <v>2797</v>
+      </c>
+      <c r="P27" s="18">
+        <v>2.919986813302438</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <v>-1751.3022713906601</v>
+      </c>
+      <c r="S27" s="5">
+        <v>16942.450734962102</v>
+      </c>
+      <c r="T27" s="5">
+        <v>10944.8785629267</v>
+      </c>
+      <c r="U27" s="5">
+        <v>2.35746898922757</v>
+      </c>
+      <c r="V27" s="5">
+        <v>4537</v>
+      </c>
+      <c r="W27" s="18">
+        <v>2.4123602739534276</v>
+      </c>
+      <c r="X27" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>-2.0970994947809598</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>3377.5799864502301</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>2960.8008480349299</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0.57269846078074305</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>6220</v>
+      </c>
+      <c r="AD27" s="18">
+        <v>0.47601299807635528</v>
+      </c>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5">
+        <v>3268</v>
+      </c>
+      <c r="AK27" s="6"/>
+    </row>
+    <row r="28" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-4167.8125818340404</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10651.508873897699</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6174.22347181024</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4.2164168658995402</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1280</v>
+      </c>
+      <c r="I28" s="19">
+        <v>4.8236120873517496</v>
+      </c>
+      <c r="J28" s="28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-3605.5430153929801</v>
+      </c>
+      <c r="L28" s="3">
+        <v>13780.768893636799</v>
+      </c>
+      <c r="M28" s="3">
+        <v>9983.89569595795</v>
+      </c>
+      <c r="N28" s="3">
+        <v>4.4637107045988103</v>
+      </c>
+      <c r="O28" s="3">
+        <v>2140</v>
+      </c>
+      <c r="P28" s="19">
+        <v>4.6653718205410986</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>-1859.38422706502</v>
+      </c>
+      <c r="S28" s="3">
+        <v>19147.606405033101</v>
+      </c>
+      <c r="T28" s="3">
+        <v>10339.517881457699</v>
+      </c>
+      <c r="U28" s="3">
+        <v>3.6974773679320498</v>
+      </c>
+      <c r="V28" s="3">
+        <v>2470</v>
+      </c>
+      <c r="W28" s="19">
+        <v>4.1860396281205263</v>
+      </c>
+      <c r="X28" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>-0.26482744477444697</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>1342.26708372591</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>1024.4386143484001</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0.112430850892438</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>8970</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>0.11420720338332219</v>
+      </c>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3">
+        <v>2375</v>
+      </c>
+      <c r="AK28" s="4"/>
+    </row>
+    <row r="29" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="27">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-3871.3064299805401</v>
+      </c>
+      <c r="E29" s="5">
+        <v>10552.824527184501</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6646.7943358193697</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4.7474457436843203</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1272</v>
+      </c>
+      <c r="I29" s="18">
+        <v>5.2254672451410142</v>
+      </c>
+      <c r="J29" s="27">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>-649.65776565878298</v>
+      </c>
+      <c r="L29" s="5">
+        <v>12769.5235852801</v>
+      </c>
+      <c r="M29" s="5">
+        <v>7993.3750411132596</v>
+      </c>
+      <c r="N29" s="5">
+        <v>2.2703634647980899</v>
+      </c>
+      <c r="O29" s="5">
+        <v>3415</v>
+      </c>
+      <c r="P29" s="18">
+        <v>2.3406661906627408</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <v>-382.185169471498</v>
+      </c>
+      <c r="S29" s="5">
+        <v>14029.0780430462</v>
+      </c>
+      <c r="T29" s="5">
+        <v>7603.5254736449597</v>
+      </c>
+      <c r="U29" s="5">
+        <v>1.3779005666638</v>
+      </c>
+      <c r="V29" s="5">
+        <v>5455</v>
+      </c>
+      <c r="W29" s="18">
+        <v>1.3938635148753362</v>
+      </c>
+      <c r="X29" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>-0.70656581724512202</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>1627.02946983471</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>1326.7587693496801</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0.133767326447606</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>9550</v>
+      </c>
+      <c r="AD29" s="18">
+        <v>0.13892761982719162</v>
+      </c>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5">
+        <v>4188</v>
+      </c>
+      <c r="AK29" s="6"/>
+    </row>
+    <row r="30" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="28">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-858.31538601890099</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9087.2367229299398</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6914.6764015987501</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.4261617366797299</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4645</v>
+      </c>
+      <c r="I30" s="19">
+        <v>1.4886278582559203</v>
+      </c>
+      <c r="J30" s="28">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>-21.178122267626801</v>
+      </c>
+      <c r="L30" s="3">
+        <v>9544.7538261086793</v>
+      </c>
+      <c r="M30" s="3">
+        <v>6593.7314333547001</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.96087732662507597</v>
+      </c>
+      <c r="O30" s="3">
+        <v>5948</v>
+      </c>
+      <c r="P30" s="19">
+        <v>1.1085627830118863</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>-641.192695376801</v>
+      </c>
+      <c r="S30" s="3">
+        <v>14980.4294808785</v>
+      </c>
+      <c r="T30" s="3">
+        <v>7755.4209105419704</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1.0061838740120099</v>
+      </c>
+      <c r="V30" s="3">
+        <v>7450</v>
+      </c>
+      <c r="W30" s="19">
+        <v>1.0409960953747612</v>
+      </c>
+      <c r="X30" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>-20.2471236205274</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>10430.8369282637</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>10240.230496218001</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0.51908955365089104</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>19500</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>0.52514002544707694</v>
+      </c>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3">
+        <v>7417.5</v>
+      </c>
+      <c r="AK30" s="4"/>
+    </row>
+    <row r="31" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="27">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-476.970834037923</v>
+      </c>
+      <c r="E31" s="5">
+        <v>7721.0996328027904</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4863.2552526064301</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.6823433791171301</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2770</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1.755687816825426</v>
+      </c>
+      <c r="J31" s="27">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>-3288.64821292548</v>
+      </c>
+      <c r="L31" s="5">
+        <v>13077.043729403</v>
+      </c>
+      <c r="M31" s="5">
+        <v>8036.9669132607096</v>
+      </c>
+      <c r="N31" s="5">
+        <v>4.3025830970862797</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1700</v>
+      </c>
+      <c r="P31" s="18">
+        <v>4.7276275960357115</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <v>-6539.5065708131096</v>
+      </c>
+      <c r="S31" s="5">
+        <v>19736.980149795501</v>
+      </c>
+      <c r="T31" s="5">
+        <v>14208.3331533456</v>
+      </c>
+      <c r="U31" s="5">
+        <v>9.2819733529204598</v>
+      </c>
+      <c r="V31" s="5">
+        <v>1410</v>
+      </c>
+      <c r="W31" s="18">
+        <v>10.076832023649361</v>
+      </c>
+      <c r="X31" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>-0.96301660598800698</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>1928.2993847114899</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>1584.07708893073</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0.19993469398047101</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>8070</v>
+      </c>
+      <c r="AD31" s="18">
+        <v>0.19629208041272986</v>
+      </c>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5">
+        <v>2235</v>
+      </c>
+      <c r="AK31" s="6"/>
+    </row>
+    <row r="32" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-115.14946051910501</v>
+      </c>
+      <c r="E32" s="3">
+        <v>50429.449861800298</v>
+      </c>
+      <c r="F32" s="3">
+        <v>50099.410746113099</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.89839733745009098</v>
+      </c>
+      <c r="H32" s="3">
+        <v>55480</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0.90301749722626345</v>
+      </c>
+      <c r="J32" s="28">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-32.219114505937199</v>
+      </c>
+      <c r="L32" s="3">
+        <v>61201.588086511299</v>
+      </c>
+      <c r="M32" s="3">
+        <v>60087.570357514101</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.85463414801797299</v>
+      </c>
+      <c r="O32" s="3">
+        <v>67046</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0.89621409714992839</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-260.391305910548</v>
+      </c>
+      <c r="S32" s="3">
+        <v>88147.313225454403</v>
+      </c>
+      <c r="T32" s="3">
+        <v>86477.643685447998</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.84588192292321995</v>
+      </c>
+      <c r="V32" s="3">
+        <v>101690</v>
+      </c>
+      <c r="W32" s="19">
+        <v>0.85040459912919653</v>
+      </c>
+      <c r="X32" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0.63907834775378902</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>14412.721054158899</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>9836.5178232064209</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>4.6175214278582601E-2</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>200400</v>
+      </c>
+      <c r="AD32" s="19">
+        <v>4.9084420275481142E-2</v>
+      </c>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3">
+        <v>94090</v>
+      </c>
+      <c r="AK32" s="4"/>
+    </row>
+    <row r="33" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>7</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-3.9534401605169398</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1168.3782892766701</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1051.6498583208399</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.34179929670349901</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3240</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0.3245832896051975</v>
+      </c>
+      <c r="J33" s="27">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>-30.091286942773099</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1769.3878624394599</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1431.3661620616499</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.75256786374293005</v>
+      </c>
+      <c r="O33" s="5">
+        <v>1786</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0.80143682086318579</v>
+      </c>
+      <c r="Q33" s="27">
+        <v>1</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.106008446951689</v>
+      </c>
+      <c r="S33" s="5">
+        <v>988.89384272828102</v>
+      </c>
+      <c r="T33" s="5">
+        <v>736.78667213936797</v>
+      </c>
+      <c r="U33" s="5">
+        <v>9.4948295971349503E-2</v>
+      </c>
+      <c r="V33" s="5">
+        <v>7345</v>
+      </c>
+      <c r="W33" s="18">
+        <v>0.10031132364048577</v>
+      </c>
+      <c r="X33" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>-10.6025633873518</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>3896.1285225562601</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>3415.12448948674</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>0.635182783492796</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>5100</v>
+      </c>
+      <c r="AD33" s="18">
+        <v>0.66963225284053729</v>
+      </c>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5">
+        <v>3950</v>
+      </c>
+      <c r="AK33" s="6"/>
+    </row>
+    <row r="34" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="28">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.635262111214137</v>
+      </c>
+      <c r="E34" s="3">
+        <v>175.563203680924</v>
+      </c>
+      <c r="F34" s="3">
+        <v>137.22865646325801</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7.2730699737491106E-2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1960</v>
+      </c>
+      <c r="I34" s="19">
+        <v>7.0014620644519396E-2</v>
+      </c>
+      <c r="J34" s="28">
+        <v>5</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.172559918742725</v>
+      </c>
+      <c r="L34" s="3">
+        <v>333.119741920867</v>
+      </c>
+      <c r="M34" s="3">
+        <v>266.19460004215301</v>
+      </c>
+      <c r="N34" s="3">
+        <v>6.5017660129058893E-2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>3920</v>
+      </c>
+      <c r="P34" s="19">
+        <v>6.790678572503904E-2</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>-23.5151413645128</v>
+      </c>
+      <c r="S34" s="3">
+        <v>2657.35276380198</v>
+      </c>
+      <c r="T34" s="3">
+        <v>2441.7421998517302</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0.48464746490866301</v>
+      </c>
+      <c r="V34" s="3">
+        <v>4790</v>
+      </c>
+      <c r="W34" s="19">
+        <v>0.50975828806925472</v>
+      </c>
+      <c r="X34" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>-2.6962713637435201</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>2672.4537157917398</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>2100.5632980588198</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0.29807134083005199</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>7180</v>
+      </c>
+      <c r="AD34" s="19">
+        <v>0.29255756240373537</v>
+      </c>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3">
+        <v>4430</v>
+      </c>
+      <c r="AK34" s="4"/>
+    </row>
+    <row r="35" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="27">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-39.842018259045901</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4787.8921927235197</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4719.2081082015202</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.510291370731219</v>
+      </c>
+      <c r="H35" s="5">
+        <v>9103</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0.51842338879506977</v>
+      </c>
+      <c r="J35" s="27">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>-158.92308584665699</v>
+      </c>
+      <c r="L35" s="5">
+        <v>5372.2151843096199</v>
+      </c>
+      <c r="M35" s="5">
+        <v>5293.9409293469298</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.60453081369061801</v>
+      </c>
+      <c r="O35" s="5">
+        <v>8618</v>
+      </c>
+      <c r="P35" s="18">
+        <v>0.61428880591168833</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5">
+        <v>-42.145966205889103</v>
+      </c>
+      <c r="S35" s="5">
+        <v>6057.26774715384</v>
+      </c>
+      <c r="T35" s="5">
+        <v>5985.1178731030795</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0.43431145915261099</v>
+      </c>
+      <c r="V35" s="5">
+        <v>13609</v>
+      </c>
+      <c r="W35" s="18">
+        <v>0.43979115828518478</v>
+      </c>
+      <c r="X35" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>-22.968037082791</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>13208.6206701228</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>12981.4482209324</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0.59580203582649205</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>21310</v>
+      </c>
+      <c r="AD35" s="18">
+        <v>0.60917166686684188</v>
+      </c>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5">
+        <v>11436</v>
+      </c>
+      <c r="AK35" s="6"/>
+    </row>
+    <row r="36" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="28">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.20889871014973199</v>
+      </c>
+      <c r="E36" s="3">
+        <v>191.95430495100601</v>
+      </c>
+      <c r="F36" s="3">
+        <v>125.357750902692</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.4474763121180899E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2760</v>
+      </c>
+      <c r="I36" s="19">
+        <v>4.5419474964743481E-2</v>
+      </c>
+      <c r="J36" s="28">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.46374773979965001</v>
+      </c>
+      <c r="L36" s="3">
+        <v>282.94727270993297</v>
+      </c>
+      <c r="M36" s="3">
+        <v>225.818791102722</v>
+      </c>
+      <c r="N36" s="3">
+        <v>8.9536101690136594E-2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P36" s="19">
+        <v>8.6853381193354617E-2</v>
+      </c>
+      <c r="Q36" s="28">
+        <v>4</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0.56030608189583897</v>
+      </c>
+      <c r="S36" s="3">
+        <v>242.98058911373599</v>
+      </c>
+      <c r="T36" s="3">
+        <v>198.85809981684901</v>
+      </c>
+      <c r="U36" s="3">
+        <v>4.9937153606214001E-2</v>
+      </c>
+      <c r="V36" s="3">
+        <v>3870</v>
+      </c>
+      <c r="W36" s="19">
+        <v>5.1384521916498449E-2</v>
+      </c>
+      <c r="X36" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0.110345758129241</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>1892.0805134264001</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>1489.22919531448</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>9.0855273211250198E-2</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>17100</v>
+      </c>
+      <c r="AD36" s="19">
+        <v>8.7089426626577773E-2</v>
+      </c>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3">
+        <v>3406</v>
+      </c>
+      <c r="AK36" s="4"/>
+    </row>
+    <row r="37" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>11</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="27">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-293.15302502215002</v>
+      </c>
+      <c r="E37" s="5">
+        <v>10889.0241500723</v>
+      </c>
+      <c r="F37" s="5">
+        <v>10119.899525942599</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3.7295537255220198E+18</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I37" s="18">
+        <v>7.2284996613875707</v>
+      </c>
+      <c r="J37" s="27">
+        <v>2</v>
+      </c>
+      <c r="K37" s="5">
+        <v>-6826.2058382046298</v>
+      </c>
+      <c r="L37" s="5">
+        <v>10889.6601636702</v>
+      </c>
+      <c r="M37" s="5">
+        <v>10541.523831525299</v>
+      </c>
+      <c r="N37" s="5">
+        <v>7.6798825602775098</v>
+      </c>
+      <c r="O37" s="5">
+        <v>1400</v>
+      </c>
+      <c r="P37" s="18">
+        <v>7.5296598796609278</v>
+      </c>
+      <c r="Q37" s="27">
+        <v>2</v>
+      </c>
+      <c r="R37" s="5">
+        <v>-255.47656616558999</v>
+      </c>
+      <c r="S37" s="5">
+        <v>7233.07417978174</v>
+      </c>
+      <c r="T37" s="5">
+        <v>7132.6647750860202</v>
+      </c>
+      <c r="U37" s="5">
+        <v>9.5655998886753702E+17</v>
+      </c>
+      <c r="V37" s="5">
+        <v>900</v>
+      </c>
+      <c r="W37" s="18">
+        <v>7.9251830834289114</v>
+      </c>
+      <c r="X37" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>-88.275155276822801</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>12155.7609142438</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>11469.139628098301</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>2.0040510046785598</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>5700</v>
+      </c>
+      <c r="AD37" s="18">
+        <v>2.0121297593154912</v>
+      </c>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5">
+        <v>1400</v>
+      </c>
+      <c r="AK37" s="6"/>
+    </row>
+    <row r="38" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="28">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-32.2414065718038</v>
+      </c>
+      <c r="E38" s="3">
+        <v>7596.3616094732097</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6691.57652947731</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.42137793105574001</v>
+      </c>
+      <c r="H38" s="3">
+        <v>15610</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0.42867242341302436</v>
+      </c>
+      <c r="J38" s="28">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3">
+        <v>-1.55801637730362</v>
+      </c>
+      <c r="L38" s="3">
+        <v>5002.46404309434</v>
+      </c>
+      <c r="M38" s="3">
+        <v>4413.0244485866997</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.28003886185500199</v>
+      </c>
+      <c r="O38" s="3">
+        <v>14840</v>
+      </c>
+      <c r="P38" s="19">
+        <v>0.29737361513387467</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>2</v>
+      </c>
+      <c r="R38" s="3">
+        <v>-5.0400848902202204</v>
+      </c>
+      <c r="S38" s="3">
+        <v>2958.9799078104302</v>
+      </c>
+      <c r="T38" s="3">
+        <v>2584.4314983460899</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0.24224050902616601</v>
+      </c>
+      <c r="V38" s="3">
+        <v>10300</v>
+      </c>
+      <c r="W38" s="19">
+        <v>0.25091567945107668</v>
+      </c>
+      <c r="X38" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>-9.7881776290932105</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>8904.5904785976709</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>7939.0605536865896</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0.313109597337901</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>25400</v>
+      </c>
+      <c r="AD38" s="19">
+        <v>0.31256143912151929</v>
+      </c>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3">
+        <v>15610</v>
+      </c>
+      <c r="AK38" s="4"/>
+    </row>
+    <row r="39" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>13</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="27">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-754.83223083240796</v>
+      </c>
+      <c r="E39" s="5">
+        <v>7846.3820265139202</v>
+      </c>
+      <c r="F39" s="5">
+        <v>6828.2659863136696</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2.5319198511794601</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2590</v>
+      </c>
+      <c r="I39" s="18">
+        <v>2.6363961337118416</v>
+      </c>
+      <c r="J39" s="27">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>-1861.6584976527799</v>
+      </c>
+      <c r="L39" s="5">
+        <v>9062.8797361819306</v>
+      </c>
+      <c r="M39" s="5">
+        <v>8529.4108416093695</v>
+      </c>
+      <c r="N39" s="5">
+        <v>3.0761404002331001</v>
+      </c>
+      <c r="O39" s="5">
+        <v>2660</v>
+      </c>
+      <c r="P39" s="18">
+        <v>3.2065454291764546</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>2</v>
+      </c>
+      <c r="R39" s="5">
+        <v>-12.0237508274357</v>
+      </c>
+      <c r="S39" s="5">
+        <v>2169.2361053161399</v>
+      </c>
+      <c r="T39" s="5">
+        <v>1941.48143178488</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0.30282569666388998</v>
+      </c>
+      <c r="V39" s="5">
+        <v>6300</v>
+      </c>
+      <c r="W39" s="18">
+        <v>0.30817165583886985</v>
+      </c>
+      <c r="X39" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>-74.390493824390404</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>9259.8139187324196</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>7914.7268239564801</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0.85728395748205499</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>9060</v>
+      </c>
+      <c r="AD39" s="18">
+        <v>0.87359015716958943</v>
+      </c>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5">
+        <v>4245</v>
+      </c>
+      <c r="AK39" s="6"/>
+    </row>
+    <row r="40" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>14</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="28">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1.8113630357175501</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1230.3213381481601</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1032.58146548536</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.26238240287620501</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4150</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0.2488148109603277</v>
+      </c>
+      <c r="J40" s="28">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3">
+        <v>-22.476473543388899</v>
+      </c>
+      <c r="L40" s="3">
+        <v>2910.45241403415</v>
+      </c>
+      <c r="M40" s="3">
+        <v>2284.69909221136</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.471917641481372</v>
+      </c>
+      <c r="O40" s="3">
+        <v>4560</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0.50103050267792981</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>3</v>
+      </c>
+      <c r="R40" s="3">
+        <v>-101.537015911655</v>
+      </c>
+      <c r="S40" s="3">
+        <v>5292.4315359345901</v>
+      </c>
+      <c r="T40" s="3">
+        <v>4080.8638691774199</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0.59672505352529703</v>
+      </c>
+      <c r="V40" s="3">
+        <v>6640</v>
+      </c>
+      <c r="W40" s="19">
+        <v>0.61458793210503315</v>
+      </c>
+      <c r="X40" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>-2.33140521788552</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>5198.4343313814697</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>4200.2896728943297</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0.235211974976371</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>17490</v>
+      </c>
+      <c r="AD40" s="19">
+        <v>0.24015378347023039</v>
+      </c>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3">
+        <v>5720</v>
+      </c>
+      <c r="AK40" s="4"/>
+    </row>
+    <row r="41" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>15</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="27">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-3.5029113348572101</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2528.6704120013801</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2267.1992175341302</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.34324962896705702</v>
+      </c>
+      <c r="H41" s="5">
+        <v>6550</v>
+      </c>
+      <c r="I41" s="18">
+        <v>0.34613728511971453</v>
+      </c>
+      <c r="J41" s="27">
+        <v>3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>-22.528121428972401</v>
+      </c>
+      <c r="L41" s="5">
+        <v>3361.3920940702901</v>
+      </c>
+      <c r="M41" s="5">
+        <v>2433.4528643419999</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.595447314815294</v>
+      </c>
+      <c r="O41" s="5">
+        <v>3750</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0.64892076382453334</v>
+      </c>
+      <c r="Q41" s="27">
+        <v>3</v>
+      </c>
+      <c r="R41" s="5">
+        <v>-5121.0449924187096</v>
+      </c>
+      <c r="S41" s="5">
+        <v>10387.2052944525</v>
+      </c>
+      <c r="T41" s="5">
+        <v>9167.4152450688798</v>
+      </c>
+      <c r="U41" s="5">
+        <v>21.066993553156902</v>
+      </c>
+      <c r="V41" s="5">
+        <v>480</v>
+      </c>
+      <c r="W41" s="18">
+        <v>19.098781760560165</v>
+      </c>
+      <c r="X41" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>-0.46413871848761301</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>3255.2916061773599</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>2451.4880005065002</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>0.213560413580339</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>11760</v>
+      </c>
+      <c r="AD41" s="18">
+        <v>0.20845986398864796</v>
+      </c>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5">
+        <v>4980</v>
+      </c>
+      <c r="AK41" s="6"/>
+    </row>
+    <row r="42" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="28">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-239.22803472964901</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3323.9961794024598</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2671.5253328621402</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2.4449116224999599</v>
+      </c>
+      <c r="H42" s="3">
+        <v>990</v>
+      </c>
+      <c r="I42" s="19">
+        <v>2.6985104372344852</v>
+      </c>
+      <c r="J42" s="28">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>-535.827440815047</v>
+      </c>
+      <c r="L42" s="3">
+        <v>5938.9990883407099</v>
+      </c>
+      <c r="M42" s="3">
+        <v>5380.9413024393098</v>
+      </c>
+      <c r="N42" s="3">
+        <v>7.27860511396592</v>
+      </c>
+      <c r="O42" s="3">
+        <v>820</v>
+      </c>
+      <c r="P42" s="19">
+        <v>6.5621235395601341</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3">
+        <v>-668.217946412115</v>
+      </c>
+      <c r="S42" s="3">
+        <v>8836.8015300621191</v>
+      </c>
+      <c r="T42" s="3">
+        <v>6714.4391229062703</v>
+      </c>
+      <c r="U42" s="3">
+        <v>3.7481286474335098</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1680</v>
+      </c>
+      <c r="W42" s="19">
+        <v>3.9966899541108751</v>
+      </c>
+      <c r="X42" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>-6.0090959824698</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>3543.8399704598201</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>2694.6145924645398</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0.216307687178212</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>12270</v>
+      </c>
+      <c r="AD42" s="19">
+        <v>0.2196099912359038</v>
+      </c>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3">
+        <v>1350</v>
+      </c>
+      <c r="AK42" s="4"/>
+    </row>
+    <row r="43" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>17</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="27">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.163012395252741</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1369.3393841202101</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1051.5160277339</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.53218954490513704</v>
+      </c>
+      <c r="H43" s="5">
+        <v>4757</v>
+      </c>
+      <c r="I43" s="18">
+        <v>0.22104604324866514</v>
+      </c>
+      <c r="J43" s="27">
+        <v>3</v>
+      </c>
+      <c r="K43" s="5">
+        <v>-33.894483131902099</v>
+      </c>
+      <c r="L43" s="5">
+        <v>6283.85352128452</v>
+      </c>
+      <c r="M43" s="5">
+        <v>5824.8255440610901</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.48191502706234401</v>
+      </c>
+      <c r="O43" s="5">
+        <v>12083</v>
+      </c>
+      <c r="P43" s="18">
+        <v>0.48206782620715799</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>3</v>
+      </c>
+      <c r="R43" s="5">
+        <v>-83.260195217786702</v>
+      </c>
+      <c r="S43" s="5">
+        <v>20507.937300052399</v>
+      </c>
+      <c r="T43" s="5">
+        <v>20071.839693976799</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0.70234568971065603</v>
+      </c>
+      <c r="V43" s="5">
+        <v>28550</v>
+      </c>
+      <c r="W43" s="18">
+        <v>0.70304167054209454</v>
+      </c>
+      <c r="X43" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>-29.3929595469357</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>7615.38859164311</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>6962.7760832885097</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>1.12813149172395</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>6350</v>
+      </c>
+      <c r="AD43" s="18">
+        <v>1.0965001705966158</v>
+      </c>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5">
+        <v>10043.5</v>
+      </c>
+      <c r="AK43" s="6"/>
+    </row>
+    <row r="44" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>18</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="28">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.492579056293732</v>
+      </c>
+      <c r="E44" s="3">
+        <v>256.18859575541501</v>
+      </c>
+      <c r="F44" s="3">
+        <v>185.13041746511001</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5.9772421446525899E-2</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3160</v>
+      </c>
+      <c r="I44" s="19">
+        <v>5.8585575147186715E-2</v>
+      </c>
+      <c r="J44" s="28">
+        <v>6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.3968621671541</v>
+      </c>
+      <c r="L44" s="3">
+        <v>502.17543089850102</v>
+      </c>
+      <c r="M44" s="3">
+        <v>387.790856196601</v>
+      </c>
+      <c r="N44" s="3">
+        <v>7.4488365223430705E-2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>5048</v>
+      </c>
+      <c r="P44" s="19">
+        <v>7.6820692590451864E-2</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>6</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0.14850383225404401</v>
+      </c>
+      <c r="S44" s="3">
+        <v>365.76753156069401</v>
+      </c>
+      <c r="T44" s="3">
+        <v>310.74409095968099</v>
+      </c>
+      <c r="U44" s="3">
+        <v>8.9367278752792004E-2</v>
+      </c>
+      <c r="V44" s="3">
+        <v>3404</v>
+      </c>
+      <c r="W44" s="19">
+        <v>9.1287923313654817E-2</v>
+      </c>
+      <c r="X44" s="28">
+        <v>6</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0.77156891456382404</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>483.60305194710497</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>270.634592431378</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>5.3464944027011398E+17</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>592.4</v>
+      </c>
+      <c r="AD44" s="19">
+        <v>0.45684434914142136</v>
+      </c>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3">
+        <v>3356.5</v>
+      </c>
+      <c r="AK44" s="4"/>
+    </row>
+    <row r="45" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>19</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="27">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-360.407666209799</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3480.0345127136702</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2975.3540432230102</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1.7566736727293599</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1604</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1.8549588798148442</v>
+      </c>
+      <c r="J45" s="27">
+        <v>3</v>
+      </c>
+      <c r="K45" s="5">
+        <v>-79.252048687178899</v>
+      </c>
+      <c r="L45" s="5">
+        <v>9238.9563247770893</v>
+      </c>
+      <c r="M45" s="5">
+        <v>8949.8570023171196</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.57906010385530704</v>
+      </c>
+      <c r="O45" s="5">
+        <v>15450</v>
+      </c>
+      <c r="P45" s="18">
+        <v>0.57927877037651254</v>
+      </c>
+      <c r="Q45" s="27">
+        <v>3</v>
+      </c>
+      <c r="R45" s="5">
+        <v>-176.195809280216</v>
+      </c>
+      <c r="S45" s="5">
+        <v>17394.410672611299</v>
+      </c>
+      <c r="T45" s="5">
+        <v>16683.1897708262</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0.64759089013340998</v>
+      </c>
+      <c r="V45" s="5">
+        <v>25445</v>
+      </c>
+      <c r="W45" s="18">
+        <v>0.65565689804779725</v>
+      </c>
+      <c r="X45" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>-18.9410501785846</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>6047.7690525353701</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>4983.7335113593299</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>0.57709401737467603</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>8340</v>
+      </c>
+      <c r="AD45" s="18">
+        <v>0.59756996539080698</v>
+      </c>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5">
+        <v>12532.5</v>
+      </c>
+      <c r="AK45" s="6"/>
+    </row>
+    <row r="46" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>20</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="28">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.44321876131253202</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3401.9628508709702</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3015.1527464651799</v>
+      </c>
+      <c r="G46" s="3">
+        <v>8.9332024676653798E+17</v>
+      </c>
+      <c r="H46" s="3">
+        <v>9331</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0.3231328631942107</v>
+      </c>
+      <c r="J46" s="28">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>-15.805841646968901</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3240.4399696809601</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2809.7669617782999</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.35342495176035099</v>
+      </c>
+      <c r="O46" s="3">
+        <v>8152</v>
+      </c>
+      <c r="P46" s="19">
+        <v>0.34467210031627821</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3">
+        <v>-55.657150959794002</v>
+      </c>
+      <c r="S46" s="3">
+        <v>5586.1201805843202</v>
+      </c>
+      <c r="T46" s="3">
+        <v>5260.9106541831698</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0.51617189270341801</v>
+      </c>
+      <c r="V46" s="3">
+        <v>10218</v>
+      </c>
+      <c r="W46" s="19">
+        <v>0.51486696556891465</v>
+      </c>
+      <c r="X46" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>-6.2746255754037197</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>12837.5026117335</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>12417.537495797</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0.486014007411953</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>24932</v>
+      </c>
+      <c r="AD46" s="19">
+        <v>0.49805621273050699</v>
+      </c>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3">
+        <v>9945</v>
+      </c>
+      <c r="AK46" s="4"/>
+    </row>
+    <row r="47" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>21</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="29">
+        <v>3</v>
+      </c>
+      <c r="D47" s="12">
+        <v>-3.4386370202938799</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1710.0005307194299</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1390.60073649986</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.40104910527479598</v>
+      </c>
+      <c r="H47" s="12">
+        <v>3110</v>
+      </c>
+      <c r="I47" s="20">
+        <v>0.44713850048227011</v>
+      </c>
+      <c r="J47" s="29">
+        <v>3</v>
+      </c>
+      <c r="K47" s="12">
+        <v>-67025.778125396304</v>
+      </c>
+      <c r="L47" s="12">
+        <v>6873.9506477192099</v>
+      </c>
+      <c r="M47" s="12">
+        <v>6146.9898481815799</v>
+      </c>
+      <c r="N47" s="12">
+        <v>7.3758190212781199E+18</v>
+      </c>
+      <c r="O47" s="12">
+        <v>20</v>
+      </c>
+      <c r="P47" s="20">
+        <v>307.34949240907901</v>
+      </c>
+      <c r="Q47" s="29">
+        <v>5</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0.24091243376417501</v>
+      </c>
+      <c r="S47" s="12">
+        <v>688.66074418542496</v>
+      </c>
+      <c r="T47" s="12">
+        <v>558.48061767302795</v>
+      </c>
+      <c r="U47" s="12">
+        <v>0.116721717457153</v>
+      </c>
+      <c r="V47" s="12">
+        <v>4450</v>
+      </c>
+      <c r="W47" s="20">
+        <v>0.12550126239843326</v>
+      </c>
+      <c r="X47" s="29">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>-33.398805617908103</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>6726.1512777778298</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>5851.6075064423003</v>
+      </c>
+      <c r="AB47" s="12">
+        <v>0.82085998815597905</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>7050</v>
+      </c>
+      <c r="AD47" s="20">
+        <v>0.83001524914075187</v>
+      </c>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12">
+        <v>4125</v>
+      </c>
+      <c r="AK47" s="17"/>
+    </row>
+    <row r="48" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="35"/>
+    </row>
+    <row r="50" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W50" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD50" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK50" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="27">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-2.2817546738099401</v>
+      </c>
+      <c r="E51" s="5">
+        <v>611.23262974263696</v>
+      </c>
+      <c r="F51" s="5">
+        <v>533.75812722546402</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.22641920932262999</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2220</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0.24043158884029911</v>
+      </c>
+      <c r="J51" s="27">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>-1216.7804307579599</v>
+      </c>
+      <c r="L51" s="5">
+        <v>13914.0515737142</v>
+      </c>
+      <c r="M51" s="5">
+        <v>8010.3082196785399</v>
+      </c>
+      <c r="N51" s="5">
+        <v>2.55084635308115</v>
+      </c>
+      <c r="O51" s="5">
+        <v>2797</v>
+      </c>
+      <c r="P51" s="18">
+        <v>2.8638928207645833</v>
+      </c>
+      <c r="Q51" s="27">
+        <v>0</v>
+      </c>
+      <c r="R51" s="5">
+        <v>-4.2347104890230201</v>
+      </c>
+      <c r="S51" s="5">
+        <v>926.01506755566504</v>
+      </c>
+      <c r="T51" s="5">
+        <v>722.885824841008</v>
+      </c>
+      <c r="U51" s="5">
+        <v>0.165789782244676</v>
+      </c>
+      <c r="V51" s="5">
+        <v>4537</v>
+      </c>
+      <c r="W51" s="18">
+        <v>0.15933123756689618</v>
+      </c>
+      <c r="X51" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>-2.0970994947809598</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>3377.5799864502301</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>2960.8008480349299</v>
+      </c>
+      <c r="AB51" s="5">
+        <v>0.57269846078074305</v>
+      </c>
+      <c r="AC51" s="5">
+        <v>6220</v>
+      </c>
+      <c r="AD51" s="18">
+        <v>0.47601299807635528</v>
+      </c>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5">
+        <v>3268</v>
+      </c>
+      <c r="AK51" s="6"/>
+    </row>
+    <row r="52" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="28">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-20.4840073953843</v>
+      </c>
+      <c r="E52" s="3">
+        <v>764.64982711336995</v>
+      </c>
+      <c r="F52" s="3">
+        <v>668.83558605333803</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.49427628338289897</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1280</v>
+      </c>
+      <c r="I52" s="19">
+        <v>0.52252780160417034</v>
+      </c>
+      <c r="J52" s="28">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>-4068.8672914438098</v>
+      </c>
+      <c r="L52" s="3">
+        <v>14639.2226286393</v>
+      </c>
+      <c r="M52" s="3">
+        <v>10595.557797011499</v>
+      </c>
+      <c r="N52" s="3">
+        <v>4.7453939473845903</v>
+      </c>
+      <c r="O52" s="3">
+        <v>2140</v>
+      </c>
+      <c r="P52" s="19">
+        <v>4.9511952322483639</v>
+      </c>
+      <c r="Q52" s="28">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>-10.812381861149801</v>
+      </c>
+      <c r="S52" s="3">
+        <v>1525.7448273105499</v>
+      </c>
+      <c r="T52" s="3">
+        <v>1290.0948926229</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0.49604147785524499</v>
+      </c>
+      <c r="V52" s="3">
+        <v>2470</v>
+      </c>
+      <c r="W52" s="19">
+        <v>0.52230562454368423</v>
+      </c>
+      <c r="X52" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>-0.26482744477444697</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>1342.26708372591</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>1024.4386143484001</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0.112430850892438</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>8970</v>
+      </c>
+      <c r="AD52" s="19">
+        <v>0.11420720338332219</v>
+      </c>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3">
+        <v>2375</v>
+      </c>
+      <c r="AK52" s="4"/>
+    </row>
+    <row r="53" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="27">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-16.753525383432802</v>
+      </c>
+      <c r="E53" s="5">
+        <v>714.53936678558898</v>
+      </c>
+      <c r="F53" s="5">
+        <v>577.85907541026097</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.42561718879886401</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1272</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0.45429172595146305</v>
+      </c>
+      <c r="J53" s="27">
+        <v>8</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.24405234667432099</v>
+      </c>
+      <c r="L53" s="5">
+        <v>435.255479716715</v>
+      </c>
+      <c r="M53" s="5">
+        <v>335.05849344232598</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.10857862285290799</v>
+      </c>
+      <c r="O53" s="5">
+        <v>3415</v>
+      </c>
+      <c r="P53" s="18">
+        <v>9.811376089087144E-2</v>
+      </c>
+      <c r="Q53" s="27">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5">
+        <v>-3.9294227400330599</v>
+      </c>
+      <c r="S53" s="5">
+        <v>1591.1928449177201</v>
+      </c>
+      <c r="T53" s="5">
+        <v>1396.7683790921801</v>
+      </c>
+      <c r="U53" s="5">
+        <v>0.26254541346976201</v>
+      </c>
+      <c r="V53" s="5">
+        <v>5455</v>
+      </c>
+      <c r="W53" s="18">
+        <v>0.25605286509480846</v>
+      </c>
+      <c r="X53" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>-0.70656581724512202</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>1627.02946983471</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>1326.7587693496801</v>
+      </c>
+      <c r="AB53" s="5">
+        <v>0.133767326447606</v>
+      </c>
+      <c r="AC53" s="5">
+        <v>9550</v>
+      </c>
+      <c r="AD53" s="18">
+        <v>0.13892761982719162</v>
+      </c>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5">
+        <v>4188</v>
+      </c>
+      <c r="AK53" s="6"/>
+    </row>
+    <row r="54" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="28">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>-77.277896715559706</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2742.6798862583701</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2713.5645161021098</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.57493292023059706</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4645</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0.58419042327279003</v>
+      </c>
+      <c r="J54" s="28">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>-41.906404496504898</v>
+      </c>
+      <c r="L54" s="3">
+        <v>13275.882696778401</v>
+      </c>
+      <c r="M54" s="3">
+        <v>9639.1402971653297</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1.3284609481155201</v>
+      </c>
+      <c r="O54" s="3">
+        <v>5948</v>
+      </c>
+      <c r="P54" s="19">
+        <v>1.6205683081986095</v>
+      </c>
+      <c r="Q54" s="28">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>-35.236265819258698</v>
+      </c>
+      <c r="S54" s="3">
+        <v>3558.4699463792099</v>
+      </c>
+      <c r="T54" s="3">
+        <v>3466.4471988311402</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0.46770817517362601</v>
+      </c>
+      <c r="V54" s="3">
+        <v>7450</v>
+      </c>
+      <c r="W54" s="19">
+        <v>0.46529492601760269</v>
+      </c>
+      <c r="X54" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>-20.2471236205274</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>10430.8369282637</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>10240.230496218001</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0.51908955365089104</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>19500</v>
+      </c>
+      <c r="AD54" s="19">
+        <v>0.52514002544707694</v>
+      </c>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3">
+        <v>7417.5</v>
+      </c>
+      <c r="AK54" s="4"/>
+    </row>
+    <row r="55" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>5</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="27">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-5.1787933752447497</v>
+      </c>
+      <c r="E55" s="5">
+        <v>877.87017497794398</v>
+      </c>
+      <c r="F55" s="5">
+        <v>791.93796727631297</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.27946701121681999</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2770</v>
+      </c>
+      <c r="I55" s="18">
+        <v>0.28589818313224297</v>
+      </c>
+      <c r="J55" s="27">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>-5000.1985324056204</v>
+      </c>
+      <c r="L55" s="5">
+        <v>16123.9667733648</v>
+      </c>
+      <c r="M55" s="5">
+        <v>10401.299094411899</v>
+      </c>
+      <c r="N55" s="5">
+        <v>5.6765817345912</v>
+      </c>
+      <c r="O55" s="5">
+        <v>1700</v>
+      </c>
+      <c r="P55" s="18">
+        <v>6.1184112320069994</v>
+      </c>
+      <c r="Q55" s="27">
+        <v>0</v>
+      </c>
+      <c r="R55" s="5">
+        <v>-129.37753207963499</v>
+      </c>
+      <c r="S55" s="5">
+        <v>2786.61126981187</v>
+      </c>
+      <c r="T55" s="5">
+        <v>2667.68984047802</v>
+      </c>
+      <c r="U55" s="5">
+        <v>1.850807932608</v>
+      </c>
+      <c r="V55" s="5">
+        <v>1410</v>
+      </c>
+      <c r="W55" s="18">
+        <v>1.8919786102680993</v>
+      </c>
+      <c r="X55" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="5">
+        <v>-0.96301660598800698</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>1928.2993847114899</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>1584.07708893073</v>
+      </c>
+      <c r="AB55" s="5">
+        <v>0.19993469398047101</v>
+      </c>
+      <c r="AC55" s="5">
+        <v>8070</v>
+      </c>
+      <c r="AD55" s="18">
+        <v>0.19629208041272986</v>
+      </c>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5">
+        <v>2235</v>
+      </c>
+      <c r="AK55" s="6"/>
+    </row>
+    <row r="56" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="28">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.20999269022501901</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4159.0217047217002</v>
+      </c>
+      <c r="F56" s="3">
+        <v>3139.8941666666601</v>
+      </c>
+      <c r="G56" s="3">
+        <v>5.7536047238636298E-2</v>
+      </c>
+      <c r="H56" s="3">
+        <v>55480</v>
+      </c>
+      <c r="I56" s="19">
+        <v>5.6595064287430788E-2</v>
+      </c>
+      <c r="J56" s="28">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>-30.6359998454611</v>
+      </c>
+      <c r="L56" s="3">
+        <v>59725.452406173601</v>
+      </c>
+      <c r="M56" s="3">
+        <v>58549.643273929803</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.83423430420557798</v>
+      </c>
+      <c r="O56" s="3">
+        <v>67046</v>
+      </c>
+      <c r="P56" s="19">
+        <v>0.87327571031724194</v>
+      </c>
+      <c r="Q56" s="28">
+        <v>7</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0.227997837871183</v>
+      </c>
+      <c r="S56" s="3">
+        <v>4790.41091715128</v>
+      </c>
+      <c r="T56" s="3">
+        <v>3645.7926226743898</v>
+      </c>
+      <c r="U56" s="3">
+        <v>3.5335116385713898E-2</v>
+      </c>
+      <c r="V56" s="3">
+        <v>101690</v>
+      </c>
+      <c r="W56" s="19">
+        <v>3.5852026970935098E-2</v>
+      </c>
+      <c r="X56" s="28">
+        <v>6</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0.63907834775378902</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>14412.721054158899</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>9836.5178232064209</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>4.6175214278582601E-2</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>200400</v>
+      </c>
+      <c r="AD56" s="19">
+        <v>4.9084420275481142E-2</v>
+      </c>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3">
+        <v>94090</v>
+      </c>
+      <c r="AK56" s="4"/>
+    </row>
+    <row r="57" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>7</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="27">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-3.9534401605169398</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1168.3782892766701</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1051.6498583208399</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.34179929670349901</v>
+      </c>
+      <c r="H57" s="5">
+        <v>3240</v>
+      </c>
+      <c r="I57" s="18">
+        <v>0.3245832896051975</v>
+      </c>
+      <c r="J57" s="27">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5">
+        <v>-30.091286942773099</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1769.3878624394599</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1431.3661620616499</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.75256786374293005</v>
+      </c>
+      <c r="O57" s="5">
+        <v>1786</v>
+      </c>
+      <c r="P57" s="18">
+        <v>0.80143682086318579</v>
+      </c>
+      <c r="Q57" s="27">
+        <v>1</v>
+      </c>
+      <c r="R57" s="5">
+        <v>-3.1676752174400402</v>
+      </c>
+      <c r="S57" s="5">
+        <v>2135.1574143349599</v>
+      </c>
+      <c r="T57" s="5">
+        <v>1853.8703716913401</v>
+      </c>
+      <c r="U57" s="5">
+        <v>0.24605988922980199</v>
+      </c>
+      <c r="V57" s="5">
+        <v>7345</v>
+      </c>
+      <c r="W57" s="18">
+        <v>0.25239896142836488</v>
+      </c>
+      <c r="X57" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>-10.1490712544527</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>3819.2285246485599</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>3391.2972632611099</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>0.61937064151788102</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>5100</v>
+      </c>
+      <c r="AD57" s="18">
+        <v>0.6649602476982569</v>
+      </c>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5">
+        <v>3950</v>
+      </c>
+      <c r="AK57" s="6"/>
+    </row>
+    <row r="58" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="28">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.635262111214137</v>
+      </c>
+      <c r="E58" s="3">
+        <v>175.563203680924</v>
+      </c>
+      <c r="F58" s="3">
+        <v>137.22865646325801</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7.2730699737491106E-2</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1960</v>
+      </c>
+      <c r="I58" s="19">
+        <v>7.0014620644519396E-2</v>
+      </c>
+      <c r="J58" s="28">
+        <v>7</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.172559918742725</v>
+      </c>
+      <c r="L58" s="3">
+        <v>333.119741920867</v>
+      </c>
+      <c r="M58" s="3">
+        <v>266.19460004215301</v>
+      </c>
+      <c r="N58" s="3">
+        <v>6.5017660129058893E-2</v>
+      </c>
+      <c r="O58" s="3">
+        <v>3920</v>
+      </c>
+      <c r="P58" s="19">
+        <v>6.790678572503904E-2</v>
+      </c>
+      <c r="Q58" s="28">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0.44887117662195403</v>
+      </c>
+      <c r="S58" s="3">
+        <v>398.43600073820897</v>
+      </c>
+      <c r="T58" s="3">
+        <v>322.99714555810601</v>
+      </c>
+      <c r="U58" s="3">
+        <v>6.4355802871472606E-2</v>
+      </c>
+      <c r="V58" s="3">
+        <v>4790</v>
+      </c>
+      <c r="W58" s="19">
+        <v>6.7431554396264304E-2</v>
+      </c>
+      <c r="X58" s="28">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0.184354457632669</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>1255.39097470458</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>1062.59676362852</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0.14066795322131501</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>7180</v>
+      </c>
+      <c r="AD58" s="19">
+        <v>0.14799397822124233</v>
+      </c>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3">
+        <v>4430</v>
+      </c>
+      <c r="AK58" s="4"/>
+    </row>
+    <row r="59" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>9</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="27">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>-39.842018259045901</v>
+      </c>
+      <c r="E59" s="5">
+        <v>4787.8921927235197</v>
+      </c>
+      <c r="F59" s="5">
+        <v>4719.2081082015202</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.510291370731219</v>
+      </c>
+      <c r="H59" s="5">
+        <v>9103</v>
+      </c>
+      <c r="I59" s="18">
+        <v>0.51842338879506977</v>
+      </c>
+      <c r="J59" s="27">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5">
+        <v>-158.92308584665699</v>
+      </c>
+      <c r="L59" s="5">
+        <v>5372.2151843096199</v>
+      </c>
+      <c r="M59" s="5">
+        <v>5293.9409293469298</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.60453081369061801</v>
+      </c>
+      <c r="O59" s="5">
+        <v>8618</v>
+      </c>
+      <c r="P59" s="18">
+        <v>0.61428880591168833</v>
+      </c>
+      <c r="Q59" s="27">
+        <v>1</v>
+      </c>
+      <c r="R59" s="5">
+        <v>-20.875368964897302</v>
+      </c>
+      <c r="S59" s="5">
+        <v>4313.0487303750897</v>
+      </c>
+      <c r="T59" s="5">
+        <v>4210.5155847688602</v>
+      </c>
+      <c r="U59" s="5">
+        <v>0.30490884781894101</v>
+      </c>
+      <c r="V59" s="5">
+        <v>13609</v>
+      </c>
+      <c r="W59" s="18">
+        <v>0.30939198947526342</v>
+      </c>
+      <c r="X59" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>-22.833544533377101</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>13171.509575968599</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>12892.964170343301</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>0.59160393182805004</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>21310</v>
+      </c>
+      <c r="AD59" s="18">
+        <v>0.60501943549241211</v>
+      </c>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5">
+        <v>11436</v>
+      </c>
+      <c r="AK59" s="6"/>
+    </row>
+    <row r="60" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="28">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.20889871014973199</v>
+      </c>
+      <c r="E60" s="3">
+        <v>191.95430495100601</v>
+      </c>
+      <c r="F60" s="3">
+        <v>125.357750902692</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4.4474763121180899E-2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2760</v>
+      </c>
+      <c r="I60" s="19">
+        <v>4.5419474964743481E-2</v>
+      </c>
+      <c r="J60" s="28">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.46374773979965001</v>
+      </c>
+      <c r="L60" s="3">
+        <v>282.94727270993297</v>
+      </c>
+      <c r="M60" s="3">
+        <v>225.818791102722</v>
+      </c>
+      <c r="N60" s="3">
+        <v>8.9536101690136594E-2</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P60" s="19">
+        <v>8.6853381193354617E-2</v>
+      </c>
+      <c r="Q60" s="28">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0.56030608189583897</v>
+      </c>
+      <c r="S60" s="3">
+        <v>242.98058911373599</v>
+      </c>
+      <c r="T60" s="3">
+        <v>198.85809981684901</v>
+      </c>
+      <c r="U60" s="3">
+        <v>4.9937153606214001E-2</v>
+      </c>
+      <c r="V60" s="3">
+        <v>3870</v>
+      </c>
+      <c r="W60" s="19">
+        <v>5.1384521916498449E-2</v>
+      </c>
+      <c r="X60" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0.110345758129241</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>1892.0805134264001</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>1489.22919531448</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>9.0855273211250198E-2</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>17100</v>
+      </c>
+      <c r="AD60" s="19">
+        <v>8.7089426626577773E-2</v>
+      </c>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3">
+        <v>3406</v>
+      </c>
+      <c r="AK60" s="4"/>
+    </row>
+    <row r="61" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>11</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="27">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5">
+        <v>-293.15302502215002</v>
+      </c>
+      <c r="E61" s="5">
+        <v>10889.0241500723</v>
+      </c>
+      <c r="F61" s="5">
+        <v>10119.899525942599</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3.7295537255220198E+18</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I61" s="18">
+        <v>7.2284996613875707</v>
+      </c>
+      <c r="J61" s="27">
+        <v>2</v>
+      </c>
+      <c r="K61" s="5">
+        <v>-6826.2058382046298</v>
+      </c>
+      <c r="L61" s="5">
+        <v>10889.6601636702</v>
+      </c>
+      <c r="M61" s="5">
+        <v>10541.523831525299</v>
+      </c>
+      <c r="N61" s="5">
+        <v>7.6798825602775098</v>
+      </c>
+      <c r="O61" s="5">
+        <v>1400</v>
+      </c>
+      <c r="P61" s="18">
+        <v>7.5296598796609278</v>
+      </c>
+      <c r="Q61" s="27">
+        <v>2</v>
+      </c>
+      <c r="R61" s="5">
+        <v>-255.47656616558999</v>
+      </c>
+      <c r="S61" s="5">
+        <v>7233.07417978174</v>
+      </c>
+      <c r="T61" s="5">
+        <v>7132.6647750860202</v>
+      </c>
+      <c r="U61" s="5">
+        <v>9.5655998886753702E+17</v>
+      </c>
+      <c r="V61" s="5">
+        <v>900</v>
+      </c>
+      <c r="W61" s="18">
+        <v>7.9251830834289114</v>
+      </c>
+      <c r="X61" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y61" s="5">
+        <v>-88.275155276822801</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>12155.7609142438</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>11469.139628098301</v>
+      </c>
+      <c r="AB61" s="5">
+        <v>2.0040510046785598</v>
+      </c>
+      <c r="AC61" s="5">
+        <v>5700</v>
+      </c>
+      <c r="AD61" s="18">
+        <v>2.0121297593154912</v>
+      </c>
+      <c r="AE61" s="27"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5">
+        <v>1400</v>
+      </c>
+      <c r="AK61" s="6"/>
+    </row>
+    <row r="62" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>12</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="28">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-32.2414065718038</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7596.3616094732097</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6691.57652947731</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.42137793105574001</v>
+      </c>
+      <c r="H62" s="3">
+        <v>15610</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0.42867242341302436</v>
+      </c>
+      <c r="J62" s="28">
+        <v>2</v>
+      </c>
+      <c r="K62" s="3">
+        <v>-1.55801637730362</v>
+      </c>
+      <c r="L62" s="3">
+        <v>5002.46404309434</v>
+      </c>
+      <c r="M62" s="3">
+        <v>4413.0244485866997</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.28003886185500199</v>
+      </c>
+      <c r="O62" s="3">
+        <v>14840</v>
+      </c>
+      <c r="P62" s="19">
+        <v>0.29737361513387467</v>
+      </c>
+      <c r="Q62" s="28">
+        <v>2</v>
+      </c>
+      <c r="R62" s="3">
+        <v>-5.0400848902202204</v>
+      </c>
+      <c r="S62" s="3">
+        <v>2958.9799078104302</v>
+      </c>
+      <c r="T62" s="3">
+        <v>2584.4314983460899</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0.24224050902616601</v>
+      </c>
+      <c r="V62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="W62" s="19">
+        <v>0.25091567945107668</v>
+      </c>
+      <c r="X62" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>-9.7881776290932105</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>8904.5904785976709</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>7939.0605536865896</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0.313109597337901</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>25400</v>
+      </c>
+      <c r="AD62" s="19">
+        <v>0.31256143912151929</v>
+      </c>
+      <c r="AE62" s="28"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3">
+        <v>15610</v>
+      </c>
+      <c r="AK62" s="4"/>
+    </row>
+    <row r="63" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>13</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="27">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>-754.83223083240796</v>
+      </c>
+      <c r="E63" s="5">
+        <v>7846.3820265139202</v>
+      </c>
+      <c r="F63" s="5">
+        <v>6828.2659863136696</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2.5319198511794601</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2590</v>
+      </c>
+      <c r="I63" s="18">
+        <v>2.6363961337118416</v>
+      </c>
+      <c r="J63" s="27">
+        <v>2</v>
+      </c>
+      <c r="K63" s="5">
+        <v>-1861.6584976527799</v>
+      </c>
+      <c r="L63" s="5">
+        <v>9062.8797361819306</v>
+      </c>
+      <c r="M63" s="5">
+        <v>8529.4108416093695</v>
+      </c>
+      <c r="N63" s="5">
+        <v>3.0761404002331001</v>
+      </c>
+      <c r="O63" s="5">
+        <v>2660</v>
+      </c>
+      <c r="P63" s="18">
+        <v>3.2065454291764546</v>
+      </c>
+      <c r="Q63" s="27">
+        <v>2</v>
+      </c>
+      <c r="R63" s="5">
+        <v>-12.0237508274357</v>
+      </c>
+      <c r="S63" s="5">
+        <v>2169.2361053161399</v>
+      </c>
+      <c r="T63" s="5">
+        <v>1941.48143178488</v>
+      </c>
+      <c r="U63" s="5">
+        <v>0.30282569666388998</v>
+      </c>
+      <c r="V63" s="5">
+        <v>6300</v>
+      </c>
+      <c r="W63" s="18">
+        <v>0.30817165583886985</v>
+      </c>
+      <c r="X63" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>-74.390493824390404</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>9259.8139187324196</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>7914.7268239564801</v>
+      </c>
+      <c r="AB63" s="5">
+        <v>0.85728395748205499</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>9060</v>
+      </c>
+      <c r="AD63" s="18">
+        <v>0.87359015716958943</v>
+      </c>
+      <c r="AE63" s="27"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5">
+        <v>4245</v>
+      </c>
+      <c r="AK63" s="6"/>
+    </row>
+    <row r="64" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>14</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="28">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-1.7488212432066601</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1216.5594604584101</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1062.27171624009</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.26597153273750102</v>
+      </c>
+      <c r="H64" s="3">
+        <v>4150</v>
+      </c>
+      <c r="I64" s="19">
+        <v>0.25596908825062409</v>
+      </c>
+      <c r="J64" s="28">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3">
+        <v>-7.1383674097122398</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1713.61288320363</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1416.2159676533699</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.297815376117393</v>
+      </c>
+      <c r="O64" s="3">
+        <v>4560</v>
+      </c>
+      <c r="P64" s="19">
+        <v>0.3105736771169671</v>
+      </c>
+      <c r="Q64" s="28">
+        <v>3</v>
+      </c>
+      <c r="R64" s="3">
+        <v>-101.537015911655</v>
+      </c>
+      <c r="S64" s="3">
+        <v>5292.4315359345901</v>
+      </c>
+      <c r="T64" s="3">
+        <v>4080.8638691774199</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0.59672505352529703</v>
+      </c>
+      <c r="V64" s="3">
+        <v>6640</v>
+      </c>
+      <c r="W64" s="19">
+        <v>0.61458793210503315</v>
+      </c>
+      <c r="X64" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>-1.46146294122864</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>4468.4353837067001</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>3623.2799701910599</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0.19935760046450901</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>17490</v>
+      </c>
+      <c r="AD64" s="19">
+        <v>0.20716294855294795</v>
+      </c>
+      <c r="AE64" s="28"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3">
+        <v>5720</v>
+      </c>
+      <c r="AK64" s="4"/>
+    </row>
+    <row r="65" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>15</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="27">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5">
+        <v>-4.16685632646925</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2708.6863665257802</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2492.8290563016999</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.376301646186331</v>
+      </c>
+      <c r="H65" s="5">
+        <v>6550</v>
+      </c>
+      <c r="I65" s="18">
+        <v>0.3805845887483511</v>
+      </c>
+      <c r="J65" s="27">
+        <v>3</v>
+      </c>
+      <c r="K65" s="5">
+        <v>-9.2401319115938492</v>
+      </c>
+      <c r="L65" s="5">
+        <v>2217.5750332668599</v>
+      </c>
+      <c r="M65" s="5">
+        <v>1665.0147469712799</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.41236881820923099</v>
+      </c>
+      <c r="O65" s="5">
+        <v>3750</v>
+      </c>
+      <c r="P65" s="18">
+        <v>0.44400393252567466</v>
+      </c>
+      <c r="Q65" s="27">
+        <v>3</v>
+      </c>
+      <c r="R65" s="5">
+        <v>-5121.0449924187096</v>
+      </c>
+      <c r="S65" s="5">
+        <v>10387.2052944525</v>
+      </c>
+      <c r="T65" s="5">
+        <v>9167.4152450688798</v>
+      </c>
+      <c r="U65" s="5">
+        <v>21.066993553156902</v>
+      </c>
+      <c r="V65" s="5">
+        <v>480</v>
+      </c>
+      <c r="W65" s="18">
+        <v>19.098781760560165</v>
+      </c>
+      <c r="X65" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>-0.11086715596034</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>2835.5012879610499</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>2193.3801862095302</v>
+      </c>
+      <c r="AB65" s="5">
+        <v>0.205556566468833</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>11760</v>
+      </c>
+      <c r="AD65" s="18">
+        <v>0.18651192059604849</v>
+      </c>
+      <c r="AE65" s="27"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5">
+        <v>4980</v>
+      </c>
+      <c r="AK65" s="6"/>
+    </row>
+    <row r="66" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>16</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="28">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-269.80620469746998</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3529.2138675934402</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3170.9916738542702</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3.01360654828984</v>
+      </c>
+      <c r="H66" s="3">
+        <v>990</v>
+      </c>
+      <c r="I66" s="19">
+        <v>3.203021892782091</v>
+      </c>
+      <c r="J66" s="28">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
+        <v>-349.88716321599298</v>
+      </c>
+      <c r="L66" s="3">
+        <v>4801.5299824059803</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4443.9714839148901</v>
+      </c>
+      <c r="N66" s="3">
+        <v>6.4647772143506499</v>
+      </c>
+      <c r="O66" s="3">
+        <v>820</v>
+      </c>
+      <c r="P66" s="19">
+        <v>5.4194774194084028</v>
+      </c>
+      <c r="Q66" s="28">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3">
+        <v>-668.217946412115</v>
+      </c>
+      <c r="S66" s="3">
+        <v>8836.8015300621191</v>
+      </c>
+      <c r="T66" s="3">
+        <v>6714.4391229062703</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3.7481286474335098</v>
+      </c>
+      <c r="V66" s="3">
+        <v>1680</v>
+      </c>
+      <c r="W66" s="19">
+        <v>3.9966899541108751</v>
+      </c>
+      <c r="X66" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>-4.0640990375607604</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>3012.2720616668398</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>2377.0207837552898</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>0.19242584030812601</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>12270</v>
+      </c>
+      <c r="AD66" s="19">
+        <v>0.19372622524492988</v>
+      </c>
+      <c r="AE66" s="28"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3">
+        <v>1350</v>
+      </c>
+      <c r="AK66" s="4"/>
+    </row>
+    <row r="67" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>17</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="27">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.17747289807217001</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1357.4589160355999</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1099.8672507052599</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.48817614371162399</v>
+      </c>
+      <c r="H67" s="5">
+        <v>4757</v>
+      </c>
+      <c r="I67" s="18">
+        <v>0.23121026922540674</v>
+      </c>
+      <c r="J67" s="27">
+        <v>3</v>
+      </c>
+      <c r="K67" s="5">
+        <v>-42.691615159286201</v>
+      </c>
+      <c r="L67" s="5">
+        <v>7031.4795476878999</v>
+      </c>
+      <c r="M67" s="5">
+        <v>6850.0247831176703</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0.56364098909395799</v>
+      </c>
+      <c r="O67" s="5">
+        <v>12083</v>
+      </c>
+      <c r="P67" s="18">
+        <v>0.56691424175433835</v>
+      </c>
+      <c r="Q67" s="27">
+        <v>3</v>
+      </c>
+      <c r="R67" s="5">
+        <v>-83.260195217786702</v>
+      </c>
+      <c r="S67" s="5">
+        <v>20507.937300052399</v>
+      </c>
+      <c r="T67" s="5">
+        <v>20071.839693976799</v>
+      </c>
+      <c r="U67" s="5">
+        <v>0.70234568971065603</v>
+      </c>
+      <c r="V67" s="5">
+        <v>28550</v>
+      </c>
+      <c r="W67" s="18">
+        <v>0.70304167054209454</v>
+      </c>
+      <c r="X67" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>-30.6998935511212</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>7777.4007020476101</v>
+      </c>
+      <c r="AA67" s="5">
+        <v>7370.5566561146798</v>
+      </c>
+      <c r="AB67" s="5">
+        <v>1.2087085842585199</v>
+      </c>
+      <c r="AC67" s="5">
+        <v>6350</v>
+      </c>
+      <c r="AD67" s="18">
+        <v>1.1607175836401071</v>
+      </c>
+      <c r="AE67" s="27"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5">
+        <v>10043.5</v>
+      </c>
+      <c r="AK67" s="6"/>
+    </row>
+    <row r="68" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>18</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="28">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.492579056293732</v>
+      </c>
+      <c r="E68" s="3">
+        <v>256.18859575541501</v>
+      </c>
+      <c r="F68" s="3">
+        <v>185.13041746511001</v>
+      </c>
+      <c r="G68" s="3">
+        <v>5.9772421446525899E-2</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3160</v>
+      </c>
+      <c r="I68" s="19">
+        <v>5.8585575147186715E-2</v>
+      </c>
+      <c r="J68" s="28">
+        <v>5</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.3968621671541</v>
+      </c>
+      <c r="L68" s="3">
+        <v>502.17543089850102</v>
+      </c>
+      <c r="M68" s="3">
+        <v>387.790856196601</v>
+      </c>
+      <c r="N68" s="3">
+        <v>7.4488365223430705E-2</v>
+      </c>
+      <c r="O68" s="3">
+        <v>5048</v>
+      </c>
+      <c r="P68" s="19">
+        <v>7.6820692590451864E-2</v>
+      </c>
+      <c r="Q68" s="28">
+        <v>5</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0.14850383225404401</v>
+      </c>
+      <c r="S68" s="3">
+        <v>365.76753156069401</v>
+      </c>
+      <c r="T68" s="3">
+        <v>310.74409095968099</v>
+      </c>
+      <c r="U68" s="3">
+        <v>8.9367278752792004E-2</v>
+      </c>
+      <c r="V68" s="3">
+        <v>3404</v>
+      </c>
+      <c r="W68" s="19">
+        <v>9.1287923313654817E-2</v>
+      </c>
+      <c r="X68" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0.77156891456382404</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>483.60305194710497</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>270.634592431378</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>5.3464944027011398E+17</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>592.4</v>
+      </c>
+      <c r="AD68" s="19">
+        <v>0.45684434914142136</v>
+      </c>
+      <c r="AE68" s="28"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="3">
+        <v>3356.5</v>
+      </c>
+      <c r="AK68" s="4"/>
+    </row>
+    <row r="69" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>19</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="27">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5">
+        <v>-301.52741317748303</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3183.9573209553</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2705.3827926937702</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1.5962453634932201</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1604</v>
+      </c>
+      <c r="I69" s="18">
+        <v>1.6866476263676871</v>
+      </c>
+      <c r="J69" s="27">
+        <v>3</v>
+      </c>
+      <c r="K69" s="5">
+        <v>-96.847412367535995</v>
+      </c>
+      <c r="L69" s="5">
+        <v>10201.6289290194</v>
+      </c>
+      <c r="M69" s="5">
+        <v>10075.1305408797</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0.65057753020129505</v>
+      </c>
+      <c r="O69" s="5">
+        <v>15450</v>
+      </c>
+      <c r="P69" s="18">
+        <v>0.65211200911842715</v>
+      </c>
+      <c r="Q69" s="27">
+        <v>3</v>
+      </c>
+      <c r="R69" s="5">
+        <v>-176.195809280216</v>
+      </c>
+      <c r="S69" s="5">
+        <v>17394.410672611299</v>
+      </c>
+      <c r="T69" s="5">
+        <v>16683.1897708262</v>
+      </c>
+      <c r="U69" s="5">
+        <v>0.64759089013340998</v>
+      </c>
+      <c r="V69" s="5">
+        <v>25445</v>
+      </c>
+      <c r="W69" s="18">
+        <v>0.65565689804779725</v>
+      </c>
+      <c r="X69" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>-17.204701363146899</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>5778.4713537865</v>
+      </c>
+      <c r="AA69" s="5">
+        <v>4931.9379163784397</v>
+      </c>
+      <c r="AB69" s="5">
+        <v>0.57947141228409704</v>
+      </c>
+      <c r="AC69" s="5">
+        <v>8340</v>
+      </c>
+      <c r="AD69" s="18">
+        <v>0.59135946239549642</v>
+      </c>
+      <c r="AE69" s="27"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5">
+        <v>12532.5</v>
+      </c>
+      <c r="AK69" s="6"/>
+    </row>
+    <row r="70" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>20</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="28">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.41171601215848902</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3496.8804437080298</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3165.0235121820901</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1.2771952848328399E+18</v>
+      </c>
+      <c r="H70" s="3">
+        <v>9331</v>
+      </c>
+      <c r="I70" s="19">
+        <v>0.33919446063466835</v>
+      </c>
+      <c r="J70" s="28">
+        <v>3</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-16.637140075691001</v>
+      </c>
+      <c r="L70" s="3">
+        <v>3319.6166097663199</v>
+      </c>
+      <c r="M70" s="3">
+        <v>2891.6457738392501</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0.36242840430053802</v>
+      </c>
+      <c r="O70" s="3">
+        <v>8152</v>
+      </c>
+      <c r="P70" s="19">
+        <v>0.35471611553474608</v>
+      </c>
+      <c r="Q70" s="28">
+        <v>3</v>
+      </c>
+      <c r="R70" s="3">
+        <v>-55.657150959794002</v>
+      </c>
+      <c r="S70" s="3">
+        <v>5586.1201805843202</v>
+      </c>
+      <c r="T70" s="3">
+        <v>5260.9106541831698</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0.51617189270341801</v>
+      </c>
+      <c r="V70" s="3">
+        <v>10218</v>
+      </c>
+      <c r="W70" s="19">
+        <v>0.51486696556891465</v>
+      </c>
+      <c r="X70" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>-5.8003609375741503</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>12411.983924125499</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>11958.010099917499</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0.46368291082505603</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>24932</v>
+      </c>
+      <c r="AD70" s="19">
+        <v>0.47962498395305225</v>
+      </c>
+      <c r="AE70" s="28"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="3">
+        <v>9945</v>
+      </c>
+      <c r="AK70" s="4"/>
+    </row>
+    <row r="71" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>21</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="29">
+        <v>6</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.59308873089868996</v>
+      </c>
+      <c r="E71" s="12">
+        <v>517.75140774269198</v>
+      </c>
+      <c r="F71" s="12">
+        <v>401.907604674769</v>
+      </c>
+      <c r="G71" s="12">
+        <v>0.124054549466782</v>
+      </c>
+      <c r="H71" s="12">
+        <v>3110</v>
+      </c>
+      <c r="I71" s="20">
+        <v>0.12923074105298038</v>
+      </c>
+      <c r="J71" s="29">
+        <v>6</v>
+      </c>
+      <c r="K71" s="12">
+        <v>0.64068687638294397</v>
+      </c>
+      <c r="L71" s="12">
+        <v>15.915444688260401</v>
+      </c>
+      <c r="M71" s="12">
+        <v>10.0598968399919</v>
+      </c>
+      <c r="N71" s="12">
+        <v>1.46529646114384E+16</v>
+      </c>
+      <c r="O71" s="12">
+        <v>20</v>
+      </c>
+      <c r="P71" s="20">
+        <v>0.50299484199959499</v>
+      </c>
+      <c r="Q71" s="29">
+        <v>6</v>
+      </c>
+      <c r="R71" s="12">
+        <v>0.24091243376417501</v>
+      </c>
+      <c r="S71" s="12">
+        <v>688.66074418542496</v>
+      </c>
+      <c r="T71" s="12">
+        <v>558.48061767302795</v>
+      </c>
+      <c r="U71" s="12">
+        <v>0.116721717457153</v>
+      </c>
+      <c r="V71" s="12">
+        <v>4450</v>
+      </c>
+      <c r="W71" s="20">
+        <v>0.12550126239843326</v>
+      </c>
+      <c r="X71" s="29">
+        <v>7</v>
+      </c>
+      <c r="Y71" s="12">
+        <v>0.345202663142823</v>
+      </c>
+      <c r="Z71" s="12">
+        <v>928.00090829799103</v>
+      </c>
+      <c r="AA71" s="12">
+        <v>779.214607503607</v>
+      </c>
+      <c r="AB71" s="12">
+        <v>0.114947713540227</v>
+      </c>
+      <c r="AC71" s="12">
+        <v>7050</v>
+      </c>
+      <c r="AD71" s="20">
+        <v>0.11052689468136269</v>
+      </c>
+      <c r="AE71" s="29"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12">
+        <v>4125</v>
+      </c>
+      <c r="AK71" s="17"/>
+    </row>
+    <row r="72" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="21">
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AK25"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="Q49:W49"/>
+    <mergeCell ref="X49:AD49"/>
+    <mergeCell ref="AE49:AK49"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:W25"/>
     <mergeCell ref="AE1:AK1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4205,7 +9898,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4214,17 +9906,17 @@
   <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
@@ -4277,7 +9969,7 @@
       <c r="AJ1" s="33"/>
       <c r="AK1" s="35"/>
     </row>
-    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="36"/>
       <c r="C2" s="10" t="s">
@@ -4386,7 +10078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4439,7 +10131,7 @@
       </c>
       <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4492,7 +10184,7 @@
       </c>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4545,7 +10237,7 @@
       </c>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4598,7 +10290,7 @@
       </c>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4651,7 +10343,7 @@
       </c>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4704,7 +10396,7 @@
       </c>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4757,7 +10449,7 @@
       </c>
       <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4810,7 +10502,7 @@
       </c>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4863,7 +10555,7 @@
       </c>
       <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4916,7 +10608,7 @@
       </c>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4969,7 +10661,7 @@
       </c>
       <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5022,7 +10714,7 @@
       </c>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5075,7 +10767,7 @@
       </c>
       <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5128,7 +10820,7 @@
       </c>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5181,7 +10873,7 @@
       </c>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5234,7 +10926,7 @@
       </c>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5287,7 +10979,7 @@
       </c>
       <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5340,7 +11032,7 @@
       </c>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5393,7 +11085,7 @@
       </c>
       <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5446,7 +11138,7 @@
       </c>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -5499,7 +11191,7 @@
       </c>
       <c r="AK23" s="17"/>
     </row>
-    <row r="24" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AE1:AK1"/>
@@ -5522,14 +11214,14 @@
       <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
@@ -5582,7 +11274,7 @@
       <c r="AJ1" s="33"/>
       <c r="AK1" s="35"/>
     </row>
-    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="36"/>
       <c r="C2" s="10" t="s">
@@ -5691,7 +11383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5744,7 +11436,7 @@
       </c>
       <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5797,7 +11489,7 @@
       </c>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5850,7 +11542,7 @@
       </c>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5903,7 +11595,7 @@
       </c>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5956,7 +11648,7 @@
       </c>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6009,7 +11701,7 @@
       </c>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -6062,7 +11754,7 @@
       </c>
       <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6115,7 +11807,7 @@
       </c>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -6168,7 +11860,7 @@
       </c>
       <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6221,7 +11913,7 @@
       </c>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -6274,7 +11966,7 @@
       </c>
       <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6327,7 +12019,7 @@
       </c>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -6380,7 +12072,7 @@
       </c>
       <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6433,7 +12125,7 @@
       </c>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -6486,7 +12178,7 @@
       </c>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6539,7 +12231,7 @@
       </c>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -6592,7 +12284,7 @@
       </c>
       <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6645,7 +12337,7 @@
       </c>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -6698,7 +12390,7 @@
       </c>
       <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6751,7 +12443,7 @@
       </c>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -6804,7 +12496,7 @@
       </c>
       <c r="AK23" s="17"/>
     </row>
-    <row r="24" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
@@ -6823,29 +12515,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD92"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="I58" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -6859,7 +12551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6942,7 +12634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -6967,8 +12659,9 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
-        <v>-115.14946051910501</v>
+      <c r="J3" t="e">
+        <f>INDEX(Plan1!$I$26:$M$46,equiv)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K3">
         <v>50429.449861800298</v>
@@ -7025,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -7108,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -7191,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7274,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -7357,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -7440,7 +13133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -7523,7 +13216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -7606,7 +13299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -7689,7 +13382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7772,7 +13465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7855,7 +13548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -7938,7 +13631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -8021,7 +13714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -8104,7 +13797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -8187,7 +13880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -8270,7 +13963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -8353,7 +14046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -8436,7 +14129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -8519,7 +14212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -8602,7 +14295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -8685,7 +14378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8768,7 +14461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -8851,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -8934,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -9017,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -9100,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -9183,7 +14876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -9266,7 +14959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -9349,7 +15042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -9432,7 +15125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -9515,7 +15208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -9598,7 +15291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9681,7 +15374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -9764,7 +15457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -9847,7 +15540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -9930,7 +15623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -10013,7 +15706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -10096,7 +15789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -10179,7 +15872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -10262,7 +15955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -10345,7 +16038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -10428,7 +16121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -10511,7 +16204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -10594,7 +16287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -10677,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -10760,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -10843,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -10926,7 +16619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -11009,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -11092,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -11175,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -11258,7 +16951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -11341,7 +17034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -11424,7 +17117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -11507,7 +17200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -11590,7 +17283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -11673,7 +17366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -11756,7 +17449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -11839,7 +17532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -11922,7 +17615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -12005,7 +17698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -12088,7 +17781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -12171,7 +17864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -12254,7 +17947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -12337,7 +18030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -12420,7 +18113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -12503,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -12586,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -12669,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -12752,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -12835,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -12918,7 +18611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -13001,7 +18694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -13084,7 +18777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -13167,7 +18860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -13250,7 +18943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -13333,7 +19026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -13416,7 +19109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -13499,7 +19192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -13582,7 +19275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -13665,7 +19358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -13748,7 +19441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -13831,7 +19524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -13914,7 +19607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -13997,7 +19690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -14080,7 +19773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>

--- a/model_scores_table.xlsx
+++ b/model_scores_table.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
     <sheet name="Clustering" sheetId="3" r:id="rId2"/>
-    <sheet name="Split" sheetId="4" r:id="rId3"/>
-    <sheet name="New hospital" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId3"/>
+    <sheet name="Split" sheetId="4" r:id="rId4"/>
+    <sheet name="New hospital" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="42">
   <si>
     <t>Hospital 1</t>
   </si>
@@ -138,6 +139,21 @@
   </si>
   <si>
     <t>R^2 Test</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>HOSPI_CODE_UCD</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>CLUSTER</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -360,7 +376,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +479,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF23"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,20 +3122,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK23" sqref="A1:AK23"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="37" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" customWidth="1"/>
+    <col min="27" max="31" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -3118,46 +3161,47 @@
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
       <c r="V1" s="32"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="Y1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>4</v>
+      </c>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="34"/>
-    </row>
-    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+    </row>
+    <row r="2" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -3172,1235 +3216,3063 @@
       <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AE2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK2" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>1690</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5">
-        <v>2683.5</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-15.6003485852299</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2637.5904358929602</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1850.1460309096101</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.96937008661034396</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="26">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>-6.9953239352704797</v>
+      </c>
+      <c r="M3" s="5">
+        <v>873.70106599451299</v>
+      </c>
+      <c r="N3" s="5">
+        <v>832.62274774774698</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.38284527306426802</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="26">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>-77.8674543144175</v>
+      </c>
+      <c r="U3" s="5">
+        <v>17555.7752478927</v>
+      </c>
       <c r="V3" s="5">
-        <v>4756.25</v>
-      </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+        <v>15732.1932132397</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0.60010330389331901</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>-1.2930922331929899</v>
+      </c>
       <c r="AC3" s="5">
-        <v>6690</v>
-      </c>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5">
-        <v>3615</v>
-      </c>
-      <c r="AK3" s="6"/>
-    </row>
-    <row r="4" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1711.8913148972499</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1412.3308886607699</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>0.289662339933001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5923561499769</v>
+      </c>
+      <c r="E4" s="3">
+        <v>871.08873450629096</v>
+      </c>
+      <c r="F4" s="3">
+        <v>677.40210005987399</v>
+      </c>
+      <c r="G4" s="19">
+        <v>7.3602094721905997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>1140</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>2112.5</v>
-      </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="K4" s="27">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-37.737785338700697</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1012.04102898807</v>
+      </c>
+      <c r="N4" s="3">
+        <v>986.78211068210999</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0.43371246224329302</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="27">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>-78.331546523849994</v>
+      </c>
+      <c r="U4" s="3">
+        <v>8105.6465115019901</v>
+      </c>
       <c r="V4" s="3">
-        <v>2620</v>
-      </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+        <v>4372.2267188687201</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0.65910274210123199</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>-1.26775626371689</v>
+      </c>
       <c r="AC4" s="3">
-        <v>9360</v>
-      </c>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3">
-        <v>2955</v>
-      </c>
-      <c r="AK4" s="4"/>
-    </row>
-    <row r="5" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2217.1591688598901</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1806.28183993274</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>0.17568445063730101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>1194.5</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5">
-        <v>3330</v>
-      </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.53985129540857602</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7063.2241227169898</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5711.6325402828897</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1.26501935278499</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>-4.2269208116653996</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1344.35299222908</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1133.01311132561</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.29203875820629899</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="26">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>-14.4193057763783</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3664.40739479784</v>
+      </c>
       <c r="V5" s="5">
-        <v>5350</v>
-      </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+        <v>2568.65160934101</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0.25258747796942599</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>-2.64375629146102</v>
+      </c>
       <c r="AC5" s="5">
-        <v>9550</v>
-      </c>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5">
-        <v>4537.5</v>
-      </c>
-      <c r="AK5" s="6"/>
-    </row>
-    <row r="6" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1828.9784913317701</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>1559.8867048238101</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>0.17684962264849799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>3500.25</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>5683</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-22.6227770506326</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2065.2447645912798</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1745.8697106378399</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1.9829681541017701</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-2.0741492493062998</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1357.4186107866301</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1279.2635135135099</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0.288910545922203</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="27">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>-32.878304759533499</v>
+      </c>
+      <c r="U6" s="3">
+        <v>3900.03847929822</v>
+      </c>
       <c r="V6" s="3">
-        <v>7355</v>
-      </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+        <v>3242.92111534885</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0.52084441220696698</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>-9.6186005289499998E-2</v>
+      </c>
       <c r="AC6" s="3">
-        <v>19230</v>
-      </c>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3">
-        <v>7200</v>
-      </c>
-      <c r="AK6" s="4"/>
-    </row>
-    <row r="7" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1516.4244814917599</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1260.7265702940199</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>0.225955807005353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.55638016968320103</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1683.4659909746499</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1106.6519365865499</v>
+      </c>
+      <c r="G7" s="18">
+        <v>3.6213022500075001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>2530</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5">
-        <v>1615</v>
-      </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-62.557994889247198</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1755.7782654478201</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1670.45440338297</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1.0299640669299299</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>5</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="26">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>-116167.67550663601</v>
+      </c>
+      <c r="U7" s="5">
+        <v>35694.0074480201</v>
+      </c>
       <c r="V7" s="5">
-        <v>1652.5</v>
-      </c>
-      <c r="W7" s="18"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+        <v>17335.6417908117</v>
+      </c>
+      <c r="W7" s="18">
+        <v>29.7049709279548</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>-17.092267509652999</v>
+      </c>
       <c r="AC7" s="5">
-        <v>8640</v>
-      </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5">
-        <v>2170</v>
-      </c>
-      <c r="AK7" s="6"/>
-    </row>
-    <row r="8" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16172.945964238699</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>15593.304839354299</v>
+      </c>
+      <c r="AE7" s="18">
+        <v>0.66298787366587597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>47600</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
-        <v>64535</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.34712331919449102</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4350.1949383901401</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3505.27946757174</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2.5743889765858299</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-55.882377396809602</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1951.2373323337999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1829.74195624195</v>
+      </c>
+      <c r="O8" s="19">
+        <v>1.6156884225824399</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="27">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-192.28094259145499</v>
+      </c>
+      <c r="U8" s="3">
+        <v>9320.0615929124397</v>
+      </c>
       <c r="V8" s="3">
-        <v>102037.5</v>
-      </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+        <v>5715.79354890374</v>
+      </c>
+      <c r="W8" s="19">
+        <v>0.93335673834736499</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>-9.9537213838758394</v>
+      </c>
       <c r="AC8" s="3">
-        <v>200000</v>
-      </c>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3">
-        <v>98230</v>
-      </c>
-      <c r="AK8" s="4"/>
-    </row>
-    <row r="9" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14727.0962231703</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>14075.3489390416</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>0.63824031214680998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>2805.5</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5">
-        <v>1855.75</v>
-      </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-0.262405265081256</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1339.5640398145499</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1135.6268615727899</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1.12882125951562</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-10.182008055131799</v>
+      </c>
+      <c r="M9" s="5">
+        <v>891.98636820935099</v>
+      </c>
+      <c r="N9" s="5">
+        <v>837.21724581724595</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.31427043895439499</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>7</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="26">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>-43.071895452509303</v>
+      </c>
+      <c r="U9" s="5">
+        <v>19854.9791255895</v>
+      </c>
       <c r="V9" s="5">
-        <v>7110</v>
-      </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+        <v>18945.8799874133</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0.69520111092839498</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>6.9076392223051397E-2</v>
+      </c>
       <c r="AC9" s="5">
-        <v>5500</v>
-      </c>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5">
-        <v>4221</v>
-      </c>
-      <c r="AK9" s="6"/>
-    </row>
-    <row r="10" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1089.52017215206</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>768.02501898058699</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>0.11834962258796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>1910</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>4061</v>
-      </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-14.9806473473729</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1972.0934992963901</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1633.30166683064</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5.2145734516080999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-167.580608011045</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2558.03071495322</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2399.4384219384201</v>
+      </c>
+      <c r="O10" s="19">
+        <v>3.2870010712701698</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>8</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="27">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-101.610997911913</v>
+      </c>
+      <c r="U10" s="3">
+        <v>7415.3870266617396</v>
+      </c>
       <c r="V10" s="3">
-        <v>5155</v>
-      </c>
-      <c r="W10" s="19"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+        <v>5356.4533928883602</v>
+      </c>
+      <c r="W10" s="19">
+        <v>0.70326071526842804</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>-0.95607830637407099</v>
+      </c>
       <c r="AC10" s="3">
-        <v>6960</v>
-      </c>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3">
-        <v>4760</v>
-      </c>
-      <c r="AK10" s="4"/>
-    </row>
-    <row r="11" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1360.59712081105</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1161.86711196193</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>0.14549362168421401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>8594</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5">
-        <v>8537.75</v>
-      </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-69.634534941092497</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1904.65423204127</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1615.4467490680299</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.99124140781249903</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-6.9295893273048099</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1016.16650149899</v>
+      </c>
+      <c r="N11" s="5">
+        <v>975.15205000919298</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0.391803109115129</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>9</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="26">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>-162.817609684882</v>
+      </c>
+      <c r="U11" s="5">
+        <v>7997.4384750894797</v>
+      </c>
       <c r="V11" s="5">
-        <v>13605</v>
-      </c>
-      <c r="W11" s="18"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+        <v>5121.06276774055</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1.07892252526536</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>-2.68729484198191E-2</v>
+      </c>
       <c r="AC11" s="5">
-        <v>21810</v>
-      </c>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5">
-        <v>12296</v>
-      </c>
-      <c r="AK11" s="6"/>
-    </row>
-    <row r="12" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1327.4850909834099</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>1316.4741847826001</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>0.18305179809609501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>1425</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>2640</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.30157685541342699</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1459.9666819879899</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1294.7575826505099</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.440892460184651</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="27">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-24.2815423502913</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1619.68162568052</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1467.65212355212</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.31483537744154499</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>10</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="27">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>-338.80675589523202</v>
+      </c>
+      <c r="U12" s="3">
+        <v>21326.851994758901</v>
+      </c>
       <c r="V12" s="3">
-        <v>3840</v>
-      </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+        <v>13560.6548602742</v>
+      </c>
+      <c r="W12" s="19">
+        <v>1.0420119044543099</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>-1.0475302434242899</v>
+      </c>
       <c r="AC12" s="3">
-        <v>15800</v>
-      </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="AK12" s="4"/>
-    </row>
-    <row r="13" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2106.0415954016098</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1898.96135689981</v>
+      </c>
+      <c r="AE12" s="19">
+        <v>0.38765347754637602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>1460</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5">
-        <v>1325</v>
-      </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-2.67091501878792</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1225.2544359175699</v>
+      </c>
+      <c r="F13" s="5">
+        <v>995.20513242269305</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.47849947781250601</v>
+      </c>
+      <c r="I13" s="2">
+        <v>11</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-48.061072780017199</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2762.6736466009802</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2324.1981981981899</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0.43107186913560802</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>11</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="26">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>-961.36718142251698</v>
+      </c>
+      <c r="U13" s="5">
+        <v>11294.919378101</v>
+      </c>
       <c r="V13" s="5">
-        <v>4100</v>
-      </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+        <v>7142.35024976973</v>
+      </c>
+      <c r="W13" s="18">
+        <v>1.51089427764985</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>-3.16344633152322</v>
+      </c>
       <c r="AC13" s="5">
-        <v>6150</v>
-      </c>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5">
-        <v>2805</v>
-      </c>
-      <c r="AK13" s="6"/>
-    </row>
-    <row r="14" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2470.3991891547198</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>2112.94250802242</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>0.213940916982129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>8255</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>14617.5</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-11.1473967431187</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1976.81422419965</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1608.57968947685</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1.3593753143492799</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-3.4519265961754799</v>
+      </c>
+      <c r="M14" s="3">
+        <v>974.57263851108701</v>
+      </c>
+      <c r="N14" s="3">
+        <v>620.34234234234202</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0.234015811898453</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>12</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="27">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-69.802133026740904</v>
+      </c>
+      <c r="U14" s="3">
+        <v>4161.1820472095897</v>
+      </c>
       <c r="V14" s="3">
-        <v>9220</v>
-      </c>
-      <c r="W14" s="19"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+        <v>2838.7132677755999</v>
+      </c>
+      <c r="W14" s="19">
+        <v>0.571092243480669</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>-13.3605246941811</v>
+      </c>
       <c r="AC14" s="3">
-        <v>24160</v>
-      </c>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3">
-        <v>12932</v>
-      </c>
-      <c r="AK14" s="4"/>
-    </row>
-    <row r="15" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9490.2360531954291</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>9142.1260032730606</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>0.54494086583984602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <v>2393.5</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5">
-        <v>2620</v>
-      </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-13.328971199682201</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3601.2239126597101</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3152.89964211389</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.50095179918677202</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>-49.478371413847</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1568.41367643687</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1419.9337194337099</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0.81490043742039098</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>13</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="26">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>-1797.0503091629901</v>
+      </c>
+      <c r="U15" s="5">
+        <v>29552.090806323798</v>
+      </c>
       <c r="V15" s="5">
-        <v>5676</v>
-      </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+        <v>11128.344381507601</v>
+      </c>
+      <c r="W15" s="18">
+        <v>2.08973146058459</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>-11.160481339336</v>
+      </c>
       <c r="AC15" s="5">
-        <v>8600</v>
-      </c>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5">
-        <v>6582.5</v>
-      </c>
-      <c r="AK15" s="6"/>
-    </row>
-    <row r="16" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4916.7788123744604</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>4796.3608921655295</v>
+      </c>
+      <c r="AE15" s="18">
+        <v>0.38627209797729201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3">
-        <v>4460</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.47297780682655</v>
+      </c>
+      <c r="E16" s="3">
+        <v>907.46640157517504</v>
+      </c>
+      <c r="F16" s="3">
+        <v>808.13622552912602</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.27368050582428399</v>
+      </c>
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="27">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>-33631.039988171098</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3401.38527014081</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3389.10579150579</v>
+      </c>
+      <c r="O16" s="19">
+        <v>79.563710240853098</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>14</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="27">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>-209.627832916747</v>
+      </c>
+      <c r="U16" s="3">
+        <v>6572.62038143879</v>
+      </c>
       <c r="V16" s="3">
-        <v>6152.5</v>
-      </c>
-      <c r="W16" s="19"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+        <v>5699.3546152089402</v>
+      </c>
+      <c r="W16" s="19">
+        <v>3.3185778082565398</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA16" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>-85.720896970223293</v>
+      </c>
       <c r="AC16" s="3">
-        <v>16740</v>
-      </c>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3">
-        <v>5605</v>
-      </c>
-      <c r="AK16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2973.49579264461</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>2905.9361580742998</v>
+      </c>
+      <c r="AE16" s="19">
+        <v>0.27986807542506797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.4184109228912203E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8379.8414962380994</v>
+      </c>
+      <c r="F17" s="5">
+        <v>6460.6246658534301</v>
+      </c>
+      <c r="G17" s="18">
+        <v>24.3001203031586</v>
+      </c>
+      <c r="I17" s="2">
+        <v>15</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <v>6673.75</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5">
-        <v>3700</v>
-      </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="K17" s="26">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>-0.76236064546772098</v>
+      </c>
+      <c r="M17" s="5">
+        <v>800.11754050890704</v>
+      </c>
+      <c r="N17" s="5">
+        <v>643.32799227799205</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.20043735259613399</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>15</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="26">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>-909.17706312371001</v>
+      </c>
+      <c r="U17" s="5">
+        <v>11004.7498522678</v>
+      </c>
       <c r="V17" s="5">
-        <v>445</v>
-      </c>
-      <c r="W17" s="18"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+        <v>9155.4852071449095</v>
+      </c>
+      <c r="W17" s="18">
+        <v>1.0131890908082699</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>-49.937216741201198</v>
+      </c>
       <c r="AC17" s="5">
-        <v>12540</v>
-      </c>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5">
-        <v>3700</v>
-      </c>
-      <c r="AK17" s="6"/>
-    </row>
-    <row r="18" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11661.6170917162</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>11587.260818983999</v>
+      </c>
+      <c r="AE17" s="18">
+        <v>0.60576982042691396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>1010</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3">
-        <v>690</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.742243568145872</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4520.2036115965502</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4045.0038036896199</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.64098498844745599</v>
+      </c>
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="27">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.209724276553544</v>
+      </c>
+      <c r="M18" s="3">
+        <v>672.76606077824897</v>
+      </c>
+      <c r="N18" s="3">
+        <v>586.15848533410997</v>
+      </c>
+      <c r="O18" s="19">
+        <v>7.4645235246456401E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>16</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="27">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-156.11204946260699</v>
+      </c>
+      <c r="U18" s="3">
+        <v>96685.964190632905</v>
+      </c>
       <c r="V18" s="3">
-        <v>1910</v>
-      </c>
-      <c r="W18" s="19"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+        <v>96531.2642175605</v>
+      </c>
+      <c r="W18" s="19">
+        <v>0.90732633131365403</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-141.60192211939901</v>
+      </c>
       <c r="AC18" s="3">
-        <v>11280</v>
-      </c>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3">
-        <v>1870</v>
-      </c>
-      <c r="AK18" s="4"/>
-    </row>
-    <row r="19" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5254.3060552574998</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>5235.8506589011504</v>
+      </c>
+      <c r="AE18" s="19">
+        <v>3.0411151945977202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <v>4560</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5">
-        <v>12032.5</v>
-      </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.16179884492448099</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1479.57081636865</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1003.17220430963</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1.16834913876976</v>
+      </c>
+      <c r="I19" s="2">
+        <v>17</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-112.510514253121</v>
+      </c>
+      <c r="M19" s="5">
+        <v>8649.9688566875502</v>
+      </c>
+      <c r="N19" s="5">
+        <v>8012.9039605236003</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0.53268986647929994</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>17</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="26">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>-254.67045607055101</v>
+      </c>
+      <c r="U19" s="5">
+        <v>5948.9146019434202</v>
+      </c>
       <c r="V19" s="5">
-        <v>28840</v>
-      </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+        <v>4813.2527487178104</v>
+      </c>
+      <c r="W19" s="18">
+        <v>1.85422423950827</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>-5.19674037814484</v>
+      </c>
       <c r="AC19" s="5">
-        <v>5950</v>
-      </c>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5">
-        <v>10942.5</v>
-      </c>
-      <c r="AK19" s="6"/>
-    </row>
-    <row r="20" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8454.7360611750901</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>7615.6808128899402</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>0.47366948430765698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>2454</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3">
-        <v>5104</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-1.8589759842991</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1828.96053454656</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1448.4088376325401</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1.0710212146682001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>18</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="27">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>-67.339084643193303</v>
+      </c>
+      <c r="M20" s="3">
+        <v>7845.3174654822396</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6191.9896366133798</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0.48743194563662601</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>18</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="27">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-1533.9181097209801</v>
+      </c>
+      <c r="U20" s="3">
+        <v>10837.4358179512</v>
+      </c>
       <c r="V20" s="3">
-        <v>3409.25</v>
-      </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+        <v>7295.6844205806201</v>
+      </c>
+      <c r="W20" s="19">
+        <v>1.47051033012937</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-3.23177628222976</v>
+      </c>
       <c r="AC20" s="3">
-        <v>2202.5</v>
-      </c>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3">
-        <v>3337</v>
-      </c>
-      <c r="AK20" s="4"/>
-    </row>
-    <row r="21" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6033.6190597659197</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>5187.0409609820799</v>
+      </c>
+      <c r="AE20" s="19">
+        <v>0.37319535903065998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <v>1654.5</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5">
-        <v>15450</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-9.0816943366385594</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2120.74312014618</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1328.0869000191699</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.783070333075779</v>
+      </c>
+      <c r="I21" s="2">
+        <v>19</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>-2.5798146681887402</v>
+      </c>
+      <c r="M21" s="5">
+        <v>7365.7612016480898</v>
+      </c>
+      <c r="N21" s="5">
+        <v>6823.2735838813896</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0.419097412567488</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>19</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="26">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5">
+        <v>-751.20403131686601</v>
+      </c>
+      <c r="U21" s="5">
+        <v>12517.639887186</v>
+      </c>
       <c r="V21" s="5">
-        <v>26110</v>
-      </c>
-      <c r="W21" s="18"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+        <v>8081.3637589589198</v>
+      </c>
+      <c r="W21" s="18">
+        <v>2.0354845756891198</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>-2.8036436782971501</v>
+      </c>
       <c r="AC21" s="5">
-        <v>8340</v>
-      </c>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5">
-        <v>12860</v>
-      </c>
-      <c r="AK21" s="6"/>
-    </row>
-    <row r="22" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1234.43701686955</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>1149.99361295528</v>
+      </c>
+      <c r="AE21" s="18">
+        <v>0.190360010024716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-4.5791932414360303</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1293.2985669761599</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1077.4429020334901</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.494409728240847</v>
+      </c>
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="27">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>-16.7701751201358</v>
+      </c>
+      <c r="M22" s="3">
+        <v>59238.083201864902</v>
+      </c>
+      <c r="N22" s="3">
+        <v>56969.100956296701</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0.83425172200435505</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>20</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="27">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <v>-130.76713131883201</v>
+      </c>
+      <c r="U22" s="3">
+        <v>5087.5786803477804</v>
+      </c>
+      <c r="V22" s="3">
+        <v>3837.3542613992099</v>
+      </c>
+      <c r="W22" s="19">
+        <v>1.0191655979587699</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>-25.0493476225131</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>17199.680177233498</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>16820.312001068502</v>
+      </c>
+      <c r="AE22" s="19">
+        <v>0.68914537347652305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-40.977093803988097</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2606.4906344103301</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2258.73180727095</v>
+      </c>
+      <c r="G23" s="18">
+        <v>2.25082616969899</v>
+      </c>
+      <c r="I23" s="2">
+        <v>21</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="5">
+        <v>972.03268155455601</v>
+      </c>
+      <c r="N23" s="5">
+        <v>972.03268155455601</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0.13604376228895099</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>21</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="26">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="5">
+        <v>2708.5376387669698</v>
+      </c>
+      <c r="V23" s="5">
+        <v>2708.5376387669698</v>
+      </c>
+      <c r="W23" s="18">
+        <v>0.97429411466437799</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA23" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>-0.47513016177787798</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>23764.7725725239</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>21685.268577091701</v>
+      </c>
+      <c r="AE23" s="20">
+        <v>0.116258332979225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>22</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.78778268608337398</v>
+      </c>
+      <c r="E24" s="39">
+        <v>6185.9038074748996</v>
+      </c>
+      <c r="F24" s="39">
+        <v>4819.1443001443004</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0.10581389398977099</v>
+      </c>
+      <c r="I24" s="36">
+        <v>22</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="38">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>-2.7920455758363398</v>
+      </c>
+      <c r="M24" s="39">
+        <v>914.81692234748402</v>
+      </c>
+      <c r="N24" s="39">
+        <v>808.44278559981694</v>
+      </c>
+      <c r="O24" s="40">
+        <v>9.3641933727644094E-2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>22</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="27">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>-264.40321229006798</v>
+      </c>
+      <c r="U24" s="3">
+        <v>23850.396497696802</v>
+      </c>
+      <c r="V24" s="3">
+        <v>23792.3742494748</v>
+      </c>
+      <c r="W24" s="19">
+        <v>0.81781456685363196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>-2.8924185373605402</v>
+      </c>
+      <c r="U25" s="5">
+        <v>1350.65657222459</v>
+      </c>
+      <c r="V25" s="5">
+        <v>1104.0420915889599</v>
+      </c>
+      <c r="W25" s="18">
+        <v>0.23830059288602501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="27">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>-166.39536298969401</v>
+      </c>
+      <c r="U26" s="3">
+        <v>21042.203260252099</v>
+      </c>
+      <c r="V26" s="3">
+        <v>20940.590625699799</v>
+      </c>
+      <c r="W26" s="19">
+        <v>0.78657547941155403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="26">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-30.088566292367599</v>
+      </c>
+      <c r="U27" s="5">
+        <v>2358.42665676665</v>
+      </c>
+      <c r="V27" s="5">
+        <v>2146.7379502266199</v>
+      </c>
+      <c r="W27" s="18">
+        <v>0.56197418538079502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="27">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <v>-52.094490077959897</v>
+      </c>
+      <c r="U28" s="3">
+        <v>3576.7452522462499</v>
+      </c>
+      <c r="V28" s="3">
+        <v>3451.7691163003601</v>
+      </c>
+      <c r="W28" s="19">
+        <v>0.95702796330847695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="26">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>-12.908167856867699</v>
+      </c>
+      <c r="U29" s="5">
+        <v>2572.4180376683798</v>
+      </c>
+      <c r="V29" s="5">
+        <v>1708.7416808698399</v>
+      </c>
+      <c r="W29" s="18">
+        <v>0.27602418227505898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="27">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <v>-92.202221610122706</v>
+      </c>
+      <c r="U30" s="3">
+        <v>95480.778751361606</v>
+      </c>
+      <c r="V30" s="3">
+        <v>95202.200088491707</v>
+      </c>
+      <c r="W30" s="19">
+        <v>0.95368582417506098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q31" s="2"/>
+      <c r="R31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="26">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>-153.507945850087</v>
+      </c>
+      <c r="U31" s="5">
+        <v>3774.7563935653802</v>
+      </c>
+      <c r="V31" s="5">
+        <v>3688.4272576026901</v>
+      </c>
+      <c r="W31" s="18">
+        <v>2.29286728452551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S32" s="27">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <v>-27.0207528265212</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2621.06086413298</v>
+      </c>
+      <c r="V32" s="3">
+        <v>2444.59504580864</v>
+      </c>
+      <c r="W32" s="19">
+        <v>0.46694522113405301</v>
+      </c>
+    </row>
+    <row r="33" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q33" s="2"/>
+      <c r="R33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="26">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-11.421828436703599</v>
+      </c>
+      <c r="U33" s="5">
+        <v>931.89925866711098</v>
+      </c>
+      <c r="V33" s="5">
+        <v>522.83985285547794</v>
+      </c>
+      <c r="W33" s="18">
+        <v>0.112287776927131</v>
+      </c>
+    </row>
+    <row r="34" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S34" s="27">
+        <v>0</v>
+      </c>
+      <c r="T34" s="5">
+        <v>-1140.2419853653601</v>
+      </c>
+      <c r="U34" s="3">
+        <v>5084.0895385395597</v>
+      </c>
+      <c r="V34" s="3">
+        <v>4341.8332025117697</v>
+      </c>
+      <c r="W34" s="19">
+        <v>2.6950881067677002</v>
+      </c>
+    </row>
+    <row r="35" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q35" s="2"/>
+      <c r="R35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="26">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-10.437871537808199</v>
+      </c>
+      <c r="U35" s="5">
+        <v>2281.9301517763001</v>
+      </c>
+      <c r="V35" s="5">
+        <v>1928.61511100447</v>
+      </c>
+      <c r="W35" s="18">
+        <v>0.425177863947867</v>
+      </c>
+    </row>
+    <row r="36" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>6418</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3">
-        <v>8126</v>
-      </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3">
-        <v>10474.75</v>
-      </c>
-      <c r="W22" s="19"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3">
-        <v>24931</v>
-      </c>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3">
-        <v>10469</v>
-      </c>
-      <c r="AK22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>21</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <v>2932</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12">
-        <v>50</v>
-      </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12">
-        <v>4597.5</v>
-      </c>
-      <c r="W23" s="20"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12">
-        <v>6860</v>
-      </c>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12">
-        <v>4450</v>
-      </c>
-      <c r="AK23" s="17"/>
-    </row>
-    <row r="24" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="I25" s="29"/>
-    </row>
+      <c r="S36" s="27">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <v>-25.040992794460902</v>
+      </c>
+      <c r="U36" s="3">
+        <v>5646.0510564589804</v>
+      </c>
+      <c r="V36" s="3">
+        <v>5383.9213227182399</v>
+      </c>
+      <c r="W36" s="19">
+        <v>0.53889305691506895</v>
+      </c>
+    </row>
+    <row r="37" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q37" s="2"/>
+      <c r="R37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="26">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>-15.8601965932861</v>
+      </c>
+      <c r="U37" s="5">
+        <v>5309.08607434021</v>
+      </c>
+      <c r="V37" s="5">
+        <v>4877.78335949764</v>
+      </c>
+      <c r="W37" s="18">
+        <v>0.44474327746950298</v>
+      </c>
+    </row>
+    <row r="38" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S38" s="27">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5">
+        <v>-16.149941165870398</v>
+      </c>
+      <c r="U38" s="3">
+        <v>2888.5505493659898</v>
+      </c>
+      <c r="V38" s="3">
+        <v>2000.2709049806699</v>
+      </c>
+      <c r="W38" s="19">
+        <v>0.26907549034212302</v>
+      </c>
+    </row>
+    <row r="39" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q39" s="2"/>
+      <c r="R39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="26">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>-57.578113813914499</v>
+      </c>
+      <c r="U39" s="5">
+        <v>8292.7326350188796</v>
+      </c>
+      <c r="V39" s="5">
+        <v>8053.6276968969896</v>
+      </c>
+      <c r="W39" s="18">
+        <v>0.59802285645602105</v>
+      </c>
+    </row>
+    <row r="40" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40" s="27">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
+        <v>-1424.86758969577</v>
+      </c>
+      <c r="U40" s="3">
+        <v>5190.9524666859998</v>
+      </c>
+      <c r="V40" s="3">
+        <v>5047.3637100391397</v>
+      </c>
+      <c r="W40" s="19">
+        <v>12.3282794606945</v>
+      </c>
+    </row>
+    <row r="41" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="26">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>-11.242268191823699</v>
+      </c>
+      <c r="U41" s="5">
+        <v>2376.6102934647702</v>
+      </c>
+      <c r="V41" s="5">
+        <v>1632.50575725372</v>
+      </c>
+      <c r="W41" s="18">
+        <v>0.28298575753139099</v>
+      </c>
+    </row>
+    <row r="42" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" s="27">
+        <v>0</v>
+      </c>
+      <c r="T42" s="5">
+        <v>-49.477142243542502</v>
+      </c>
+      <c r="U42" s="3">
+        <v>3137.5014234139599</v>
+      </c>
+      <c r="V42" s="3">
+        <v>2907.0692664674102</v>
+      </c>
+      <c r="W42" s="19">
+        <v>1.0947175540519201</v>
+      </c>
+    </row>
+    <row r="43" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q43" s="2"/>
+      <c r="R43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S43" s="26">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>-4.5874102412521198</v>
+      </c>
+      <c r="U43" s="5">
+        <v>2285.2188415455098</v>
+      </c>
+      <c r="V43" s="5">
+        <v>1911.01571086483</v>
+      </c>
+      <c r="W43" s="18">
+        <v>0.26541848321070599</v>
+      </c>
+    </row>
+    <row r="44" spans="17:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q44" s="36"/>
+      <c r="R44" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="38">
+        <v>0</v>
+      </c>
+      <c r="T44" s="12">
+        <v>-808.35426760069902</v>
+      </c>
+      <c r="U44" s="39">
+        <v>4694.1101324350102</v>
+      </c>
+      <c r="V44" s="39">
+        <v>4691.20932547557</v>
+      </c>
+      <c r="W44" s="40">
+        <v>6.48028697847458</v>
+      </c>
+    </row>
+    <row r="45" spans="17:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AE1:AK1"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
+  <conditionalFormatting sqref="W3:W23">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G24">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24:W43">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T44">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-1.2930922331929899</v>
+      </c>
+      <c r="E2">
+        <v>1711.8913148972499</v>
+      </c>
+      <c r="F2">
+        <v>1412.3308886607699</v>
+      </c>
+      <c r="G2">
+        <v>0.289662339933001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1.26775626371689</v>
+      </c>
+      <c r="E3">
+        <v>2217.1591688598901</v>
+      </c>
+      <c r="F3">
+        <v>1806.28183993274</v>
+      </c>
+      <c r="G3">
+        <v>0.17568445063730101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-2.64375629146102</v>
+      </c>
+      <c r="E4">
+        <v>1828.9784913317701</v>
+      </c>
+      <c r="F4">
+        <v>1559.8867048238101</v>
+      </c>
+      <c r="G4">
+        <v>0.17684962264849799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-9.6186005289499998E-2</v>
+      </c>
+      <c r="E5">
+        <v>1516.4244814917599</v>
+      </c>
+      <c r="F5">
+        <v>1260.7265702940199</v>
+      </c>
+      <c r="G5">
+        <v>0.225955807005353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-17.092267509652999</v>
+      </c>
+      <c r="E6">
+        <v>16172.945964238699</v>
+      </c>
+      <c r="F6">
+        <v>15593.304839354299</v>
+      </c>
+      <c r="G6">
+        <v>0.66298787366587597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-9.9537213838758394</v>
+      </c>
+      <c r="E7">
+        <v>14727.0962231703</v>
+      </c>
+      <c r="F7">
+        <v>14075.3489390416</v>
+      </c>
+      <c r="G7">
+        <v>0.63824031214680998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>6.9076392223051397E-2</v>
+      </c>
+      <c r="E8">
+        <v>1089.52017215206</v>
+      </c>
+      <c r="F8">
+        <v>768.02501898058699</v>
+      </c>
+      <c r="G8">
+        <v>0.11834962258796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-0.95607830637407099</v>
+      </c>
+      <c r="E9">
+        <v>1360.59712081105</v>
+      </c>
+      <c r="F9">
+        <v>1161.86711196193</v>
+      </c>
+      <c r="G9">
+        <v>0.14549362168421401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-2.68729484198191E-2</v>
+      </c>
+      <c r="E10">
+        <v>1327.4850909834099</v>
+      </c>
+      <c r="F10">
+        <v>1316.4741847826001</v>
+      </c>
+      <c r="G10">
+        <v>0.18305179809609501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-1.0475302434242899</v>
+      </c>
+      <c r="E11">
+        <v>2106.0415954016098</v>
+      </c>
+      <c r="F11">
+        <v>1898.96135689981</v>
+      </c>
+      <c r="G11">
+        <v>0.38765347754637602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-3.16344633152322</v>
+      </c>
+      <c r="E12">
+        <v>2470.3991891547198</v>
+      </c>
+      <c r="F12">
+        <v>2112.94250802242</v>
+      </c>
+      <c r="G12">
+        <v>0.213940916982129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-13.3605246941811</v>
+      </c>
+      <c r="E13">
+        <v>9490.2360531954291</v>
+      </c>
+      <c r="F13">
+        <v>9142.1260032730606</v>
+      </c>
+      <c r="G13">
+        <v>0.54494086583984602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-11.160481339336</v>
+      </c>
+      <c r="E14">
+        <v>4916.7788123744604</v>
+      </c>
+      <c r="F14">
+        <v>4796.3608921655295</v>
+      </c>
+      <c r="G14">
+        <v>0.38627209797729201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-85.720896970223293</v>
+      </c>
+      <c r="E15">
+        <v>2973.49579264461</v>
+      </c>
+      <c r="F15">
+        <v>2905.9361580742998</v>
+      </c>
+      <c r="G15">
+        <v>0.27986807542506797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-49.937216741201198</v>
+      </c>
+      <c r="E16">
+        <v>11661.6170917162</v>
+      </c>
+      <c r="F16">
+        <v>11587.260818983999</v>
+      </c>
+      <c r="G16">
+        <v>0.60576982042691396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-141.60192211939901</v>
+      </c>
+      <c r="E17">
+        <v>5254.3060552574998</v>
+      </c>
+      <c r="F17">
+        <v>5235.8506589011504</v>
+      </c>
+      <c r="G17">
+        <v>3.0411151945977202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-5.19674037814484</v>
+      </c>
+      <c r="E18">
+        <v>8454.7360611750901</v>
+      </c>
+      <c r="F18">
+        <v>7615.6808128899402</v>
+      </c>
+      <c r="G18">
+        <v>0.47366948430765698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-3.23177628222976</v>
+      </c>
+      <c r="E19">
+        <v>6033.6190597659197</v>
+      </c>
+      <c r="F19">
+        <v>5187.0409609820799</v>
+      </c>
+      <c r="G19">
+        <v>0.37319535903065998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>-2.8036436782971501</v>
+      </c>
+      <c r="E20">
+        <v>1234.43701686955</v>
+      </c>
+      <c r="F20">
+        <v>1149.99361295528</v>
+      </c>
+      <c r="G20">
+        <v>0.190360010024716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>-25.0493476225131</v>
+      </c>
+      <c r="E21">
+        <v>17199.680177233498</v>
+      </c>
+      <c r="F21">
+        <v>16820.312001068502</v>
+      </c>
+      <c r="G21">
+        <v>0.68914537347652305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>-0.47513016177787798</v>
+      </c>
+      <c r="E22">
+        <v>23764.7725725239</v>
+      </c>
+      <c r="F22">
+        <v>21685.268577091701</v>
+      </c>
+      <c r="G22">
+        <v>0.116258332979225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK24"/>
   <sheetViews>
@@ -5705,7 +7577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK24"/>
   <sheetViews>

--- a/model_scores_table.xlsx
+++ b/model_scores_table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusmd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="41">
   <si>
     <t>Hospital 1</t>
   </si>
@@ -142,13 +142,22 @@
   <si>
     <t>NaN</t>
   </si>
+  <si>
+    <t>Unified dataset - 3 Clusters</t>
+  </si>
+  <si>
+    <t>Unified dataset - 4 Clusters</t>
+  </si>
+  <si>
+    <t>Unified dataset - 5 Clusters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -399,10 +408,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,27 +501,6 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,11 +528,35 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -672,7 +684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -824,69 +836,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="10.6640625" customWidth="1"/>
-    <col min="33" max="40" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="40" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:32" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="34" t="s">
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="34" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="34" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="34" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="37"/>
-    </row>
-    <row r="2" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="38"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+    </row>
+    <row r="2" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
@@ -902,7 +914,7 @@
       <c r="G2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="32" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -920,7 +932,7 @@
       <c r="M2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="32" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -938,7 +950,7 @@
       <c r="S2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="32" t="s">
         <v>34</v>
       </c>
       <c r="U2" s="9" t="s">
@@ -956,7 +968,7 @@
       <c r="Y2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="32" t="s">
         <v>34</v>
       </c>
       <c r="AA2" s="9" t="s">
@@ -974,15 +986,15 @@
       <c r="AE2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7">
@@ -994,13 +1006,13 @@
       <c r="E3" s="5">
         <v>506.35010139098301</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="34">
         <v>1.1160409024597799</v>
       </c>
       <c r="G3" s="5">
         <v>1690</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="35">
         <f>E3/G3</f>
         <v>0.29961544461004913</v>
       </c>
@@ -1013,13 +1025,13 @@
       <c r="K3" s="5">
         <v>266.96755952380897</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="34">
         <v>0.10611975632977801</v>
       </c>
       <c r="M3" s="5">
         <v>2683.5</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="35">
         <f>K3/M3</f>
         <v>9.9484836789196562E-2</v>
       </c>
@@ -1032,13 +1044,13 @@
       <c r="Q3" s="5">
         <v>338.85412206421</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R3" s="34">
         <v>7.9785456240841907E-2</v>
       </c>
       <c r="S3" s="5">
         <v>4756.25</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="35">
         <f>Q3/S3</f>
         <v>7.1243967845300391E-2</v>
       </c>
@@ -1051,13 +1063,13 @@
       <c r="W3" s="5">
         <v>2225.2857142857101</v>
       </c>
-      <c r="X3" s="41">
+      <c r="X3" s="34">
         <v>0.48430193441012098</v>
       </c>
       <c r="Y3" s="5">
         <v>6690</v>
       </c>
-      <c r="Z3" s="42">
+      <c r="Z3" s="35">
         <f>W3/Y3</f>
         <v>0.33262865684390286</v>
       </c>
@@ -1070,22 +1082,22 @@
       <c r="AC3" s="5">
         <v>607.88213710604998</v>
       </c>
-      <c r="AD3" s="41">
+      <c r="AD3" s="34">
         <v>8.5332065886768191</v>
       </c>
       <c r="AE3" s="5">
         <v>3615</v>
       </c>
-      <c r="AF3" s="42">
+      <c r="AF3" s="35">
         <f>AC3/AE3</f>
         <v>0.16815550127414938</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7">
@@ -1097,13 +1109,13 @@
       <c r="E4" s="3">
         <v>295.31217374129102</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="34">
         <v>0.33823877718192902</v>
       </c>
       <c r="G4" s="3">
         <v>1140</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="35">
         <f t="shared" ref="H4:H23" si="0">E4/G4</f>
         <v>0.25904576643972899</v>
       </c>
@@ -1116,13 +1128,13 @@
       <c r="K4" s="3">
         <v>151.78571428571399</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="34">
         <v>6.78793582154536E-2</v>
       </c>
       <c r="M4" s="3">
         <v>2112.5</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="35">
         <f t="shared" ref="N4:N23" si="1">K4/M4</f>
         <v>7.1851225697379409E-2</v>
       </c>
@@ -1135,13 +1147,13 @@
       <c r="Q4" s="3">
         <v>247.47791110596199</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="34">
         <v>9.62225101016317E-2</v>
       </c>
       <c r="S4" s="3">
         <v>2620</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="35">
         <f t="shared" ref="T4:T23" si="2">Q4/S4</f>
         <v>9.4457217979374813E-2</v>
       </c>
@@ -1154,13 +1166,13 @@
       <c r="W4" s="3">
         <v>931.56789108187104</v>
       </c>
-      <c r="X4" s="41">
+      <c r="X4" s="34">
         <v>9.8847144067847295E-2</v>
       </c>
       <c r="Y4" s="3">
         <v>9360</v>
       </c>
-      <c r="Z4" s="42">
+      <c r="Z4" s="35">
         <f t="shared" ref="Z4:Z23" si="3">W4/Y4</f>
         <v>9.9526484089943482E-2</v>
       </c>
@@ -1173,22 +1185,22 @@
       <c r="AC4" s="3">
         <v>371.47766643772701</v>
       </c>
-      <c r="AD4" s="41">
+      <c r="AD4" s="34">
         <v>0.149065813550775</v>
       </c>
       <c r="AE4" s="3">
         <v>2955</v>
       </c>
-      <c r="AF4" s="42">
+      <c r="AF4" s="35">
         <f t="shared" ref="AF4:AF23" si="4">AC4/AE4</f>
         <v>0.12571156224626973</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7">
@@ -1200,13 +1212,13 @@
       <c r="E5" s="5">
         <v>225.810148555148</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="34">
         <v>0.26465308883517902</v>
       </c>
       <c r="G5" s="5">
         <v>1194.5</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="35">
         <f>E5/G5</f>
         <v>0.18904156429899371</v>
       </c>
@@ -1219,13 +1231,13 @@
       <c r="K5" s="5">
         <v>430.20493197278898</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="34">
         <v>0.12684928105464399</v>
       </c>
       <c r="M5" s="5">
         <v>3330</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="35">
         <f t="shared" si="1"/>
         <v>0.12919067026209879</v>
       </c>
@@ -1238,13 +1250,13 @@
       <c r="Q5" s="5">
         <v>390.03741741741698</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="34">
         <v>7.62556286410737E-2</v>
       </c>
       <c r="S5" s="5">
         <v>5350</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="35">
         <f t="shared" si="2"/>
         <v>7.290419017147981E-2</v>
       </c>
@@ -1257,13 +1269,13 @@
       <c r="W5" s="5">
         <v>1391.6720085469999</v>
       </c>
-      <c r="X5" s="41">
+      <c r="X5" s="34">
         <v>0.15982078827090301</v>
       </c>
       <c r="Y5" s="5">
         <v>9550</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Z5" s="35">
         <f t="shared" si="3"/>
         <v>0.14572481764890052</v>
       </c>
@@ -1276,22 +1288,22 @@
       <c r="AC5" s="5">
         <v>569.65840837658197</v>
       </c>
-      <c r="AD5" s="41">
+      <c r="AD5" s="34">
         <v>0.68666568497143099</v>
       </c>
       <c r="AE5" s="5">
         <v>4537.5</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="35">
         <f t="shared" si="4"/>
         <v>0.125544552810266</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="7">
@@ -1303,13 +1315,13 @@
       <c r="E6" s="3">
         <v>505.77097372602799</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="34">
         <v>0.160605016611372</v>
       </c>
       <c r="G6" s="3">
         <v>3500.25</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="35">
         <f t="shared" si="0"/>
         <v>0.14449567137376701</v>
       </c>
@@ -1322,13 +1334,13 @@
       <c r="K6" s="3">
         <v>793.30598568098503</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="34">
         <v>0.105782999492853</v>
       </c>
       <c r="M6" s="3">
         <v>5683</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="35">
         <f t="shared" si="1"/>
         <v>0.13959281817367325</v>
       </c>
@@ -1341,13 +1353,13 @@
       <c r="Q6" s="3">
         <v>337.679011604641</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="34">
         <v>4.6598756856395501E-2</v>
       </c>
       <c r="S6" s="3">
         <v>7355</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="35">
         <f t="shared" si="2"/>
         <v>4.5911490360930118E-2</v>
       </c>
@@ -1360,13 +1372,13 @@
       <c r="W6" s="3">
         <v>2430.2332251082198</v>
       </c>
-      <c r="X6" s="41">
+      <c r="X6" s="34">
         <v>0.128864147776657</v>
       </c>
       <c r="Y6" s="3">
         <v>19230</v>
       </c>
-      <c r="Z6" s="42">
+      <c r="Z6" s="35">
         <f t="shared" si="3"/>
         <v>0.12637718279293914</v>
       </c>
@@ -1379,22 +1391,22 @@
       <c r="AC6" s="3">
         <v>504.42087807527503</v>
       </c>
-      <c r="AD6" s="41">
+      <c r="AD6" s="34">
         <v>0.325602771774198</v>
       </c>
       <c r="AE6" s="3">
         <v>7200</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="35">
         <f t="shared" si="4"/>
         <v>7.0058455288232638E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="7">
@@ -1406,13 +1418,13 @@
       <c r="E7" s="5">
         <v>532.45896464646398</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="34">
         <v>0.20288386617545301</v>
       </c>
       <c r="G7" s="5">
         <v>2530</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="35">
         <f t="shared" si="0"/>
         <v>0.21045808879306876</v>
       </c>
@@ -1425,13 +1437,13 @@
       <c r="K7" s="5">
         <v>232.77262420119499</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="34">
         <v>0.14462117886849399</v>
       </c>
       <c r="M7" s="5">
         <v>1615</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="35">
         <f>K7/M7</f>
         <v>0.14413165585213311</v>
       </c>
@@ -1444,13 +1456,13 @@
       <c r="Q7" s="5">
         <v>190.40677282568001</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="34">
         <v>0.15327509071969</v>
       </c>
       <c r="S7" s="5">
         <v>1652.5</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="35">
         <f t="shared" si="2"/>
         <v>0.11522346313203026</v>
       </c>
@@ -1463,13 +1475,13 @@
       <c r="W7" s="5">
         <v>793.55113636363603</v>
       </c>
-      <c r="X7" s="41">
+      <c r="X7" s="34">
         <v>0.115890427143237</v>
       </c>
       <c r="Y7" s="5">
         <v>8640</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="35">
         <f t="shared" si="3"/>
         <v>9.1846196338383798E-2</v>
       </c>
@@ -1482,22 +1494,22 @@
       <c r="AC7" s="5">
         <v>211.33077585266901</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AD7" s="34">
         <v>0.354099174253027</v>
       </c>
       <c r="AE7" s="5">
         <v>2170</v>
       </c>
-      <c r="AF7" s="42">
+      <c r="AF7" s="35">
         <f t="shared" si="4"/>
         <v>9.7387454309985716E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7">
@@ -1509,13 +1521,13 @@
       <c r="E8" s="3">
         <v>6876.9012520567603</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="34">
         <v>3.0373230111002298</v>
       </c>
       <c r="G8" s="3">
         <v>47600</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="35">
         <f t="shared" si="0"/>
         <v>0.1444727153793437</v>
       </c>
@@ -1528,13 +1540,13 @@
       <c r="K8" s="3">
         <v>5884.0976390556198</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="34">
         <v>9.6463984075570705E-2</v>
       </c>
       <c r="M8" s="3">
         <v>64535</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="35">
         <f t="shared" si="1"/>
         <v>9.1176844178439909E-2</v>
       </c>
@@ -1547,13 +1559,13 @@
       <c r="Q8" s="3">
         <v>3543.7638764240401</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="34">
         <v>3.44585279363437E-2</v>
       </c>
       <c r="S8" s="3">
         <v>102037.5</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="35">
         <f t="shared" si="2"/>
         <v>3.4730014714433814E-2</v>
       </c>
@@ -1566,13 +1578,13 @@
       <c r="W8" s="3">
         <v>18717.8204365079</v>
       </c>
-      <c r="X8" s="41">
+      <c r="X8" s="34">
         <v>0.104589914977612</v>
       </c>
       <c r="Y8" s="3">
         <v>200000</v>
       </c>
-      <c r="Z8" s="42">
+      <c r="Z8" s="35">
         <f t="shared" si="3"/>
         <v>9.3589102182539505E-2</v>
       </c>
@@ -1585,22 +1597,22 @@
       <c r="AC8" s="3">
         <v>8209.7073246149903</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AD8" s="34">
         <v>1.04104743132912</v>
       </c>
       <c r="AE8" s="3">
         <v>98230</v>
       </c>
-      <c r="AF8" s="42">
+      <c r="AF8" s="35">
         <f t="shared" si="4"/>
         <v>8.3576375085157181E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7">
@@ -1612,13 +1624,13 @@
       <c r="E9" s="5">
         <v>396.43224143775598</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="34">
         <v>0.79114998464736197</v>
       </c>
       <c r="G9" s="5">
         <v>2805.5</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="35">
         <f t="shared" si="0"/>
         <v>0.14130537923284833</v>
       </c>
@@ -1631,13 +1643,13 @@
       <c r="K9" s="5">
         <v>209.21309523809501</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="34">
         <v>0.10822699783600501</v>
       </c>
       <c r="M9" s="5">
         <v>1855.75</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="35">
         <f t="shared" si="1"/>
         <v>0.11273775844704029</v>
       </c>
@@ -1650,13 +1662,13 @@
       <c r="Q9" s="5">
         <v>578.32045693252599</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="34">
         <v>8.6846466240435502E-2</v>
       </c>
       <c r="S9" s="5">
         <v>7110</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="35">
         <f t="shared" si="2"/>
         <v>8.1339023478554998E-2</v>
       </c>
@@ -1669,13 +1681,13 @@
       <c r="W9" s="5">
         <v>541.10269360269297</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="34">
         <v>0.10873082676694799</v>
       </c>
       <c r="Y9" s="5">
         <v>5500</v>
       </c>
-      <c r="Z9" s="42">
+      <c r="Z9" s="35">
         <f t="shared" si="3"/>
         <v>9.8382307927762355E-2</v>
       </c>
@@ -1688,22 +1700,22 @@
       <c r="AC9" s="5">
         <v>655.91279553898903</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AD9" s="34">
         <v>1.98617105710991</v>
       </c>
       <c r="AE9" s="5">
         <v>4221</v>
       </c>
-      <c r="AF9" s="42">
+      <c r="AF9" s="35">
         <f t="shared" si="4"/>
         <v>0.15539274947618786</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7">
@@ -1715,13 +1727,13 @@
       <c r="E10" s="3">
         <v>315.89814814814798</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="34">
         <v>0.45120795712388401</v>
       </c>
       <c r="G10" s="3">
         <v>1910</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="35">
         <f t="shared" si="0"/>
         <v>0.1653917006011246</v>
       </c>
@@ -1734,13 +1746,13 @@
       <c r="K10" s="3">
         <v>344.559523809523</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="34">
         <v>8.6108961703372899E-2</v>
       </c>
       <c r="M10" s="3">
         <v>4061</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="35">
         <f t="shared" si="1"/>
         <v>8.484597976102512E-2</v>
       </c>
@@ -1753,13 +1765,13 @@
       <c r="Q10" s="3">
         <v>538.00950284834198</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="34">
         <v>0.11368579180937199</v>
       </c>
       <c r="S10" s="3">
         <v>5155</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="35">
         <f t="shared" si="2"/>
         <v>0.1043665378949257</v>
       </c>
@@ -1772,13 +1784,13 @@
       <c r="W10" s="3">
         <v>1205.4563492063401</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="34">
         <v>0.16456725709829501</v>
       </c>
       <c r="Y10" s="3">
         <v>6960</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="Z10" s="35">
         <f t="shared" si="3"/>
         <v>0.17319775132275</v>
       </c>
@@ -1791,22 +1803,22 @@
       <c r="AC10" s="3">
         <v>557.441821188071</v>
       </c>
-      <c r="AD10" s="41">
+      <c r="AD10" s="34">
         <v>0.33267589260230601</v>
       </c>
       <c r="AE10" s="3">
         <v>4760</v>
       </c>
-      <c r="AF10" s="42">
+      <c r="AF10" s="35">
         <f t="shared" si="4"/>
         <v>0.11710962630001491</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7">
@@ -1818,13 +1830,13 @@
       <c r="E11" s="5">
         <v>999.00227537375099</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="34">
         <v>1.15757032399932</v>
       </c>
       <c r="G11" s="5">
         <v>8594</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="35">
         <f t="shared" si="0"/>
         <v>0.1162441558498663</v>
       </c>
@@ -1837,13 +1849,13 @@
       <c r="K11" s="5">
         <v>508.46507064364198</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="34">
         <v>6.0731318090778301E-2</v>
       </c>
       <c r="M11" s="5">
         <v>8537.75</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="35">
         <f t="shared" si="1"/>
         <v>5.9554926139046234E-2</v>
       </c>
@@ -1856,13 +1868,13 @@
       <c r="Q11" s="5">
         <v>612.709590092447</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="34">
         <v>4.4871802073942001E-2</v>
       </c>
       <c r="S11" s="5">
         <v>13605</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="35">
         <f t="shared" si="2"/>
         <v>4.503561852939706E-2</v>
       </c>
@@ -1875,13 +1887,13 @@
       <c r="W11" s="5">
         <v>2274.1517857142799</v>
       </c>
-      <c r="X11" s="41">
+      <c r="X11" s="34">
         <v>0.110899052808781</v>
       </c>
       <c r="Y11" s="5">
         <v>21810</v>
       </c>
-      <c r="Z11" s="42">
+      <c r="Z11" s="35">
         <f t="shared" si="3"/>
         <v>0.10427105849217239</v>
       </c>
@@ -1894,22 +1906,22 @@
       <c r="AC11" s="5">
         <v>1525.76524390243</v>
       </c>
-      <c r="AD11" s="41">
+      <c r="AD11" s="34">
         <v>5.0949427812333798</v>
       </c>
       <c r="AE11" s="5">
         <v>12296</v>
       </c>
-      <c r="AF11" s="42">
+      <c r="AF11" s="35">
         <f t="shared" si="4"/>
         <v>0.12408630805972919</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="7">
@@ -1921,13 +1933,13 @@
       <c r="E12" s="3">
         <v>319.35179820179798</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="34">
         <v>1.5908719167815799</v>
       </c>
       <c r="G12" s="3">
         <v>1425</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="35">
         <f t="shared" si="0"/>
         <v>0.22410652505389331</v>
       </c>
@@ -1940,13 +1952,13 @@
       <c r="K12" s="3">
         <v>359.28095238095199</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="34">
         <v>0.148389853553481</v>
       </c>
       <c r="M12" s="3">
         <v>2640</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="35">
         <f t="shared" si="1"/>
         <v>0.13609126984126968</v>
       </c>
@@ -1959,13 +1971,13 @@
       <c r="Q12" s="3">
         <v>225.18559218559199</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="34">
         <v>6.0615387556150098E-2</v>
       </c>
       <c r="S12" s="3">
         <v>3840</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="35">
         <f t="shared" si="2"/>
         <v>5.8642081298331247E-2</v>
       </c>
@@ -1978,13 +1990,13 @@
       <c r="W12" s="3">
         <v>1673.30789580789</v>
       </c>
-      <c r="X12" s="41">
+      <c r="X12" s="34">
         <v>0.111567279070916</v>
       </c>
       <c r="Y12" s="3">
         <v>15800</v>
       </c>
-      <c r="Z12" s="42">
+      <c r="Z12" s="35">
         <f t="shared" si="3"/>
         <v>0.10590556302581582</v>
       </c>
@@ -1997,22 +2009,22 @@
       <c r="AC12" s="3">
         <v>1519.41143265905</v>
       </c>
-      <c r="AD12" s="41">
+      <c r="AD12" s="34">
         <v>13.672224288846801</v>
       </c>
       <c r="AE12" s="3">
         <v>5000</v>
       </c>
-      <c r="AF12" s="42">
+      <c r="AF12" s="35">
         <f t="shared" si="4"/>
         <v>0.30388228653180999</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="7">
@@ -2024,13 +2036,13 @@
       <c r="E13" s="5">
         <v>301.20156250000002</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="34">
         <v>0.31399664716290898</v>
       </c>
       <c r="G13" s="5">
         <v>1460</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="35">
         <f t="shared" si="0"/>
         <v>0.20630244006849316</v>
       </c>
@@ -2043,13 +2055,13 @@
       <c r="K13" s="5">
         <v>207.28186274509801</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="34">
         <v>0.20513641689541101</v>
       </c>
       <c r="M13" s="5">
         <v>1325</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="35">
         <f t="shared" si="1"/>
         <v>0.15643914169441359</v>
       </c>
@@ -2062,13 +2074,13 @@
       <c r="Q13" s="5">
         <v>829.49284283047803</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="34">
         <v>1.1437444271018999</v>
       </c>
       <c r="S13" s="5">
         <v>4100</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="35">
         <f t="shared" si="2"/>
         <v>0.20231532751962877</v>
       </c>
@@ -2081,13 +2093,13 @@
       <c r="W13" s="5">
         <v>1186.9696969696899</v>
       </c>
-      <c r="X13" s="41">
+      <c r="X13" s="34">
         <v>0.22778177007519401</v>
       </c>
       <c r="Y13" s="5">
         <v>6150</v>
       </c>
-      <c r="Z13" s="42">
+      <c r="Z13" s="35">
         <f t="shared" si="3"/>
         <v>0.19300320275929919</v>
       </c>
@@ -2100,22 +2112,22 @@
       <c r="AC13" s="5">
         <v>414.49075380550897</v>
       </c>
-      <c r="AD13" s="41">
+      <c r="AD13" s="34">
         <v>0.56490558787845502</v>
       </c>
       <c r="AE13" s="5">
         <v>2805</v>
       </c>
-      <c r="AF13" s="42">
+      <c r="AF13" s="35">
         <f t="shared" si="4"/>
         <v>0.14776853968110837</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="7">
@@ -2127,13 +2139,13 @@
       <c r="E14" s="3">
         <v>2203.875</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="34">
         <v>6.6894402765534799</v>
       </c>
       <c r="G14" s="3">
         <v>8255</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="35">
         <f t="shared" si="0"/>
         <v>0.26697456087219867</v>
       </c>
@@ -2146,13 +2158,13 @@
       <c r="K14" s="3">
         <v>1443.1428571428501</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="34">
         <v>9.8528465989301803E-2</v>
       </c>
       <c r="M14" s="3">
         <v>14617.5</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="35">
         <f t="shared" si="1"/>
         <v>9.8727063939993157E-2</v>
       </c>
@@ -2165,13 +2177,13 @@
       <c r="Q14" s="3">
         <v>609.30955074337396</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="34">
         <v>5.6364517540813598E-2</v>
       </c>
       <c r="S14" s="3">
         <v>9220</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T14" s="35">
         <f t="shared" si="2"/>
         <v>6.608563457086486E-2</v>
       </c>
@@ -2184,13 +2196,13 @@
       <c r="W14" s="3">
         <v>2211.57585470085</v>
       </c>
-      <c r="X14" s="41">
+      <c r="X14" s="34">
         <v>9.7101860915751903E-2</v>
       </c>
       <c r="Y14" s="3">
         <v>24160</v>
       </c>
-      <c r="Z14" s="42">
+      <c r="Z14" s="35">
         <f t="shared" si="3"/>
         <v>9.1538735707816635E-2</v>
       </c>
@@ -2203,22 +2215,22 @@
       <c r="AC14" s="3">
         <v>2125.1947549722099</v>
       </c>
-      <c r="AD14" s="41">
+      <c r="AD14" s="34">
         <v>0.408348632698458</v>
       </c>
       <c r="AE14" s="3">
         <v>12932</v>
       </c>
-      <c r="AF14" s="42">
+      <c r="AF14" s="35">
         <f t="shared" si="4"/>
         <v>0.16433612395392902</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="7">
@@ -2230,13 +2242,13 @@
       <c r="E15" s="5">
         <v>272.93344907407402</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="34">
         <v>9.6769992912517797E-2</v>
       </c>
       <c r="G15" s="5">
         <v>2393.5</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="35">
         <f t="shared" si="0"/>
         <v>0.11403110468939796</v>
       </c>
@@ -2249,13 +2261,13 @@
       <c r="K15" s="5">
         <v>230.66071428571399</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="34">
         <v>0.11646522354147899</v>
       </c>
       <c r="M15" s="5">
         <v>2620</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="35">
         <f t="shared" si="1"/>
         <v>8.8038440567066403E-2</v>
       </c>
@@ -2268,13 +2280,13 @@
       <c r="Q15" s="5">
         <v>551.04988725560099</v>
       </c>
-      <c r="R15" s="41">
+      <c r="R15" s="34">
         <v>9.0971942861125393E-2</v>
       </c>
       <c r="S15" s="5">
         <v>5676</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="35">
         <f t="shared" si="2"/>
         <v>9.7084194372022731E-2</v>
       </c>
@@ -2287,13 +2299,13 @@
       <c r="W15" s="5">
         <v>1307.7802144249499</v>
       </c>
-      <c r="X15" s="41">
+      <c r="X15" s="34">
         <v>0.16311605787629599</v>
       </c>
       <c r="Y15" s="5">
         <v>8600</v>
       </c>
-      <c r="Z15" s="42">
+      <c r="Z15" s="35">
         <f t="shared" si="3"/>
         <v>0.15206746679359884</v>
       </c>
@@ -2306,22 +2318,22 @@
       <c r="AC15" s="5">
         <v>890.06894313216799</v>
       </c>
-      <c r="AD15" s="41">
+      <c r="AD15" s="34">
         <v>0.62148085210694404</v>
       </c>
       <c r="AE15" s="5">
         <v>6582.5</v>
       </c>
-      <c r="AF15" s="42">
+      <c r="AF15" s="35">
         <f t="shared" si="4"/>
         <v>0.13521746192664916</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="7">
@@ -2333,13 +2345,13 @@
       <c r="E16" s="3">
         <v>294.25913900913798</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="34">
         <v>2.8134904348051299</v>
       </c>
       <c r="G16" s="3">
         <v>3400</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="35">
         <f t="shared" si="0"/>
         <v>8.654680559092294E-2</v>
       </c>
@@ -2352,13 +2364,13 @@
       <c r="K16" s="3">
         <v>476.57142857142799</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="34">
         <v>0.105417648689085</v>
       </c>
       <c r="M16" s="3">
         <v>4460</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="35">
         <f t="shared" si="1"/>
         <v>0.10685458039718117</v>
       </c>
@@ -2371,13 +2383,13 @@
       <c r="Q16" s="3">
         <v>500.35714285714198</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="34">
         <v>8.26824074055795E-2</v>
       </c>
       <c r="S16" s="3">
         <v>6152.5</v>
       </c>
-      <c r="T16" s="42">
+      <c r="T16" s="35">
         <f t="shared" si="2"/>
         <v>8.1325825738665911E-2</v>
       </c>
@@ -2390,13 +2402,13 @@
       <c r="W16" s="3">
         <v>2049.4375</v>
       </c>
-      <c r="X16" s="41">
+      <c r="X16" s="34">
         <v>0.14694344109297799</v>
       </c>
       <c r="Y16" s="3">
         <v>16740</v>
       </c>
-      <c r="Z16" s="42">
+      <c r="Z16" s="35">
         <f t="shared" si="3"/>
         <v>0.12242756869772999</v>
       </c>
@@ -2409,22 +2421,22 @@
       <c r="AC16" s="3">
         <v>527.15269308935103</v>
       </c>
-      <c r="AD16" s="41">
+      <c r="AD16" s="34">
         <v>0.152348955757003</v>
       </c>
       <c r="AE16" s="3">
         <v>5605</v>
       </c>
-      <c r="AF16" s="42">
+      <c r="AF16" s="35">
         <f t="shared" si="4"/>
         <v>9.4050435876779845E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="7">
@@ -2436,13 +2448,13 @@
       <c r="E17" s="5">
         <v>809.08169707276795</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="34">
         <v>0.106080934321716</v>
       </c>
       <c r="G17" s="5">
         <v>6673.75</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="35">
         <f t="shared" si="0"/>
         <v>0.1212334440266369</v>
       </c>
@@ -2455,13 +2467,13 @@
       <c r="K17" s="5">
         <v>911.5</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="34">
         <v>0.29252628952066301</v>
       </c>
       <c r="M17" s="5">
         <v>3700</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="35">
         <f t="shared" si="1"/>
         <v>0.24635135135135136</v>
       </c>
@@ -2474,13 +2486,13 @@
       <c r="Q17" s="5">
         <v>87.690437430103998</v>
       </c>
-      <c r="R17" s="41">
+      <c r="R17" s="34">
         <v>0.22322402410362499</v>
       </c>
       <c r="S17" s="5">
         <v>445</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="35">
         <f t="shared" si="2"/>
         <v>0.19705716276427865</v>
       </c>
@@ -2493,13 +2505,13 @@
       <c r="W17" s="5">
         <v>1808.0772727272699</v>
       </c>
-      <c r="X17" s="41">
+      <c r="X17" s="34">
         <v>0.17487387129219201</v>
       </c>
       <c r="Y17" s="5">
         <v>12540</v>
       </c>
-      <c r="Z17" s="42">
+      <c r="Z17" s="35">
         <f t="shared" si="3"/>
         <v>0.14418479048861801</v>
       </c>
@@ -2512,22 +2524,22 @@
       <c r="AC17" s="5">
         <v>1149.56316413744</v>
       </c>
-      <c r="AD17" s="41">
+      <c r="AD17" s="34">
         <v>0.41596112463652801</v>
       </c>
       <c r="AE17" s="5">
         <v>3700</v>
       </c>
-      <c r="AF17" s="42">
+      <c r="AF17" s="35">
         <f t="shared" si="4"/>
         <v>0.31069274706417299</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="7">
@@ -2539,13 +2551,13 @@
       <c r="E18" s="3">
         <v>215.128205128205</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="34">
         <v>4.3405499761787203</v>
       </c>
       <c r="G18" s="3">
         <v>1010</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="35">
         <f t="shared" si="0"/>
         <v>0.21299822289921286</v>
       </c>
@@ -2558,13 +2570,13 @@
       <c r="K18" s="3">
         <v>156.10227272727201</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="34">
         <v>0.29200538475260701</v>
       </c>
       <c r="M18" s="3">
         <v>690</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="35">
         <f t="shared" si="1"/>
         <v>0.22623517786561162</v>
       </c>
@@ -2577,13 +2589,13 @@
       <c r="Q18" s="3">
         <v>199.247959183673</v>
       </c>
-      <c r="R18" s="41">
+      <c r="R18" s="34">
         <v>0.12021130295855199</v>
       </c>
       <c r="S18" s="3">
         <v>1910</v>
       </c>
-      <c r="T18" s="42">
+      <c r="T18" s="35">
         <f t="shared" si="2"/>
         <v>0.10431830323752514</v>
       </c>
@@ -2596,13 +2608,13 @@
       <c r="W18" s="3">
         <v>1220</v>
       </c>
-      <c r="X18" s="41">
+      <c r="X18" s="34">
         <v>0.118489963278951</v>
       </c>
       <c r="Y18" s="3">
         <v>11280</v>
       </c>
-      <c r="Z18" s="42">
+      <c r="Z18" s="35">
         <f t="shared" si="3"/>
         <v>0.10815602836879433</v>
       </c>
@@ -2615,22 +2627,22 @@
       <c r="AC18" s="3">
         <v>287.49361829166497</v>
       </c>
-      <c r="AD18" s="41">
+      <c r="AD18" s="34">
         <v>4.7987636569225103</v>
       </c>
       <c r="AE18" s="3">
         <v>1870</v>
       </c>
-      <c r="AF18" s="42">
+      <c r="AF18" s="35">
         <f t="shared" si="4"/>
         <v>0.15373990282976738</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="7">
@@ -2642,13 +2654,13 @@
       <c r="E19" s="5">
         <v>733.519756944444</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="34">
         <v>1.9311639277780801</v>
       </c>
       <c r="G19" s="5">
         <v>4560</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="35">
         <f t="shared" si="0"/>
         <v>0.16085959582115</v>
       </c>
@@ -2661,13 +2673,13 @@
       <c r="K19" s="5">
         <v>479.35996240601401</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="34">
         <v>4.3547759103239499E-2</v>
       </c>
       <c r="M19" s="5">
         <v>12032.5</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="35">
         <f t="shared" si="1"/>
         <v>3.9838766873551965E-2</v>
       </c>
@@ -2680,13 +2692,13 @@
       <c r="Q19" s="5">
         <v>2003.57991675617</v>
       </c>
-      <c r="R19" s="41">
+      <c r="R19" s="34">
         <v>6.8585342655210199E-2</v>
       </c>
       <c r="S19" s="5">
         <v>28840</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="35">
         <f t="shared" si="2"/>
         <v>6.947225786255791E-2</v>
       </c>
@@ -2699,13 +2711,13 @@
       <c r="W19" s="5">
         <v>1062.6255175983399</v>
       </c>
-      <c r="X19" s="41">
+      <c r="X19" s="34">
         <v>0.16774812990767399</v>
       </c>
       <c r="Y19" s="5">
         <v>5950</v>
       </c>
-      <c r="Z19" s="42">
+      <c r="Z19" s="35">
         <f t="shared" si="3"/>
         <v>0.17859252396610756</v>
       </c>
@@ -2718,22 +2730,22 @@
       <c r="AC19" s="5">
         <v>1951.5066666666601</v>
       </c>
-      <c r="AD19" s="41">
+      <c r="AD19" s="34">
         <v>1.1230183001698999</v>
       </c>
       <c r="AE19" s="5">
         <v>10942.5</v>
       </c>
-      <c r="AF19" s="42">
+      <c r="AF19" s="35">
         <f t="shared" si="4"/>
         <v>0.17834193892315833</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="7">
@@ -2745,13 +2757,13 @@
       <c r="E20" s="3">
         <v>228.28107053227899</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="34">
         <v>14.18462121604</v>
       </c>
       <c r="G20" s="3">
         <v>2454</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="35">
         <f t="shared" si="0"/>
         <v>9.3024071121548077E-2</v>
       </c>
@@ -2764,13 +2776,13 @@
       <c r="K20" s="3">
         <v>577.957142857142</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="34">
         <v>0.11225615687337499</v>
       </c>
       <c r="M20" s="3">
         <v>5104</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="35">
         <f t="shared" si="1"/>
         <v>0.11323611733094475</v>
       </c>
@@ -2783,13 +2795,13 @@
       <c r="Q20" s="3">
         <v>210.02735042735</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="34">
         <v>6.0006755392810099E-2</v>
       </c>
       <c r="S20" s="3">
         <v>3409.25</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="35">
         <f t="shared" si="2"/>
         <v>6.1605147885121364E-2</v>
       </c>
@@ -2802,13 +2814,13 @@
       <c r="W20" s="3">
         <v>753.125</v>
       </c>
-      <c r="X20" s="41">
+      <c r="X20" s="34">
         <v>0.25242345214491702</v>
       </c>
       <c r="Y20" s="3">
         <v>2202.5</v>
       </c>
-      <c r="Z20" s="42">
+      <c r="Z20" s="35">
         <f t="shared" si="3"/>
         <v>0.34194097616345065</v>
       </c>
@@ -2821,22 +2833,22 @@
       <c r="AC20" s="3">
         <v>685.34659090909099</v>
       </c>
-      <c r="AD20" s="41">
+      <c r="AD20" s="34">
         <v>1.4063787164870001</v>
       </c>
       <c r="AE20" s="3">
         <v>3337</v>
       </c>
-      <c r="AF20" s="42">
+      <c r="AF20" s="35">
         <f t="shared" si="4"/>
         <v>0.20537806140518161</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="7">
@@ -2848,13 +2860,13 @@
       <c r="E21" s="5">
         <v>216.63520095705999</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="34">
         <v>0.14564762423786001</v>
       </c>
       <c r="G21" s="5">
         <v>1654.5</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="35">
         <f t="shared" si="0"/>
         <v>0.13093696038504685</v>
       </c>
@@ -2867,13 +2879,13 @@
       <c r="K21" s="5">
         <v>1109.6461038960999</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="34">
         <v>7.8849296881805794E-2</v>
       </c>
       <c r="M21" s="5">
         <v>15450</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="35">
         <f t="shared" si="1"/>
         <v>7.1821754297482193E-2</v>
       </c>
@@ -2886,13 +2898,13 @@
       <c r="Q21" s="5">
         <v>1257.5815204668199</v>
       </c>
-      <c r="R21" s="41">
+      <c r="R21" s="34">
         <v>5.1167187142148997E-2</v>
       </c>
       <c r="S21" s="5">
         <v>26110</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="35">
         <f t="shared" si="2"/>
         <v>4.8164746092180008E-2</v>
       </c>
@@ -2905,13 +2917,13 @@
       <c r="W21" s="5">
         <v>990.98290598290498</v>
       </c>
-      <c r="X21" s="41">
+      <c r="X21" s="34">
         <v>9.9651746315686296E-2</v>
       </c>
       <c r="Y21" s="5">
         <v>8340</v>
       </c>
-      <c r="Z21" s="42">
+      <c r="Z21" s="35">
         <f t="shared" si="3"/>
         <v>0.1188228904056241</v>
       </c>
@@ -2924,22 +2936,22 @@
       <c r="AC21" s="5">
         <v>1136.1916966927799</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AD21" s="34">
         <v>1.6485297537110699</v>
       </c>
       <c r="AE21" s="5">
         <v>12860</v>
       </c>
-      <c r="AF21" s="42">
+      <c r="AF21" s="35">
         <f t="shared" si="4"/>
         <v>8.835083178015396E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="7">
@@ -2951,13 +2963,13 @@
       <c r="E22" s="3">
         <v>911.22857142857094</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="34">
         <v>2.1875114324601799</v>
       </c>
       <c r="G22" s="3">
         <v>6418</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="35">
         <f t="shared" si="0"/>
         <v>0.14198014512754301</v>
       </c>
@@ -2970,13 +2982,13 @@
       <c r="K22" s="3">
         <v>621.66492346938696</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="34">
         <v>7.5701340241064105E-2</v>
       </c>
       <c r="M22" s="3">
         <v>8126</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="35">
         <f t="shared" si="1"/>
         <v>7.6503190188209072E-2</v>
       </c>
@@ -2989,13 +3001,13 @@
       <c r="Q22" s="3">
         <v>486.86895798319301</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="34">
         <v>4.7220846951084097E-2</v>
       </c>
       <c r="S22" s="3">
         <v>10474.75</v>
       </c>
-      <c r="T22" s="42">
+      <c r="T22" s="35">
         <f t="shared" si="2"/>
         <v>4.648024611405456E-2</v>
       </c>
@@ -3008,13 +3020,13 @@
       <c r="W22" s="3">
         <v>3015.0232919254599</v>
       </c>
-      <c r="X22" s="41">
+      <c r="X22" s="34">
         <v>0.137070670455302</v>
       </c>
       <c r="Y22" s="3">
         <v>24931</v>
       </c>
-      <c r="Z22" s="42">
+      <c r="Z22" s="35">
         <f t="shared" si="3"/>
         <v>0.12093471148070514</v>
       </c>
@@ -3027,22 +3039,22 @@
       <c r="AC22" s="3">
         <v>725.18008658008603</v>
       </c>
-      <c r="AD22" s="41">
+      <c r="AD22" s="34">
         <v>7.2590188590738597E-2</v>
       </c>
       <c r="AE22" s="3">
         <v>10469</v>
       </c>
-      <c r="AF22" s="42">
+      <c r="AF22" s="35">
         <f t="shared" si="4"/>
         <v>6.9269279451722801E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="15">
@@ -3054,13 +3066,13 @@
       <c r="E23" s="11">
         <v>625.84973544973502</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="38">
         <v>1.5885135874143601</v>
       </c>
       <c r="G23" s="11">
         <v>2932</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="39">
         <f t="shared" si="0"/>
         <v>0.21345488930754947</v>
       </c>
@@ -3073,13 +3085,13 @@
       <c r="K23" s="11">
         <v>9.8611111111111107</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="38">
         <v>0.213379629629629</v>
       </c>
       <c r="M23" s="11">
         <v>50</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="39">
         <f t="shared" si="1"/>
         <v>0.19722222222222222</v>
       </c>
@@ -3092,13 +3104,13 @@
       <c r="Q23" s="11">
         <v>412.25793650793599</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="38">
         <v>8.6564897117543504E-2</v>
       </c>
       <c r="S23" s="11">
         <v>4597.5</v>
       </c>
-      <c r="T23" s="46">
+      <c r="T23" s="39">
         <f t="shared" si="2"/>
         <v>8.9670024254037195E-2</v>
       </c>
@@ -3111,13 +3123,13 @@
       <c r="W23" s="11">
         <v>1177.6533613445299</v>
       </c>
-      <c r="X23" s="45">
+      <c r="X23" s="38">
         <v>0.20293323387259099</v>
       </c>
       <c r="Y23" s="11">
         <v>6860</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="Z23" s="39">
         <f t="shared" si="3"/>
         <v>0.17166958620182651</v>
       </c>
@@ -3130,18 +3142,18 @@
       <c r="AC23" s="11">
         <v>854.94222737585199</v>
       </c>
-      <c r="AD23" s="45">
+      <c r="AD23" s="38">
         <v>1.6975128172096301</v>
       </c>
       <c r="AE23" s="11">
         <v>4450</v>
       </c>
-      <c r="AF23" s="46">
+      <c r="AF23" s="39">
         <f t="shared" si="4"/>
         <v>0.19212184884850605</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H24" s="25"/>
       <c r="N24" s="25"/>
       <c r="T24" s="25"/>
@@ -3346,105 +3358,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:BC107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="AI58" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" customWidth="1"/>
-    <col min="19" max="23" width="10.6640625" customWidth="1"/>
-    <col min="24" max="24" width="1.6640625" customWidth="1"/>
-    <col min="25" max="25" width="3.6640625" customWidth="1"/>
-    <col min="26" max="26" width="30.6640625" customWidth="1"/>
-    <col min="27" max="31" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="1.77734375" customWidth="1"/>
-    <col min="33" max="33" width="3.77734375" customWidth="1"/>
-    <col min="34" max="34" width="30.77734375" customWidth="1"/>
-    <col min="35" max="39" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" customWidth="1"/>
+    <col min="27" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="1.7109375" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" customWidth="1"/>
+    <col min="34" max="34" width="30.7109375" customWidth="1"/>
+    <col min="35" max="39" width="10.7109375" customWidth="1"/>
+    <col min="40" max="40" width="1.7109375" customWidth="1"/>
+    <col min="41" max="41" width="3.7109375" customWidth="1"/>
+    <col min="42" max="42" width="30.7109375" customWidth="1"/>
+    <col min="43" max="47" width="10.7109375" customWidth="1"/>
+    <col min="48" max="48" width="1.7109375" customWidth="1"/>
+    <col min="49" max="49" width="3.7109375" customWidth="1"/>
+    <col min="50" max="50" width="30.7109375" customWidth="1"/>
+    <col min="51" max="55" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:55" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="I1" s="31" t="s">
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="Q1" s="31" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="Q1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="Y1" s="31" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="Y1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AG1" s="31" t="s">
+      <c r="AA1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AG1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-    </row>
-    <row r="2" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="36"/>
+      <c r="AI1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AO1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AW1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+    </row>
+    <row r="2" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3460,8 +3506,8 @@
       <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="36"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3477,8 +3523,8 @@
       <c r="O2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="36"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="47"/>
       <c r="S2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3494,8 +3540,8 @@
       <c r="W2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="36"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="47"/>
       <c r="AA2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3511,8 +3557,8 @@
       <c r="AE2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="36"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="47"/>
       <c r="AI2" s="9" t="s">
         <v>9</v>
       </c>
@@ -3528,8 +3574,42 @@
       <c r="AM2" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3635,8 +3715,50 @@
       <c r="AM3" s="17">
         <v>0.52742835040084901</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>-3.1211337680083799</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>48382.901108965998</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>42730.084985620299</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>0.93766012269304</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY3" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>-0.13605751110724101</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>914.74579730615301</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>614.24727749163503</v>
+      </c>
+      <c r="BC3" s="17">
+        <v>0.58939899285942599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3742,8 +3864,50 @@
       <c r="AM4" s="18">
         <v>1.0447771366409</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>-78.859926094472698</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>6790.9448484854602</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>6331.0672267843102</v>
+      </c>
+      <c r="AU4" s="18">
+        <v>0.69715919605675003</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY4" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0.61702092501460604</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>831.44216450642102</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>586.77187056478897</v>
+      </c>
+      <c r="BC4" s="18">
+        <v>2.0839958811838799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3849,8 +4013,50 @@
       <c r="AM5" s="17">
         <v>0.81408941594264295</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>-1.3498220075282501</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>1755.2501918990199</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>1169.6217462657901</v>
+      </c>
+      <c r="AU5" s="17">
+        <v>1.05462498473911</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY5" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>0.61170997658439596</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>535.12076035391999</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>419.24716352964401</v>
+      </c>
+      <c r="BC5" s="17">
+        <v>10.8610786783072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3956,8 +4162,50 @@
       <c r="AM6" s="18">
         <v>0.55215710212480396</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>0.40701554064491602</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>3287.0498048854402</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>2180.0397495451798</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>1.1041358247524899</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY6" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>-2.0473441922008902E-2</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>1105.0396797609201</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>880.22931348375698</v>
+      </c>
+      <c r="BC6" s="18">
+        <v>0.76072711438050999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4063,8 +4311,50 @@
       <c r="AM7" s="17">
         <v>0.55733808533079299</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>-0.98247744868707398</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>1835.35020634228</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>1353.11219724744</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>9.4448714225837396</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ7" s="5">
+        <v>0.80084044183997105</v>
+      </c>
+      <c r="BA7" s="5">
+        <v>419.62516877855398</v>
+      </c>
+      <c r="BB7" s="5">
+        <v>306.01556923437602</v>
+      </c>
+      <c r="BC7" s="17">
+        <v>0.23541314576385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4170,8 +4460,50 @@
       <c r="AM8" s="18">
         <v>3.05276973126889</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>-1.40891933163579</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>3249.1116368223502</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>2881.1616653963101</v>
+      </c>
+      <c r="AU8" s="18">
+        <v>0.52647284929254601</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY8" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>0.73697372355490098</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>1133.2984584562901</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>1040.9937295704401</v>
+      </c>
+      <c r="BC8" s="18">
+        <v>20.652550502519102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4277,8 +4609,50 @@
       <c r="AM9" s="17">
         <v>1.5515465101004799</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO9" s="2">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>-171.43023114244201</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>7228.3600917672302</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>6709.7688061056797</v>
+      </c>
+      <c r="AU9" s="17">
+        <v>0.68024062908226701</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>7</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY9" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>-11.8830647399288</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>2121.1354702133899</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>2029.27934764356</v>
+      </c>
+      <c r="BC9" s="17">
+        <v>0.53016705084194704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4384,8 +4758,50 @@
       <c r="AM10" s="18">
         <v>0.81864682806756806</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>-2.1748794553953301</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>2209.2485040545498</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>1594.75152496549</v>
+      </c>
+      <c r="AU10" s="18">
+        <v>0.41426772107146298</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY10" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ10" s="3">
+        <v>0.55168027263581998</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>677.81363416319596</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>619.38874659604699</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>0.29175071099212202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4491,8 +4907,50 @@
       <c r="AM11" s="17">
         <v>5.5929929897584501</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO11" s="2">
+        <v>9</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>-2.07069730563473</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>2286.7337091807399</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>1830.6340933133999</v>
+      </c>
+      <c r="AU11" s="17">
+        <v>0.43425663032654399</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>9</v>
+      </c>
+      <c r="AX11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY11" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>2132.10935946159</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>2132.10935946159</v>
+      </c>
+      <c r="BC11" s="17">
+        <v>0.54810009240657998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4598,8 +5056,50 @@
       <c r="AM12" s="18">
         <v>1.11043323013543</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>-6.0659147085424703</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>2262.6841938843099</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>1456.9587543707601</v>
+      </c>
+      <c r="AU12" s="18">
+        <v>0.80603899553306901</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AX12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY12" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>0.30627256258879798</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>962.00298580226695</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>947.15670633165496</v>
+      </c>
+      <c r="BC12" s="18">
+        <v>28.0549551998478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4705,8 +5205,50 @@
       <c r="AM13" s="17">
         <v>1.6601038863091</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO13" s="2">
+        <v>11</v>
+      </c>
+      <c r="AP13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>-2.2001517509695798</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>2506.9489169971698</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>2062.1040201492901</v>
+      </c>
+      <c r="AU13" s="17">
+        <v>0.68738464271620403</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>11</v>
+      </c>
+      <c r="AX13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY13" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>0.120771197508295</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>755.97432395772705</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>640.96043092820298</v>
+      </c>
+      <c r="BC13" s="17">
+        <v>0.28137469110875402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4812,8 +5354,50 @@
       <c r="AM14" s="18">
         <v>0.57073993152079205</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>-8.3803626774582298</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>4986.6269954749596</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>4611.5151321218</v>
+      </c>
+      <c r="AU14" s="18">
+        <v>0.64710642009673203</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AX14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY14" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>-3.3645499017312699</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>1164.3430197867999</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>980.50395990697405</v>
+      </c>
+      <c r="BC14" s="18">
+        <v>2.7020647111414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4919,8 +5503,50 @@
       <c r="AM15" s="17">
         <v>2.7006518788626099</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO15" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>-0.80719864711314304</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>1632.24630537035</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>1036.7508717875601</v>
+      </c>
+      <c r="AU15" s="17">
+        <v>5.3346909711141297</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>13</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY15" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>-6.6367937333971403</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>843.31276310904298</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>693.61773979823204</v>
+      </c>
+      <c r="BC15" s="17">
+        <v>0.39906909054399398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5026,8 +5652,50 @@
       <c r="AM16" s="18">
         <v>0.87543968985036602</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>-2.3441983305259102</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>2110.9908074312798</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>1813.6602107993499</v>
+      </c>
+      <c r="AU16" s="18">
+        <v>7.0599144975281698</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY16" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>-1.17499523422091</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>1815.17461099807</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>1167.84588429837</v>
+      </c>
+      <c r="BC16" s="18">
+        <v>0.29291700089352202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5133,8 +5801,50 @@
       <c r="AM17" s="17">
         <v>1.21425179861435</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO17" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>-44.660510811969097</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>3675.4499458240998</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>2365.70307462748</v>
+      </c>
+      <c r="AU17" s="17">
+        <v>1.0300435634637199</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY17" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>-0.222495709638654</v>
+      </c>
+      <c r="BA17" s="5">
+        <v>1360.71202637799</v>
+      </c>
+      <c r="BB17" s="5">
+        <v>1138.1424419781799</v>
+      </c>
+      <c r="BC17" s="17">
+        <v>0.65122421500125505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5240,8 +5950,50 @@
       <c r="AM18" s="18">
         <v>3.32971846925245</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ18" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>-22.2859454510304</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>2668.2187990798502</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>1833.76612799289</v>
+      </c>
+      <c r="AU18" s="18">
+        <v>1.57804398793898</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AX18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY18" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>-1.3286250419843599</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>1284.59337379663</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>991.93808900168403</v>
+      </c>
+      <c r="BC18" s="18">
+        <v>1.37485357688979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5347,8 +6099,50 @@
       <c r="AM19" s="17">
         <v>3.09627198239335</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO19" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>-4.8344469693697896</v>
+      </c>
+      <c r="AS19" s="5">
+        <v>1947.3392475641001</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>1251.30744802447</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>1.7201008412965899</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>17</v>
+      </c>
+      <c r="AX19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY19" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>9.3575854873438804E-3</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>3658.8913776919899</v>
+      </c>
+      <c r="BB19" s="5">
+        <v>2999.5968689291299</v>
+      </c>
+      <c r="BC19" s="17">
+        <v>4.4685504068612598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5454,8 +6248,50 @@
       <c r="AM20" s="18">
         <v>1.9788008436272599</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ20" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>-0.32841480852738197</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>2451.87832647906</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>1860.86733292688</v>
+      </c>
+      <c r="AU20" s="18">
+        <v>0.62000771402521304</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AX20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY20" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>-1415.2775410746301</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>1034.92023385268</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>1018.5667816451401</v>
+      </c>
+      <c r="BC20" s="18">
+        <v>0.49038076655715701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5561,8 +6397,50 @@
       <c r="AM21" s="17">
         <v>3.0555525244164401</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO21" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>-1.94962544246578</v>
+      </c>
+      <c r="AS21" s="5">
+        <v>8773.2604744357395</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>7985.5673656567496</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>0.72405168198496805</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>19</v>
+      </c>
+      <c r="AX21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY21" s="22">
+        <v>4</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>9.8588122960213895E-2</v>
+      </c>
+      <c r="BA21" s="5">
+        <v>460.025368439376</v>
+      </c>
+      <c r="BB21" s="5">
+        <v>358.15714475818902</v>
+      </c>
+      <c r="BC21" s="17">
+        <v>0.246848090867057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5668,8 +6546,50 @@
       <c r="AM22" s="18">
         <v>2.6944896263310798</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ22" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>-0.89787902891637805</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>1621.6227444595499</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>1249.74910845813</v>
+      </c>
+      <c r="AU22" s="18">
+        <v>1.16721039951866</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AX22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY22" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>0.65151764684779401</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>641.97728384278696</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>640.436917496663</v>
+      </c>
+      <c r="BC22" s="18">
+        <v>0.30764944575231801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5775,8 +6695,50 @@
       <c r="AM23" s="17">
         <v>1.79024218700695</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO23" s="2">
+        <v>21</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>0.54279116251429604</v>
+      </c>
+      <c r="AS23" s="5">
+        <v>1152.54625511216</v>
+      </c>
+      <c r="AT23" s="5">
+        <v>871.79364720039302</v>
+      </c>
+      <c r="AU23" s="17">
+        <v>7.1119978720727497</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>21</v>
+      </c>
+      <c r="AX23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="5">
+        <v>-198.213756256388</v>
+      </c>
+      <c r="BA23" s="5">
+        <v>4126.4695678702501</v>
+      </c>
+      <c r="BB23" s="5">
+        <v>2833.9868826942402</v>
+      </c>
+      <c r="BC23" s="17">
+        <v>1.2118043083942001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>22</v>
       </c>
@@ -5861,8 +6823,50 @@
       <c r="AM24" s="18">
         <v>2.0229079751872199</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AO24" s="1">
+        <v>22</v>
+      </c>
+      <c r="AP24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>-63.909512088650402</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>5224.5470872487504</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>4369.9316769526104</v>
+      </c>
+      <c r="AU24" s="18">
+        <v>2.0229079751872199</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>22</v>
+      </c>
+      <c r="AX24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY24" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>-17.873591297963198</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>4536.9365147393</v>
+      </c>
+      <c r="BB24" s="3">
+        <v>4234.1935882142297</v>
+      </c>
+      <c r="BC24" s="18">
+        <v>0.57900414210248197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="2"/>
       <c r="R25" s="12" t="s">
         <v>32</v>
@@ -5903,8 +6907,50 @@
       <c r="AM25" s="17">
         <v>1.6171407632247501</v>
       </c>
-    </row>
-    <row r="26" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO25" s="2">
+        <v>23</v>
+      </c>
+      <c r="AP25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ25" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>-2550.48336995106</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>25125.064761469101</v>
+      </c>
+      <c r="AT25" s="5">
+        <v>7872.6070615705203</v>
+      </c>
+      <c r="AU25" s="17">
+        <v>1.6171407632247501</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>23</v>
+      </c>
+      <c r="AX25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="5">
+        <v>-55.095917122932597</v>
+      </c>
+      <c r="BA25" s="5">
+        <v>2134.57041774456</v>
+      </c>
+      <c r="BB25" s="5">
+        <v>2115.4587843562899</v>
+      </c>
+      <c r="BC25" s="17">
+        <v>1.46829829071221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="1"/>
       <c r="R26" s="13" t="s">
         <v>30</v>
@@ -5945,8 +6991,50 @@
       <c r="AM26" s="18">
         <v>0.30080558664445001</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO26" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="3">
+        <v>-19.625261826506801</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>3101.6402027765798</v>
+      </c>
+      <c r="AT26" s="3">
+        <v>2230.5957158342599</v>
+      </c>
+      <c r="AU26" s="18">
+        <v>0.30080558664445001</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>24</v>
+      </c>
+      <c r="AX26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="3">
+        <v>-6.0166766388757598</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>4246.5855435638896</v>
+      </c>
+      <c r="BB26" s="3">
+        <v>3226.5879994642401</v>
+      </c>
+      <c r="BC26" s="18">
+        <v>2.79666934996939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="2"/>
       <c r="R27" s="12" t="s">
         <v>21</v>
@@ -5987,8 +7075,50 @@
       <c r="AM27" s="17">
         <v>1.14265675664927</v>
       </c>
-    </row>
-    <row r="28" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO27" s="2">
+        <v>25</v>
+      </c>
+      <c r="AP27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ27" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>-85.3475973172051</v>
+      </c>
+      <c r="AS27" s="5">
+        <v>5742.5667230141098</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>4031.4953743907699</v>
+      </c>
+      <c r="AU27" s="17">
+        <v>1.14265675664927</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>25</v>
+      </c>
+      <c r="AX27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="5">
+        <v>-83.318624986309203</v>
+      </c>
+      <c r="BA27" s="5">
+        <v>3701.1239075681101</v>
+      </c>
+      <c r="BB27" s="5">
+        <v>2630.1399982200101</v>
+      </c>
+      <c r="BC27" s="17">
+        <v>1.1284485254204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="1"/>
       <c r="R28" s="13" t="s">
         <v>29</v>
@@ -6029,8 +7159,50 @@
       <c r="AM28" s="18">
         <v>0.94567596986267599</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO28" s="1">
+        <v>26</v>
+      </c>
+      <c r="AP28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>-615.18022028700602</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>19977.062342300102</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>10362.9754038388</v>
+      </c>
+      <c r="AU28" s="18">
+        <v>0.94567596986267599</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>26</v>
+      </c>
+      <c r="AX28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY28" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="3">
+        <v>0.40896482080456598</v>
+      </c>
+      <c r="BA28" s="3">
+        <v>1634.59626869422</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>1501.3047581113301</v>
+      </c>
+      <c r="BC28" s="18">
+        <v>0.37611262973772502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="2"/>
       <c r="R29" s="12" t="s">
         <v>24</v>
@@ -6071,8 +7243,50 @@
       <c r="AM29" s="17">
         <v>0.49686952456001898</v>
       </c>
-    </row>
-    <row r="30" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO29" s="2">
+        <v>27</v>
+      </c>
+      <c r="AP29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ29" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="5">
+        <v>-22.9641358505399</v>
+      </c>
+      <c r="AS29" s="5">
+        <v>2715.8173475635199</v>
+      </c>
+      <c r="AT29" s="5">
+        <v>2318.2704375530602</v>
+      </c>
+      <c r="AU29" s="17">
+        <v>0.49686952456001898</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>27</v>
+      </c>
+      <c r="AX29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="5">
+        <v>-5.2573405406521498</v>
+      </c>
+      <c r="BA29" s="5">
+        <v>5552.6747875947303</v>
+      </c>
+      <c r="BB29" s="5">
+        <v>4868.9381755800396</v>
+      </c>
+      <c r="BC29" s="17">
+        <v>0.80749699081667203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
       <c r="R30" s="13" t="s">
         <v>17</v>
@@ -6113,8 +7327,50 @@
       <c r="AM30" s="18">
         <v>26.097167350046799</v>
       </c>
-    </row>
-    <row r="31" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO30" s="1">
+        <v>28</v>
+      </c>
+      <c r="AP30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>0.53963106313426901</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>2281.3092295420001</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>1871.80727555513</v>
+      </c>
+      <c r="AU30" s="18">
+        <v>26.097167350046799</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>28</v>
+      </c>
+      <c r="AX30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY30" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="3">
+        <v>-82.045640435326902</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>3852.76035035634</v>
+      </c>
+      <c r="BB30" s="3">
+        <v>2840.5900135974598</v>
+      </c>
+      <c r="BC30" s="18">
+        <v>1.6572616804745599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q31" s="2"/>
       <c r="R31" s="12" t="s">
         <v>27</v>
@@ -6155,8 +7411,50 @@
       <c r="AM31" s="17">
         <v>0.42339458434677002</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO31" s="2">
+        <v>29</v>
+      </c>
+      <c r="AP31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ31" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="5">
+        <v>-5.2276541048830101</v>
+      </c>
+      <c r="AS31" s="5">
+        <v>2683.8992927022</v>
+      </c>
+      <c r="AT31" s="5">
+        <v>2235.0652038449498</v>
+      </c>
+      <c r="AU31" s="17">
+        <v>0.42339458434677002</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>29</v>
+      </c>
+      <c r="AX31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="5">
+        <v>-0.99421668938524099</v>
+      </c>
+      <c r="BA31" s="5">
+        <v>2261.4757418653198</v>
+      </c>
+      <c r="BB31" s="5">
+        <v>1547.0372218735799</v>
+      </c>
+      <c r="BC31" s="17">
+        <v>8.6748849329940203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q32" s="1"/>
       <c r="R32" s="13" t="s">
         <v>14</v>
@@ -6197,8 +7495,50 @@
       <c r="AM32" s="18">
         <v>21.923803180829001</v>
       </c>
-    </row>
-    <row r="33" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO32" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>-5.8962850415568404</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>3158.9860421144799</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>2512.4515273086699</v>
+      </c>
+      <c r="AU32" s="18">
+        <v>21.923803180829001</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>30</v>
+      </c>
+      <c r="AX32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY32" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="3">
+        <v>-1.11788645421448</v>
+      </c>
+      <c r="BA32" s="3">
+        <v>7453.5921304248504</v>
+      </c>
+      <c r="BB32" s="3">
+        <v>6485.0183950860001</v>
+      </c>
+      <c r="BC32" s="18">
+        <v>1.25183864517487</v>
+      </c>
+    </row>
+    <row r="33" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q33" s="2"/>
       <c r="R33" s="12" t="s">
         <v>19</v>
@@ -6239,8 +7579,50 @@
       <c r="AM33" s="17">
         <v>21.732150794650799</v>
       </c>
-    </row>
-    <row r="34" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO33" s="2">
+        <v>31</v>
+      </c>
+      <c r="AP33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ33" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="5">
+        <v>-17369.1515126048</v>
+      </c>
+      <c r="AS33" s="5">
+        <v>25207.707189709301</v>
+      </c>
+      <c r="AT33" s="5">
+        <v>11283.771707502399</v>
+      </c>
+      <c r="AU33" s="17">
+        <v>21.732150794650799</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>31</v>
+      </c>
+      <c r="AX33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="5">
+        <v>-2.41161077683463</v>
+      </c>
+      <c r="BA33" s="5">
+        <v>47473.733501349197</v>
+      </c>
+      <c r="BB33" s="5">
+        <v>41435.174459139402</v>
+      </c>
+      <c r="BC33" s="17">
+        <v>2.19830203660766</v>
+      </c>
+    </row>
+    <row r="34" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q34" s="1"/>
       <c r="R34" s="13" t="s">
         <v>16</v>
@@ -6281,8 +7663,50 @@
       <c r="AM34" s="18">
         <v>0.67809622643438405</v>
       </c>
-    </row>
-    <row r="35" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO34" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>-13.0700854048994</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>3780.02667291537</v>
+      </c>
+      <c r="AT34" s="3">
+        <v>3010.16672077976</v>
+      </c>
+      <c r="AU34" s="18">
+        <v>0.67809622643438405</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>32</v>
+      </c>
+      <c r="AX34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="3">
+        <v>-68.554138271099504</v>
+      </c>
+      <c r="BA34" s="3">
+        <v>3936.86095954757</v>
+      </c>
+      <c r="BB34" s="3">
+        <v>3533.7567271964699</v>
+      </c>
+      <c r="BC34" s="18">
+        <v>3.5457435878167201</v>
+      </c>
+    </row>
+    <row r="35" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q35" s="2"/>
       <c r="R35" s="12" t="s">
         <v>12</v>
@@ -6323,8 +7747,50 @@
       <c r="AM35" s="17">
         <v>2.04122831662955</v>
       </c>
-    </row>
-    <row r="36" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO35" s="2">
+        <v>33</v>
+      </c>
+      <c r="AP35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ35" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="5">
+        <v>-67.627616590178306</v>
+      </c>
+      <c r="AS35" s="5">
+        <v>4560.2386216718796</v>
+      </c>
+      <c r="AT35" s="5">
+        <v>4113.5283109456004</v>
+      </c>
+      <c r="AU35" s="17">
+        <v>2.04122831662955</v>
+      </c>
+      <c r="AW35" s="2">
+        <v>33</v>
+      </c>
+      <c r="AX35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY35" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="5">
+        <v>-0.92260026957012198</v>
+      </c>
+      <c r="BA35" s="5">
+        <v>4474.1341786658704</v>
+      </c>
+      <c r="BB35" s="5">
+        <v>3658.3442074681102</v>
+      </c>
+      <c r="BC35" s="17">
+        <v>1.28765475044163</v>
+      </c>
+    </row>
+    <row r="36" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q36" s="1"/>
       <c r="R36" s="13" t="s">
         <v>31</v>
@@ -6365,8 +7831,50 @@
       <c r="AM36" s="18">
         <v>0.43250143586180001</v>
       </c>
-    </row>
-    <row r="37" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO36" s="1">
+        <v>34</v>
+      </c>
+      <c r="AP36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>-66.135944508376696</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>4628.8810147752902</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>2791.5460796899201</v>
+      </c>
+      <c r="AU36" s="18">
+        <v>0.43250143586180001</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>34</v>
+      </c>
+      <c r="AX36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="3">
+        <v>-18.4051056279731</v>
+      </c>
+      <c r="BA36" s="3">
+        <v>5433.67292532388</v>
+      </c>
+      <c r="BB36" s="3">
+        <v>4528.4385224119897</v>
+      </c>
+      <c r="BC36" s="18">
+        <v>9.7328697347729403</v>
+      </c>
+    </row>
+    <row r="37" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q37" s="2"/>
       <c r="R37" s="12" t="s">
         <v>23</v>
@@ -6407,8 +7915,50 @@
       <c r="AM37" s="17">
         <v>0.88830674104977003</v>
       </c>
-    </row>
-    <row r="38" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO37" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ37" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="5">
+        <v>-371.394387479118</v>
+      </c>
+      <c r="AS37" s="5">
+        <v>19259.698074812299</v>
+      </c>
+      <c r="AT37" s="5">
+        <v>11935.122874495601</v>
+      </c>
+      <c r="AU37" s="17">
+        <v>0.88830674104977003</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>35</v>
+      </c>
+      <c r="AX37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="5">
+        <v>-25.130998307855801</v>
+      </c>
+      <c r="BA37" s="5">
+        <v>2885.5705571152298</v>
+      </c>
+      <c r="BB37" s="5">
+        <v>2018.1612584081499</v>
+      </c>
+      <c r="BC37" s="17">
+        <v>0.41300617434024001</v>
+      </c>
+    </row>
+    <row r="38" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="1"/>
       <c r="R38" s="13" t="s">
         <v>15</v>
@@ -6449,8 +7999,50 @@
       <c r="AM38" s="18">
         <v>0.23516923680854199</v>
       </c>
-    </row>
-    <row r="39" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO38" s="1">
+        <v>36</v>
+      </c>
+      <c r="AP38" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>-1.8600334521617801</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>1589.9225034086501</v>
+      </c>
+      <c r="AT38" s="3">
+        <v>1201.2884365555999</v>
+      </c>
+      <c r="AU38" s="18">
+        <v>0.23516923680854199</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>36</v>
+      </c>
+      <c r="AX38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA38" s="3">
+        <v>454.54121564370701</v>
+      </c>
+      <c r="BB38" s="3">
+        <v>454.54121564370701</v>
+      </c>
+      <c r="BC38" s="18">
+        <v>0.110863711132611</v>
+      </c>
+    </row>
+    <row r="39" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="2"/>
       <c r="R39" s="12" t="s">
         <v>20</v>
@@ -6491,8 +8083,50 @@
       <c r="AM39" s="17">
         <v>0.33806572332386198</v>
       </c>
-    </row>
-    <row r="40" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO39" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ39" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="5">
+        <v>0.197634878327129</v>
+      </c>
+      <c r="AS39" s="5">
+        <v>2292.4530308846001</v>
+      </c>
+      <c r="AT39" s="5">
+        <v>2130.16365306547</v>
+      </c>
+      <c r="AU39" s="17">
+        <v>0.33806572332386198</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>37</v>
+      </c>
+      <c r="AX39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="5">
+        <v>-4.9025410414976696</v>
+      </c>
+      <c r="BA39" s="5">
+        <v>3396.3949424642101</v>
+      </c>
+      <c r="BB39" s="5">
+        <v>2606.5667034888302</v>
+      </c>
+      <c r="BC39" s="17">
+        <v>7.5863750025567303</v>
+      </c>
+    </row>
+    <row r="40" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q40" s="1"/>
       <c r="R40" s="13" t="s">
         <v>26</v>
@@ -6533,8 +8167,50 @@
       <c r="AM40" s="18">
         <v>0.79383907863005398</v>
       </c>
-    </row>
-    <row r="41" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO40" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>-18.1398338188331</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>22756.545256233501</v>
+      </c>
+      <c r="AT40" s="3">
+        <v>22418.804480983901</v>
+      </c>
+      <c r="AU40" s="18">
+        <v>0.79383907863005398</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>38</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY40" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="3">
+        <v>-88.823433313304903</v>
+      </c>
+      <c r="BA40" s="3">
+        <v>3415.8752484156998</v>
+      </c>
+      <c r="BB40" s="3">
+        <v>2623.62426917311</v>
+      </c>
+      <c r="BC40" s="18">
+        <v>0.66475270716746004</v>
+      </c>
+    </row>
+    <row r="41" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q41" s="2"/>
       <c r="R41" s="12" t="s">
         <v>25</v>
@@ -6575,8 +8251,50 @@
       <c r="AM41" s="17">
         <v>0.93683015717999596</v>
       </c>
-    </row>
-    <row r="42" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO41" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ41" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="5">
+        <v>-193.10343159477401</v>
+      </c>
+      <c r="AS41" s="5">
+        <v>98387.351307705001</v>
+      </c>
+      <c r="AT41" s="5">
+        <v>98234.211714671794</v>
+      </c>
+      <c r="AU41" s="17">
+        <v>0.93683015717999596</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>39</v>
+      </c>
+      <c r="AX41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="5">
+        <v>-1.0754824175522</v>
+      </c>
+      <c r="BA41" s="5">
+        <v>2530.6701838060098</v>
+      </c>
+      <c r="BB41" s="5">
+        <v>1453.22154551632</v>
+      </c>
+      <c r="BC41" s="17">
+        <v>24.790811955265202</v>
+      </c>
+    </row>
+    <row r="42" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q42" s="1"/>
       <c r="R42" s="13" t="s">
         <v>13</v>
@@ -6617,8 +8335,50 @@
       <c r="AM42" s="18">
         <v>0.74751836409243</v>
       </c>
-    </row>
-    <row r="43" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ42" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="3">
+        <v>-270.07327655623402</v>
+      </c>
+      <c r="AS42" s="3">
+        <v>18569.976230964799</v>
+      </c>
+      <c r="AT42" s="3">
+        <v>6798.2875878035402</v>
+      </c>
+      <c r="AU42" s="18">
+        <v>0.74751836409243</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AX42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY42" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="3">
+        <v>-55.135251270864202</v>
+      </c>
+      <c r="BA42" s="3">
+        <v>2444.96850193616</v>
+      </c>
+      <c r="BB42" s="3">
+        <v>2034.7663484161801</v>
+      </c>
+      <c r="BC42" s="18">
+        <v>0.31880318331698798</v>
+      </c>
+    </row>
+    <row r="43" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q43" s="2"/>
       <c r="R43" s="12" t="s">
         <v>18</v>
@@ -6659,8 +8419,50 @@
       <c r="AM43" s="17">
         <v>0.27464143870389701</v>
       </c>
-    </row>
-    <row r="44" spans="17:39" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO43" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ43" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="5">
+        <v>7.1725862053498707E-2</v>
+      </c>
+      <c r="AS43" s="5">
+        <v>2295.7695514923098</v>
+      </c>
+      <c r="AT43" s="5">
+        <v>1670.3004174391999</v>
+      </c>
+      <c r="AU43" s="17">
+        <v>0.27464143870389701</v>
+      </c>
+      <c r="AW43" s="2">
+        <v>41</v>
+      </c>
+      <c r="AX43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="5">
+        <v>-1587.78307293286</v>
+      </c>
+      <c r="BA43" s="5">
+        <v>7413.87477579608</v>
+      </c>
+      <c r="BB43" s="5">
+        <v>7411.5412156436996</v>
+      </c>
+      <c r="BC43" s="17">
+        <v>0.67020976235372998</v>
+      </c>
+    </row>
+    <row r="44" spans="17:55" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q44" s="26"/>
       <c r="R44" s="27" t="s">
         <v>22</v>
@@ -6701,8 +8503,50 @@
       <c r="AM44" s="18">
         <v>0.75609282453833804</v>
       </c>
-    </row>
-    <row r="45" spans="17:39" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AO44" s="1">
+        <v>42</v>
+      </c>
+      <c r="AP44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ44" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="3">
+        <v>-133.11275141911</v>
+      </c>
+      <c r="AS44" s="3">
+        <v>20723.115640896402</v>
+      </c>
+      <c r="AT44" s="3">
+        <v>20372.669121559</v>
+      </c>
+      <c r="AU44" s="18">
+        <v>0.75609282453833804</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>42</v>
+      </c>
+      <c r="AX44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY44" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="3">
+        <v>-63.909512088650402</v>
+      </c>
+      <c r="BA44" s="3">
+        <v>5224.5470872487504</v>
+      </c>
+      <c r="BB44" s="3">
+        <v>4369.9316769526104</v>
+      </c>
+      <c r="BC44" s="18">
+        <v>2.0229079751872199</v>
+      </c>
+    </row>
+    <row r="45" spans="17:55" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="AG45" s="2">
         <v>43</v>
       </c>
@@ -6724,8 +8568,50 @@
       <c r="AM45" s="17">
         <v>1.98009117863321</v>
       </c>
-    </row>
-    <row r="46" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO45" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ45" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR45" s="5">
+        <v>-17.507018041664399</v>
+      </c>
+      <c r="AS45" s="5">
+        <v>4638.6110430099598</v>
+      </c>
+      <c r="AT45" s="5">
+        <v>4367.5546615826097</v>
+      </c>
+      <c r="AU45" s="17">
+        <v>1.98009117863321</v>
+      </c>
+      <c r="AW45" s="2">
+        <v>43</v>
+      </c>
+      <c r="AX45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY45" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="5">
+        <v>-2550.48336995106</v>
+      </c>
+      <c r="BA45" s="5">
+        <v>25125.064761469101</v>
+      </c>
+      <c r="BB45" s="5">
+        <v>7872.6070615705203</v>
+      </c>
+      <c r="BC45" s="17">
+        <v>1.6171407632247501</v>
+      </c>
+    </row>
+    <row r="46" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG46" s="1">
         <v>44</v>
       </c>
@@ -6747,8 +8633,50 @@
       <c r="AM46" s="18">
         <v>7.5856839396158296E-2</v>
       </c>
-    </row>
-    <row r="47" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO46" s="1">
+        <v>44</v>
+      </c>
+      <c r="AP46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ46" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR46" s="3">
+        <v>0.181894482016595</v>
+      </c>
+      <c r="AS46" s="3">
+        <v>655.56230723831095</v>
+      </c>
+      <c r="AT46" s="3">
+        <v>582.18689901081098</v>
+      </c>
+      <c r="AU46" s="18">
+        <v>7.5856839396158296E-2</v>
+      </c>
+      <c r="AW46" s="1">
+        <v>44</v>
+      </c>
+      <c r="AX46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY46" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ46" s="3">
+        <v>-19.625261826506801</v>
+      </c>
+      <c r="BA46" s="3">
+        <v>3101.6402027765798</v>
+      </c>
+      <c r="BB46" s="3">
+        <v>2230.5957158342599</v>
+      </c>
+      <c r="BC46" s="18">
+        <v>0.30080558664445001</v>
+      </c>
+    </row>
+    <row r="47" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG47" s="2">
         <v>45</v>
       </c>
@@ -6770,8 +8698,50 @@
       <c r="AM47" s="17">
         <v>0.22344547375122401</v>
       </c>
-    </row>
-    <row r="48" spans="17:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO47" s="2">
+        <v>45</v>
+      </c>
+      <c r="AP47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ47" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR47" s="5">
+        <v>-1.06463527084608</v>
+      </c>
+      <c r="AS47" s="5">
+        <v>3034.1683709335598</v>
+      </c>
+      <c r="AT47" s="5">
+        <v>2428.3914395451302</v>
+      </c>
+      <c r="AU47" s="17">
+        <v>0.22344547375122401</v>
+      </c>
+      <c r="AW47" s="2">
+        <v>45</v>
+      </c>
+      <c r="AX47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY47" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ47" s="5">
+        <v>-85.3475973172051</v>
+      </c>
+      <c r="BA47" s="5">
+        <v>5742.5667230141098</v>
+      </c>
+      <c r="BB47" s="5">
+        <v>4031.4953743907699</v>
+      </c>
+      <c r="BC47" s="17">
+        <v>1.14265675664927</v>
+      </c>
+    </row>
+    <row r="48" spans="17:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG48" s="1">
         <v>46</v>
       </c>
@@ -6793,8 +8763,50 @@
       <c r="AM48" s="18">
         <v>1.6107777637273899</v>
       </c>
-    </row>
-    <row r="49" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO48" s="1">
+        <v>46</v>
+      </c>
+      <c r="AP48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ48" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="3">
+        <v>4780.1270478611004</v>
+      </c>
+      <c r="AT48" s="3">
+        <v>4759.84829181444</v>
+      </c>
+      <c r="AU48" s="18">
+        <v>1.6107777637273899</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY48" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="3">
+        <v>-615.18022028700602</v>
+      </c>
+      <c r="BA48" s="3">
+        <v>19977.062342300102</v>
+      </c>
+      <c r="BB48" s="3">
+        <v>10362.9754038388</v>
+      </c>
+      <c r="BC48" s="18">
+        <v>0.94567596986267599</v>
+      </c>
+    </row>
+    <row r="49" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG49" s="2">
         <v>47</v>
       </c>
@@ -6816,8 +8828,50 @@
       <c r="AM49" s="17">
         <v>0.27194003176415898</v>
       </c>
-    </row>
-    <row r="50" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO49" s="2">
+        <v>47</v>
+      </c>
+      <c r="AP49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ49" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="5">
+        <v>2877.0588823053599</v>
+      </c>
+      <c r="AT49" s="5">
+        <v>2846.9401925389802</v>
+      </c>
+      <c r="AU49" s="17">
+        <v>0.27194003176415898</v>
+      </c>
+      <c r="AW49" s="2">
+        <v>47</v>
+      </c>
+      <c r="AX49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY49" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ49" s="5">
+        <v>-22.9641358505399</v>
+      </c>
+      <c r="BA49" s="5">
+        <v>2715.8173475635199</v>
+      </c>
+      <c r="BB49" s="5">
+        <v>2318.2704375530602</v>
+      </c>
+      <c r="BC49" s="17">
+        <v>0.49686952456001898</v>
+      </c>
+    </row>
+    <row r="50" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG50" s="1">
         <v>48</v>
       </c>
@@ -6839,8 +8893,50 @@
       <c r="AM50" s="18">
         <v>0.26003245509665901</v>
       </c>
-    </row>
-    <row r="51" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO50" s="1">
+        <v>48</v>
+      </c>
+      <c r="AP50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ50" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR50" s="3">
+        <v>-0.45463248273249102</v>
+      </c>
+      <c r="AS50" s="3">
+        <v>2811.4247727882798</v>
+      </c>
+      <c r="AT50" s="3">
+        <v>2300.6566252588</v>
+      </c>
+      <c r="AU50" s="18">
+        <v>0.26003245509665901</v>
+      </c>
+      <c r="AW50" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY50" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ50" s="3">
+        <v>0.53963106313426901</v>
+      </c>
+      <c r="BA50" s="3">
+        <v>2281.3092295420001</v>
+      </c>
+      <c r="BB50" s="3">
+        <v>1871.80727555513</v>
+      </c>
+      <c r="BC50" s="18">
+        <v>26.097167350046799</v>
+      </c>
+    </row>
+    <row r="51" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG51" s="2">
         <v>49</v>
       </c>
@@ -6862,8 +8958,50 @@
       <c r="AM51" s="17">
         <v>0.70185807048635596</v>
       </c>
-    </row>
-    <row r="52" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO51" s="2">
+        <v>49</v>
+      </c>
+      <c r="AP51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ51" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR51" s="5">
+        <v>-3.0047606592947602</v>
+      </c>
+      <c r="AS51" s="5">
+        <v>3085.82891458526</v>
+      </c>
+      <c r="AT51" s="5">
+        <v>2618.4512692817002</v>
+      </c>
+      <c r="AU51" s="17">
+        <v>0.70185807048635596</v>
+      </c>
+      <c r="AW51" s="2">
+        <v>49</v>
+      </c>
+      <c r="AX51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY51" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ51" s="5">
+        <v>-5.2276541048830101</v>
+      </c>
+      <c r="BA51" s="5">
+        <v>2683.8992927022</v>
+      </c>
+      <c r="BB51" s="5">
+        <v>2235.0652038449498</v>
+      </c>
+      <c r="BC51" s="17">
+        <v>0.42339458434677002</v>
+      </c>
+    </row>
+    <row r="52" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG52" s="1">
         <v>50</v>
       </c>
@@ -6885,8 +9023,50 @@
       <c r="AM52" s="18">
         <v>0.52289301078624295</v>
       </c>
-    </row>
-    <row r="53" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO52" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ52" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR52" s="3">
+        <v>-4.70107845504414</v>
+      </c>
+      <c r="AS52" s="3">
+        <v>10223.406863242401</v>
+      </c>
+      <c r="AT52" s="3">
+        <v>9312.7040891046308</v>
+      </c>
+      <c r="AU52" s="18">
+        <v>0.52289301078624295</v>
+      </c>
+      <c r="AW52" s="1">
+        <v>50</v>
+      </c>
+      <c r="AX52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY52" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ52" s="3">
+        <v>-5.8962850415568404</v>
+      </c>
+      <c r="BA52" s="3">
+        <v>3158.9860421144799</v>
+      </c>
+      <c r="BB52" s="3">
+        <v>2512.4515273086699</v>
+      </c>
+      <c r="BC52" s="18">
+        <v>21.923803180829001</v>
+      </c>
+    </row>
+    <row r="53" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG53" s="2">
         <v>51</v>
       </c>
@@ -6908,8 +9088,50 @@
       <c r="AM53" s="17">
         <v>2.8014281027548198</v>
       </c>
-    </row>
-    <row r="54" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO53" s="2">
+        <v>51</v>
+      </c>
+      <c r="AP53" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ53" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="5">
+        <v>5523.9505518223696</v>
+      </c>
+      <c r="AT53" s="5">
+        <v>5238.6705521515296</v>
+      </c>
+      <c r="AU53" s="17">
+        <v>2.8014281027548198</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>51</v>
+      </c>
+      <c r="AX53" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY53" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ53" s="5">
+        <v>-17369.1515126048</v>
+      </c>
+      <c r="BA53" s="5">
+        <v>25207.707189709301</v>
+      </c>
+      <c r="BB53" s="5">
+        <v>11283.771707502399</v>
+      </c>
+      <c r="BC53" s="17">
+        <v>21.732150794650799</v>
+      </c>
+    </row>
+    <row r="54" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG54" s="1">
         <v>52</v>
       </c>
@@ -6931,8 +9153,50 @@
       <c r="AM54" s="18">
         <v>0.31392590810373699</v>
       </c>
-    </row>
-    <row r="55" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO54" s="1">
+        <v>52</v>
+      </c>
+      <c r="AP54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ54" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR54" s="3">
+        <v>-0.430716260142814</v>
+      </c>
+      <c r="AS54" s="3">
+        <v>2045.4039037013599</v>
+      </c>
+      <c r="AT54" s="3">
+        <v>1616.94531368102</v>
+      </c>
+      <c r="AU54" s="18">
+        <v>0.31392590810373699</v>
+      </c>
+      <c r="AW54" s="1">
+        <v>52</v>
+      </c>
+      <c r="AX54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY54" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ54" s="3">
+        <v>-13.0700854048994</v>
+      </c>
+      <c r="BA54" s="3">
+        <v>3780.02667291537</v>
+      </c>
+      <c r="BB54" s="3">
+        <v>3010.16672077976</v>
+      </c>
+      <c r="BC54" s="18">
+        <v>0.67809622643438405</v>
+      </c>
+    </row>
+    <row r="55" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG55" s="2">
         <v>53</v>
       </c>
@@ -6954,8 +9218,50 @@
       <c r="AM55" s="17">
         <v>0.270938455993741</v>
       </c>
-    </row>
-    <row r="56" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO55" s="2">
+        <v>53</v>
+      </c>
+      <c r="AP55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ55" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR55" s="5">
+        <v>-2.7522519677517701</v>
+      </c>
+      <c r="AS55" s="5">
+        <v>2099.4889306436098</v>
+      </c>
+      <c r="AT55" s="5">
+        <v>1605.64440216614</v>
+      </c>
+      <c r="AU55" s="17">
+        <v>0.270938455993741</v>
+      </c>
+      <c r="AW55" s="2">
+        <v>53</v>
+      </c>
+      <c r="AX55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY55" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ55" s="5">
+        <v>-67.627616590178306</v>
+      </c>
+      <c r="BA55" s="5">
+        <v>4560.2386216718796</v>
+      </c>
+      <c r="BB55" s="5">
+        <v>4113.5283109456004</v>
+      </c>
+      <c r="BC55" s="17">
+        <v>2.04122831662955</v>
+      </c>
+    </row>
+    <row r="56" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG56" s="1">
         <v>54</v>
       </c>
@@ -6977,8 +9283,50 @@
       <c r="AM56" s="18">
         <v>0.67235534089330495</v>
       </c>
-    </row>
-    <row r="57" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO56" s="1">
+        <v>54</v>
+      </c>
+      <c r="AP56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ56" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR56" s="3">
+        <v>-2.2628273230598599</v>
+      </c>
+      <c r="AS56" s="3">
+        <v>10520.9019417409</v>
+      </c>
+      <c r="AT56" s="3">
+        <v>9900.8865065764494</v>
+      </c>
+      <c r="AU56" s="18">
+        <v>0.67235534089330495</v>
+      </c>
+      <c r="AW56" s="1">
+        <v>54</v>
+      </c>
+      <c r="AX56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY56" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="3">
+        <v>-66.135944508376696</v>
+      </c>
+      <c r="BA56" s="3">
+        <v>4628.8810147752902</v>
+      </c>
+      <c r="BB56" s="3">
+        <v>2791.5460796899201</v>
+      </c>
+      <c r="BC56" s="18">
+        <v>0.43250143586180001</v>
+      </c>
+    </row>
+    <row r="57" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG57" s="2">
         <v>55</v>
       </c>
@@ -7000,8 +9348,50 @@
       <c r="AM57" s="17">
         <v>0.35310375384998199</v>
       </c>
-    </row>
-    <row r="58" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO57" s="2">
+        <v>55</v>
+      </c>
+      <c r="AP57" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ57" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="5">
+        <v>1992.49256316063</v>
+      </c>
+      <c r="AT57" s="5">
+        <v>1979.14654032914</v>
+      </c>
+      <c r="AU57" s="17">
+        <v>0.35310375384998199</v>
+      </c>
+      <c r="AW57" s="2">
+        <v>55</v>
+      </c>
+      <c r="AX57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY57" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ57" s="5">
+        <v>-371.394387479118</v>
+      </c>
+      <c r="BA57" s="5">
+        <v>19259.698074812299</v>
+      </c>
+      <c r="BB57" s="5">
+        <v>11935.122874495601</v>
+      </c>
+      <c r="BC57" s="17">
+        <v>0.88830674104977003</v>
+      </c>
+    </row>
+    <row r="58" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG58" s="1">
         <v>56</v>
       </c>
@@ -7023,8 +9413,50 @@
       <c r="AM58" s="18">
         <v>0.35263777421767201</v>
       </c>
-    </row>
-    <row r="59" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO58" s="1">
+        <v>56</v>
+      </c>
+      <c r="AP58" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ58" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR58" s="3">
+        <v>-0.18872898178842601</v>
+      </c>
+      <c r="AS58" s="3">
+        <v>5381.2223930336404</v>
+      </c>
+      <c r="AT58" s="3">
+        <v>4308.2394788755</v>
+      </c>
+      <c r="AU58" s="18">
+        <v>0.35263777421767201</v>
+      </c>
+      <c r="AW58" s="1">
+        <v>56</v>
+      </c>
+      <c r="AX58" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY58" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ58" s="3">
+        <v>-1.8600334521617801</v>
+      </c>
+      <c r="BA58" s="3">
+        <v>1589.9225034086501</v>
+      </c>
+      <c r="BB58" s="3">
+        <v>1201.2884365555999</v>
+      </c>
+      <c r="BC58" s="18">
+        <v>0.23516923680854199</v>
+      </c>
+    </row>
+    <row r="59" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG59" s="2">
         <v>57</v>
       </c>
@@ -7046,8 +9478,50 @@
       <c r="AM59" s="17">
         <v>0.22378769315830799</v>
       </c>
-    </row>
-    <row r="60" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO59" s="2">
+        <v>57</v>
+      </c>
+      <c r="AP59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ59" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR59" s="5">
+        <v>-6.4412913383889201</v>
+      </c>
+      <c r="AS59" s="5">
+        <v>2441.16367348107</v>
+      </c>
+      <c r="AT59" s="5">
+        <v>2211.8209084861201</v>
+      </c>
+      <c r="AU59" s="17">
+        <v>0.22378769315830799</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>57</v>
+      </c>
+      <c r="AX59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY59" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ59" s="5">
+        <v>0.197634878327129</v>
+      </c>
+      <c r="BA59" s="5">
+        <v>2292.4530308846001</v>
+      </c>
+      <c r="BB59" s="5">
+        <v>2130.16365306547</v>
+      </c>
+      <c r="BC59" s="17">
+        <v>0.33806572332386198</v>
+      </c>
+    </row>
+    <row r="60" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG60" s="1">
         <v>58</v>
       </c>
@@ -7069,8 +9543,50 @@
       <c r="AM60" s="18">
         <v>5.1977190674110899E-2</v>
       </c>
-    </row>
-    <row r="61" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO60" s="1">
+        <v>58</v>
+      </c>
+      <c r="AP60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ60" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="3">
+        <v>483.78635776670802</v>
+      </c>
+      <c r="AT60" s="3">
+        <v>374.23577285359897</v>
+      </c>
+      <c r="AU60" s="18">
+        <v>5.1977190674110899E-2</v>
+      </c>
+      <c r="AW60" s="1">
+        <v>58</v>
+      </c>
+      <c r="AX60" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY60" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ60" s="3">
+        <v>-18.1398338188331</v>
+      </c>
+      <c r="BA60" s="3">
+        <v>22756.545256233501</v>
+      </c>
+      <c r="BB60" s="3">
+        <v>22418.804480983901</v>
+      </c>
+      <c r="BC60" s="18">
+        <v>0.79383907863005398</v>
+      </c>
+    </row>
+    <row r="61" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG61" s="2">
         <v>59</v>
       </c>
@@ -7092,8 +9608,50 @@
       <c r="AM61" s="17">
         <v>0.29473689266654801</v>
       </c>
-    </row>
-    <row r="62" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO61" s="2">
+        <v>59</v>
+      </c>
+      <c r="AP61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ61" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR61" s="5">
+        <v>-5.5599590338739597</v>
+      </c>
+      <c r="AS61" s="5">
+        <v>3639.08193087666</v>
+      </c>
+      <c r="AT61" s="5">
+        <v>3368.38430682235</v>
+      </c>
+      <c r="AU61" s="17">
+        <v>0.29473689266654801</v>
+      </c>
+      <c r="AW61" s="2">
+        <v>59</v>
+      </c>
+      <c r="AX61" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY61" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ61" s="5">
+        <v>-193.10343159477401</v>
+      </c>
+      <c r="BA61" s="5">
+        <v>98387.351307705001</v>
+      </c>
+      <c r="BB61" s="5">
+        <v>98234.211714671794</v>
+      </c>
+      <c r="BC61" s="17">
+        <v>0.93683015717999596</v>
+      </c>
+    </row>
+    <row r="62" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG62" s="1">
         <v>60</v>
       </c>
@@ -7115,8 +9673,50 @@
       <c r="AM62" s="18">
         <v>0.93347767726157804</v>
       </c>
-    </row>
-    <row r="63" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO62" s="1">
+        <v>60</v>
+      </c>
+      <c r="AP62" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ62" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR62" s="3">
+        <v>-9.9162080610955901</v>
+      </c>
+      <c r="AS62" s="3">
+        <v>116585.842242402</v>
+      </c>
+      <c r="AT62" s="3">
+        <v>111147.20277428</v>
+      </c>
+      <c r="AU62" s="18">
+        <v>0.93347767726157804</v>
+      </c>
+      <c r="AW62" s="1">
+        <v>60</v>
+      </c>
+      <c r="AX62" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY62" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ62" s="3">
+        <v>-270.07327655623402</v>
+      </c>
+      <c r="BA62" s="3">
+        <v>18569.976230964799</v>
+      </c>
+      <c r="BB62" s="3">
+        <v>6798.2875878035402</v>
+      </c>
+      <c r="BC62" s="18">
+        <v>0.74751836409243</v>
+      </c>
+    </row>
+    <row r="63" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG63" s="2">
         <v>61</v>
       </c>
@@ -7138,8 +9738,50 @@
       <c r="AM63" s="17">
         <v>0.67400608050091504</v>
       </c>
-    </row>
-    <row r="64" spans="33:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO63" s="2">
+        <v>61</v>
+      </c>
+      <c r="AP63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ63" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR63" s="5">
+        <v>-80.907670917225701</v>
+      </c>
+      <c r="AS63" s="5">
+        <v>16451.6171782253</v>
+      </c>
+      <c r="AT63" s="5">
+        <v>16324.159158692801</v>
+      </c>
+      <c r="AU63" s="17">
+        <v>0.67400608050091504</v>
+      </c>
+      <c r="AW63" s="2">
+        <v>61</v>
+      </c>
+      <c r="AX63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY63" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ63" s="5">
+        <v>7.1725862053498707E-2</v>
+      </c>
+      <c r="BA63" s="5">
+        <v>2295.7695514923098</v>
+      </c>
+      <c r="BB63" s="5">
+        <v>1670.3004174391999</v>
+      </c>
+      <c r="BC63" s="17">
+        <v>0.27464143870389701</v>
+      </c>
+    </row>
+    <row r="64" spans="33:55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG64" s="1">
         <v>62</v>
       </c>
@@ -7161,8 +9803,50 @@
       <c r="AM64" s="18">
         <v>1.32964488113594</v>
       </c>
-    </row>
-    <row r="65" spans="33:39" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO64" s="1">
+        <v>62</v>
+      </c>
+      <c r="AP64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ64" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR64" s="3">
+        <v>-3.15077518583437</v>
+      </c>
+      <c r="AS64" s="3">
+        <v>4027.2495528746699</v>
+      </c>
+      <c r="AT64" s="3">
+        <v>3398.8317132867801</v>
+      </c>
+      <c r="AU64" s="18">
+        <v>1.32964488113594</v>
+      </c>
+      <c r="AW64" s="1">
+        <v>62</v>
+      </c>
+      <c r="AX64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY64" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ64" s="3">
+        <v>-133.11275141911</v>
+      </c>
+      <c r="BA64" s="3">
+        <v>20723.115640896402</v>
+      </c>
+      <c r="BB64" s="3">
+        <v>20372.669121559</v>
+      </c>
+      <c r="BC64" s="18">
+        <v>0.75609282453833804</v>
+      </c>
+    </row>
+    <row r="65" spans="33:55" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG65" s="10">
         <v>63</v>
       </c>
@@ -7184,14 +9868,1437 @@
       <c r="AM65" s="19">
         <v>0.56267118807628203</v>
       </c>
-    </row>
-    <row r="66" spans="33:39" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="33:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO65" s="2">
+        <v>63</v>
+      </c>
+      <c r="AP65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ65" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR65" s="5">
+        <v>-0.46560640289066302</v>
+      </c>
+      <c r="AS65" s="5">
+        <v>2720.8736653217602</v>
+      </c>
+      <c r="AT65" s="5">
+        <v>2200.17405977405</v>
+      </c>
+      <c r="AU65" s="17">
+        <v>0.56267118807628203</v>
+      </c>
+      <c r="AW65" s="2">
+        <v>63</v>
+      </c>
+      <c r="AX65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY65" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ65" s="5">
+        <v>0.173766050075043</v>
+      </c>
+      <c r="BA65" s="5">
+        <v>2879.9690933831898</v>
+      </c>
+      <c r="BB65" s="5">
+        <v>2221.33566481137</v>
+      </c>
+      <c r="BC65" s="17">
+        <v>0.40626412516307597</v>
+      </c>
+    </row>
+    <row r="66" spans="33:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AO66" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ66" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR66" s="3">
+        <v>-3.1680408572565701</v>
+      </c>
+      <c r="AS66" s="3">
+        <v>6285.4409476431501</v>
+      </c>
+      <c r="AT66" s="3">
+        <v>5414.4366238218499</v>
+      </c>
+      <c r="AU66" s="18">
+        <v>0.62681959365615103</v>
+      </c>
+      <c r="AW66" s="1">
+        <v>64</v>
+      </c>
+      <c r="AX66" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY66" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ66" s="3">
+        <v>-25.3581733385486</v>
+      </c>
+      <c r="BA66" s="3">
+        <v>3575.1910019232701</v>
+      </c>
+      <c r="BB66" s="3">
+        <v>3431.0667275933902</v>
+      </c>
+      <c r="BC66" s="18">
+        <v>0.74094247478668895</v>
+      </c>
+    </row>
+    <row r="67" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO67" s="2">
+        <v>65</v>
+      </c>
+      <c r="AP67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ67" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR67" s="5">
+        <v>-40.408021505140603</v>
+      </c>
+      <c r="AS67" s="5">
+        <v>4418.6177682196003</v>
+      </c>
+      <c r="AT67" s="5">
+        <v>3671.39543273652</v>
+      </c>
+      <c r="AU67" s="17">
+        <v>0.45991310517206502</v>
+      </c>
+      <c r="AW67" s="2">
+        <v>65</v>
+      </c>
+      <c r="AX67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY67" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ67" s="5">
+        <v>-14.0581143318717</v>
+      </c>
+      <c r="BA67" s="5">
+        <v>3792.1006948303002</v>
+      </c>
+      <c r="BB67" s="5">
+        <v>2958.0456980519398</v>
+      </c>
+      <c r="BC67" s="17">
+        <v>1.5175344128986701</v>
+      </c>
+    </row>
+    <row r="68" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO68" s="1">
+        <v>66</v>
+      </c>
+      <c r="AP68" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ68" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR68" s="3">
+        <v>-185.98588842632299</v>
+      </c>
+      <c r="AS68" s="3">
+        <v>4612.5156427379397</v>
+      </c>
+      <c r="AT68" s="3">
+        <v>4362.6003160852197</v>
+      </c>
+      <c r="AU68" s="18">
+        <v>4.7724670449336104</v>
+      </c>
+      <c r="AW68" s="1">
+        <v>66</v>
+      </c>
+      <c r="AX68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY68" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ68" s="3">
+        <v>-15.0472687605037</v>
+      </c>
+      <c r="BA68" s="3">
+        <v>3648.7544306439499</v>
+      </c>
+      <c r="BB68" s="3">
+        <v>2894.4541929499001</v>
+      </c>
+      <c r="BC68" s="18">
+        <v>1.10963061931651</v>
+      </c>
+    </row>
+    <row r="69" spans="33:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH69" s="10"/>
-    </row>
-    <row r="70" spans="33:39" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="AO69" s="2">
+        <v>67</v>
+      </c>
+      <c r="AP69" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ69" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR69" s="5">
+        <v>-13.909194463854099</v>
+      </c>
+      <c r="AS69" s="5">
+        <v>3335.2084208282399</v>
+      </c>
+      <c r="AT69" s="5">
+        <v>3138.06995265557</v>
+      </c>
+      <c r="AU69" s="17">
+        <v>0.58797324682640695</v>
+      </c>
+      <c r="AW69" s="2">
+        <v>67</v>
+      </c>
+      <c r="AX69" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY69" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ69" s="5">
+        <v>0.14283761876791001</v>
+      </c>
+      <c r="BA69" s="5">
+        <v>5453.8109867388903</v>
+      </c>
+      <c r="BB69" s="5">
+        <v>4619.88912646876</v>
+      </c>
+      <c r="BC69" s="17">
+        <v>0.93099666923193203</v>
+      </c>
+    </row>
+    <row r="70" spans="33:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AO70" s="1">
+        <v>68</v>
+      </c>
+      <c r="AP70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ70" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR70" s="3">
+        <v>-189.60674172213001</v>
+      </c>
+      <c r="AS70" s="3">
+        <v>4573.5976714940498</v>
+      </c>
+      <c r="AT70" s="3">
+        <v>3776.2375524526901</v>
+      </c>
+      <c r="AU70" s="18">
+        <v>1.92796782810712</v>
+      </c>
+      <c r="AW70" s="1">
+        <v>68</v>
+      </c>
+      <c r="AX70" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY70" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ70" s="3">
+        <v>-1.4181247788572899</v>
+      </c>
+      <c r="BA70" s="3">
+        <v>2348.4427668602798</v>
+      </c>
+      <c r="BB70" s="3">
+        <v>1643.62141369047</v>
+      </c>
+      <c r="BC70" s="18">
+        <v>1.2285075246906301</v>
+      </c>
+    </row>
+    <row r="71" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO71" s="2">
+        <v>69</v>
+      </c>
+      <c r="AP71" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ71" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR71" s="5">
+        <v>-272.71287693508998</v>
+      </c>
+      <c r="AS71" s="5">
+        <v>12191.019648056899</v>
+      </c>
+      <c r="AT71" s="5">
+        <v>11822.909932591199</v>
+      </c>
+      <c r="AU71" s="17">
+        <v>0.75076119196847402</v>
+      </c>
+      <c r="AW71" s="2">
+        <v>69</v>
+      </c>
+      <c r="AX71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY71" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ71" s="5">
+        <v>-7409.9938663180201</v>
+      </c>
+      <c r="BA71" s="5">
+        <v>4609.2134994427097</v>
+      </c>
+      <c r="BB71" s="5">
+        <v>3372.0519869341601</v>
+      </c>
+      <c r="BC71" s="17">
+        <v>3.2063755771539499</v>
+      </c>
+    </row>
+    <row r="72" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO72" s="1">
+        <v>70</v>
+      </c>
+      <c r="AP72" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ72" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR72" s="3">
+        <v>-0.274673352778323</v>
+      </c>
+      <c r="AS72" s="3">
+        <v>8232.9277244113</v>
+      </c>
+      <c r="AT72" s="3">
+        <v>6666.0915523330495</v>
+      </c>
+      <c r="AU72" s="18">
+        <v>0.69145798121606195</v>
+      </c>
+      <c r="AW72" s="1">
+        <v>70</v>
+      </c>
+      <c r="AX72" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY72" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ72" s="3">
+        <v>-4.1320923862266401</v>
+      </c>
+      <c r="BA72" s="3">
+        <v>6109.09956620705</v>
+      </c>
+      <c r="BB72" s="3">
+        <v>5348.2540912698396</v>
+      </c>
+      <c r="BC72" s="18">
+        <v>0.58050417999779402</v>
+      </c>
+    </row>
+    <row r="73" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO73" s="2">
+        <v>71</v>
+      </c>
+      <c r="AP73" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ73" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR73" s="5">
+        <v>-1.1060843598318899</v>
+      </c>
+      <c r="AS73" s="5">
+        <v>6002.8653981363796</v>
+      </c>
+      <c r="AT73" s="5">
+        <v>5388.43664010663</v>
+      </c>
+      <c r="AU73" s="17">
+        <v>0.47705097877948399</v>
+      </c>
+      <c r="AW73" s="2">
+        <v>71</v>
+      </c>
+      <c r="AX73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY73" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ73" s="5">
+        <v>-24.565657814733701</v>
+      </c>
+      <c r="BA73" s="5">
+        <v>3580.12605910412</v>
+      </c>
+      <c r="BB73" s="5">
+        <v>2917.6902281746002</v>
+      </c>
+      <c r="BC73" s="17">
+        <v>1.1246985062831301</v>
+      </c>
+    </row>
+    <row r="74" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO74" s="1">
+        <v>72</v>
+      </c>
+      <c r="AP74" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ74" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR74" s="3">
+        <v>-42.176392813225299</v>
+      </c>
+      <c r="AS74" s="3">
+        <v>3505.8864248724499</v>
+      </c>
+      <c r="AT74" s="3">
+        <v>2624.13398689419</v>
+      </c>
+      <c r="AU74" s="18">
+        <v>0.67966719038253498</v>
+      </c>
+      <c r="AW74" s="1">
+        <v>72</v>
+      </c>
+      <c r="AX74" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY74" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ74" s="3">
+        <v>-31.908890625878598</v>
+      </c>
+      <c r="BA74" s="3">
+        <v>3301.95522227128</v>
+      </c>
+      <c r="BB74" s="3">
+        <v>2737.2381385281301</v>
+      </c>
+      <c r="BC74" s="18">
+        <v>0.83630998183290595</v>
+      </c>
+    </row>
+    <row r="75" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO75" s="2">
+        <v>73</v>
+      </c>
+      <c r="AP75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ75" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR75" s="5">
+        <v>-14.958989197003101</v>
+      </c>
+      <c r="AS75" s="5">
+        <v>77015.049989973893</v>
+      </c>
+      <c r="AT75" s="5">
+        <v>74459.800909326295</v>
+      </c>
+      <c r="AU75" s="17">
+        <v>0.931000318785843</v>
+      </c>
+      <c r="AW75" s="2">
+        <v>73</v>
+      </c>
+      <c r="AX75" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY75" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ75" s="5">
+        <v>-443.79843495193199</v>
+      </c>
+      <c r="BA75" s="5">
+        <v>4374.6374322687398</v>
+      </c>
+      <c r="BB75" s="5">
+        <v>3170.9041830065298</v>
+      </c>
+      <c r="BC75" s="17">
+        <v>1.8554857809440499</v>
+      </c>
+    </row>
+    <row r="76" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO76" s="1">
+        <v>74</v>
+      </c>
+      <c r="AP76" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ76" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR76" s="3">
+        <v>-12.8086315076691</v>
+      </c>
+      <c r="AS76" s="3">
+        <v>3406.1276156752601</v>
+      </c>
+      <c r="AT76" s="3">
+        <v>2717.6941461359902</v>
+      </c>
+      <c r="AU76" s="18">
+        <v>0.87252964028355995</v>
+      </c>
+      <c r="AW76" s="1">
+        <v>74</v>
+      </c>
+      <c r="AX76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY76" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ76" s="3">
+        <v>-36.3928076157597</v>
+      </c>
+      <c r="BA76" s="3">
+        <v>4497.3102807509604</v>
+      </c>
+      <c r="BB76" s="3">
+        <v>3794.3369227994199</v>
+      </c>
+      <c r="BC76" s="18">
+        <v>2.3965526816073299</v>
+      </c>
+    </row>
+    <row r="77" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO77" s="2">
+        <v>75</v>
+      </c>
+      <c r="AP77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ77" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR77" s="5">
+        <v>-5.0974624499289396</v>
+      </c>
+      <c r="AS77" s="5">
+        <v>3720.7747362421201</v>
+      </c>
+      <c r="AT77" s="5">
+        <v>3411.9462449463399</v>
+      </c>
+      <c r="AU77" s="17">
+        <v>2.9363441057789301</v>
+      </c>
+      <c r="AW77" s="2">
+        <v>75</v>
+      </c>
+      <c r="AX77" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY77" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ77" s="5">
+        <v>-10.2119017427017</v>
+      </c>
+      <c r="BA77" s="5">
+        <v>2801.92833858416</v>
+      </c>
+      <c r="BB77" s="5">
+        <v>2502.9471846920501</v>
+      </c>
+      <c r="BC77" s="17">
+        <v>0.47916380295111</v>
+      </c>
+    </row>
+    <row r="78" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO78" s="1">
+        <v>76</v>
+      </c>
+      <c r="AP78" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ78" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR78" s="3">
+        <v>-14.526612819323701</v>
+      </c>
+      <c r="AS78" s="3">
+        <v>3437.8381186742099</v>
+      </c>
+      <c r="AT78" s="3">
+        <v>3114.5229928833701</v>
+      </c>
+      <c r="AU78" s="18">
+        <v>0.63627564270112102</v>
+      </c>
+      <c r="AW78" s="1">
+        <v>76</v>
+      </c>
+      <c r="AX78" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY78" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ78" s="3">
+        <v>-28.604121993786698</v>
+      </c>
+      <c r="BA78" s="3">
+        <v>5701.8308350734196</v>
+      </c>
+      <c r="BB78" s="3">
+        <v>4729.47463574016</v>
+      </c>
+      <c r="BC78" s="18">
+        <v>0.548195812876485</v>
+      </c>
+    </row>
+    <row r="79" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO79" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ79" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR79" s="5">
+        <v>-153.792866609154</v>
+      </c>
+      <c r="AS79" s="5">
+        <v>3849.7487732396398</v>
+      </c>
+      <c r="AT79" s="5">
+        <v>3196.7039806010998</v>
+      </c>
+      <c r="AU79" s="17">
+        <v>1.1854184568094599</v>
+      </c>
+      <c r="AW79" s="2">
+        <v>77</v>
+      </c>
+      <c r="AX79" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY79" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ79" s="5">
+        <v>-32.372367448231103</v>
+      </c>
+      <c r="BA79" s="5">
+        <v>3207.1595807113199</v>
+      </c>
+      <c r="BB79" s="5">
+        <v>2706.4182539682502</v>
+      </c>
+      <c r="BC79" s="17">
+        <v>0.49927232512284703</v>
+      </c>
+    </row>
+    <row r="80" spans="33:55" x14ac:dyDescent="0.25">
+      <c r="AO80" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ80" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR80" s="3">
+        <v>-232.87021564771899</v>
+      </c>
+      <c r="AS80" s="3">
+        <v>3979.1176656972302</v>
+      </c>
+      <c r="AT80" s="3">
+        <v>3328.0980925277699</v>
+      </c>
+      <c r="AU80" s="18">
+        <v>1.63618501995178</v>
+      </c>
+      <c r="AW80" s="1">
+        <v>78</v>
+      </c>
+      <c r="AX80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY80" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ80" s="3">
+        <v>-4.13971382103718</v>
+      </c>
+      <c r="BA80" s="3">
+        <v>19911.758699216502</v>
+      </c>
+      <c r="BB80" s="3">
+        <v>18074.347753276299</v>
+      </c>
+      <c r="BC80" s="18">
+        <v>0.79159136055747004</v>
+      </c>
+    </row>
+    <row r="81" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AO81" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP81" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ81" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR81" s="5">
+        <v>-14.119587010245899</v>
+      </c>
+      <c r="AS81" s="5">
+        <v>3397.5927782639801</v>
+      </c>
+      <c r="AT81" s="5">
+        <v>2322.9316540719601</v>
+      </c>
+      <c r="AU81" s="17">
+        <v>0.87992388917680597</v>
+      </c>
+      <c r="AW81" s="2">
+        <v>79</v>
+      </c>
+      <c r="AX81" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY81" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ81" s="5">
+        <v>-12708.860683140399</v>
+      </c>
+      <c r="BA81" s="5">
+        <v>3232.6970001883201</v>
+      </c>
+      <c r="BB81" s="5">
+        <v>3189.8807383357298</v>
+      </c>
+      <c r="BC81" s="17">
+        <v>48.603442719948397</v>
+      </c>
+    </row>
+    <row r="82" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AO82" s="1">
+        <v>80</v>
+      </c>
+      <c r="AP82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ82" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR82" s="3">
+        <v>-5.3420610293537996</v>
+      </c>
+      <c r="AS82" s="3">
+        <v>17488.7334927677</v>
+      </c>
+      <c r="AT82" s="3">
+        <v>16320.765866914</v>
+      </c>
+      <c r="AU82" s="18">
+        <v>0.79878587341015606</v>
+      </c>
+      <c r="AW82" s="1">
+        <v>80</v>
+      </c>
+      <c r="AX82" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY82" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ82" s="3">
+        <v>-1.7912685857791599</v>
+      </c>
+      <c r="BA82" s="3">
+        <v>8881.62971718667</v>
+      </c>
+      <c r="BB82" s="3">
+        <v>8085.4176790223601</v>
+      </c>
+      <c r="BC82" s="18">
+        <v>0.99777664689666501</v>
+      </c>
+    </row>
+    <row r="83" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AO83" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP83" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ83" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR83" s="5">
+        <v>-367.58006614918702</v>
+      </c>
+      <c r="AS83" s="5">
+        <v>5736.0189944697204</v>
+      </c>
+      <c r="AT83" s="5">
+        <v>4946.7148391218898</v>
+      </c>
+      <c r="AU83" s="17">
+        <v>3.5337441778890901</v>
+      </c>
+      <c r="AW83" s="2">
+        <v>81</v>
+      </c>
+      <c r="AX83" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY83" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ83" s="5">
+        <v>-18.239422926025899</v>
+      </c>
+      <c r="BA83" s="5">
+        <v>9354.2057289481909</v>
+      </c>
+      <c r="BB83" s="5">
+        <v>7948.4879788960998</v>
+      </c>
+      <c r="BC83" s="17">
+        <v>0.60350666969686995</v>
+      </c>
+    </row>
+    <row r="84" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AO84" s="1">
+        <v>82</v>
+      </c>
+      <c r="AP84" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ84" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR84" s="3">
+        <v>-23198.307643696</v>
+      </c>
+      <c r="AS84" s="3">
+        <v>3489.9335972107501</v>
+      </c>
+      <c r="AT84" s="3">
+        <v>3488.3698763110001</v>
+      </c>
+      <c r="AU84" s="18">
+        <v>50.860356380483502</v>
+      </c>
+      <c r="AW84" s="1">
+        <v>82</v>
+      </c>
+      <c r="AX84" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY84" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ84" s="3">
+        <v>-3.0386159344389698</v>
+      </c>
+      <c r="BA84" s="3">
+        <v>90050.091555896404</v>
+      </c>
+      <c r="BB84" s="3">
+        <v>79378.962344877305</v>
+      </c>
+      <c r="BC84" s="18">
+        <v>0.89390666486117998</v>
+      </c>
+    </row>
+    <row r="85" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AO85" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP85" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ85" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR85" s="5">
+        <v>-18.739846523969401</v>
+      </c>
+      <c r="AS85" s="5">
+        <v>2686.135192537</v>
+      </c>
+      <c r="AT85" s="5">
+        <v>2293.9100526709099</v>
+      </c>
+      <c r="AU85" s="17">
+        <v>0.46987888692466101</v>
+      </c>
+      <c r="AW85" s="2">
+        <v>83</v>
+      </c>
+      <c r="AX85" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY85" s="22">
+        <v>3</v>
+      </c>
+      <c r="AZ85" s="5">
+        <v>-190.901089415516</v>
+      </c>
+      <c r="BA85" s="5">
+        <v>3361.0976268965501</v>
+      </c>
+      <c r="BB85" s="5">
+        <v>2603.4937689393901</v>
+      </c>
+      <c r="BC85" s="17">
+        <v>1.5347092516842</v>
+      </c>
+    </row>
+    <row r="86" spans="41:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO86" s="26">
+        <v>84</v>
+      </c>
+      <c r="AP86" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ86" s="28">
+        <v>3</v>
+      </c>
+      <c r="AR86" s="11">
+        <v>0.58172806937523802</v>
+      </c>
+      <c r="AS86" s="29">
+        <v>2313.82089867988</v>
+      </c>
+      <c r="AT86" s="29">
+        <v>1397.7415999232601</v>
+      </c>
+      <c r="AU86" s="30">
+        <v>0.287843822465701</v>
+      </c>
+      <c r="AW86" s="1">
+        <v>84</v>
+      </c>
+      <c r="AX86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY86" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ86" s="3">
+        <v>-17.507018041664399</v>
+      </c>
+      <c r="BA86" s="3">
+        <v>4638.6110430099598</v>
+      </c>
+      <c r="BB86" s="3">
+        <v>4367.5546615826097</v>
+      </c>
+      <c r="BC86" s="18">
+        <v>1.98009117863321</v>
+      </c>
+    </row>
+    <row r="87" spans="41:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AW87" s="2">
+        <v>85</v>
+      </c>
+      <c r="AX87" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY87" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ87" s="5">
+        <v>0.181894482016595</v>
+      </c>
+      <c r="BA87" s="5">
+        <v>655.56230723831095</v>
+      </c>
+      <c r="BB87" s="5">
+        <v>582.18689901081098</v>
+      </c>
+      <c r="BC87" s="17">
+        <v>7.5856839396158296E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW88" s="1">
+        <v>86</v>
+      </c>
+      <c r="AX88" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY88" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ88" s="3">
+        <v>-1.06463527084608</v>
+      </c>
+      <c r="BA88" s="3">
+        <v>3034.1683709335598</v>
+      </c>
+      <c r="BB88" s="3">
+        <v>2428.3914395451302</v>
+      </c>
+      <c r="BC88" s="18">
+        <v>0.22344547375122401</v>
+      </c>
+    </row>
+    <row r="89" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW89" s="2">
+        <v>87</v>
+      </c>
+      <c r="AX89" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY89" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ89" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA89" s="5">
+        <v>4780.1270478611004</v>
+      </c>
+      <c r="BB89" s="5">
+        <v>4759.84829181444</v>
+      </c>
+      <c r="BC89" s="17">
+        <v>1.6107777637273899</v>
+      </c>
+    </row>
+    <row r="90" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW90" s="1">
+        <v>88</v>
+      </c>
+      <c r="AX90" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY90" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ90" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA90" s="3">
+        <v>2877.0588823053599</v>
+      </c>
+      <c r="BB90" s="3">
+        <v>2846.9401925389802</v>
+      </c>
+      <c r="BC90" s="18">
+        <v>0.27194003176415898</v>
+      </c>
+    </row>
+    <row r="91" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW91" s="2">
+        <v>89</v>
+      </c>
+      <c r="AX91" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY91" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ91" s="5">
+        <v>-0.45463248273249102</v>
+      </c>
+      <c r="BA91" s="5">
+        <v>2811.4247727882798</v>
+      </c>
+      <c r="BB91" s="5">
+        <v>2300.6566252588</v>
+      </c>
+      <c r="BC91" s="17">
+        <v>0.26003245509665901</v>
+      </c>
+    </row>
+    <row r="92" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW92" s="1">
+        <v>90</v>
+      </c>
+      <c r="AX92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY92" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ92" s="3">
+        <v>-3.0047606592947602</v>
+      </c>
+      <c r="BA92" s="3">
+        <v>3085.82891458526</v>
+      </c>
+      <c r="BB92" s="3">
+        <v>2618.4512692817002</v>
+      </c>
+      <c r="BC92" s="18">
+        <v>0.70185807048635596</v>
+      </c>
+    </row>
+    <row r="93" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW93" s="2">
+        <v>91</v>
+      </c>
+      <c r="AX93" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY93" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ93" s="5">
+        <v>-4.70107845504414</v>
+      </c>
+      <c r="BA93" s="5">
+        <v>10223.406863242401</v>
+      </c>
+      <c r="BB93" s="5">
+        <v>9312.7040891046308</v>
+      </c>
+      <c r="BC93" s="17">
+        <v>0.52289301078624295</v>
+      </c>
+    </row>
+    <row r="94" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW94" s="1">
+        <v>92</v>
+      </c>
+      <c r="AX94" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY94" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ94" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA94" s="3">
+        <v>5523.9505518223696</v>
+      </c>
+      <c r="BB94" s="3">
+        <v>5238.6705521515296</v>
+      </c>
+      <c r="BC94" s="18">
+        <v>2.8014281027548198</v>
+      </c>
+    </row>
+    <row r="95" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW95" s="2">
+        <v>93</v>
+      </c>
+      <c r="AX95" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY95" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ95" s="5">
+        <v>-0.430716260142814</v>
+      </c>
+      <c r="BA95" s="5">
+        <v>2045.4039037013599</v>
+      </c>
+      <c r="BB95" s="5">
+        <v>1616.94531368102</v>
+      </c>
+      <c r="BC95" s="17">
+        <v>0.31392590810373699</v>
+      </c>
+    </row>
+    <row r="96" spans="41:55" x14ac:dyDescent="0.25">
+      <c r="AW96" s="1">
+        <v>94</v>
+      </c>
+      <c r="AX96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY96" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ96" s="3">
+        <v>-2.7522519677517701</v>
+      </c>
+      <c r="BA96" s="3">
+        <v>2099.4889306436098</v>
+      </c>
+      <c r="BB96" s="3">
+        <v>1605.64440216614</v>
+      </c>
+      <c r="BC96" s="18">
+        <v>0.270938455993741</v>
+      </c>
+    </row>
+    <row r="97" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW97" s="2">
+        <v>95</v>
+      </c>
+      <c r="AX97" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY97" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ97" s="5">
+        <v>-2.2628273230598599</v>
+      </c>
+      <c r="BA97" s="5">
+        <v>10520.9019417409</v>
+      </c>
+      <c r="BB97" s="5">
+        <v>9900.8865065764494</v>
+      </c>
+      <c r="BC97" s="17">
+        <v>0.67235534089330495</v>
+      </c>
+    </row>
+    <row r="98" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW98" s="1">
+        <v>96</v>
+      </c>
+      <c r="AX98" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY98" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ98" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA98" s="3">
+        <v>1992.49256316063</v>
+      </c>
+      <c r="BB98" s="3">
+        <v>1979.14654032914</v>
+      </c>
+      <c r="BC98" s="18">
+        <v>0.35310375384998199</v>
+      </c>
+    </row>
+    <row r="99" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW99" s="2">
+        <v>97</v>
+      </c>
+      <c r="AX99" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY99" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ99" s="5">
+        <v>-0.18872898178842601</v>
+      </c>
+      <c r="BA99" s="5">
+        <v>5381.2223930336404</v>
+      </c>
+      <c r="BB99" s="5">
+        <v>4308.2394788755</v>
+      </c>
+      <c r="BC99" s="17">
+        <v>0.35263777421767201</v>
+      </c>
+    </row>
+    <row r="100" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW100" s="1">
+        <v>98</v>
+      </c>
+      <c r="AX100" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY100" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ100" s="3">
+        <v>-6.4412913383889201</v>
+      </c>
+      <c r="BA100" s="3">
+        <v>2441.16367348107</v>
+      </c>
+      <c r="BB100" s="3">
+        <v>2211.8209084861201</v>
+      </c>
+      <c r="BC100" s="18">
+        <v>0.22378769315830799</v>
+      </c>
+    </row>
+    <row r="101" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW101" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX101" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY101" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ101" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA101" s="5">
+        <v>483.78635776670802</v>
+      </c>
+      <c r="BB101" s="5">
+        <v>374.23577285359897</v>
+      </c>
+      <c r="BC101" s="17">
+        <v>5.1977190674110899E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW102" s="1">
+        <v>100</v>
+      </c>
+      <c r="AX102" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY102" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ102" s="3">
+        <v>-5.5599590338739597</v>
+      </c>
+      <c r="BA102" s="3">
+        <v>3639.08193087666</v>
+      </c>
+      <c r="BB102" s="3">
+        <v>3368.38430682235</v>
+      </c>
+      <c r="BC102" s="18">
+        <v>0.29473689266654801</v>
+      </c>
+    </row>
+    <row r="103" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW103" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX103" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY103" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ103" s="5">
+        <v>-9.9162080610955901</v>
+      </c>
+      <c r="BA103" s="5">
+        <v>116585.842242402</v>
+      </c>
+      <c r="BB103" s="5">
+        <v>111147.20277428</v>
+      </c>
+      <c r="BC103" s="17">
+        <v>0.93347767726157804</v>
+      </c>
+    </row>
+    <row r="104" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW104" s="1">
+        <v>102</v>
+      </c>
+      <c r="AX104" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY104" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ104" s="3">
+        <v>-80.907670917225701</v>
+      </c>
+      <c r="BA104" s="3">
+        <v>16451.6171782253</v>
+      </c>
+      <c r="BB104" s="3">
+        <v>16324.159158692801</v>
+      </c>
+      <c r="BC104" s="18">
+        <v>0.67400608050091504</v>
+      </c>
+    </row>
+    <row r="105" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW105" s="2">
+        <v>103</v>
+      </c>
+      <c r="AX105" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY105" s="22">
+        <v>2</v>
+      </c>
+      <c r="AZ105" s="5">
+        <v>-3.15077518583437</v>
+      </c>
+      <c r="BA105" s="5">
+        <v>4027.2495528746699</v>
+      </c>
+      <c r="BB105" s="5">
+        <v>3398.8317132867801</v>
+      </c>
+      <c r="BC105" s="17">
+        <v>1.32964488113594</v>
+      </c>
+    </row>
+    <row r="106" spans="49:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW106" s="26">
+        <v>104</v>
+      </c>
+      <c r="AX106" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY106" s="28">
+        <v>2</v>
+      </c>
+      <c r="AZ106" s="11">
+        <v>-0.46560640289066302</v>
+      </c>
+      <c r="BA106" s="29">
+        <v>2720.8736653217602</v>
+      </c>
+      <c r="BB106" s="29">
+        <v>2200.17405977405</v>
+      </c>
+      <c r="BC106" s="30">
+        <v>0.56267118807628203</v>
+      </c>
+    </row>
+    <row r="107" spans="49:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AG1:AG2"/>
@@ -7207,8 +11314,230 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="AY1:BC1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
   </mergeCells>
   <conditionalFormatting sqref="W3:W23">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O23">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G24">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24:W43">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE22">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB23">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T44">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L23">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D23">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM3:AM22">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3:AJ22">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM23:AM64">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23:AJ64">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM65">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -7220,19 +11549,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O23">
+  <conditionalFormatting sqref="AJ65">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <color theme="9"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G24">
+  <conditionalFormatting sqref="AU3:AU22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -7244,19 +11573,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24:W43">
+  <conditionalFormatting sqref="AR3:AR22">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <color theme="9"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W44">
+  <conditionalFormatting sqref="AU23:AU64">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -7268,31 +11597,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="AR23:AR64">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <color theme="9"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE22">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <color theme="9"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
+  <conditionalFormatting sqref="AU65:AU85">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -7304,7 +11621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB23">
+  <conditionalFormatting sqref="AR65:AR85">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7316,19 +11633,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T44">
+  <conditionalFormatting sqref="AU86">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.6"/>
-        <cfvo type="num" val="1"/>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L23">
+  <conditionalFormatting sqref="AR86">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7340,19 +11657,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D23">
+  <conditionalFormatting sqref="BC3:BC22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.6"/>
-        <cfvo type="num" val="1"/>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
+  <conditionalFormatting sqref="AZ3:AZ22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7364,8 +11681,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="BC23:BC64">
     <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.2"/>
+        <cfvo type="num" val="0.5"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ23:AZ64">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.6"/>
@@ -7376,8 +11705,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM3:AM22">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="BC65:BC84">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.2"/>
@@ -7388,7 +11717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AJ22">
+  <conditionalFormatting sqref="AZ65:AZ84">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7400,7 +11729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM23:AM64">
+  <conditionalFormatting sqref="BC85:BC105">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7412,7 +11741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ23:AJ64">
+  <conditionalFormatting sqref="AZ85:AZ105">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7424,7 +11753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM65">
+  <conditionalFormatting sqref="BC106">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7436,7 +11765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ65">
+  <conditionalFormatting sqref="AZ106">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7461,69 +11790,69 @@
       <selection sqref="A1:AK23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34" t="s">
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="34" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="34" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="34" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="35"/>
-    </row>
-    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="36"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="46"/>
+    </row>
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
@@ -7630,7 +11959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7683,7 +12012,7 @@
       </c>
       <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7736,7 +12065,7 @@
       </c>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -7789,7 +12118,7 @@
       </c>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7842,7 +12171,7 @@
       </c>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -7895,7 +12224,7 @@
       </c>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7948,7 +12277,7 @@
       </c>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8001,7 +12330,7 @@
       </c>
       <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8054,7 +12383,7 @@
       </c>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -8107,7 +12436,7 @@
       </c>
       <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8160,7 +12489,7 @@
       </c>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -8213,7 +12542,7 @@
       </c>
       <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8266,7 +12595,7 @@
       </c>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -8319,7 +12648,7 @@
       </c>
       <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8372,7 +12701,7 @@
       </c>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -8425,7 +12754,7 @@
       </c>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8478,7 +12807,7 @@
       </c>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -8531,7 +12860,7 @@
       </c>
       <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8584,7 +12913,7 @@
       </c>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -8637,7 +12966,7 @@
       </c>
       <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8690,7 +13019,7 @@
       </c>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -8743,7 +13072,7 @@
       </c>
       <c r="AK23" s="16"/>
     </row>
-    <row r="24" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AE1:AK1"/>
@@ -8766,69 +13095,69 @@
       <selection sqref="A1:AK23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34" t="s">
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="34" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="34" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="34" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="35"/>
-    </row>
-    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="36"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="46"/>
+    </row>
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
@@ -8935,7 +13264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8988,7 +13317,7 @@
       </c>
       <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9041,7 +13370,7 @@
       </c>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -9094,7 +13423,7 @@
       </c>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9147,7 +13476,7 @@
       </c>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -9200,7 +13529,7 @@
       </c>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9253,7 +13582,7 @@
       </c>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -9306,7 +13635,7 @@
       </c>
       <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9359,7 +13688,7 @@
       </c>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -9412,7 +13741,7 @@
       </c>
       <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9465,7 +13794,7 @@
       </c>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -9518,7 +13847,7 @@
       </c>
       <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9571,7 +13900,7 @@
       </c>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -9624,7 +13953,7 @@
       </c>
       <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9677,7 +14006,7 @@
       </c>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -9730,7 +14059,7 @@
       </c>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9783,7 +14112,7 @@
       </c>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -9836,7 +14165,7 @@
       </c>
       <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9889,7 +14218,7 @@
       </c>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -9942,7 +14271,7 @@
       </c>
       <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9995,7 +14324,7 @@
       </c>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -10048,7 +14377,7 @@
       </c>
       <c r="AK23" s="16"/>
     </row>
-    <row r="24" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
